--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4105112</v>
+        <v>4126548</v>
       </c>
       <c r="F2" t="n">
-        <v>601.1772294497326</v>
+        <v>495.8738550824842</v>
       </c>
       <c r="G2" t="n">
-        <v>493.295670136007</v>
+        <v>573.4680528246291</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="I2" t="n">
-        <v>63628</v>
+        <v>70296</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1360574</v>
+        <v>1360786</v>
       </c>
       <c r="E3" t="n">
-        <v>4397932</v>
+        <v>4398619</v>
       </c>
       <c r="F3" t="n">
-        <v>4041.196117222362</v>
+        <v>5356.684039275821</v>
       </c>
       <c r="G3" t="n">
-        <v>3471.33283586836</v>
+        <v>3496.480577525755</v>
       </c>
       <c r="H3" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>62461</v>
+        <v>75686</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244809306</v>
+        <v>243754382</v>
       </c>
       <c r="E4" t="n">
-        <v>1535164750</v>
+        <v>1528549467</v>
       </c>
       <c r="F4" t="n">
-        <v>243410.042050692</v>
+        <v>243969.0482768657</v>
       </c>
       <c r="G4" t="n">
-        <v>244890.0042118502</v>
+        <v>264523.1611965963</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>15319013</v>
+        <v>15619801</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140458558</v>
+        <v>140753605</v>
       </c>
       <c r="E5" t="n">
-        <v>155650517</v>
+        <v>155977476</v>
       </c>
       <c r="F5" t="n">
-        <v>89541.66261033322</v>
+        <v>83094.11254911484</v>
       </c>
       <c r="G5" t="n">
-        <v>103576.975755084</v>
+        <v>102345.8587728594</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>31038500</v>
+        <v>31758105</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>127266445</v>
+        <v>126335344</v>
       </c>
       <c r="E6" t="n">
-        <v>498846357</v>
+        <v>495196719</v>
       </c>
       <c r="F6" t="n">
-        <v>44994.27899591969</v>
+        <v>38202.88875794612</v>
       </c>
       <c r="G6" t="n">
-        <v>46465.20975114141</v>
+        <v>39856.28886886303</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>25588993</v>
+        <v>26438025</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4691540</v>
+        <v>4683938</v>
       </c>
       <c r="E7" t="n">
-        <v>28817601</v>
+        <v>28770904</v>
       </c>
       <c r="F7" t="n">
-        <v>2608.085494215283</v>
+        <v>1636.859596525643</v>
       </c>
       <c r="G7" t="n">
-        <v>2299.061372029872</v>
+        <v>1628.231870186093</v>
       </c>
       <c r="H7" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="I7" t="n">
-        <v>484033</v>
+        <v>491661</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198724</v>
+        <v>198332</v>
       </c>
       <c r="E8" t="n">
-        <v>2186180</v>
+        <v>2181866</v>
       </c>
       <c r="F8" t="n">
-        <v>3512.216553184136</v>
+        <v>3782.693174615895</v>
       </c>
       <c r="G8" t="n">
-        <v>3707.475668597848</v>
+        <v>4437.331942142189</v>
       </c>
       <c r="H8" t="n">
-        <v>0.23</v>
+        <v>0.96</v>
       </c>
       <c r="I8" t="n">
-        <v>48007</v>
+        <v>47983</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72435205</v>
+        <v>71823451</v>
       </c>
       <c r="E9" t="n">
-        <v>125497289</v>
+        <v>124432933</v>
       </c>
       <c r="F9" t="n">
-        <v>9348.430333423777</v>
+        <v>4225.564220772825</v>
       </c>
       <c r="G9" t="n">
-        <v>12996.56411530597</v>
+        <v>12405.06793304932</v>
       </c>
       <c r="H9" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>707003</v>
+        <v>690819</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8728407</v>
+        <v>8696381</v>
       </c>
       <c r="E10" t="n">
-        <v>12354411</v>
+        <v>12309081</v>
       </c>
       <c r="F10" t="n">
-        <v>4079.055386209935</v>
+        <v>3288.900983391905</v>
       </c>
       <c r="G10" t="n">
-        <v>4225.799688771919</v>
+        <v>4199.662953468267</v>
       </c>
       <c r="H10" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="I10" t="n">
-        <v>31791</v>
+        <v>32169</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>469059984</v>
+        <v>466473491</v>
       </c>
       <c r="E11" t="n">
-        <v>469059987</v>
+        <v>466473491</v>
       </c>
       <c r="F11" t="n">
-        <v>59184.59521252856</v>
+        <v>61417.37229762816</v>
       </c>
       <c r="G11" t="n">
-        <v>79465.01033535188</v>
+        <v>90568.65493738832</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>47070713</v>
+        <v>54254551</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>306416</v>
+        <v>304507</v>
       </c>
       <c r="E12" t="n">
-        <v>1430379</v>
+        <v>1421469</v>
       </c>
       <c r="F12" t="n">
-        <v>2014.616812485891</v>
+        <v>1621.78092576631</v>
       </c>
       <c r="G12" t="n">
-        <v>1929.060284790681</v>
+        <v>31.67278849298474</v>
       </c>
       <c r="H12" t="n">
-        <v>0.27</v>
+        <v>1.33</v>
       </c>
       <c r="I12" t="n">
-        <v>609360</v>
+        <v>598327</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1548298</v>
+        <v>1545516</v>
       </c>
       <c r="F13" t="n">
-        <v>4947.435714008969</v>
+        <v>5799.446992007386</v>
       </c>
       <c r="G13" t="n">
-        <v>973.6809334913232</v>
+        <v>1921.706941422615</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13</v>
+        <v>0.59</v>
       </c>
       <c r="I13" t="n">
-        <v>172780</v>
+        <v>158139</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12235890</v>
+        <v>12497993</v>
       </c>
       <c r="E14" t="n">
-        <v>33029361</v>
+        <v>32853638</v>
       </c>
       <c r="F14" t="n">
-        <v>1560.314372051396</v>
+        <v>1393.698231424036</v>
       </c>
       <c r="G14" t="n">
-        <v>1808.733573956597</v>
+        <v>1666.423494451965</v>
       </c>
       <c r="H14" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1801459</v>
+        <v>1654849</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>108015316</v>
+        <v>107263362</v>
       </c>
       <c r="E15" t="n">
-        <v>420683550</v>
+        <v>417711945</v>
       </c>
       <c r="F15" t="n">
-        <v>33695.90916935204</v>
+        <v>29669.03238292025</v>
       </c>
       <c r="G15" t="n">
-        <v>110795.0910816963</v>
+        <v>106437.2508562218</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I15" t="n">
-        <v>6572411</v>
+        <v>6223369</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5250172</v>
+        <v>5243625</v>
       </c>
       <c r="E16" t="n">
-        <v>7728538</v>
+        <v>7718901</v>
       </c>
       <c r="F16" t="n">
-        <v>3858.121332542783</v>
+        <v>1775.231584879028</v>
       </c>
       <c r="G16" t="n">
-        <v>4296.954991020242</v>
+        <v>1384.942308027232</v>
       </c>
       <c r="H16" t="n">
-        <v>0.51</v>
+        <v>0.77</v>
       </c>
       <c r="I16" t="n">
-        <v>556692</v>
+        <v>542494</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2020260</v>
+        <v>2019349</v>
       </c>
       <c r="F17" t="n">
-        <v>1680.38184668221</v>
+        <v>458.2903576886797</v>
       </c>
       <c r="G17" t="n">
-        <v>1190.59201161181</v>
+        <v>189.3894563506763</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6</v>
+        <v>1.17</v>
       </c>
       <c r="I17" t="n">
-        <v>263081</v>
+        <v>222530</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>135593348</v>
+        <v>134542892</v>
       </c>
       <c r="E18" t="n">
-        <v>135593348</v>
+        <v>134542892</v>
       </c>
       <c r="F18" t="n">
-        <v>116404.292187017</v>
+        <v>96197.25419629422</v>
       </c>
       <c r="G18" t="n">
-        <v>173168.3621648617</v>
+        <v>176210.5088314111</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>65810059</v>
+        <v>66562004</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65969462</v>
+        <v>64425180</v>
       </c>
       <c r="E19" t="n">
-        <v>338304932</v>
+        <v>330385537</v>
       </c>
       <c r="F19" t="n">
-        <v>16635.44340693587</v>
+        <v>11860.06968084773</v>
       </c>
       <c r="G19" t="n">
-        <v>17750.65242391806</v>
+        <v>21723.66419811918</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>15950146</v>
+        <v>16791728</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>253473698</v>
+        <v>251194359</v>
       </c>
       <c r="E20" t="n">
-        <v>253473698</v>
+        <v>251194359</v>
       </c>
       <c r="F20" t="n">
-        <v>68013.02533080349</v>
+        <v>48822.88951856134</v>
       </c>
       <c r="G20" t="n">
-        <v>76626.71307801381</v>
+        <v>100813.9295010481</v>
       </c>
       <c r="H20" t="n">
         <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>14097267</v>
+        <v>14345894</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>154851493</v>
+        <v>153964021</v>
       </c>
       <c r="E21" t="n">
-        <v>203766455</v>
+        <v>202598645</v>
       </c>
       <c r="F21" t="n">
-        <v>31104.88528059315</v>
+        <v>31452.60314626968</v>
       </c>
       <c r="G21" t="n">
-        <v>41653.7008215853</v>
+        <v>43459.49524210504</v>
       </c>
       <c r="H21" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I21" t="n">
-        <v>6403771</v>
+        <v>7157215</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75839567</v>
+        <v>75649656</v>
       </c>
       <c r="E22" t="n">
-        <v>212267655</v>
+        <v>211698025</v>
       </c>
       <c r="F22" t="n">
-        <v>24123.96546200273</v>
+        <v>25994.39452336781</v>
       </c>
       <c r="G22" t="n">
-        <v>42241.74084711456</v>
+        <v>38406.75581951126</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>25706989</v>
+        <v>29300006</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72309422</v>
+        <v>71900741</v>
       </c>
       <c r="E23" t="n">
-        <v>150801866</v>
+        <v>149949558</v>
       </c>
       <c r="F23" t="n">
-        <v>13103.34868313468</v>
+        <v>15743.037037074</v>
       </c>
       <c r="G23" t="n">
-        <v>40919.4276191969</v>
+        <v>42913.2508106347</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>13813932</v>
+        <v>14056762</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>626238881</v>
+        <v>617966824</v>
       </c>
       <c r="E24" t="n">
-        <v>626238881</v>
+        <v>617966824</v>
       </c>
       <c r="F24" t="n">
-        <v>224766.328061311</v>
+        <v>188924.9330569924</v>
       </c>
       <c r="G24" t="n">
-        <v>247270.556963887</v>
+        <v>249422.3895600616</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>230567026</v>
+        <v>244100167</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>198884846</v>
+        <v>196114298</v>
       </c>
       <c r="E25" t="n">
-        <v>690943931</v>
+        <v>681318796</v>
       </c>
       <c r="F25" t="n">
-        <v>83630.1514060435</v>
+        <v>87334.16864371089</v>
       </c>
       <c r="G25" t="n">
-        <v>353976.1458233583</v>
+        <v>353114.8033600645</v>
       </c>
       <c r="H25" t="n">
         <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>25743020</v>
+        <v>26057526</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5963191</v>
+        <v>5889184</v>
       </c>
       <c r="E26" t="n">
-        <v>8104358</v>
+        <v>8003544</v>
       </c>
       <c r="F26" t="n">
-        <v>2494.65455135635</v>
+        <v>2520.898498958803</v>
       </c>
       <c r="G26" t="n">
-        <v>661.37244063616</v>
+        <v>612.131642468962</v>
       </c>
       <c r="H26" t="n">
-        <v>0.34</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>6438955</v>
+        <v>6446026</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14420008</v>
+        <v>14420727</v>
       </c>
       <c r="F27" t="n">
-        <v>1753.026298896619</v>
+        <v>2268.329670192</v>
       </c>
       <c r="G27" t="n">
-        <v>3756.045433482019</v>
+        <v>3272.190181387689</v>
       </c>
       <c r="H27" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="I27" t="n">
-        <v>327402</v>
+        <v>496939</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25274910</v>
+        <v>25185604</v>
       </c>
       <c r="E28" t="n">
-        <v>35725098</v>
+        <v>35598867</v>
       </c>
       <c r="F28" t="n">
-        <v>492.0564767958921</v>
+        <v>238.7848670977197</v>
       </c>
       <c r="G28" t="n">
-        <v>201.893103970851</v>
+        <v>10311.26110454555</v>
       </c>
       <c r="H28" t="n">
-        <v>0.34</v>
+        <v>0.83</v>
       </c>
       <c r="I28" t="n">
-        <v>80131</v>
+        <v>84804</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>273025964</v>
+        <v>268120972</v>
       </c>
       <c r="E29" t="n">
-        <v>1178531630</v>
+        <v>1157358961</v>
       </c>
       <c r="F29" t="n">
-        <v>368653.5214270475</v>
+        <v>389605.7265729646</v>
       </c>
       <c r="G29" t="n">
-        <v>354299.6949385213</v>
+        <v>352084.1024880848</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>110567346</v>
+        <v>110845369</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11750067</v>
+        <v>10908210</v>
       </c>
       <c r="E30" t="n">
-        <v>128941309</v>
+        <v>131745335</v>
       </c>
       <c r="F30" t="n">
-        <v>2553.816706846945</v>
+        <v>3360.673631706195</v>
       </c>
       <c r="G30" t="n">
-        <v>3030.102933743803</v>
+        <v>3391.829188781474</v>
       </c>
       <c r="H30" t="n">
-        <v>0.54</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>176377</v>
+        <v>241316</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21600493</v>
+        <v>21550370</v>
       </c>
       <c r="E31" t="n">
-        <v>54001232</v>
+        <v>53875924</v>
       </c>
       <c r="F31" t="n">
-        <v>11918.49930692834</v>
+        <v>10786.05226639477</v>
       </c>
       <c r="G31" t="n">
-        <v>11084.53412975332</v>
+        <v>14183.88386485095</v>
       </c>
       <c r="H31" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="I31" t="n">
-        <v>2069024</v>
+        <v>2191346</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20376397</v>
+        <v>20257290</v>
       </c>
       <c r="F32" t="n">
-        <v>2696.03567977577</v>
+        <v>2690.819050269038</v>
       </c>
       <c r="G32" t="n">
-        <v>2320.55441744139</v>
+        <v>2517.639892366461</v>
       </c>
       <c r="H32" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I32" t="n">
-        <v>116755</v>
+        <v>126009</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1350230</v>
+        <v>1383348</v>
       </c>
       <c r="E33" t="n">
-        <v>5034224</v>
+        <v>5157641</v>
       </c>
       <c r="F33" t="n">
-        <v>2980.433881773331</v>
+        <v>1935.764270161995</v>
       </c>
       <c r="G33" t="n">
-        <v>2275.674821110464</v>
+        <v>2826.889738726648</v>
       </c>
       <c r="H33" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I33" t="n">
-        <v>554716</v>
+        <v>618691</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3508252</v>
+        <v>3493748</v>
       </c>
       <c r="E34" t="n">
-        <v>10105199</v>
+        <v>10063423</v>
       </c>
       <c r="F34" t="n">
-        <v>4589.187972203466</v>
+        <v>3328.435129508713</v>
       </c>
       <c r="G34" t="n">
-        <v>2516.548955272085</v>
+        <v>3963.017876337995</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="I34" t="n">
-        <v>405064</v>
+        <v>357605</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14198951</v>
+        <v>14060412</v>
       </c>
       <c r="E35" t="n">
-        <v>68767785</v>
+        <v>68096821</v>
       </c>
       <c r="F35" t="n">
-        <v>11175.49853145994</v>
+        <v>9164.274117412624</v>
       </c>
       <c r="G35" t="n">
-        <v>10370.78277530194</v>
+        <v>11543.14584407101</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I35" t="n">
-        <v>3546623</v>
+        <v>3549454</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1464106</v>
+        <v>1475766</v>
       </c>
       <c r="E36" t="n">
-        <v>9582538</v>
+        <v>9658849</v>
       </c>
       <c r="F36" t="n">
-        <v>3497.392106838276</v>
+        <v>3352.91743184489</v>
       </c>
       <c r="G36" t="n">
-        <v>264.4472970049127</v>
+        <v>1856.867129604662</v>
       </c>
       <c r="H36" t="n">
-        <v>1.33</v>
+        <v>0.72</v>
       </c>
       <c r="I36" t="n">
-        <v>662172</v>
+        <v>627895</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1855617533</v>
+        <v>1864442747</v>
       </c>
       <c r="F37" t="n">
-        <v>69237.07388716072</v>
+        <v>77637.46351444018</v>
       </c>
       <c r="G37" t="n">
-        <v>66033.66585182871</v>
+        <v>72407.07067501966</v>
       </c>
       <c r="H37" t="n">
-        <v>0.32</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>25005210</v>
+        <v>25599071</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1929265</v>
+        <v>1926512</v>
       </c>
       <c r="E38" t="n">
-        <v>13834569</v>
+        <v>13814828</v>
       </c>
       <c r="F38" t="n">
-        <v>5298.88700459047</v>
+        <v>5280.970551591439</v>
       </c>
       <c r="G38" t="n">
-        <v>5961.466074156039</v>
+        <v>5151.736421754382</v>
       </c>
       <c r="H38" t="n">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>1881308</v>
+        <v>1860788</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>199498839</v>
+        <v>195291880</v>
       </c>
       <c r="E39" t="n">
-        <v>1129685009</v>
+        <v>1105862619</v>
       </c>
       <c r="F39" t="n">
-        <v>139468.0827975927</v>
+        <v>132357.0738320522</v>
       </c>
       <c r="G39" t="n">
-        <v>159534.6990679504</v>
+        <v>158049.4747996517</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I39" t="n">
-        <v>57607401</v>
+        <v>59537922</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>137450422</v>
+        <v>137331411</v>
       </c>
       <c r="E40" t="n">
-        <v>1018151274</v>
+        <v>1017269713</v>
       </c>
       <c r="F40" t="n">
-        <v>146326.989918826</v>
+        <v>210135.0618989297</v>
       </c>
       <c r="G40" t="n">
-        <v>228400.4507621736</v>
+        <v>196813.2455279434</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>12831487</v>
+        <v>12482398</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>334172042</v>
+        <v>333844664</v>
       </c>
       <c r="E41" t="n">
-        <v>3006418906</v>
+        <v>3003473605</v>
       </c>
       <c r="F41" t="n">
-        <v>291073.0973109573</v>
+        <v>261474.9527803347</v>
       </c>
       <c r="G41" t="n">
-        <v>299010.9425417561</v>
+        <v>311034.7942490832</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>36776172</v>
+        <v>37563620</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1606079</v>
+        <v>1588906</v>
       </c>
       <c r="E42" t="n">
-        <v>13383993</v>
+        <v>13240881</v>
       </c>
       <c r="F42" t="n">
-        <v>2585.772847119855</v>
+        <v>4533.347843710671</v>
       </c>
       <c r="G42" t="n">
-        <v>3702.628461871644</v>
+        <v>4437.077838303809</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I42" t="n">
-        <v>46677</v>
+        <v>49065</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>25177239</v>
+        <v>25626304</v>
       </c>
       <c r="E43" t="n">
-        <v>75470950</v>
+        <v>76816629</v>
       </c>
       <c r="F43" t="n">
-        <v>63309.63693616662</v>
+        <v>46571.63497986484</v>
       </c>
       <c r="G43" t="n">
-        <v>58961.8539601924</v>
+        <v>49892.58489453736</v>
       </c>
       <c r="H43" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I43" t="n">
-        <v>2158697</v>
+        <v>2249655</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9658163</v>
+        <v>9619654</v>
       </c>
       <c r="F44" t="n">
-        <v>2030.991249191256</v>
+        <v>2133.747238832175</v>
       </c>
       <c r="G44" t="n">
-        <v>997.9551243964776</v>
+        <v>1372.453422864673</v>
       </c>
       <c r="H44" t="n">
-        <v>0.41</v>
+        <v>0.83</v>
       </c>
       <c r="I44" t="n">
-        <v>121249</v>
+        <v>121744</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12936916</v>
+        <v>12959960</v>
       </c>
       <c r="E45" t="n">
-        <v>12936916</v>
+        <v>12959960</v>
       </c>
       <c r="F45" t="n">
-        <v>95.08001414897552</v>
+        <v>1730.233982039858</v>
       </c>
       <c r="G45" t="n">
-        <v>474.7761234817098</v>
+        <v>828.5274275299985</v>
       </c>
       <c r="H45" t="n">
-        <v>1.62</v>
+        <v>0.39</v>
       </c>
       <c r="I45" t="n">
-        <v>3252991</v>
+        <v>2824511</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>294929906</v>
+        <v>294808951</v>
       </c>
       <c r="E46" t="n">
-        <v>294929906</v>
+        <v>294808951</v>
       </c>
       <c r="F46" t="n">
-        <v>30740.04804817486</v>
+        <v>22756.59135132661</v>
       </c>
       <c r="G46" t="n">
-        <v>53424.18933237664</v>
+        <v>43683.01663766724</v>
       </c>
       <c r="H46" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>12881239</v>
+        <v>12685958</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12733849</v>
+        <v>12703428</v>
       </c>
       <c r="E47" t="n">
-        <v>40286436</v>
+        <v>40190083</v>
       </c>
       <c r="F47" t="n">
-        <v>11963.07401566489</v>
+        <v>35163.54395373371</v>
       </c>
       <c r="G47" t="n">
-        <v>13030.5638673886</v>
+        <v>15760.01487854377</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I47" t="n">
-        <v>1527189</v>
+        <v>1597303</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31924203</v>
+        <v>31916806</v>
       </c>
       <c r="E48" t="n">
-        <v>88426874</v>
+        <v>88406386</v>
       </c>
       <c r="F48" t="n">
-        <v>6370.022470050367</v>
+        <v>5059.126972754489</v>
       </c>
       <c r="G48" t="n">
-        <v>9032.14037979334</v>
+        <v>7858.070342260949</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I48" t="n">
-        <v>11974483</v>
+        <v>11970611</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29214116</v>
+        <v>28087736</v>
       </c>
       <c r="E49" t="n">
-        <v>69405476</v>
+        <v>66729476</v>
       </c>
       <c r="F49" t="n">
-        <v>17584.72631439719</v>
+        <v>18429.83172532752</v>
       </c>
       <c r="G49" t="n">
-        <v>11110.63344203788</v>
+        <v>17254.1360518057</v>
       </c>
       <c r="H49" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I49" t="n">
-        <v>593043</v>
+        <v>642537</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12077359</v>
+        <v>11986142</v>
       </c>
       <c r="E50" t="n">
-        <v>18406691</v>
+        <v>18267671</v>
       </c>
       <c r="F50" t="n">
-        <v>4441.559116392489</v>
+        <v>5253.454351840085</v>
       </c>
       <c r="G50" t="n">
-        <v>21452.15845439725</v>
+        <v>21309.28613751438</v>
       </c>
       <c r="H50" t="n">
         <v>0.48</v>
       </c>
       <c r="I50" t="n">
-        <v>812453</v>
+        <v>660351</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>300156988</v>
+        <v>299245420</v>
       </c>
       <c r="E51" t="n">
-        <v>300156988</v>
+        <v>299245420</v>
       </c>
       <c r="F51" t="n">
-        <v>64894.98408881434</v>
+        <v>54173.71094026457</v>
       </c>
       <c r="G51" t="n">
-        <v>125132.9529506411</v>
+        <v>112913.4421668414</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>52897535</v>
+        <v>52475961</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>88022781</v>
+        <v>87628516</v>
       </c>
       <c r="E52" t="n">
-        <v>507225231</v>
+        <v>504953306</v>
       </c>
       <c r="F52" t="n">
-        <v>267391.7653440157</v>
+        <v>260919.4694489119</v>
       </c>
       <c r="G52" t="n">
-        <v>250567.7350305145</v>
+        <v>244135.2194129666</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I52" t="n">
-        <v>15522848</v>
+        <v>15793878</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30372815</v>
+        <v>30107135</v>
       </c>
       <c r="E53" t="n">
-        <v>135991552</v>
+        <v>134801995</v>
       </c>
       <c r="F53" t="n">
-        <v>36770.86356455833</v>
+        <v>43337.98426838681</v>
       </c>
       <c r="G53" t="n">
-        <v>53266.04138200988</v>
+        <v>44890.53622518339</v>
       </c>
       <c r="H53" t="n">
         <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>10098463</v>
+        <v>9950597</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9279873</v>
+        <v>9296566</v>
       </c>
       <c r="F54" t="n">
-        <v>2937.161449781494</v>
+        <v>2988.870918384516</v>
       </c>
       <c r="G54" t="n">
-        <v>8350.24896280553</v>
+        <v>8335.130208315679</v>
       </c>
       <c r="H54" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="I54" t="n">
-        <v>292709</v>
+        <v>291355</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4773300</v>
+        <v>4762793</v>
       </c>
       <c r="F55" t="n">
-        <v>2607.79384047158</v>
+        <v>4372.458180724298</v>
       </c>
       <c r="G55" t="n">
-        <v>1374.185823568965</v>
+        <v>846.3867750333233</v>
       </c>
       <c r="H55" t="n">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="I55" t="n">
-        <v>150390</v>
+        <v>154139</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125052284</v>
+        <v>125005363</v>
       </c>
       <c r="E56" t="n">
-        <v>2070968244</v>
+        <v>2070191190</v>
       </c>
       <c r="F56" t="n">
-        <v>195275.7572237367</v>
+        <v>197324.2354756099</v>
       </c>
       <c r="G56" t="n">
-        <v>181004.3781529097</v>
+        <v>185737.5095117518</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5464152</v>
+        <v>5177149</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>73805787</v>
+        <v>73350791</v>
       </c>
       <c r="E57" t="n">
-        <v>74600258</v>
+        <v>74140364</v>
       </c>
       <c r="F57" t="n">
-        <v>55690.30163843658</v>
+        <v>45726.36442653921</v>
       </c>
       <c r="G57" t="n">
-        <v>64324.49745487823</v>
+        <v>36149.43208772635</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I57" t="n">
-        <v>8442760</v>
+        <v>8615809</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>235511961</v>
+        <v>231174973</v>
       </c>
       <c r="E58" t="n">
-        <v>235511961</v>
+        <v>231174973</v>
       </c>
       <c r="F58" t="n">
-        <v>167823.7309344344</v>
+        <v>108328.8499433098</v>
       </c>
       <c r="G58" t="n">
-        <v>110873.7268657498</v>
+        <v>142490.0635254628</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>42121153</v>
+        <v>41951557</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23458909</v>
+        <v>23369213</v>
       </c>
       <c r="E59" t="n">
-        <v>140359369</v>
+        <v>139822700</v>
       </c>
       <c r="F59" t="n">
-        <v>69113.42956684648</v>
+        <v>47891.01243559085</v>
       </c>
       <c r="G59" t="n">
-        <v>75413.86567817334</v>
+        <v>53524.51836738628</v>
       </c>
       <c r="H59" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>14303832</v>
+        <v>13492491</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2420700</v>
+        <v>2418752</v>
       </c>
       <c r="E60" t="n">
-        <v>4467540</v>
+        <v>4463945</v>
       </c>
       <c r="F60" t="n">
-        <v>2443.934857639263</v>
+        <v>2477.919647939646</v>
       </c>
       <c r="G60" t="n">
-        <v>2478.903809632682</v>
+        <v>2465.154164961812</v>
       </c>
       <c r="H60" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>23466</v>
+        <v>23487</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9349076</v>
+        <v>9464376</v>
       </c>
       <c r="E62" t="n">
-        <v>27880655</v>
+        <v>28224501</v>
       </c>
       <c r="F62" t="n">
-        <v>2547.007420153015</v>
+        <v>5694.758517434516</v>
       </c>
       <c r="G62" t="n">
-        <v>5416.882475198637</v>
+        <v>6683.131954308045</v>
       </c>
       <c r="H62" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>3927709</v>
+        <v>4824158</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14621431</v>
+        <v>14493602</v>
       </c>
       <c r="E63" t="n">
-        <v>29600193</v>
+        <v>29341412</v>
       </c>
       <c r="F63" t="n">
-        <v>6660.035565255258</v>
+        <v>5549.522630899269</v>
       </c>
       <c r="G63" t="n">
-        <v>15780.20884512028</v>
+        <v>20288.77065262656</v>
       </c>
       <c r="H63" t="n">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="I63" t="n">
-        <v>534735</v>
+        <v>520562</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37922844</v>
+        <v>38034184</v>
       </c>
       <c r="E64" t="n">
-        <v>268866777</v>
+        <v>269656162</v>
       </c>
       <c r="F64" t="n">
-        <v>80297.20677073958</v>
+        <v>83269.66057646253</v>
       </c>
       <c r="G64" t="n">
-        <v>75498.10905422053</v>
+        <v>67078.01238975512</v>
       </c>
       <c r="H64" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1864327</v>
+        <v>1868815</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1263208</v>
+        <v>1263025</v>
       </c>
       <c r="E65" t="n">
-        <v>7833828</v>
+        <v>7832696</v>
       </c>
       <c r="F65" t="n">
-        <v>1655.697717546662</v>
+        <v>1773.808876111013</v>
       </c>
       <c r="G65" t="n">
-        <v>2375.893815851077</v>
+        <v>2369.097205192539</v>
       </c>
       <c r="H65" t="n">
         <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>908427</v>
+        <v>841512</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>596479550</v>
+        <v>594712736</v>
       </c>
       <c r="E66" t="n">
-        <v>2310077291</v>
+        <v>2303234683</v>
       </c>
       <c r="F66" t="n">
-        <v>552235.299296004</v>
+        <v>42420.74945022804</v>
       </c>
       <c r="G66" t="n">
-        <v>574398.0836227051</v>
+        <v>87002.05281398624</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>28708152</v>
+        <v>30295634</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5797276</v>
+        <v>5808669</v>
       </c>
       <c r="E67" t="n">
-        <v>25955151</v>
+        <v>26006156</v>
       </c>
       <c r="F67" t="n">
-        <v>4049.125442095336</v>
+        <v>4437.433461015432</v>
       </c>
       <c r="G67" t="n">
-        <v>6385.864688707153</v>
+        <v>4663.907603640897</v>
       </c>
       <c r="H67" t="n">
         <v>0.27</v>
       </c>
       <c r="I67" t="n">
-        <v>143167</v>
+        <v>144587</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>117020554</v>
+        <v>117090272</v>
       </c>
       <c r="E68" t="n">
-        <v>1017421796</v>
+        <v>1018027951</v>
       </c>
       <c r="F68" t="n">
-        <v>159017.39341034</v>
+        <v>160332.1476233233</v>
       </c>
       <c r="G68" t="n">
-        <v>156566.9463969716</v>
+        <v>157867.5454292562</v>
       </c>
       <c r="H68" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I68" t="n">
-        <v>9539377</v>
+        <v>9699070</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>104008913</v>
+        <v>102027589</v>
       </c>
       <c r="E69" t="n">
-        <v>158668035</v>
+        <v>155645479</v>
       </c>
       <c r="F69" t="n">
-        <v>58512.01598481103</v>
+        <v>59429.95934268906</v>
       </c>
       <c r="G69" t="n">
-        <v>83367.13266602276</v>
+        <v>82413.28219883029</v>
       </c>
       <c r="H69" t="n">
         <v>0.12</v>
       </c>
       <c r="I69" t="n">
-        <v>6515621</v>
+        <v>7136679</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1135436</v>
+        <v>1133508</v>
       </c>
       <c r="E70" t="n">
-        <v>4396655</v>
+        <v>4389190</v>
       </c>
       <c r="F70" t="n">
-        <v>2862.433465207871</v>
+        <v>2751.3237484681</v>
       </c>
       <c r="G70" t="n">
-        <v>2458.405038108546</v>
+        <v>2560.779743225583</v>
       </c>
       <c r="H70" t="n">
-        <v>0.59</v>
+        <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>411545</v>
+        <v>424326</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>111552611</v>
+        <v>107662446</v>
       </c>
       <c r="E71" t="n">
-        <v>427933770</v>
+        <v>413010474</v>
       </c>
       <c r="F71" t="n">
-        <v>153030.1633042335</v>
+        <v>153099.5425990025</v>
       </c>
       <c r="G71" t="n">
-        <v>160890.9030125948</v>
+        <v>158567.3822241001</v>
       </c>
       <c r="H71" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>18143989</v>
+        <v>18557447</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3320783</v>
+        <v>3212789</v>
       </c>
       <c r="E72" t="n">
-        <v>31464906</v>
+        <v>30441649</v>
       </c>
       <c r="F72" t="n">
-        <v>4589.891693432244</v>
+        <v>2902.898937670428</v>
       </c>
       <c r="G72" t="n">
-        <v>3716.831311934883</v>
+        <v>2267.464406072053</v>
       </c>
       <c r="H72" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="I72" t="n">
-        <v>219951</v>
+        <v>205167</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31562715</v>
+        <v>30255677</v>
       </c>
       <c r="F73" t="n">
-        <v>3399.729601869575</v>
+        <v>505.0863881116343</v>
       </c>
       <c r="G73" t="n">
-        <v>3894.752579381742</v>
+        <v>6500.008694316459</v>
       </c>
       <c r="H73" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>7382123</v>
+        <v>6474925</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>86895588</v>
+        <v>87397904</v>
       </c>
       <c r="E74" t="n">
-        <v>321236499</v>
+        <v>323092018</v>
       </c>
       <c r="F74" t="n">
-        <v>7087.107594059688</v>
+        <v>7363.736638111873</v>
       </c>
       <c r="G74" t="n">
-        <v>6901.427023616397</v>
+        <v>6993.003561098378</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I74" t="n">
-        <v>435955</v>
+        <v>397163</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23434644</v>
+        <v>23465744</v>
       </c>
       <c r="E75" t="n">
-        <v>23434644</v>
+        <v>23465744</v>
       </c>
       <c r="F75" t="n">
-        <v>25972.90042886962</v>
+        <v>24739.16298456167</v>
       </c>
       <c r="G75" t="n">
-        <v>25654.78444955021</v>
+        <v>21508.363110785</v>
       </c>
       <c r="H75" t="n">
         <v>0.12</v>
       </c>
       <c r="I75" t="n">
-        <v>5650239</v>
+        <v>5925468</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>485618026</v>
+        <v>481785813</v>
       </c>
       <c r="E76" t="n">
-        <v>1691253536</v>
+        <v>1677907156</v>
       </c>
       <c r="F76" t="n">
-        <v>197648.3312595451</v>
+        <v>197718.7144586231</v>
       </c>
       <c r="G76" t="n">
-        <v>211365.9678990085</v>
+        <v>224179.8308176429</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>30400829</v>
+        <v>30870208</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5580885799</v>
+        <v>5580513809</v>
       </c>
       <c r="E77" t="n">
-        <v>5580885799</v>
+        <v>5580513809</v>
       </c>
       <c r="F77" t="n">
-        <v>71926.4963357698</v>
+        <v>42163.20376863189</v>
       </c>
       <c r="G77" t="n">
-        <v>93628.79159121854</v>
+        <v>93739.72035702142</v>
       </c>
       <c r="H77" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I77" t="n">
-        <v>30730141</v>
+        <v>29811445</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7653457</v>
+        <v>7508449</v>
       </c>
       <c r="E78" t="n">
-        <v>19882858</v>
+        <v>19506143</v>
       </c>
       <c r="F78" t="n">
-        <v>1280.429479280725</v>
+        <v>1387.822653611807</v>
       </c>
       <c r="G78" t="n">
-        <v>2856.788797511236</v>
+        <v>2819.094667000416</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I78" t="n">
-        <v>682881</v>
+        <v>681395</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>103222267</v>
+        <v>102150138</v>
       </c>
       <c r="E79" t="n">
-        <v>156393662</v>
+        <v>154769261</v>
       </c>
       <c r="F79" t="n">
-        <v>40239.2432033288</v>
+        <v>39985.1247158865</v>
       </c>
       <c r="G79" t="n">
-        <v>19664.6425133884</v>
+        <v>20380.38546045276</v>
       </c>
       <c r="H79" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="I79" t="n">
-        <v>7349396</v>
+        <v>7025907</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2673201</v>
+        <v>2647681</v>
       </c>
       <c r="E80" t="n">
-        <v>10692802</v>
+        <v>10590725</v>
       </c>
       <c r="F80" t="n">
-        <v>27354.26532210309</v>
+        <v>73172.01098368291</v>
       </c>
       <c r="G80" t="n">
-        <v>35333.62067734534</v>
+        <v>22069.04497296697</v>
       </c>
       <c r="H80" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I80" t="n">
-        <v>5092273</v>
+        <v>4933951</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2566929</v>
+        <v>2497003</v>
       </c>
       <c r="F81" t="n">
-        <v>80.82155167942585</v>
+        <v>497.950191614997</v>
       </c>
       <c r="G81" t="n">
-        <v>139.0948601489986</v>
+        <v>115.3459987330341</v>
       </c>
       <c r="H81" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="I81" t="n">
-        <v>290382</v>
+        <v>290199</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>402883705</v>
+        <v>400385178</v>
       </c>
       <c r="E82" t="n">
-        <v>2302192599</v>
+        <v>2287915304</v>
       </c>
       <c r="F82" t="n">
-        <v>162321.7852083106</v>
+        <v>154688.5066748694</v>
       </c>
       <c r="G82" t="n">
-        <v>170202.610762154</v>
+        <v>184440.4982952071</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>39082990</v>
+        <v>37887527</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4126548</v>
+        <v>4091066</v>
       </c>
       <c r="F2" t="n">
-        <v>495.8738550824842</v>
+        <v>649.3534766735967</v>
       </c>
       <c r="G2" t="n">
-        <v>573.4680528246291</v>
+        <v>584.8925390008458</v>
       </c>
       <c r="H2" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="I2" t="n">
-        <v>70296</v>
+        <v>65814</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1360786</v>
+        <v>1360892</v>
       </c>
       <c r="E3" t="n">
-        <v>4398619</v>
+        <v>4398962</v>
       </c>
       <c r="F3" t="n">
-        <v>5356.684039275821</v>
+        <v>5631.473231628937</v>
       </c>
       <c r="G3" t="n">
-        <v>3496.480577525755</v>
+        <v>3386.658120858875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="I3" t="n">
-        <v>75686</v>
+        <v>76392</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243754382</v>
+        <v>246021739</v>
       </c>
       <c r="E4" t="n">
-        <v>1528549467</v>
+        <v>1542767746</v>
       </c>
       <c r="F4" t="n">
-        <v>243969.0482768657</v>
+        <v>264810.3579849552</v>
       </c>
       <c r="G4" t="n">
-        <v>264523.1611965963</v>
+        <v>254610.2572236927</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>15619801</v>
+        <v>15742113</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140753605</v>
+        <v>141395497</v>
       </c>
       <c r="E5" t="n">
-        <v>155977476</v>
+        <v>156688795</v>
       </c>
       <c r="F5" t="n">
-        <v>83094.11254911484</v>
+        <v>88407.82597883709</v>
       </c>
       <c r="G5" t="n">
-        <v>102345.8587728594</v>
+        <v>98388.92410964159</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>31758105</v>
+        <v>31936401</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>126335344</v>
+        <v>127509680</v>
       </c>
       <c r="E6" t="n">
-        <v>495196719</v>
+        <v>499799766</v>
       </c>
       <c r="F6" t="n">
-        <v>38202.88875794612</v>
+        <v>33300.77304098458</v>
       </c>
       <c r="G6" t="n">
-        <v>39856.28886886303</v>
+        <v>33086.20223405866</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>26438025</v>
+        <v>26669714</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4683938</v>
+        <v>4707764</v>
       </c>
       <c r="E7" t="n">
-        <v>28770904</v>
+        <v>28917253</v>
       </c>
       <c r="F7" t="n">
-        <v>1636.859596525643</v>
+        <v>1177.230017270525</v>
       </c>
       <c r="G7" t="n">
-        <v>1628.231870186093</v>
+        <v>1435.85773636846</v>
       </c>
       <c r="H7" t="n">
         <v>0.21</v>
       </c>
       <c r="I7" t="n">
-        <v>491661</v>
+        <v>481941</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198332</v>
+        <v>197981</v>
       </c>
       <c r="E8" t="n">
-        <v>2181866</v>
+        <v>2178014</v>
       </c>
       <c r="F8" t="n">
-        <v>3782.693174615895</v>
+        <v>3494.514831316654</v>
       </c>
       <c r="G8" t="n">
-        <v>4437.331942142189</v>
+        <v>5158.816229396081</v>
       </c>
       <c r="H8" t="n">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="I8" t="n">
-        <v>47983</v>
+        <v>46706</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71823451</v>
+        <v>72448430</v>
       </c>
       <c r="E9" t="n">
-        <v>124432933</v>
+        <v>125514199</v>
       </c>
       <c r="F9" t="n">
-        <v>4225.564220772825</v>
+        <v>9935.777118831786</v>
       </c>
       <c r="G9" t="n">
-        <v>12405.06793304932</v>
+        <v>12082.31567948592</v>
       </c>
       <c r="H9" t="n">
         <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>690819</v>
+        <v>655760</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8696381</v>
+        <v>8738349</v>
       </c>
       <c r="E10" t="n">
-        <v>12309081</v>
+        <v>12368484</v>
       </c>
       <c r="F10" t="n">
-        <v>3288.900983391905</v>
+        <v>4086.87689638696</v>
       </c>
       <c r="G10" t="n">
-        <v>4199.662953468267</v>
+        <v>3460.729678002269</v>
       </c>
       <c r="H10" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="I10" t="n">
-        <v>32169</v>
+        <v>35604</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>466473491</v>
+        <v>471367118</v>
       </c>
       <c r="E11" t="n">
-        <v>466473491</v>
+        <v>471367118</v>
       </c>
       <c r="F11" t="n">
-        <v>61417.37229762816</v>
+        <v>59349.21047733277</v>
       </c>
       <c r="G11" t="n">
-        <v>90568.65493738832</v>
+        <v>87317.52866644067</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>54254551</v>
+        <v>55557796</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>304507</v>
+        <v>306678</v>
       </c>
       <c r="E12" t="n">
-        <v>1421469</v>
+        <v>1431604</v>
       </c>
       <c r="F12" t="n">
-        <v>1621.78092576631</v>
+        <v>301.4581688603425</v>
       </c>
       <c r="G12" t="n">
-        <v>31.67278849298474</v>
+        <v>692.1687696607565</v>
       </c>
       <c r="H12" t="n">
-        <v>1.33</v>
+        <v>1.02</v>
       </c>
       <c r="I12" t="n">
-        <v>598327</v>
+        <v>600625</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1545516</v>
+        <v>1547097</v>
       </c>
       <c r="F13" t="n">
-        <v>5799.446992007386</v>
+        <v>4512.67913950393</v>
       </c>
       <c r="G13" t="n">
-        <v>1921.706941422615</v>
+        <v>1000.712719281745</v>
       </c>
       <c r="H13" t="n">
-        <v>0.59</v>
+        <v>0.19</v>
       </c>
       <c r="I13" t="n">
-        <v>158139</v>
+        <v>168176</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12497993</v>
+        <v>12512195</v>
       </c>
       <c r="E14" t="n">
-        <v>32853638</v>
+        <v>32890972</v>
       </c>
       <c r="F14" t="n">
-        <v>1393.698231424036</v>
+        <v>1369.186698340167</v>
       </c>
       <c r="G14" t="n">
-        <v>1666.423494451965</v>
+        <v>1663.552542916325</v>
       </c>
       <c r="H14" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1654849</v>
+        <v>1615620</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>107263362</v>
+        <v>107917594</v>
       </c>
       <c r="E15" t="n">
-        <v>417711945</v>
+        <v>420245557</v>
       </c>
       <c r="F15" t="n">
-        <v>29669.03238292025</v>
+        <v>35702.23225679877</v>
       </c>
       <c r="G15" t="n">
-        <v>106437.2508562218</v>
+        <v>102038.5626828687</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>6223369</v>
+        <v>6567168</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5243625</v>
+        <v>5308691</v>
       </c>
       <c r="E16" t="n">
-        <v>7718901</v>
+        <v>7814681</v>
       </c>
       <c r="F16" t="n">
-        <v>1775.231584879028</v>
+        <v>1667.962030400728</v>
       </c>
       <c r="G16" t="n">
-        <v>1384.942308027232</v>
+        <v>4306.87145199263</v>
       </c>
       <c r="H16" t="n">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="I16" t="n">
-        <v>542494</v>
+        <v>544941</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2019349</v>
+        <v>2011340</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2903576886797</v>
+        <v>3132.343612793135</v>
       </c>
       <c r="G17" t="n">
-        <v>189.3894563506763</v>
+        <v>180.1273362892766</v>
       </c>
       <c r="H17" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="I17" t="n">
-        <v>222530</v>
+        <v>231570</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>134542892</v>
+        <v>135421734</v>
       </c>
       <c r="E18" t="n">
-        <v>134542892</v>
+        <v>135421734</v>
       </c>
       <c r="F18" t="n">
-        <v>96197.25419629422</v>
+        <v>100657.9357721831</v>
       </c>
       <c r="G18" t="n">
-        <v>176210.5088314111</v>
+        <v>149818.263018647</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>66562004</v>
+        <v>67094239</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64425180</v>
+        <v>65162074</v>
       </c>
       <c r="E19" t="n">
-        <v>330385537</v>
+        <v>334164483</v>
       </c>
       <c r="F19" t="n">
-        <v>11860.06968084773</v>
+        <v>16199.54809664326</v>
       </c>
       <c r="G19" t="n">
-        <v>21723.66419811918</v>
+        <v>18481.86632016517</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>16791728</v>
+        <v>16971452</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>251194359</v>
+        <v>254851429</v>
       </c>
       <c r="E20" t="n">
-        <v>251194359</v>
+        <v>254851429</v>
       </c>
       <c r="F20" t="n">
-        <v>48822.88951856134</v>
+        <v>73439.69427355692</v>
       </c>
       <c r="G20" t="n">
-        <v>100813.9295010481</v>
+        <v>89498.00746740402</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14345894</v>
+        <v>14362084</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>153964021</v>
+        <v>155403994</v>
       </c>
       <c r="E21" t="n">
-        <v>202598645</v>
+        <v>204493481</v>
       </c>
       <c r="F21" t="n">
-        <v>31452.60314626968</v>
+        <v>21320.76722752322</v>
       </c>
       <c r="G21" t="n">
-        <v>43459.49524210504</v>
+        <v>30415.65520763498</v>
       </c>
       <c r="H21" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>7157215</v>
+        <v>7203165</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75649656</v>
+        <v>75249098</v>
       </c>
       <c r="E22" t="n">
-        <v>211698025</v>
+        <v>210645724</v>
       </c>
       <c r="F22" t="n">
-        <v>25994.39452336781</v>
+        <v>28394.55792178553</v>
       </c>
       <c r="G22" t="n">
-        <v>38406.75581951126</v>
+        <v>40734.20205684849</v>
       </c>
       <c r="H22" t="n">
         <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>29300006</v>
+        <v>30764904</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71900741</v>
+        <v>73026766</v>
       </c>
       <c r="E23" t="n">
-        <v>149949558</v>
+        <v>152297892</v>
       </c>
       <c r="F23" t="n">
-        <v>15743.037037074</v>
+        <v>18549.77809419731</v>
       </c>
       <c r="G23" t="n">
-        <v>42913.2508106347</v>
+        <v>38752.30100244044</v>
       </c>
       <c r="H23" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>14056762</v>
+        <v>13990881</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>617966824</v>
+        <v>625230585</v>
       </c>
       <c r="E24" t="n">
-        <v>617966824</v>
+        <v>625230585</v>
       </c>
       <c r="F24" t="n">
-        <v>188924.9330569924</v>
+        <v>228785.3546726892</v>
       </c>
       <c r="G24" t="n">
-        <v>249422.3895600616</v>
+        <v>241474.2193970168</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>244100167</v>
+        <v>245780057</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>196114298</v>
+        <v>197806872</v>
       </c>
       <c r="E25" t="n">
-        <v>681318796</v>
+        <v>687198951</v>
       </c>
       <c r="F25" t="n">
-        <v>87334.16864371089</v>
+        <v>89907.03461638371</v>
       </c>
       <c r="G25" t="n">
-        <v>353114.8033600645</v>
+        <v>350886.68961797</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>26057526</v>
+        <v>25807099</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5889184</v>
+        <v>5879127</v>
       </c>
       <c r="E26" t="n">
-        <v>8003544</v>
+        <v>7988686</v>
       </c>
       <c r="F26" t="n">
-        <v>2520.898498958803</v>
+        <v>2666.790218382834</v>
       </c>
       <c r="G26" t="n">
-        <v>612.131642468962</v>
+        <v>603.3017465476082</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I26" t="n">
-        <v>6446026</v>
+        <v>6434233</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14420727</v>
+        <v>14459316</v>
       </c>
       <c r="F27" t="n">
-        <v>2268.329670192</v>
+        <v>1282.269583875765</v>
       </c>
       <c r="G27" t="n">
-        <v>3272.190181387689</v>
+        <v>4212.015534199358</v>
       </c>
       <c r="H27" t="n">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="I27" t="n">
-        <v>496939</v>
+        <v>498485</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25185604</v>
+        <v>25323572</v>
       </c>
       <c r="E28" t="n">
-        <v>35598867</v>
+        <v>35793880</v>
       </c>
       <c r="F28" t="n">
-        <v>238.7848670977197</v>
+        <v>138.9423110211414</v>
       </c>
       <c r="G28" t="n">
-        <v>10311.26110454555</v>
+        <v>597.2154222803241</v>
       </c>
       <c r="H28" t="n">
-        <v>0.83</v>
+        <v>0.32</v>
       </c>
       <c r="I28" t="n">
-        <v>84804</v>
+        <v>87929</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>268120972</v>
+        <v>271796284</v>
       </c>
       <c r="E29" t="n">
-        <v>1157358961</v>
+        <v>1173223645</v>
       </c>
       <c r="F29" t="n">
-        <v>389605.7265729646</v>
+        <v>385866.7472050259</v>
       </c>
       <c r="G29" t="n">
-        <v>352084.1024880848</v>
+        <v>350721.535497654</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>110845369</v>
+        <v>111804829</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10908210</v>
+        <v>10921033</v>
       </c>
       <c r="E30" t="n">
-        <v>131745335</v>
+        <v>131898063</v>
       </c>
       <c r="F30" t="n">
-        <v>3360.673631706195</v>
+        <v>3200.119739634056</v>
       </c>
       <c r="G30" t="n">
-        <v>3391.829188781474</v>
+        <v>2728.111258902092</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>241316</v>
+        <v>238633</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21550370</v>
+        <v>21659591</v>
       </c>
       <c r="E31" t="n">
-        <v>53875924</v>
+        <v>54148977</v>
       </c>
       <c r="F31" t="n">
-        <v>10786.05226639477</v>
+        <v>10100.76366333293</v>
       </c>
       <c r="G31" t="n">
-        <v>14183.88386485095</v>
+        <v>12172.28395020884</v>
       </c>
       <c r="H31" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I31" t="n">
-        <v>2191346</v>
+        <v>2047847</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20257290</v>
+        <v>20209199</v>
       </c>
       <c r="F32" t="n">
-        <v>2690.819050269038</v>
+        <v>2848.590235722605</v>
       </c>
       <c r="G32" t="n">
-        <v>2517.639892366461</v>
+        <v>2467.276070689368</v>
       </c>
       <c r="H32" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>126009</v>
+        <v>127399</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1383348</v>
+        <v>1378506</v>
       </c>
       <c r="E33" t="n">
-        <v>5157641</v>
+        <v>5139590</v>
       </c>
       <c r="F33" t="n">
-        <v>1935.764270161995</v>
+        <v>2472.767128528066</v>
       </c>
       <c r="G33" t="n">
-        <v>2826.889738726648</v>
+        <v>3692.112589602832</v>
       </c>
       <c r="H33" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="I33" t="n">
-        <v>618691</v>
+        <v>628376</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3493748</v>
+        <v>3535006</v>
       </c>
       <c r="E34" t="n">
-        <v>10063423</v>
+        <v>10182263</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.435129508713</v>
+        <v>1026.836530605893</v>
       </c>
       <c r="G34" t="n">
-        <v>3963.017876337995</v>
+        <v>2527.687660518236</v>
       </c>
       <c r="H34" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="I34" t="n">
-        <v>357605</v>
+        <v>390919</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14060412</v>
+        <v>14153989</v>
       </c>
       <c r="E35" t="n">
-        <v>68096821</v>
+        <v>68550026</v>
       </c>
       <c r="F35" t="n">
-        <v>9164.274117412624</v>
+        <v>11074.16480521714</v>
       </c>
       <c r="G35" t="n">
-        <v>11543.14584407101</v>
+        <v>11644.4579325928</v>
       </c>
       <c r="H35" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>3549454</v>
+        <v>3545837</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1475766</v>
+        <v>1491717</v>
       </c>
       <c r="E36" t="n">
-        <v>9658849</v>
+        <v>9763248</v>
       </c>
       <c r="F36" t="n">
-        <v>3352.91743184489</v>
+        <v>4820.921606175703</v>
       </c>
       <c r="G36" t="n">
-        <v>1856.867129604662</v>
+        <v>2914.183385187415</v>
       </c>
       <c r="H36" t="n">
-        <v>0.72</v>
+        <v>0.51</v>
       </c>
       <c r="I36" t="n">
-        <v>627895</v>
+        <v>537438</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1864442747</v>
+        <v>1871282692</v>
       </c>
       <c r="F37" t="n">
-        <v>77637.46351444018</v>
+        <v>73099.70627924541</v>
       </c>
       <c r="G37" t="n">
-        <v>72407.07067501966</v>
+        <v>72697.30102207416</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="I37" t="n">
-        <v>25599071</v>
+        <v>25476658</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1926512</v>
+        <v>1933366</v>
       </c>
       <c r="E38" t="n">
-        <v>13814828</v>
+        <v>13863975</v>
       </c>
       <c r="F38" t="n">
-        <v>5280.970551591439</v>
+        <v>5292.003166811325</v>
       </c>
       <c r="G38" t="n">
-        <v>5151.736421754382</v>
+        <v>5066.43838045271</v>
       </c>
       <c r="H38" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I38" t="n">
-        <v>1860788</v>
+        <v>1850353</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>195291880</v>
+        <v>199197380</v>
       </c>
       <c r="E39" t="n">
-        <v>1105862619</v>
+        <v>1127977962</v>
       </c>
       <c r="F39" t="n">
-        <v>132357.0738320522</v>
+        <v>135123.5012635127</v>
       </c>
       <c r="G39" t="n">
-        <v>158049.4747996517</v>
+        <v>160901.4521740791</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>59537922</v>
+        <v>59463591</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>137331411</v>
+        <v>138479315</v>
       </c>
       <c r="E40" t="n">
-        <v>1017269713</v>
+        <v>1025772706</v>
       </c>
       <c r="F40" t="n">
-        <v>210135.0618989297</v>
+        <v>210071.1243800494</v>
       </c>
       <c r="G40" t="n">
-        <v>196813.2455279434</v>
+        <v>222694.6838438307</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>12482398</v>
+        <v>12490849</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>333844664</v>
+        <v>338250371</v>
       </c>
       <c r="E41" t="n">
-        <v>3003473605</v>
+        <v>3043110076</v>
       </c>
       <c r="F41" t="n">
-        <v>261474.9527803347</v>
+        <v>263630.8818699142</v>
       </c>
       <c r="G41" t="n">
-        <v>311034.7942490832</v>
+        <v>281012.7770587581</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I41" t="n">
-        <v>37563620</v>
+        <v>38387468</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1588906</v>
+        <v>1577210</v>
       </c>
       <c r="E42" t="n">
-        <v>13240881</v>
+        <v>13143414</v>
       </c>
       <c r="F42" t="n">
-        <v>4533.347843710671</v>
+        <v>3465.095756830089</v>
       </c>
       <c r="G42" t="n">
-        <v>4437.077838303809</v>
+        <v>4288.28649261339</v>
       </c>
       <c r="H42" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="I42" t="n">
-        <v>49065</v>
+        <v>48044</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>25626304</v>
+        <v>26197587</v>
       </c>
       <c r="E43" t="n">
-        <v>76816629</v>
+        <v>78529087</v>
       </c>
       <c r="F43" t="n">
-        <v>46571.63497986484</v>
+        <v>43000.84426229556</v>
       </c>
       <c r="G43" t="n">
-        <v>49892.58489453736</v>
+        <v>44347.49929711791</v>
       </c>
       <c r="H43" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I43" t="n">
-        <v>2249655</v>
+        <v>2346909</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9619654</v>
+        <v>9644410</v>
       </c>
       <c r="F44" t="n">
-        <v>2133.747238832175</v>
+        <v>5917.02111831849</v>
       </c>
       <c r="G44" t="n">
-        <v>1372.453422864673</v>
+        <v>5571.402075382466</v>
       </c>
       <c r="H44" t="n">
-        <v>0.83</v>
+        <v>0.31</v>
       </c>
       <c r="I44" t="n">
-        <v>121744</v>
+        <v>121262</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12959960</v>
+        <v>13083328</v>
       </c>
       <c r="E45" t="n">
-        <v>12959960</v>
+        <v>13083328</v>
       </c>
       <c r="F45" t="n">
-        <v>1730.233982039858</v>
+        <v>711.2765514620664</v>
       </c>
       <c r="G45" t="n">
-        <v>828.5274275299985</v>
+        <v>1027.539764397101</v>
       </c>
       <c r="H45" t="n">
-        <v>0.39</v>
+        <v>0.83</v>
       </c>
       <c r="I45" t="n">
-        <v>2824511</v>
+        <v>2800287</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>294808951</v>
+        <v>298339779</v>
       </c>
       <c r="E46" t="n">
-        <v>294808951</v>
+        <v>298339779</v>
       </c>
       <c r="F46" t="n">
-        <v>22756.59135132661</v>
+        <v>24857.96072761343</v>
       </c>
       <c r="G46" t="n">
-        <v>43683.01663766724</v>
+        <v>46099.60907557765</v>
       </c>
       <c r="H46" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I46" t="n">
-        <v>12685958</v>
+        <v>12753676</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12703428</v>
+        <v>12754544</v>
       </c>
       <c r="E47" t="n">
-        <v>40190083</v>
+        <v>40351799</v>
       </c>
       <c r="F47" t="n">
-        <v>35163.54395373371</v>
+        <v>32124.58436747345</v>
       </c>
       <c r="G47" t="n">
-        <v>15760.01487854377</v>
+        <v>16479.09507290105</v>
       </c>
       <c r="H47" t="n">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
       <c r="I47" t="n">
-        <v>1597303</v>
+        <v>1619289</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31916806</v>
+        <v>32172254</v>
       </c>
       <c r="E48" t="n">
-        <v>88406386</v>
+        <v>89113951</v>
       </c>
       <c r="F48" t="n">
-        <v>5059.126972754489</v>
+        <v>4689.904726106375</v>
       </c>
       <c r="G48" t="n">
-        <v>7858.070342260949</v>
+        <v>6452.614133638531</v>
       </c>
       <c r="H48" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>11970611</v>
+        <v>12024459</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28087736</v>
+        <v>28163288</v>
       </c>
       <c r="E49" t="n">
-        <v>66729476</v>
+        <v>66908971</v>
       </c>
       <c r="F49" t="n">
-        <v>18429.83172532752</v>
+        <v>17661.01001365599</v>
       </c>
       <c r="G49" t="n">
-        <v>17254.1360518057</v>
+        <v>18379.50554260853</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I49" t="n">
-        <v>642537</v>
+        <v>616747</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11986142</v>
+        <v>12033148</v>
       </c>
       <c r="E50" t="n">
-        <v>18267671</v>
+        <v>18339311</v>
       </c>
       <c r="F50" t="n">
-        <v>5253.454351840085</v>
+        <v>3710.6894106245</v>
       </c>
       <c r="G50" t="n">
-        <v>21309.28613751438</v>
+        <v>6465.418676609236</v>
       </c>
       <c r="H50" t="n">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="I50" t="n">
-        <v>660351</v>
+        <v>664039</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>299245420</v>
+        <v>301107177</v>
       </c>
       <c r="E51" t="n">
-        <v>299245420</v>
+        <v>301107177</v>
       </c>
       <c r="F51" t="n">
-        <v>54173.71094026457</v>
+        <v>72695.6992247723</v>
       </c>
       <c r="G51" t="n">
-        <v>112913.4421668414</v>
+        <v>126778.7069741011</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>52475961</v>
+        <v>52092355</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>87628516</v>
+        <v>89121237</v>
       </c>
       <c r="E52" t="n">
-        <v>504953306</v>
+        <v>513555006</v>
       </c>
       <c r="F52" t="n">
-        <v>260919.4694489119</v>
+        <v>264608.9757830771</v>
       </c>
       <c r="G52" t="n">
-        <v>244135.2194129666</v>
+        <v>240967.0338237894</v>
       </c>
       <c r="H52" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I52" t="n">
-        <v>15793878</v>
+        <v>15873827</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30107135</v>
+        <v>30400952</v>
       </c>
       <c r="E53" t="n">
-        <v>134801995</v>
+        <v>136117534</v>
       </c>
       <c r="F53" t="n">
-        <v>43337.98426838681</v>
+        <v>40494.38501815761</v>
       </c>
       <c r="G53" t="n">
-        <v>44890.53622518339</v>
+        <v>46049.29997059088</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>9950597</v>
+        <v>9453676</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9296566</v>
+        <v>9296358</v>
       </c>
       <c r="F54" t="n">
-        <v>2988.870918384516</v>
+        <v>2905.908676592959</v>
       </c>
       <c r="G54" t="n">
-        <v>8335.130208315679</v>
+        <v>8275.504044543479</v>
       </c>
       <c r="H54" t="n">
         <v>0.21</v>
       </c>
       <c r="I54" t="n">
-        <v>291355</v>
+        <v>290388</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4762793</v>
+        <v>4770969</v>
       </c>
       <c r="F55" t="n">
-        <v>4372.458180724298</v>
+        <v>4312.635209419698</v>
       </c>
       <c r="G55" t="n">
-        <v>846.3867750333233</v>
+        <v>898.5660388830172</v>
       </c>
       <c r="H55" t="n">
-        <v>0.58</v>
+        <v>0.42</v>
       </c>
       <c r="I55" t="n">
-        <v>154139</v>
+        <v>155188</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125005363</v>
+        <v>125421942</v>
       </c>
       <c r="E56" t="n">
-        <v>2070191190</v>
+        <v>2077090089</v>
       </c>
       <c r="F56" t="n">
-        <v>197324.2354756099</v>
+        <v>194013.6082935967</v>
       </c>
       <c r="G56" t="n">
-        <v>185737.5095117518</v>
+        <v>189458.0734834436</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5177149</v>
+        <v>5148995</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>73350791</v>
+        <v>74471669</v>
       </c>
       <c r="E57" t="n">
-        <v>74140364</v>
+        <v>75273308</v>
       </c>
       <c r="F57" t="n">
-        <v>45726.36442653921</v>
+        <v>48571.91013208689</v>
       </c>
       <c r="G57" t="n">
-        <v>36149.43208772635</v>
+        <v>62011.77965274838</v>
       </c>
       <c r="H57" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I57" t="n">
-        <v>8615809</v>
+        <v>8904462</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>231174973</v>
+        <v>236167057</v>
       </c>
       <c r="E58" t="n">
-        <v>231174973</v>
+        <v>236167057</v>
       </c>
       <c r="F58" t="n">
-        <v>108328.8499433098</v>
+        <v>129161.1545629161</v>
       </c>
       <c r="G58" t="n">
-        <v>142490.0635254628</v>
+        <v>128264.7562746058</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>41951557</v>
+        <v>43007752</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23369213</v>
+        <v>23528163</v>
       </c>
       <c r="E59" t="n">
-        <v>139822700</v>
+        <v>140773731</v>
       </c>
       <c r="F59" t="n">
-        <v>47891.01243559085</v>
+        <v>66784.06828732743</v>
       </c>
       <c r="G59" t="n">
-        <v>53524.51836738628</v>
+        <v>71999.40848080773</v>
       </c>
       <c r="H59" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>13492491</v>
+        <v>13119160</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2418752</v>
+        <v>2411952</v>
       </c>
       <c r="E60" t="n">
-        <v>4463945</v>
+        <v>4451395</v>
       </c>
       <c r="F60" t="n">
-        <v>2477.919647939646</v>
+        <v>2977.992202228034</v>
       </c>
       <c r="G60" t="n">
-        <v>2465.154164961812</v>
+        <v>1983.462189393718</v>
       </c>
       <c r="H60" t="n">
         <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>23487</v>
+        <v>22498</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9464376</v>
+        <v>10061201</v>
       </c>
       <c r="E62" t="n">
-        <v>28224501</v>
+        <v>30000420</v>
       </c>
       <c r="F62" t="n">
-        <v>5694.758517434516</v>
+        <v>5319.273134198626</v>
       </c>
       <c r="G62" t="n">
-        <v>6683.131954308045</v>
+        <v>4326.708706563252</v>
       </c>
       <c r="H62" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I62" t="n">
-        <v>4824158</v>
+        <v>5248749</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14493602</v>
+        <v>14557613</v>
       </c>
       <c r="E63" t="n">
-        <v>29341412</v>
+        <v>29470998</v>
       </c>
       <c r="F63" t="n">
-        <v>5549.522630899269</v>
+        <v>5626.771380035788</v>
       </c>
       <c r="G63" t="n">
-        <v>20288.77065262656</v>
+        <v>13685.64851242273</v>
       </c>
       <c r="H63" t="n">
         <v>0.37</v>
       </c>
       <c r="I63" t="n">
-        <v>520562</v>
+        <v>517436</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38034184</v>
+        <v>38433700</v>
       </c>
       <c r="E64" t="n">
-        <v>269656162</v>
+        <v>272488665</v>
       </c>
       <c r="F64" t="n">
-        <v>83269.66057646253</v>
+        <v>64211.55332525397</v>
       </c>
       <c r="G64" t="n">
-        <v>67078.01238975512</v>
+        <v>69538.66764944662</v>
       </c>
       <c r="H64" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1868815</v>
+        <v>1940744</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1263025</v>
+        <v>1260056</v>
       </c>
       <c r="E65" t="n">
-        <v>7832696</v>
+        <v>7814279</v>
       </c>
       <c r="F65" t="n">
-        <v>1773.808876111013</v>
+        <v>1845.177787206787</v>
       </c>
       <c r="G65" t="n">
-        <v>2369.097205192539</v>
+        <v>2442.96801667889</v>
       </c>
       <c r="H65" t="n">
         <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>841512</v>
+        <v>841497</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>594712736</v>
+        <v>599108149</v>
       </c>
       <c r="E66" t="n">
-        <v>2303234683</v>
+        <v>2320257469</v>
       </c>
       <c r="F66" t="n">
-        <v>42420.74945022804</v>
+        <v>51112.39072256338</v>
       </c>
       <c r="G66" t="n">
-        <v>87002.05281398624</v>
+        <v>81249.42356059265</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>30295634</v>
+        <v>30673618</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5808669</v>
+        <v>5810330</v>
       </c>
       <c r="E67" t="n">
-        <v>26006156</v>
+        <v>26013593</v>
       </c>
       <c r="F67" t="n">
-        <v>4437.433461015432</v>
+        <v>4440.75963689229</v>
       </c>
       <c r="G67" t="n">
-        <v>4663.907603640897</v>
+        <v>4691.069616398608</v>
       </c>
       <c r="H67" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I67" t="n">
-        <v>144587</v>
+        <v>141884</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>117090272</v>
+        <v>118273350</v>
       </c>
       <c r="E68" t="n">
-        <v>1018027951</v>
+        <v>1028314087</v>
       </c>
       <c r="F68" t="n">
-        <v>160332.1476233233</v>
+        <v>159322.4076468413</v>
       </c>
       <c r="G68" t="n">
-        <v>157867.5454292562</v>
+        <v>160619.6057008824</v>
       </c>
       <c r="H68" t="n">
         <v>0.09</v>
       </c>
       <c r="I68" t="n">
-        <v>9699070</v>
+        <v>9617678</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>102027589</v>
+        <v>104647553</v>
       </c>
       <c r="E69" t="n">
-        <v>155645479</v>
+        <v>159642296</v>
       </c>
       <c r="F69" t="n">
-        <v>59429.95934268906</v>
+        <v>65898.06078716552</v>
       </c>
       <c r="G69" t="n">
-        <v>82413.28219883029</v>
+        <v>95996.03051485978</v>
       </c>
       <c r="H69" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="I69" t="n">
-        <v>7136679</v>
+        <v>7166143</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1133508</v>
+        <v>1132084</v>
       </c>
       <c r="E70" t="n">
-        <v>4389190</v>
+        <v>4383677</v>
       </c>
       <c r="F70" t="n">
-        <v>2751.3237484681</v>
+        <v>2688.017353729959</v>
       </c>
       <c r="G70" t="n">
-        <v>2560.779743225583</v>
+        <v>2381.815932822682</v>
       </c>
       <c r="H70" t="n">
-        <v>0.27</v>
+        <v>0.52</v>
       </c>
       <c r="I70" t="n">
-        <v>424326</v>
+        <v>429887</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>107662446</v>
+        <v>108402978</v>
       </c>
       <c r="E71" t="n">
-        <v>413010474</v>
+        <v>415851272</v>
       </c>
       <c r="F71" t="n">
-        <v>153099.5425990025</v>
+        <v>154356.7850222301</v>
       </c>
       <c r="G71" t="n">
-        <v>158567.3822241001</v>
+        <v>156779.4839428535</v>
       </c>
       <c r="H71" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>18557447</v>
+        <v>18884868</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3212789</v>
+        <v>3176502</v>
       </c>
       <c r="E72" t="n">
-        <v>30441649</v>
+        <v>30097831</v>
       </c>
       <c r="F72" t="n">
-        <v>2902.898937670428</v>
+        <v>4754.43831429386</v>
       </c>
       <c r="G72" t="n">
-        <v>2267.464406072053</v>
+        <v>2207.88219471183</v>
       </c>
       <c r="H72" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="I72" t="n">
-        <v>205167</v>
+        <v>279087</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>30255677</v>
+        <v>31287735</v>
       </c>
       <c r="F73" t="n">
-        <v>505.0863881116343</v>
+        <v>4628.414690953739</v>
       </c>
       <c r="G73" t="n">
-        <v>6500.008694316459</v>
+        <v>4015.395591324161</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="I73" t="n">
-        <v>6474925</v>
+        <v>6124313</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87397904</v>
+        <v>87552280</v>
       </c>
       <c r="E74" t="n">
-        <v>323092018</v>
+        <v>323661355</v>
       </c>
       <c r="F74" t="n">
-        <v>7363.736638111873</v>
+        <v>8111.176396206867</v>
       </c>
       <c r="G74" t="n">
-        <v>6993.003561098378</v>
+        <v>733.4929792426695</v>
       </c>
       <c r="H74" t="n">
         <v>0.02</v>
       </c>
       <c r="I74" t="n">
-        <v>397163</v>
+        <v>368410</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23465744</v>
+        <v>23477585</v>
       </c>
       <c r="E75" t="n">
-        <v>23465744</v>
+        <v>23477585</v>
       </c>
       <c r="F75" t="n">
-        <v>24739.16298456167</v>
+        <v>29266.80366047015</v>
       </c>
       <c r="G75" t="n">
-        <v>21508.363110785</v>
+        <v>21459.59824245736</v>
       </c>
       <c r="H75" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I75" t="n">
-        <v>5925468</v>
+        <v>6016002</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>481785813</v>
+        <v>487600815</v>
       </c>
       <c r="E76" t="n">
-        <v>1677907156</v>
+        <v>1698158962</v>
       </c>
       <c r="F76" t="n">
-        <v>197718.7144586231</v>
+        <v>190178.5248108141</v>
       </c>
       <c r="G76" t="n">
-        <v>224179.8308176429</v>
+        <v>210088.6994434344</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I76" t="n">
-        <v>30870208</v>
+        <v>31071038</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5580513809</v>
+        <v>5630144039</v>
       </c>
       <c r="E77" t="n">
-        <v>5580513809</v>
+        <v>5629690096</v>
       </c>
       <c r="F77" t="n">
-        <v>42163.20376863189</v>
+        <v>42411.59135592659</v>
       </c>
       <c r="G77" t="n">
-        <v>93739.72035702142</v>
+        <v>94209.61441041357</v>
       </c>
       <c r="H77" t="n">
         <v>0.18</v>
       </c>
       <c r="I77" t="n">
-        <v>29811445</v>
+        <v>29756532</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7508449</v>
+        <v>7476012</v>
       </c>
       <c r="E78" t="n">
-        <v>19506143</v>
+        <v>19421875</v>
       </c>
       <c r="F78" t="n">
-        <v>1387.822653611807</v>
+        <v>1183.523791795314</v>
       </c>
       <c r="G78" t="n">
-        <v>2819.094667000416</v>
+        <v>2719.811886603065</v>
       </c>
       <c r="H78" t="n">
         <v>0.25</v>
       </c>
       <c r="I78" t="n">
-        <v>681395</v>
+        <v>678359</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>102150138</v>
+        <v>103345534</v>
       </c>
       <c r="E79" t="n">
-        <v>154769261</v>
+        <v>156580425</v>
       </c>
       <c r="F79" t="n">
-        <v>39985.1247158865</v>
+        <v>39421.99889273175</v>
       </c>
       <c r="G79" t="n">
-        <v>20380.38546045276</v>
+        <v>19300.66546518709</v>
       </c>
       <c r="H79" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>7025907</v>
+        <v>6997854</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2647681</v>
+        <v>2644713</v>
       </c>
       <c r="E80" t="n">
-        <v>10590725</v>
+        <v>10578852</v>
       </c>
       <c r="F80" t="n">
-        <v>73172.01098368291</v>
+        <v>73747.3105225113</v>
       </c>
       <c r="G80" t="n">
-        <v>22069.04497296697</v>
+        <v>34046.49368824316</v>
       </c>
       <c r="H80" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="I80" t="n">
-        <v>4933951</v>
+        <v>4936033</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2497003</v>
+        <v>2432044</v>
       </c>
       <c r="F81" t="n">
-        <v>497.950191614997</v>
+        <v>183.2417143101727</v>
       </c>
       <c r="G81" t="n">
-        <v>115.3459987330341</v>
+        <v>712.0049096649082</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
       <c r="I81" t="n">
-        <v>290199</v>
+        <v>288311</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>400385178</v>
+        <v>405536580</v>
       </c>
       <c r="E82" t="n">
-        <v>2287915304</v>
+        <v>2317351884</v>
       </c>
       <c r="F82" t="n">
-        <v>154688.5066748694</v>
+        <v>156862.4749907844</v>
       </c>
       <c r="G82" t="n">
-        <v>184440.4982952071</v>
+        <v>183505.1754578056</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>37887527</v>
+        <v>37149296</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4091066</v>
+        <v>4054076</v>
       </c>
       <c r="F2" t="n">
-        <v>649.3534766735967</v>
+        <v>335.0295114456354</v>
       </c>
       <c r="G2" t="n">
-        <v>584.8925390008458</v>
+        <v>1021.858459362701</v>
       </c>
       <c r="H2" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="I2" t="n">
-        <v>65814</v>
+        <v>69483</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1360892</v>
+        <v>1335791</v>
       </c>
       <c r="E3" t="n">
-        <v>4398962</v>
+        <v>4317824</v>
       </c>
       <c r="F3" t="n">
-        <v>5631.473231628937</v>
+        <v>585.7206276631317</v>
       </c>
       <c r="G3" t="n">
-        <v>3386.658120858875</v>
+        <v>393.1594234673657</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09</v>
+        <v>0.35</v>
       </c>
       <c r="I3" t="n">
-        <v>76392</v>
+        <v>71256</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246021739</v>
+        <v>243167289</v>
       </c>
       <c r="E4" t="n">
-        <v>1542767746</v>
+        <v>1524867892</v>
       </c>
       <c r="F4" t="n">
-        <v>264810.3579849552</v>
+        <v>218374.7626885945</v>
       </c>
       <c r="G4" t="n">
-        <v>254610.2572236927</v>
+        <v>253843.9094687972</v>
       </c>
       <c r="H4" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I4" t="n">
-        <v>15742113</v>
+        <v>15505817</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141395497</v>
+        <v>138943050</v>
       </c>
       <c r="E5" t="n">
-        <v>156688795</v>
+        <v>153971092</v>
       </c>
       <c r="F5" t="n">
-        <v>88407.82597883709</v>
+        <v>93002.19110803607</v>
       </c>
       <c r="G5" t="n">
-        <v>98388.92410964159</v>
+        <v>91873.21620250359</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>31936401</v>
+        <v>31929337</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>127509680</v>
+        <v>125060333</v>
       </c>
       <c r="E6" t="n">
-        <v>499799766</v>
+        <v>490199060</v>
       </c>
       <c r="F6" t="n">
-        <v>33300.77304098458</v>
+        <v>35760.54917209363</v>
       </c>
       <c r="G6" t="n">
-        <v>33086.20223405866</v>
+        <v>48259.23135751914</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>26669714</v>
+        <v>27993640</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4707764</v>
+        <v>4796770</v>
       </c>
       <c r="E7" t="n">
-        <v>28917253</v>
+        <v>29463972</v>
       </c>
       <c r="F7" t="n">
-        <v>1177.230017270525</v>
+        <v>2016.087566703</v>
       </c>
       <c r="G7" t="n">
-        <v>1435.85773636846</v>
+        <v>2424.814214917313</v>
       </c>
       <c r="H7" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I7" t="n">
-        <v>481941</v>
+        <v>482187</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197981</v>
+        <v>198766</v>
       </c>
       <c r="E8" t="n">
-        <v>2178014</v>
+        <v>2186647</v>
       </c>
       <c r="F8" t="n">
-        <v>3494.514831316654</v>
+        <v>3779.372752711737</v>
       </c>
       <c r="G8" t="n">
-        <v>5158.816229396081</v>
+        <v>3576.255845476855</v>
       </c>
       <c r="H8" t="n">
-        <v>0.78</v>
+        <v>0.32</v>
       </c>
       <c r="I8" t="n">
-        <v>46706</v>
+        <v>43857</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72448430</v>
+        <v>71999150</v>
       </c>
       <c r="E9" t="n">
-        <v>125514199</v>
+        <v>124732856</v>
       </c>
       <c r="F9" t="n">
-        <v>9935.777118831786</v>
+        <v>8952.245766914537</v>
       </c>
       <c r="G9" t="n">
-        <v>12082.31567948592</v>
+        <v>7517.702610417587</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="I9" t="n">
-        <v>655760</v>
+        <v>657689</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8738349</v>
+        <v>8900374</v>
       </c>
       <c r="E10" t="n">
-        <v>12368484</v>
+        <v>12597818</v>
       </c>
       <c r="F10" t="n">
-        <v>4086.87689638696</v>
+        <v>3320.695424516818</v>
       </c>
       <c r="G10" t="n">
-        <v>3460.729678002269</v>
+        <v>4468.503391836289</v>
       </c>
       <c r="H10" t="n">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="I10" t="n">
-        <v>35604</v>
+        <v>57717</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>471367118</v>
+        <v>459133012</v>
       </c>
       <c r="E11" t="n">
-        <v>471367118</v>
+        <v>459133010</v>
       </c>
       <c r="F11" t="n">
-        <v>59349.21047733277</v>
+        <v>69130.35744745251</v>
       </c>
       <c r="G11" t="n">
-        <v>87317.52866644067</v>
+        <v>79330.42968847885</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I11" t="n">
-        <v>55557796</v>
+        <v>56093206</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>306678</v>
+        <v>310880</v>
       </c>
       <c r="E12" t="n">
-        <v>1431604</v>
+        <v>1451220</v>
       </c>
       <c r="F12" t="n">
-        <v>301.4581688603425</v>
+        <v>121.1449415234543</v>
       </c>
       <c r="G12" t="n">
-        <v>692.1687696607565</v>
+        <v>1442.350696241729</v>
       </c>
       <c r="H12" t="n">
-        <v>1.02</v>
+        <v>0.47</v>
       </c>
       <c r="I12" t="n">
-        <v>600625</v>
+        <v>610728</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1547097</v>
+        <v>1554344</v>
       </c>
       <c r="F13" t="n">
-        <v>4512.67913950393</v>
+        <v>4506.847152507084</v>
       </c>
       <c r="G13" t="n">
-        <v>1000.712719281745</v>
+        <v>1004.9449734425</v>
       </c>
       <c r="H13" t="n">
         <v>0.19</v>
       </c>
       <c r="I13" t="n">
-        <v>168176</v>
+        <v>174199</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12512195</v>
+        <v>12679450</v>
       </c>
       <c r="E14" t="n">
-        <v>32890972</v>
+        <v>32602172</v>
       </c>
       <c r="F14" t="n">
-        <v>1369.186698340167</v>
+        <v>1576.273861031578</v>
       </c>
       <c r="G14" t="n">
-        <v>1663.552542916325</v>
+        <v>1142.60057586434</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I14" t="n">
-        <v>1615620</v>
+        <v>1568572</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>107917594</v>
+        <v>106880382</v>
       </c>
       <c r="E15" t="n">
-        <v>420245557</v>
+        <v>416182459</v>
       </c>
       <c r="F15" t="n">
-        <v>35702.23225679877</v>
+        <v>32683.66278569573</v>
       </c>
       <c r="G15" t="n">
-        <v>102038.5626828687</v>
+        <v>95496.35971070665</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>6567168</v>
+        <v>6580451</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5308691</v>
+        <v>5307304</v>
       </c>
       <c r="E16" t="n">
-        <v>7814681</v>
+        <v>7812640</v>
       </c>
       <c r="F16" t="n">
-        <v>1667.962030400728</v>
+        <v>1411.210377119794</v>
       </c>
       <c r="G16" t="n">
-        <v>4306.87145199263</v>
+        <v>2061.329560936148</v>
       </c>
       <c r="H16" t="n">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="I16" t="n">
-        <v>544941</v>
+        <v>558581</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2011340</v>
+        <v>1952365</v>
       </c>
       <c r="F17" t="n">
-        <v>3132.343612793135</v>
+        <v>1937.7233875202</v>
       </c>
       <c r="G17" t="n">
-        <v>180.1273362892766</v>
+        <v>408.272117385351</v>
       </c>
       <c r="H17" t="n">
-        <v>1.39</v>
+        <v>0.15</v>
       </c>
       <c r="I17" t="n">
-        <v>231570</v>
+        <v>233968</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>135421734</v>
+        <v>133066048</v>
       </c>
       <c r="E18" t="n">
-        <v>135421734</v>
+        <v>133066048</v>
       </c>
       <c r="F18" t="n">
-        <v>100657.9357721831</v>
+        <v>125564.6804357785</v>
       </c>
       <c r="G18" t="n">
-        <v>149818.263018647</v>
+        <v>137059.0871185412</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>67094239</v>
+        <v>63212317</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65162074</v>
+        <v>63477004</v>
       </c>
       <c r="E19" t="n">
-        <v>334164483</v>
+        <v>325523097</v>
       </c>
       <c r="F19" t="n">
-        <v>16199.54809664326</v>
+        <v>14736.36277706311</v>
       </c>
       <c r="G19" t="n">
-        <v>18481.86632016517</v>
+        <v>13211.71015687789</v>
       </c>
       <c r="H19" t="n">
         <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>16971452</v>
+        <v>16810345</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>254851429</v>
+        <v>249826839</v>
       </c>
       <c r="E20" t="n">
-        <v>254851429</v>
+        <v>249826839</v>
       </c>
       <c r="F20" t="n">
-        <v>73439.69427355692</v>
+        <v>84343.04951262407</v>
       </c>
       <c r="G20" t="n">
-        <v>89498.00746740402</v>
+        <v>70220.43603348525</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14362084</v>
+        <v>14584699</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>155403994</v>
+        <v>153441519</v>
       </c>
       <c r="E21" t="n">
-        <v>204493481</v>
+        <v>201911094</v>
       </c>
       <c r="F21" t="n">
-        <v>21320.76722752322</v>
+        <v>22436.18343954409</v>
       </c>
       <c r="G21" t="n">
-        <v>30415.65520763498</v>
+        <v>35409.16672837302</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I21" t="n">
-        <v>7203165</v>
+        <v>6992807</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75249098</v>
+        <v>72566614</v>
       </c>
       <c r="E22" t="n">
-        <v>210645724</v>
+        <v>203124425</v>
       </c>
       <c r="F22" t="n">
-        <v>28394.55792178553</v>
+        <v>28024.45370276977</v>
       </c>
       <c r="G22" t="n">
-        <v>40734.20205684849</v>
+        <v>46469.91781612236</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>30764904</v>
+        <v>31380322</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73026766</v>
+        <v>71142571</v>
       </c>
       <c r="E23" t="n">
-        <v>152297892</v>
+        <v>148368389</v>
       </c>
       <c r="F23" t="n">
-        <v>18549.77809419731</v>
+        <v>17143.42237335341</v>
       </c>
       <c r="G23" t="n">
-        <v>38752.30100244044</v>
+        <v>31485.51367377484</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I23" t="n">
-        <v>13990881</v>
+        <v>13510372</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>625230585</v>
+        <v>609608506</v>
       </c>
       <c r="E24" t="n">
-        <v>625230585</v>
+        <v>609608506</v>
       </c>
       <c r="F24" t="n">
-        <v>228785.3546726892</v>
+        <v>240926.8165334675</v>
       </c>
       <c r="G24" t="n">
-        <v>241474.2193970168</v>
+        <v>228553.9913292674</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>245780057</v>
+        <v>242803048</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>197806872</v>
+        <v>194796129</v>
       </c>
       <c r="E25" t="n">
-        <v>687198951</v>
+        <v>676739357</v>
       </c>
       <c r="F25" t="n">
-        <v>89907.03461638371</v>
+        <v>91256.71817982724</v>
       </c>
       <c r="G25" t="n">
-        <v>350886.68961797</v>
+        <v>351832.5511839787</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>25807099</v>
+        <v>26228011</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5879127</v>
+        <v>5878274</v>
       </c>
       <c r="E26" t="n">
-        <v>7988686</v>
+        <v>7987693</v>
       </c>
       <c r="F26" t="n">
-        <v>2666.790218382834</v>
+        <v>2562.785171422559</v>
       </c>
       <c r="G26" t="n">
-        <v>603.3017465476082</v>
+        <v>538.5769848486802</v>
       </c>
       <c r="H26" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>6434233</v>
+        <v>6406045</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14459316</v>
+        <v>14231281</v>
       </c>
       <c r="F27" t="n">
-        <v>1282.269583875765</v>
+        <v>1504.275809579482</v>
       </c>
       <c r="G27" t="n">
-        <v>4212.015534199358</v>
+        <v>4061.383976888664</v>
       </c>
       <c r="H27" t="n">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="I27" t="n">
-        <v>498485</v>
+        <v>473249</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25323572</v>
+        <v>25064379</v>
       </c>
       <c r="E28" t="n">
-        <v>35793880</v>
+        <v>35427520</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9423110211414</v>
+        <v>170.9338494398843</v>
       </c>
       <c r="G28" t="n">
-        <v>597.2154222803241</v>
+        <v>10631.29613602954</v>
       </c>
       <c r="H28" t="n">
-        <v>0.32</v>
+        <v>0.59</v>
       </c>
       <c r="I28" t="n">
-        <v>87929</v>
+        <v>88333</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>271796284</v>
+        <v>266040449</v>
       </c>
       <c r="E29" t="n">
-        <v>1173223645</v>
+        <v>1148378270</v>
       </c>
       <c r="F29" t="n">
-        <v>385866.7472050259</v>
+        <v>362924.4992310423</v>
       </c>
       <c r="G29" t="n">
-        <v>350721.535497654</v>
+        <v>379961.9527881619</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>111804829</v>
+        <v>109027688</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10921033</v>
+        <v>10905505</v>
       </c>
       <c r="E30" t="n">
-        <v>131898063</v>
+        <v>131697080</v>
       </c>
       <c r="F30" t="n">
-        <v>3200.119739634056</v>
+        <v>3992.137899010535</v>
       </c>
       <c r="G30" t="n">
-        <v>2728.111258902092</v>
+        <v>2199.052750453857</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>238633</v>
+        <v>230921</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21659591</v>
+        <v>21252846</v>
       </c>
       <c r="E31" t="n">
-        <v>54148977</v>
+        <v>53132115</v>
       </c>
       <c r="F31" t="n">
-        <v>10100.76366333293</v>
+        <v>12989.69698336177</v>
       </c>
       <c r="G31" t="n">
-        <v>12172.28395020884</v>
+        <v>9049.450685020445</v>
       </c>
       <c r="H31" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>2047847</v>
+        <v>2171206</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20209199</v>
+        <v>20150321</v>
       </c>
       <c r="F32" t="n">
-        <v>2848.590235722605</v>
+        <v>2239.75282194177</v>
       </c>
       <c r="G32" t="n">
-        <v>2467.276070689368</v>
+        <v>2391.712389379568</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I32" t="n">
-        <v>127399</v>
+        <v>127813</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1378506</v>
+        <v>1356346</v>
       </c>
       <c r="E33" t="n">
-        <v>5139590</v>
+        <v>5056966</v>
       </c>
       <c r="F33" t="n">
-        <v>2472.767128528066</v>
+        <v>278.3238264719946</v>
       </c>
       <c r="G33" t="n">
-        <v>3692.112589602832</v>
+        <v>1468.329079405721</v>
       </c>
       <c r="H33" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="I33" t="n">
-        <v>628376</v>
+        <v>603880</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3535006</v>
+        <v>4058045</v>
       </c>
       <c r="E34" t="n">
-        <v>10182263</v>
+        <v>11688830</v>
       </c>
       <c r="F34" t="n">
-        <v>1026.836530605893</v>
+        <v>2179.035973478107</v>
       </c>
       <c r="G34" t="n">
-        <v>2527.687660518236</v>
+        <v>1585.212577987545</v>
       </c>
       <c r="H34" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="I34" t="n">
-        <v>390919</v>
+        <v>454907</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14153989</v>
+        <v>13948075</v>
       </c>
       <c r="E35" t="n">
-        <v>68550026</v>
+        <v>67552753</v>
       </c>
       <c r="F35" t="n">
-        <v>11074.16480521714</v>
+        <v>8278.456062280091</v>
       </c>
       <c r="G35" t="n">
-        <v>11644.4579325928</v>
+        <v>11497.24007846838</v>
       </c>
       <c r="H35" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>3545837</v>
+        <v>3504646</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1491717</v>
+        <v>1488840</v>
       </c>
       <c r="E36" t="n">
-        <v>9763248</v>
+        <v>9744421</v>
       </c>
       <c r="F36" t="n">
-        <v>4820.921606175703</v>
+        <v>4352.922543226004</v>
       </c>
       <c r="G36" t="n">
-        <v>2914.183385187415</v>
+        <v>2390.788545842541</v>
       </c>
       <c r="H36" t="n">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="I36" t="n">
-        <v>537438</v>
+        <v>380260</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1871282692</v>
+        <v>1859840620</v>
       </c>
       <c r="F37" t="n">
-        <v>73099.70627924541</v>
+        <v>74314.38545217908</v>
       </c>
       <c r="G37" t="n">
-        <v>72697.30102207416</v>
+        <v>76297.01443564972</v>
       </c>
       <c r="H37" t="n">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="I37" t="n">
-        <v>25476658</v>
+        <v>25751297</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1933366</v>
+        <v>1927731</v>
       </c>
       <c r="E38" t="n">
-        <v>13863975</v>
+        <v>13823568</v>
       </c>
       <c r="F38" t="n">
-        <v>5292.003166811325</v>
+        <v>5281.976146551724</v>
       </c>
       <c r="G38" t="n">
-        <v>5066.43838045271</v>
+        <v>6007.963192166106</v>
       </c>
       <c r="H38" t="n">
-        <v>0.22</v>
+        <v>0.72</v>
       </c>
       <c r="I38" t="n">
-        <v>1850353</v>
+        <v>1843944</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>199197380</v>
+        <v>194847906</v>
       </c>
       <c r="E39" t="n">
-        <v>1127977962</v>
+        <v>1103348569</v>
       </c>
       <c r="F39" t="n">
-        <v>135123.5012635127</v>
+        <v>147344.5966559533</v>
       </c>
       <c r="G39" t="n">
-        <v>160901.4521740791</v>
+        <v>181705.1010611079</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>59463591</v>
+        <v>58767547</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>138479315</v>
+        <v>137257274</v>
       </c>
       <c r="E40" t="n">
-        <v>1025772706</v>
+        <v>1016720546</v>
       </c>
       <c r="F40" t="n">
-        <v>210071.1243800494</v>
+        <v>173211.1968206315</v>
       </c>
       <c r="G40" t="n">
-        <v>222694.6838438307</v>
+        <v>199526.6648728651</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I40" t="n">
-        <v>12490849</v>
+        <v>12266314</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>338250371</v>
+        <v>330589161</v>
       </c>
       <c r="E41" t="n">
-        <v>3043110076</v>
+        <v>2974185084</v>
       </c>
       <c r="F41" t="n">
-        <v>263630.8818699142</v>
+        <v>229796.0241897095</v>
       </c>
       <c r="G41" t="n">
-        <v>281012.7770587581</v>
+        <v>293597.5080825384</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>38387468</v>
+        <v>37175967</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1577210</v>
+        <v>1584235</v>
       </c>
       <c r="E42" t="n">
-        <v>13143414</v>
+        <v>13201955</v>
       </c>
       <c r="F42" t="n">
-        <v>3465.095756830089</v>
+        <v>3393.629921330069</v>
       </c>
       <c r="G42" t="n">
-        <v>4288.28649261339</v>
+        <v>4099.273289795517</v>
       </c>
       <c r="H42" t="n">
-        <v>0.53</v>
+        <v>0.15</v>
       </c>
       <c r="I42" t="n">
-        <v>48044</v>
+        <v>48655</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>26197587</v>
+        <v>26077357</v>
       </c>
       <c r="E43" t="n">
-        <v>78529087</v>
+        <v>78167614</v>
       </c>
       <c r="F43" t="n">
-        <v>43000.84426229556</v>
+        <v>21199.45785910642</v>
       </c>
       <c r="G43" t="n">
-        <v>44347.49929711791</v>
+        <v>66513.24390602908</v>
       </c>
       <c r="H43" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I43" t="n">
-        <v>2346909</v>
+        <v>2414906</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9644410</v>
+        <v>9541966</v>
       </c>
       <c r="F44" t="n">
-        <v>5917.02111831849</v>
+        <v>5887.895399686556</v>
       </c>
       <c r="G44" t="n">
-        <v>5571.402075382466</v>
+        <v>6109.532498937736</v>
       </c>
       <c r="H44" t="n">
         <v>0.31</v>
       </c>
       <c r="I44" t="n">
-        <v>121262</v>
+        <v>121432</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13083328</v>
+        <v>13008644</v>
       </c>
       <c r="E45" t="n">
-        <v>13083328</v>
+        <v>13008644</v>
       </c>
       <c r="F45" t="n">
-        <v>711.2765514620664</v>
+        <v>1914.638114899186</v>
       </c>
       <c r="G45" t="n">
-        <v>1027.539764397101</v>
+        <v>780.6204838748758</v>
       </c>
       <c r="H45" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="I45" t="n">
-        <v>2800287</v>
+        <v>2692498</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>298339779</v>
+        <v>290850271</v>
       </c>
       <c r="E46" t="n">
-        <v>298339779</v>
+        <v>290850271</v>
       </c>
       <c r="F46" t="n">
-        <v>24857.96072761343</v>
+        <v>28788.19111386681</v>
       </c>
       <c r="G46" t="n">
-        <v>46099.60907557765</v>
+        <v>40063.4975530709</v>
       </c>
       <c r="H46" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>12753676</v>
+        <v>12502075</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12754544</v>
+        <v>12644006</v>
       </c>
       <c r="E47" t="n">
-        <v>40351799</v>
+        <v>40002090</v>
       </c>
       <c r="F47" t="n">
-        <v>32124.58436747345</v>
+        <v>20344.35470256556</v>
       </c>
       <c r="G47" t="n">
-        <v>16479.09507290105</v>
+        <v>24416.55941814396</v>
       </c>
       <c r="H47" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="I47" t="n">
-        <v>1619289</v>
+        <v>1580287</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32172254</v>
+        <v>31795599</v>
       </c>
       <c r="E48" t="n">
-        <v>89113951</v>
+        <v>88070653</v>
       </c>
       <c r="F48" t="n">
-        <v>4689.904726106375</v>
+        <v>4622.65524780459</v>
       </c>
       <c r="G48" t="n">
-        <v>6452.614133638531</v>
+        <v>8884.462440374591</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I48" t="n">
-        <v>12024459</v>
+        <v>11987342</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28163288</v>
+        <v>28084682</v>
       </c>
       <c r="E49" t="n">
-        <v>66908971</v>
+        <v>66722221</v>
       </c>
       <c r="F49" t="n">
-        <v>17661.01001365599</v>
+        <v>18751.32900730043</v>
       </c>
       <c r="G49" t="n">
-        <v>18379.50554260853</v>
+        <v>17648.84824139246</v>
       </c>
       <c r="H49" t="n">
         <v>0.06</v>
       </c>
       <c r="I49" t="n">
-        <v>616747</v>
+        <v>588391</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12033148</v>
+        <v>12076670</v>
       </c>
       <c r="E50" t="n">
-        <v>18339311</v>
+        <v>18405642</v>
       </c>
       <c r="F50" t="n">
-        <v>3710.6894106245</v>
+        <v>4948.057250566966</v>
       </c>
       <c r="G50" t="n">
-        <v>6465.418676609236</v>
+        <v>21307.16959091404</v>
       </c>
       <c r="H50" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="I50" t="n">
-        <v>664039</v>
+        <v>671600</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>301107177</v>
+        <v>296907905</v>
       </c>
       <c r="E51" t="n">
-        <v>301107177</v>
+        <v>296907905</v>
       </c>
       <c r="F51" t="n">
-        <v>72695.6992247723</v>
+        <v>75591.22945384153</v>
       </c>
       <c r="G51" t="n">
-        <v>126778.7069741011</v>
+        <v>103259.9425329739</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>52092355</v>
+        <v>50490931</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89121237</v>
+        <v>88643188</v>
       </c>
       <c r="E52" t="n">
-        <v>513555006</v>
+        <v>510800286</v>
       </c>
       <c r="F52" t="n">
-        <v>264608.9757830771</v>
+        <v>262630.1823683833</v>
       </c>
       <c r="G52" t="n">
-        <v>240967.0338237894</v>
+        <v>275009.8837620415</v>
       </c>
       <c r="H52" t="n">
         <v>0.04</v>
       </c>
       <c r="I52" t="n">
-        <v>15873827</v>
+        <v>15871718</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30400952</v>
+        <v>29892346</v>
       </c>
       <c r="E53" t="n">
-        <v>136117534</v>
+        <v>133840294</v>
       </c>
       <c r="F53" t="n">
-        <v>40494.38501815761</v>
+        <v>35061.56348522831</v>
       </c>
       <c r="G53" t="n">
-        <v>46049.29997059088</v>
+        <v>47830.87961617694</v>
       </c>
       <c r="H53" t="n">
         <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>9453676</v>
+        <v>8988929</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9296358</v>
+        <v>9395254</v>
       </c>
       <c r="F54" t="n">
-        <v>2905.908676592959</v>
+        <v>2935.450989905556</v>
       </c>
       <c r="G54" t="n">
-        <v>8275.504044543479</v>
+        <v>8263.723522329163</v>
       </c>
       <c r="H54" t="n">
-        <v>0.21</v>
+        <v>0.75</v>
       </c>
       <c r="I54" t="n">
-        <v>290388</v>
+        <v>291437</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4770969</v>
+        <v>4761573</v>
       </c>
       <c r="F55" t="n">
-        <v>4312.635209419698</v>
+        <v>2131.637101565982</v>
       </c>
       <c r="G55" t="n">
-        <v>898.5660388830172</v>
+        <v>1393.998596303996</v>
       </c>
       <c r="H55" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="I55" t="n">
-        <v>155188</v>
+        <v>91351</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125421942</v>
+        <v>125114755</v>
       </c>
       <c r="E56" t="n">
-        <v>2077090089</v>
+        <v>2072002816</v>
       </c>
       <c r="F56" t="n">
-        <v>194013.6082935967</v>
+        <v>187970.8434325676</v>
       </c>
       <c r="G56" t="n">
-        <v>189458.0734834436</v>
+        <v>183436.7338028084</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5148995</v>
+        <v>5046968</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>74471669</v>
+        <v>72641743</v>
       </c>
       <c r="E57" t="n">
-        <v>75273308</v>
+        <v>73423683</v>
       </c>
       <c r="F57" t="n">
-        <v>48571.91013208689</v>
+        <v>54599.25335305146</v>
       </c>
       <c r="G57" t="n">
-        <v>62011.77965274838</v>
+        <v>61541.6313254392</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I57" t="n">
-        <v>8904462</v>
+        <v>8668188</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>236167057</v>
+        <v>235097772</v>
       </c>
       <c r="E58" t="n">
-        <v>236167057</v>
+        <v>235097772</v>
       </c>
       <c r="F58" t="n">
-        <v>129161.1545629161</v>
+        <v>112108.7660533011</v>
       </c>
       <c r="G58" t="n">
-        <v>128264.7562746058</v>
+        <v>123537.7784446275</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>43007752</v>
+        <v>43100710</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23528163</v>
+        <v>23056015</v>
       </c>
       <c r="E59" t="n">
-        <v>140773731</v>
+        <v>137948774</v>
       </c>
       <c r="F59" t="n">
-        <v>66784.06828732743</v>
+        <v>67371.82558857619</v>
       </c>
       <c r="G59" t="n">
-        <v>71999.40848080773</v>
+        <v>71750.49022837949</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I59" t="n">
-        <v>13119160</v>
+        <v>12675801</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2411952</v>
+        <v>2338061</v>
       </c>
       <c r="E60" t="n">
-        <v>4451395</v>
+        <v>4315024</v>
       </c>
       <c r="F60" t="n">
-        <v>2977.992202228034</v>
+        <v>4582.837524983278</v>
       </c>
       <c r="G60" t="n">
-        <v>1983.462189393718</v>
+        <v>394.0473421728675</v>
       </c>
       <c r="H60" t="n">
         <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>22498</v>
+        <v>68771</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10061201</v>
+        <v>10022002</v>
       </c>
       <c r="E62" t="n">
-        <v>30000420</v>
+        <v>29883536</v>
       </c>
       <c r="F62" t="n">
-        <v>5319.273134198626</v>
+        <v>3901.961583258058</v>
       </c>
       <c r="G62" t="n">
-        <v>4326.708706563252</v>
+        <v>4615.056805222702</v>
       </c>
       <c r="H62" t="n">
         <v>0.17</v>
       </c>
       <c r="I62" t="n">
-        <v>5248749</v>
+        <v>5380980</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14557613</v>
+        <v>14600175</v>
       </c>
       <c r="E63" t="n">
-        <v>29470998</v>
+        <v>29557164</v>
       </c>
       <c r="F63" t="n">
-        <v>5626.771380035788</v>
+        <v>5767.753277560796</v>
       </c>
       <c r="G63" t="n">
-        <v>13685.64851242273</v>
+        <v>14237.92336913397</v>
       </c>
       <c r="H63" t="n">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="I63" t="n">
-        <v>517436</v>
+        <v>520886</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38433700</v>
+        <v>37410272</v>
       </c>
       <c r="E64" t="n">
-        <v>272488665</v>
+        <v>265232728</v>
       </c>
       <c r="F64" t="n">
-        <v>64211.55332525397</v>
+        <v>46610.86997734317</v>
       </c>
       <c r="G64" t="n">
-        <v>69538.66764944662</v>
+        <v>76347.40897465171</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I64" t="n">
-        <v>1940744</v>
+        <v>1842048</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1260056</v>
+        <v>1257366</v>
       </c>
       <c r="E65" t="n">
-        <v>7814279</v>
+        <v>7797619</v>
       </c>
       <c r="F65" t="n">
-        <v>1845.177787206787</v>
+        <v>1859.48663475918</v>
       </c>
       <c r="G65" t="n">
-        <v>2442.96801667889</v>
+        <v>2464.689556852425</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>841497</v>
+        <v>818772</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>599108149</v>
+        <v>590994998</v>
       </c>
       <c r="E66" t="n">
-        <v>2320257469</v>
+        <v>2288836430</v>
       </c>
       <c r="F66" t="n">
-        <v>51112.39072256338</v>
+        <v>70210.33988753185</v>
       </c>
       <c r="G66" t="n">
-        <v>81249.42356059265</v>
+        <v>85626.40844471735</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>30673618</v>
+        <v>29805060</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5810330</v>
+        <v>5796357</v>
       </c>
       <c r="E67" t="n">
-        <v>26013593</v>
+        <v>25951034</v>
       </c>
       <c r="F67" t="n">
-        <v>4440.75963689229</v>
+        <v>4223.568730548752</v>
       </c>
       <c r="G67" t="n">
-        <v>4691.069616398608</v>
+        <v>4720.477933572525</v>
       </c>
       <c r="H67" t="n">
         <v>0.31</v>
       </c>
       <c r="I67" t="n">
-        <v>141884</v>
+        <v>143556</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>118273350</v>
+        <v>116347155</v>
       </c>
       <c r="E68" t="n">
-        <v>1028314087</v>
+        <v>1011567001</v>
       </c>
       <c r="F68" t="n">
-        <v>159322.4076468413</v>
+        <v>156444.2657940499</v>
       </c>
       <c r="G68" t="n">
-        <v>160619.6057008824</v>
+        <v>160263.6762651698</v>
       </c>
       <c r="H68" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I68" t="n">
-        <v>9617678</v>
+        <v>9405156</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>104647553</v>
+        <v>101701435</v>
       </c>
       <c r="E69" t="n">
-        <v>159642296</v>
+        <v>155147923</v>
       </c>
       <c r="F69" t="n">
-        <v>65898.06078716552</v>
+        <v>52810.99543298875</v>
       </c>
       <c r="G69" t="n">
-        <v>95996.03051485978</v>
+        <v>82645.44243400762</v>
       </c>
       <c r="H69" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I69" t="n">
-        <v>7166143</v>
+        <v>7182836</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1132084</v>
+        <v>1123257</v>
       </c>
       <c r="E70" t="n">
-        <v>4383677</v>
+        <v>4349498</v>
       </c>
       <c r="F70" t="n">
-        <v>2688.017353729959</v>
+        <v>2311.665809782619</v>
       </c>
       <c r="G70" t="n">
-        <v>2381.815932822682</v>
+        <v>4470.286043873144</v>
       </c>
       <c r="H70" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="I70" t="n">
-        <v>429887</v>
+        <v>429517</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>108402978</v>
+        <v>106769232</v>
       </c>
       <c r="E71" t="n">
-        <v>415851272</v>
+        <v>409583960</v>
       </c>
       <c r="F71" t="n">
-        <v>154356.7850222301</v>
+        <v>152417.1967736351</v>
       </c>
       <c r="G71" t="n">
-        <v>156779.4839428535</v>
+        <v>155813.2543001321</v>
       </c>
       <c r="H71" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I71" t="n">
-        <v>18884868</v>
+        <v>18632001</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3176502</v>
+        <v>3186978</v>
       </c>
       <c r="E72" t="n">
-        <v>30097831</v>
+        <v>30197091</v>
       </c>
       <c r="F72" t="n">
-        <v>4754.43831429386</v>
+        <v>3702.549527289017</v>
       </c>
       <c r="G72" t="n">
-        <v>2207.88219471183</v>
+        <v>2158.478993048438</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="I72" t="n">
-        <v>279087</v>
+        <v>240051</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31287735</v>
+        <v>30783272</v>
       </c>
       <c r="F73" t="n">
-        <v>4628.414690953739</v>
+        <v>4009.691843811946</v>
       </c>
       <c r="G73" t="n">
-        <v>4015.395591324161</v>
+        <v>4233.629409413928</v>
       </c>
       <c r="H73" t="n">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>6124313</v>
+        <v>5980672</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87552280</v>
+        <v>87511807</v>
       </c>
       <c r="E74" t="n">
-        <v>323661355</v>
+        <v>323510383</v>
       </c>
       <c r="F74" t="n">
-        <v>8111.176396206867</v>
+        <v>7072.120926565636</v>
       </c>
       <c r="G74" t="n">
-        <v>733.4929792426695</v>
+        <v>6881.840833517831</v>
       </c>
       <c r="H74" t="n">
         <v>0.02</v>
       </c>
       <c r="I74" t="n">
-        <v>368410</v>
+        <v>362697</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23477585</v>
+        <v>23220836</v>
       </c>
       <c r="E75" t="n">
-        <v>23477585</v>
+        <v>23220836</v>
       </c>
       <c r="F75" t="n">
-        <v>29266.80366047015</v>
+        <v>24713.94584773757</v>
       </c>
       <c r="G75" t="n">
-        <v>21459.59824245736</v>
+        <v>27408.54348724275</v>
       </c>
       <c r="H75" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I75" t="n">
-        <v>6016002</v>
+        <v>6286680</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>487600815</v>
+        <v>480964723</v>
       </c>
       <c r="E76" t="n">
-        <v>1698158962</v>
+        <v>1675047557</v>
       </c>
       <c r="F76" t="n">
-        <v>190178.5248108141</v>
+        <v>199888.314707712</v>
       </c>
       <c r="G76" t="n">
-        <v>210088.6994434344</v>
+        <v>243547.9860770269</v>
       </c>
       <c r="H76" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>31071038</v>
+        <v>30559277</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5630144039</v>
+        <v>5547734082</v>
       </c>
       <c r="E77" t="n">
-        <v>5629690096</v>
+        <v>5547734082</v>
       </c>
       <c r="F77" t="n">
-        <v>42411.59135592659</v>
+        <v>41858.8468991245</v>
       </c>
       <c r="G77" t="n">
-        <v>94209.61441041357</v>
+        <v>93064.19076654273</v>
       </c>
       <c r="H77" t="n">
         <v>0.18</v>
       </c>
       <c r="I77" t="n">
-        <v>29756532</v>
+        <v>28516084</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7476012</v>
+        <v>7611605</v>
       </c>
       <c r="E78" t="n">
-        <v>19421875</v>
+        <v>19774132</v>
       </c>
       <c r="F78" t="n">
-        <v>1183.523791795314</v>
+        <v>1273.925473742303</v>
       </c>
       <c r="G78" t="n">
-        <v>2719.811886603065</v>
+        <v>5841.099015412399</v>
       </c>
       <c r="H78" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I78" t="n">
-        <v>678359</v>
+        <v>676604</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>103345534</v>
+        <v>102401297</v>
       </c>
       <c r="E79" t="n">
-        <v>156580425</v>
+        <v>155149796</v>
       </c>
       <c r="F79" t="n">
-        <v>39421.99889273175</v>
+        <v>30226.61308775607</v>
       </c>
       <c r="G79" t="n">
-        <v>19300.66546518709</v>
+        <v>22508.34740077009</v>
       </c>
       <c r="H79" t="n">
         <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>6997854</v>
+        <v>7231979</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2644713</v>
+        <v>2659491</v>
       </c>
       <c r="E80" t="n">
-        <v>10578852</v>
+        <v>10637965</v>
       </c>
       <c r="F80" t="n">
-        <v>73747.3105225113</v>
+        <v>65695.01695119996</v>
       </c>
       <c r="G80" t="n">
-        <v>34046.49368824316</v>
+        <v>14174.89340673029</v>
       </c>
       <c r="H80" t="n">
-        <v>0.28</v>
+        <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>4936033</v>
+        <v>4947174</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2432044</v>
+        <v>2394111</v>
       </c>
       <c r="F81" t="n">
-        <v>183.2417143101727</v>
+        <v>82.96213540423238</v>
       </c>
       <c r="G81" t="n">
-        <v>712.0049096649082</v>
+        <v>504.2695985650293</v>
       </c>
       <c r="H81" t="n">
         <v>0.21</v>
       </c>
       <c r="I81" t="n">
-        <v>288311</v>
+        <v>295393</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>405536580</v>
+        <v>397645866</v>
       </c>
       <c r="E82" t="n">
-        <v>2317351884</v>
+        <v>2272262093</v>
       </c>
       <c r="F82" t="n">
-        <v>156862.4749907844</v>
+        <v>164806.9452665201</v>
       </c>
       <c r="G82" t="n">
-        <v>183505.1754578056</v>
+        <v>194435.7240573566</v>
       </c>
       <c r="H82" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I82" t="n">
-        <v>37149296</v>
+        <v>36223295</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4054076</v>
+        <v>4016458</v>
       </c>
       <c r="F2" t="n">
-        <v>335.0295114456354</v>
+        <v>604.6373914048461</v>
       </c>
       <c r="G2" t="n">
-        <v>1021.858459362701</v>
+        <v>408.0878530923226</v>
       </c>
       <c r="H2" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="I2" t="n">
-        <v>69483</v>
+        <v>81749</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1335791</v>
+        <v>1330863</v>
       </c>
       <c r="E3" t="n">
-        <v>4317824</v>
+        <v>4301896</v>
       </c>
       <c r="F3" t="n">
-        <v>585.7206276631317</v>
+        <v>739.0121978667229</v>
       </c>
       <c r="G3" t="n">
-        <v>393.1594234673657</v>
+        <v>6186.550729050776</v>
       </c>
       <c r="H3" t="n">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="I3" t="n">
-        <v>71256</v>
+        <v>69896</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243167289</v>
+        <v>243452124</v>
       </c>
       <c r="E4" t="n">
-        <v>1524867892</v>
+        <v>1526654052</v>
       </c>
       <c r="F4" t="n">
-        <v>218374.7626885945</v>
+        <v>242025.9175841314</v>
       </c>
       <c r="G4" t="n">
-        <v>253843.9094687972</v>
+        <v>242795.4428045714</v>
       </c>
       <c r="H4" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15505817</v>
+        <v>15355555</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138943050</v>
+        <v>139243652</v>
       </c>
       <c r="E5" t="n">
-        <v>153971092</v>
+        <v>154304207</v>
       </c>
       <c r="F5" t="n">
-        <v>93002.19110803607</v>
+        <v>88259.22826745364</v>
       </c>
       <c r="G5" t="n">
-        <v>91873.21620250359</v>
+        <v>95938.2980645699</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>31929337</v>
+        <v>32880520</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>125060333</v>
+        <v>124583161</v>
       </c>
       <c r="E6" t="n">
-        <v>490199060</v>
+        <v>488328689</v>
       </c>
       <c r="F6" t="n">
-        <v>35760.54917209363</v>
+        <v>37796.19142238407</v>
       </c>
       <c r="G6" t="n">
-        <v>48259.23135751914</v>
+        <v>47763.813510329</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>27993640</v>
+        <v>28607788</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4796770</v>
+        <v>4737508</v>
       </c>
       <c r="E7" t="n">
-        <v>29463972</v>
+        <v>29099877</v>
       </c>
       <c r="F7" t="n">
-        <v>2016.087566703</v>
+        <v>2547.200890254677</v>
       </c>
       <c r="G7" t="n">
-        <v>2424.814214917313</v>
+        <v>2362.128360200848</v>
       </c>
       <c r="H7" t="n">
         <v>0.24</v>
       </c>
       <c r="I7" t="n">
-        <v>482187</v>
+        <v>468285</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198766</v>
+        <v>199176</v>
       </c>
       <c r="E8" t="n">
-        <v>2186647</v>
+        <v>2191150</v>
       </c>
       <c r="F8" t="n">
-        <v>3779.372752711737</v>
+        <v>3734.408701287999</v>
       </c>
       <c r="G8" t="n">
-        <v>3576.255845476855</v>
+        <v>3194.356881694153</v>
       </c>
       <c r="H8" t="n">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>43857</v>
+        <v>40226</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71999150</v>
+        <v>72250427</v>
       </c>
       <c r="E9" t="n">
-        <v>124732856</v>
+        <v>125165180</v>
       </c>
       <c r="F9" t="n">
-        <v>8952.245766914537</v>
+        <v>4507.028521247768</v>
       </c>
       <c r="G9" t="n">
-        <v>7517.702610417587</v>
+        <v>12514.72148583175</v>
       </c>
       <c r="H9" t="n">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>657689</v>
+        <v>663218</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8900374</v>
+        <v>8874224</v>
       </c>
       <c r="E10" t="n">
-        <v>12597818</v>
+        <v>12560806</v>
       </c>
       <c r="F10" t="n">
-        <v>3320.695424516818</v>
+        <v>4366.70257561219</v>
       </c>
       <c r="G10" t="n">
-        <v>4468.503391836289</v>
+        <v>4366.640341235817</v>
       </c>
       <c r="H10" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I10" t="n">
-        <v>57717</v>
+        <v>59985</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>459133012</v>
+        <v>468532009</v>
       </c>
       <c r="E11" t="n">
-        <v>459133010</v>
+        <v>468532009</v>
       </c>
       <c r="F11" t="n">
-        <v>69130.35744745251</v>
+        <v>70563.53033580301</v>
       </c>
       <c r="G11" t="n">
-        <v>79330.42968847885</v>
+        <v>90071.08187650052</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>56093206</v>
+        <v>58546967</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>310880</v>
+        <v>308991</v>
       </c>
       <c r="E12" t="n">
-        <v>1451220</v>
+        <v>1442402</v>
       </c>
       <c r="F12" t="n">
-        <v>121.1449415234543</v>
+        <v>15.75821233816661</v>
       </c>
       <c r="G12" t="n">
-        <v>1442.350696241729</v>
+        <v>1263.376613409468</v>
       </c>
       <c r="H12" t="n">
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="I12" t="n">
-        <v>610728</v>
+        <v>619065</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1554344</v>
+        <v>1552604</v>
       </c>
       <c r="F13" t="n">
-        <v>4506.847152507084</v>
+        <v>4504.770382672155</v>
       </c>
       <c r="G13" t="n">
-        <v>1004.9449734425</v>
+        <v>1164.231832381643</v>
       </c>
       <c r="H13" t="n">
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
       <c r="I13" t="n">
-        <v>174199</v>
+        <v>190619</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12679450</v>
+        <v>12845761</v>
       </c>
       <c r="E14" t="n">
-        <v>32602172</v>
+        <v>32349858</v>
       </c>
       <c r="F14" t="n">
-        <v>1576.273861031578</v>
+        <v>1803.772570333037</v>
       </c>
       <c r="G14" t="n">
-        <v>1142.60057586434</v>
+        <v>961.2193318964756</v>
       </c>
       <c r="H14" t="n">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1568572</v>
+        <v>1586848</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>106880382</v>
+        <v>107708564</v>
       </c>
       <c r="E15" t="n">
-        <v>416182459</v>
+        <v>419383041</v>
       </c>
       <c r="F15" t="n">
-        <v>32683.66278569573</v>
+        <v>35044.72016922161</v>
       </c>
       <c r="G15" t="n">
-        <v>95496.35971070665</v>
+        <v>95412.58923414433</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>6580451</v>
+        <v>6391036</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5307304</v>
+        <v>5356871</v>
       </c>
       <c r="E16" t="n">
-        <v>7812640</v>
+        <v>7885604</v>
       </c>
       <c r="F16" t="n">
-        <v>1411.210377119794</v>
+        <v>2534.425305783121</v>
       </c>
       <c r="G16" t="n">
-        <v>2061.329560936148</v>
+        <v>3564.557426495085</v>
       </c>
       <c r="H16" t="n">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="I16" t="n">
-        <v>558581</v>
+        <v>639147</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1952365</v>
+        <v>1922856</v>
       </c>
       <c r="F17" t="n">
-        <v>1937.7233875202</v>
+        <v>277.0527285426421</v>
       </c>
       <c r="G17" t="n">
-        <v>408.272117385351</v>
+        <v>591.0945175378304</v>
       </c>
       <c r="H17" t="n">
-        <v>0.15</v>
+        <v>1.3</v>
       </c>
       <c r="I17" t="n">
-        <v>233968</v>
+        <v>216227</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>133066048</v>
+        <v>133555219</v>
       </c>
       <c r="E18" t="n">
-        <v>133066048</v>
+        <v>133555219</v>
       </c>
       <c r="F18" t="n">
-        <v>125564.6804357785</v>
+        <v>95529.93853141739</v>
       </c>
       <c r="G18" t="n">
-        <v>137059.0871185412</v>
+        <v>153141.1518711656</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>63212317</v>
+        <v>63223387</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63477004</v>
+        <v>63702129</v>
       </c>
       <c r="E19" t="n">
-        <v>325523097</v>
+        <v>326677584</v>
       </c>
       <c r="F19" t="n">
-        <v>14736.36277706311</v>
+        <v>22271.29629578711</v>
       </c>
       <c r="G19" t="n">
-        <v>13211.71015687789</v>
+        <v>17238.56290535597</v>
       </c>
       <c r="H19" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>16810345</v>
+        <v>18023793</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>249826839</v>
+        <v>249070807</v>
       </c>
       <c r="E20" t="n">
-        <v>249826839</v>
+        <v>249070807</v>
       </c>
       <c r="F20" t="n">
-        <v>84343.04951262407</v>
+        <v>69009.36310529671</v>
       </c>
       <c r="G20" t="n">
-        <v>70220.43603348525</v>
+        <v>90927.78840554746</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14584699</v>
+        <v>14837512</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>153441519</v>
+        <v>151573358</v>
       </c>
       <c r="E21" t="n">
-        <v>201911094</v>
+        <v>199452813</v>
       </c>
       <c r="F21" t="n">
-        <v>22436.18343954409</v>
+        <v>22417.80463961464</v>
       </c>
       <c r="G21" t="n">
-        <v>35409.16672837302</v>
+        <v>35630.1647657377</v>
       </c>
       <c r="H21" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="I21" t="n">
-        <v>6992807</v>
+        <v>6978040</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72566614</v>
+        <v>71847414</v>
       </c>
       <c r="E22" t="n">
-        <v>203124425</v>
+        <v>201120723</v>
       </c>
       <c r="F22" t="n">
-        <v>28024.45370276977</v>
+        <v>23748.71748400997</v>
       </c>
       <c r="G22" t="n">
-        <v>46469.91781612236</v>
+        <v>38860.03431203985</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>31380322</v>
+        <v>32319175</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71142571</v>
+        <v>71441000</v>
       </c>
       <c r="E23" t="n">
-        <v>148368389</v>
+        <v>148990763</v>
       </c>
       <c r="F23" t="n">
-        <v>17143.42237335341</v>
+        <v>17099.86720915621</v>
       </c>
       <c r="G23" t="n">
-        <v>31485.51367377484</v>
+        <v>41521.74171975231</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>13510372</v>
+        <v>13669581</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>609608506</v>
+        <v>606079925</v>
       </c>
       <c r="E24" t="n">
-        <v>609608506</v>
+        <v>606079925</v>
       </c>
       <c r="F24" t="n">
-        <v>240926.8165334675</v>
+        <v>212129.1685831417</v>
       </c>
       <c r="G24" t="n">
-        <v>228553.9913292674</v>
+        <v>210641.1900279771</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>242803048</v>
+        <v>256366043</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>194796129</v>
+        <v>196112339</v>
       </c>
       <c r="E25" t="n">
-        <v>676739357</v>
+        <v>681311989</v>
       </c>
       <c r="F25" t="n">
-        <v>91256.71817982724</v>
+        <v>84378.4272154486</v>
       </c>
       <c r="G25" t="n">
-        <v>351832.5511839787</v>
+        <v>363022.6795884408</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>26228011</v>
+        <v>26306811</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5878274</v>
+        <v>5895750</v>
       </c>
       <c r="E26" t="n">
-        <v>7987693</v>
+        <v>8011397</v>
       </c>
       <c r="F26" t="n">
-        <v>2562.785171422559</v>
+        <v>2479.059457175936</v>
       </c>
       <c r="G26" t="n">
-        <v>538.5769848486802</v>
+        <v>668.0101089084245</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I26" t="n">
-        <v>6406045</v>
+        <v>6394229</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14231281</v>
+        <v>14300981</v>
       </c>
       <c r="F27" t="n">
-        <v>1504.275809579482</v>
+        <v>1973.065682926807</v>
       </c>
       <c r="G27" t="n">
-        <v>4061.383976888664</v>
+        <v>3221.378339384224</v>
       </c>
       <c r="H27" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I27" t="n">
-        <v>473249</v>
+        <v>466310</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25064379</v>
+        <v>24990670</v>
       </c>
       <c r="E28" t="n">
-        <v>35427520</v>
+        <v>35323336</v>
       </c>
       <c r="F28" t="n">
-        <v>170.9338494398843</v>
+        <v>1258.042060152083</v>
       </c>
       <c r="G28" t="n">
-        <v>10631.29613602954</v>
+        <v>10242.62012008413</v>
       </c>
       <c r="H28" t="n">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="I28" t="n">
-        <v>88333</v>
+        <v>74388</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>266040449</v>
+        <v>265022372</v>
       </c>
       <c r="E29" t="n">
-        <v>1148378270</v>
+        <v>1143983682</v>
       </c>
       <c r="F29" t="n">
-        <v>362924.4992310423</v>
+        <v>357152.4006531835</v>
       </c>
       <c r="G29" t="n">
-        <v>379961.9527881619</v>
+        <v>370956.1244347949</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>109027688</v>
+        <v>112408469</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10905505</v>
+        <v>10849896</v>
       </c>
       <c r="E30" t="n">
-        <v>131697080</v>
+        <v>131023429</v>
       </c>
       <c r="F30" t="n">
-        <v>3992.137899010535</v>
+        <v>2826.322733546331</v>
       </c>
       <c r="G30" t="n">
-        <v>2199.052750453857</v>
+        <v>7251.705450484551</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="I30" t="n">
-        <v>230921</v>
+        <v>236925</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21252846</v>
+        <v>21294121</v>
       </c>
       <c r="E31" t="n">
-        <v>53132115</v>
+        <v>53235304</v>
       </c>
       <c r="F31" t="n">
-        <v>12989.69698336177</v>
+        <v>12888.49954513103</v>
       </c>
       <c r="G31" t="n">
-        <v>9049.450685020445</v>
+        <v>10022.77008023168</v>
       </c>
       <c r="H31" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>2171206</v>
+        <v>2049160</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20150321</v>
+        <v>20099713</v>
       </c>
       <c r="F32" t="n">
-        <v>2239.75282194177</v>
+        <v>2556.334795290737</v>
       </c>
       <c r="G32" t="n">
-        <v>2391.712389379568</v>
+        <v>2409.73974587577</v>
       </c>
       <c r="H32" t="n">
         <v>0.3</v>
       </c>
       <c r="I32" t="n">
-        <v>127813</v>
+        <v>128693</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1356346</v>
+        <v>1361597</v>
       </c>
       <c r="E33" t="n">
-        <v>5056966</v>
+        <v>5076540</v>
       </c>
       <c r="F33" t="n">
-        <v>278.3238264719946</v>
+        <v>2165.160958006431</v>
       </c>
       <c r="G33" t="n">
-        <v>1468.329079405721</v>
+        <v>2075.573332214877</v>
       </c>
       <c r="H33" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="I33" t="n">
-        <v>603880</v>
+        <v>608774</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4058045</v>
+        <v>3971062</v>
       </c>
       <c r="E34" t="n">
-        <v>11688830</v>
+        <v>11438268</v>
       </c>
       <c r="F34" t="n">
-        <v>2179.035973478107</v>
+        <v>2249.779204855687</v>
       </c>
       <c r="G34" t="n">
-        <v>1585.212577987545</v>
+        <v>2799.629372330227</v>
       </c>
       <c r="H34" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="I34" t="n">
-        <v>454907</v>
+        <v>513433</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13948075</v>
+        <v>13825835</v>
       </c>
       <c r="E35" t="n">
-        <v>67552753</v>
+        <v>66960723</v>
       </c>
       <c r="F35" t="n">
-        <v>8278.456062280091</v>
+        <v>8167.631570540113</v>
       </c>
       <c r="G35" t="n">
-        <v>11497.24007846838</v>
+        <v>12760.25605134789</v>
       </c>
       <c r="H35" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I35" t="n">
-        <v>3504646</v>
+        <v>3596950</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1488840</v>
+        <v>1470663</v>
       </c>
       <c r="E36" t="n">
-        <v>9744421</v>
+        <v>9625451</v>
       </c>
       <c r="F36" t="n">
-        <v>4352.922543226004</v>
+        <v>4047.203660840682</v>
       </c>
       <c r="G36" t="n">
-        <v>2390.788545842541</v>
+        <v>2559.635868771584</v>
       </c>
       <c r="H36" t="n">
-        <v>0.31</v>
+        <v>0.72</v>
       </c>
       <c r="I36" t="n">
-        <v>380260</v>
+        <v>342583</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1859840620</v>
+        <v>1874205379</v>
       </c>
       <c r="F37" t="n">
-        <v>74314.38545217908</v>
+        <v>70578.72337122988</v>
       </c>
       <c r="G37" t="n">
-        <v>76297.01443564972</v>
+        <v>78212.48913722449</v>
       </c>
       <c r="H37" t="n">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="I37" t="n">
-        <v>25751297</v>
+        <v>26062458</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1927731</v>
+        <v>2025891</v>
       </c>
       <c r="E38" t="n">
-        <v>13823568</v>
+        <v>14527464</v>
       </c>
       <c r="F38" t="n">
-        <v>5281.976146551724</v>
+        <v>5230.48206574605</v>
       </c>
       <c r="G38" t="n">
-        <v>6007.963192166106</v>
+        <v>2650.517894830242</v>
       </c>
       <c r="H38" t="n">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="I38" t="n">
-        <v>1843944</v>
+        <v>608905</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>194847906</v>
+        <v>196274156</v>
       </c>
       <c r="E39" t="n">
-        <v>1103348569</v>
+        <v>1111424870</v>
       </c>
       <c r="F39" t="n">
-        <v>147344.5966559533</v>
+        <v>143847.2287751468</v>
       </c>
       <c r="G39" t="n">
-        <v>181705.1010611079</v>
+        <v>168090.7721616332</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>58767547</v>
+        <v>60556649</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>137257274</v>
+        <v>137325315</v>
       </c>
       <c r="E40" t="n">
-        <v>1016720546</v>
+        <v>1017224554</v>
       </c>
       <c r="F40" t="n">
-        <v>173211.1968206315</v>
+        <v>199171.1763833411</v>
       </c>
       <c r="G40" t="n">
-        <v>199526.6648728651</v>
+        <v>194679.0014885851</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>12266314</v>
+        <v>12142618</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>330589161</v>
+        <v>333920648</v>
       </c>
       <c r="E41" t="n">
-        <v>2974185084</v>
+        <v>3004157205</v>
       </c>
       <c r="F41" t="n">
-        <v>229796.0241897095</v>
+        <v>261065.8034421803</v>
       </c>
       <c r="G41" t="n">
-        <v>293597.5080825384</v>
+        <v>286161.5074100729</v>
       </c>
       <c r="H41" t="n">
         <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>37175967</v>
+        <v>37692591</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1584235</v>
+        <v>1600952</v>
       </c>
       <c r="E42" t="n">
-        <v>13201955</v>
+        <v>13341268</v>
       </c>
       <c r="F42" t="n">
-        <v>3393.629921330069</v>
+        <v>2999.505527256247</v>
       </c>
       <c r="G42" t="n">
-        <v>4099.273289795517</v>
+        <v>3988.361725577416</v>
       </c>
       <c r="H42" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I42" t="n">
-        <v>48655</v>
+        <v>53070</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>26077357</v>
+        <v>26000024</v>
       </c>
       <c r="E43" t="n">
-        <v>78167614</v>
+        <v>77935336</v>
       </c>
       <c r="F43" t="n">
-        <v>21199.45785910642</v>
+        <v>55502.94121249509</v>
       </c>
       <c r="G43" t="n">
-        <v>66513.24390602908</v>
+        <v>67189.55469720167</v>
       </c>
       <c r="H43" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I43" t="n">
-        <v>2414906</v>
+        <v>2429707</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9541966</v>
+        <v>9456946</v>
       </c>
       <c r="F44" t="n">
-        <v>5887.895399686556</v>
+        <v>5880.131419404905</v>
       </c>
       <c r="G44" t="n">
-        <v>6109.532498937736</v>
+        <v>6034.125722737939</v>
       </c>
       <c r="H44" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I44" t="n">
-        <v>121432</v>
+        <v>121745</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13008644</v>
+        <v>12989507</v>
       </c>
       <c r="E45" t="n">
-        <v>13008644</v>
+        <v>12989507</v>
       </c>
       <c r="F45" t="n">
-        <v>1914.638114899186</v>
+        <v>1564.623149123928</v>
       </c>
       <c r="G45" t="n">
-        <v>780.6204838748758</v>
+        <v>804.189122794201</v>
       </c>
       <c r="H45" t="n">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="I45" t="n">
-        <v>2692498</v>
+        <v>2646362</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>290850271</v>
+        <v>290573991</v>
       </c>
       <c r="E46" t="n">
-        <v>290850271</v>
+        <v>290573991</v>
       </c>
       <c r="F46" t="n">
-        <v>28788.19111386681</v>
+        <v>17975.86933754299</v>
       </c>
       <c r="G46" t="n">
-        <v>40063.4975530709</v>
+        <v>41185.94678805208</v>
       </c>
       <c r="H46" t="n">
         <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>12502075</v>
+        <v>12156519</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12644006</v>
+        <v>12658062</v>
       </c>
       <c r="E47" t="n">
-        <v>40002090</v>
+        <v>40046559</v>
       </c>
       <c r="F47" t="n">
-        <v>20344.35470256556</v>
+        <v>22954.10701850759</v>
       </c>
       <c r="G47" t="n">
-        <v>24416.55941814396</v>
+        <v>23786.30252384866</v>
       </c>
       <c r="H47" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="I47" t="n">
-        <v>1580287</v>
+        <v>1489086</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31795599</v>
+        <v>31550436</v>
       </c>
       <c r="E48" t="n">
-        <v>88070653</v>
+        <v>87391576</v>
       </c>
       <c r="F48" t="n">
-        <v>4622.65524780459</v>
+        <v>3689.675701853345</v>
       </c>
       <c r="G48" t="n">
-        <v>8884.462440374591</v>
+        <v>8001.051486832533</v>
       </c>
       <c r="H48" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="I48" t="n">
-        <v>11987342</v>
+        <v>11958975</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28084682</v>
+        <v>28110028</v>
       </c>
       <c r="E49" t="n">
-        <v>66722221</v>
+        <v>66782438</v>
       </c>
       <c r="F49" t="n">
-        <v>18751.32900730043</v>
+        <v>16692.79755096486</v>
       </c>
       <c r="G49" t="n">
-        <v>17648.84824139246</v>
+        <v>10857.70509993699</v>
       </c>
       <c r="H49" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I49" t="n">
-        <v>588391</v>
+        <v>571867</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12076670</v>
+        <v>12022960</v>
       </c>
       <c r="E50" t="n">
-        <v>18405642</v>
+        <v>18323784</v>
       </c>
       <c r="F50" t="n">
-        <v>4948.057250566966</v>
+        <v>3376.174479923421</v>
       </c>
       <c r="G50" t="n">
-        <v>21307.16959091404</v>
+        <v>21126.29483869554</v>
       </c>
       <c r="H50" t="n">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="I50" t="n">
-        <v>671600</v>
+        <v>668184</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>296907905</v>
+        <v>295947514</v>
       </c>
       <c r="E51" t="n">
-        <v>296907905</v>
+        <v>295947514</v>
       </c>
       <c r="F51" t="n">
-        <v>75591.22945384153</v>
+        <v>75128.8003735673</v>
       </c>
       <c r="G51" t="n">
-        <v>103259.9425329739</v>
+        <v>124347.366290277</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>50490931</v>
+        <v>50026409</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>88643188</v>
+        <v>88670869</v>
       </c>
       <c r="E52" t="n">
-        <v>510800286</v>
+        <v>510959795</v>
       </c>
       <c r="F52" t="n">
-        <v>262630.1823683833</v>
+        <v>267845.6455733788</v>
       </c>
       <c r="G52" t="n">
-        <v>275009.8837620415</v>
+        <v>238653.4423490418</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>15871718</v>
+        <v>15924385</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>29892346</v>
+        <v>30035680</v>
       </c>
       <c r="E53" t="n">
-        <v>133840294</v>
+        <v>134482061</v>
       </c>
       <c r="F53" t="n">
-        <v>35061.56348522831</v>
+        <v>42050.99263225175</v>
       </c>
       <c r="G53" t="n">
-        <v>47830.87961617694</v>
+        <v>47875.4039821861</v>
       </c>
       <c r="H53" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>8988929</v>
+        <v>8877022</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9395254</v>
+        <v>9323046</v>
       </c>
       <c r="F54" t="n">
-        <v>2935.450989905556</v>
+        <v>2877.535693870141</v>
       </c>
       <c r="G54" t="n">
-        <v>8263.723522329163</v>
+        <v>8305.680159138597</v>
       </c>
       <c r="H54" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="I54" t="n">
-        <v>291437</v>
+        <v>266981</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4761573</v>
+        <v>4800111</v>
       </c>
       <c r="F55" t="n">
-        <v>2131.637101565982</v>
+        <v>2333.265318291574</v>
       </c>
       <c r="G55" t="n">
-        <v>1393.998596303996</v>
+        <v>1322.644579223715</v>
       </c>
       <c r="H55" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I55" t="n">
-        <v>91351</v>
+        <v>158868</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125114755</v>
+        <v>125210039</v>
       </c>
       <c r="E56" t="n">
-        <v>2072002816</v>
+        <v>2073580797</v>
       </c>
       <c r="F56" t="n">
-        <v>187970.8434325676</v>
+        <v>191809.0543050812</v>
       </c>
       <c r="G56" t="n">
-        <v>183436.7338028084</v>
+        <v>190771.4480125424</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5046968</v>
+        <v>5021942</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>72641743</v>
+        <v>72822882</v>
       </c>
       <c r="E57" t="n">
-        <v>73423683</v>
+        <v>73606773</v>
       </c>
       <c r="F57" t="n">
-        <v>54599.25335305146</v>
+        <v>39412.25064648764</v>
       </c>
       <c r="G57" t="n">
-        <v>61541.6313254392</v>
+        <v>62171.23477829419</v>
       </c>
       <c r="H57" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I57" t="n">
-        <v>8668188</v>
+        <v>8629809</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>235097772</v>
+        <v>232880674</v>
       </c>
       <c r="E58" t="n">
-        <v>235097772</v>
+        <v>232880674</v>
       </c>
       <c r="F58" t="n">
-        <v>112108.7660533011</v>
+        <v>113953.7177758625</v>
       </c>
       <c r="G58" t="n">
-        <v>123537.7784446275</v>
+        <v>128119.4275532511</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>43100710</v>
+        <v>43288395</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23056015</v>
+        <v>23126889</v>
       </c>
       <c r="E59" t="n">
-        <v>137948774</v>
+        <v>138372825</v>
       </c>
       <c r="F59" t="n">
-        <v>67371.82558857619</v>
+        <v>67011.61725492254</v>
       </c>
       <c r="G59" t="n">
-        <v>71750.49022837949</v>
+        <v>71737.23323544548</v>
       </c>
       <c r="H59" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>12675801</v>
+        <v>12636769</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2338061</v>
+        <v>2405724</v>
       </c>
       <c r="E60" t="n">
-        <v>4315024</v>
+        <v>4439900</v>
       </c>
       <c r="F60" t="n">
-        <v>4582.837524983278</v>
+        <v>4656.61748609286</v>
       </c>
       <c r="G60" t="n">
-        <v>394.0473421728675</v>
+        <v>381.2796911288962</v>
       </c>
       <c r="H60" t="n">
         <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>68771</v>
+        <v>23162</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10022002</v>
+        <v>9868894</v>
       </c>
       <c r="E62" t="n">
-        <v>29883536</v>
+        <v>29289005</v>
       </c>
       <c r="F62" t="n">
-        <v>3901.961583258058</v>
+        <v>4479.344489141972</v>
       </c>
       <c r="G62" t="n">
-        <v>4615.056805222702</v>
+        <v>4600.608022599738</v>
       </c>
       <c r="H62" t="n">
         <v>0.17</v>
       </c>
       <c r="I62" t="n">
-        <v>5380980</v>
+        <v>5476491</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14600175</v>
+        <v>14599795</v>
       </c>
       <c r="E63" t="n">
-        <v>29557164</v>
+        <v>29556394</v>
       </c>
       <c r="F63" t="n">
-        <v>5767.753277560796</v>
+        <v>6723.302892426576</v>
       </c>
       <c r="G63" t="n">
-        <v>14237.92336913397</v>
+        <v>15951.506852661</v>
       </c>
       <c r="H63" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="I63" t="n">
-        <v>520886</v>
+        <v>499243</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37410272</v>
+        <v>37194641</v>
       </c>
       <c r="E64" t="n">
-        <v>265232728</v>
+        <v>263703938</v>
       </c>
       <c r="F64" t="n">
-        <v>46610.86997734317</v>
+        <v>71319.44269323947</v>
       </c>
       <c r="G64" t="n">
-        <v>76347.40897465171</v>
+        <v>67065.79162782383</v>
       </c>
       <c r="H64" t="n">
         <v>0.08</v>
       </c>
       <c r="I64" t="n">
-        <v>1842048</v>
+        <v>1851416</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1257366</v>
+        <v>1258910</v>
       </c>
       <c r="E65" t="n">
-        <v>7797619</v>
+        <v>7807194</v>
       </c>
       <c r="F65" t="n">
-        <v>1859.48663475918</v>
+        <v>1790.60336845829</v>
       </c>
       <c r="G65" t="n">
-        <v>2464.689556852425</v>
+        <v>2470.740927343852</v>
       </c>
       <c r="H65" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I65" t="n">
-        <v>818772</v>
+        <v>785777</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>590994998</v>
+        <v>593480717</v>
       </c>
       <c r="E66" t="n">
-        <v>2288836430</v>
+        <v>2298463254</v>
       </c>
       <c r="F66" t="n">
-        <v>70210.33988753185</v>
+        <v>70690.69824459316</v>
       </c>
       <c r="G66" t="n">
-        <v>85626.40844471735</v>
+        <v>86825.019207203</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>29805060</v>
+        <v>28941860</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5796357</v>
+        <v>5810614</v>
       </c>
       <c r="E67" t="n">
-        <v>25951034</v>
+        <v>26014863</v>
       </c>
       <c r="F67" t="n">
-        <v>4223.568730548752</v>
+        <v>1448.836425828178</v>
       </c>
       <c r="G67" t="n">
-        <v>4720.477933572525</v>
+        <v>2135.107895927094</v>
       </c>
       <c r="H67" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="I67" t="n">
-        <v>143556</v>
+        <v>142581</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>116347155</v>
+        <v>116677731</v>
       </c>
       <c r="E68" t="n">
-        <v>1011567001</v>
+        <v>1014441158</v>
       </c>
       <c r="F68" t="n">
-        <v>156444.2657940499</v>
+        <v>157223.9489661173</v>
       </c>
       <c r="G68" t="n">
-        <v>160263.6762651698</v>
+        <v>158904.6902364409</v>
       </c>
       <c r="H68" t="n">
         <v>0.08</v>
       </c>
       <c r="I68" t="n">
-        <v>9405156</v>
+        <v>9107356</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>101701435</v>
+        <v>103910386</v>
       </c>
       <c r="E69" t="n">
-        <v>155147923</v>
+        <v>158517729</v>
       </c>
       <c r="F69" t="n">
-        <v>52810.99543298875</v>
+        <v>56994.14211385803</v>
       </c>
       <c r="G69" t="n">
-        <v>82645.44243400762</v>
+        <v>78369.05182036919</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I69" t="n">
-        <v>7182836</v>
+        <v>7276555</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1123257</v>
+        <v>1135685</v>
       </c>
       <c r="E70" t="n">
-        <v>4349498</v>
+        <v>4397619</v>
       </c>
       <c r="F70" t="n">
-        <v>2311.665809782619</v>
+        <v>2452.516462867347</v>
       </c>
       <c r="G70" t="n">
-        <v>4470.286043873144</v>
+        <v>2656.6564525012</v>
       </c>
       <c r="H70" t="n">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="I70" t="n">
-        <v>429517</v>
+        <v>455737</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>106769232</v>
+        <v>109422965</v>
       </c>
       <c r="E71" t="n">
-        <v>409583960</v>
+        <v>419764106</v>
       </c>
       <c r="F71" t="n">
-        <v>152417.1967736351</v>
+        <v>150182.113905957</v>
       </c>
       <c r="G71" t="n">
-        <v>155813.2543001321</v>
+        <v>157167.3609527113</v>
       </c>
       <c r="H71" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I71" t="n">
-        <v>18632001</v>
+        <v>18904428</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3186978</v>
+        <v>3172552</v>
       </c>
       <c r="E72" t="n">
-        <v>30197091</v>
+        <v>30060403</v>
       </c>
       <c r="F72" t="n">
-        <v>3702.549527289017</v>
+        <v>3567.897509627196</v>
       </c>
       <c r="G72" t="n">
-        <v>2158.478993048438</v>
+        <v>2216.343963196736</v>
       </c>
       <c r="H72" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="I72" t="n">
-        <v>240051</v>
+        <v>237872</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>30783272</v>
+        <v>31129858</v>
       </c>
       <c r="F73" t="n">
-        <v>4009.691843811946</v>
+        <v>3398.392182339327</v>
       </c>
       <c r="G73" t="n">
-        <v>4233.629409413928</v>
+        <v>4323.02876856997</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>5980672</v>
+        <v>5718412</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87511807</v>
+        <v>86663243</v>
       </c>
       <c r="E74" t="n">
-        <v>323510383</v>
+        <v>320372490</v>
       </c>
       <c r="F74" t="n">
-        <v>7072.120926565636</v>
+        <v>10203.23828637848</v>
       </c>
       <c r="G74" t="n">
-        <v>6881.840833517831</v>
+        <v>747.8191776221562</v>
       </c>
       <c r="H74" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I74" t="n">
-        <v>362697</v>
+        <v>369111</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23220836</v>
+        <v>23233126</v>
       </c>
       <c r="E75" t="n">
-        <v>23220836</v>
+        <v>23233126</v>
       </c>
       <c r="F75" t="n">
-        <v>24713.94584773757</v>
+        <v>20564.70823129096</v>
       </c>
       <c r="G75" t="n">
-        <v>27408.54348724275</v>
+        <v>31717.11445320462</v>
       </c>
       <c r="H75" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I75" t="n">
-        <v>6286680</v>
+        <v>6123221</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>480964723</v>
+        <v>483301167</v>
       </c>
       <c r="E76" t="n">
-        <v>1675047557</v>
+        <v>1683184650</v>
       </c>
       <c r="F76" t="n">
-        <v>199888.314707712</v>
+        <v>133229.5731837083</v>
       </c>
       <c r="G76" t="n">
-        <v>243547.9860770269</v>
+        <v>157715.3097877569</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>30559277</v>
+        <v>31124071</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5547734082</v>
+        <v>5538448179</v>
       </c>
       <c r="E77" t="n">
-        <v>5547734082</v>
+        <v>5538448179</v>
       </c>
       <c r="F77" t="n">
-        <v>41858.8468991245</v>
+        <v>40456.26599493229</v>
       </c>
       <c r="G77" t="n">
-        <v>93064.19076654273</v>
+        <v>92925.83695113812</v>
       </c>
       <c r="H77" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>28516084</v>
+        <v>28135999</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7611605</v>
+        <v>7618799</v>
       </c>
       <c r="E78" t="n">
-        <v>19774132</v>
+        <v>19792820</v>
       </c>
       <c r="F78" t="n">
-        <v>1273.925473742303</v>
+        <v>1219.90632558866</v>
       </c>
       <c r="G78" t="n">
-        <v>5841.099015412399</v>
+        <v>5779.53586522585</v>
       </c>
       <c r="H78" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="I78" t="n">
-        <v>676604</v>
+        <v>677509</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>102401297</v>
+        <v>100455698</v>
       </c>
       <c r="E79" t="n">
-        <v>155149796</v>
+        <v>152201989</v>
       </c>
       <c r="F79" t="n">
-        <v>30226.61308775607</v>
+        <v>40272.51638980598</v>
       </c>
       <c r="G79" t="n">
-        <v>22508.34740077009</v>
+        <v>20036.76761412104</v>
       </c>
       <c r="H79" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I79" t="n">
-        <v>7231979</v>
+        <v>7369039</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2659491</v>
+        <v>2659744</v>
       </c>
       <c r="E80" t="n">
-        <v>10637965</v>
+        <v>10638977</v>
       </c>
       <c r="F80" t="n">
-        <v>65695.01695119996</v>
+        <v>70186.80537274502</v>
       </c>
       <c r="G80" t="n">
-        <v>14174.89340673029</v>
+        <v>5942.503815205574</v>
       </c>
       <c r="H80" t="n">
         <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>4947174</v>
+        <v>5066164</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2394111</v>
+        <v>2752962</v>
       </c>
       <c r="F81" t="n">
-        <v>82.96213540423238</v>
+        <v>363.8400483449043</v>
       </c>
       <c r="G81" t="n">
-        <v>504.2695985650293</v>
+        <v>50.0239774656099</v>
       </c>
       <c r="H81" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>295393</v>
+        <v>378803</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>397645866</v>
+        <v>398743206</v>
       </c>
       <c r="E82" t="n">
-        <v>2272262093</v>
+        <v>2278532603</v>
       </c>
       <c r="F82" t="n">
-        <v>164806.9452665201</v>
+        <v>165161.3738615985</v>
       </c>
       <c r="G82" t="n">
-        <v>194435.7240573566</v>
+        <v>185942.8860269373</v>
       </c>
       <c r="H82" t="n">
         <v>0.18</v>
       </c>
       <c r="I82" t="n">
-        <v>36223295</v>
+        <v>36485811</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4016458</v>
+        <v>3851991</v>
       </c>
       <c r="F2" t="n">
-        <v>604.6373914048461</v>
+        <v>708.260718848807</v>
       </c>
       <c r="G2" t="n">
-        <v>408.0878530923226</v>
+        <v>636.4296874945712</v>
       </c>
       <c r="H2" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="I2" t="n">
-        <v>81749</v>
+        <v>98355</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1330863</v>
+        <v>1327448</v>
       </c>
       <c r="E3" t="n">
-        <v>4301896</v>
+        <v>4290858</v>
       </c>
       <c r="F3" t="n">
-        <v>739.0121978667229</v>
+        <v>788.4134834800168</v>
       </c>
       <c r="G3" t="n">
-        <v>6186.550729050776</v>
+        <v>6079.591523840088</v>
       </c>
       <c r="H3" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>69896</v>
+        <v>74715</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243452124</v>
+        <v>245203005</v>
       </c>
       <c r="E4" t="n">
-        <v>1526654052</v>
+        <v>1537633581</v>
       </c>
       <c r="F4" t="n">
-        <v>242025.9175841314</v>
+        <v>239631.9762726926</v>
       </c>
       <c r="G4" t="n">
-        <v>242795.4428045714</v>
+        <v>246539.2745739587</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>15355555</v>
+        <v>15526255</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139243652</v>
+        <v>139486331</v>
       </c>
       <c r="E5" t="n">
-        <v>154304207</v>
+        <v>154573134</v>
       </c>
       <c r="F5" t="n">
-        <v>88259.22826745364</v>
+        <v>93754.15403027377</v>
       </c>
       <c r="G5" t="n">
-        <v>95938.2980645699</v>
+        <v>98470.7886940303</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>32880520</v>
+        <v>33037713</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>124583161</v>
+        <v>125058170</v>
       </c>
       <c r="E6" t="n">
-        <v>488328689</v>
+        <v>490190583</v>
       </c>
       <c r="F6" t="n">
-        <v>37796.19142238407</v>
+        <v>44615.08003427953</v>
       </c>
       <c r="G6" t="n">
-        <v>47763.813510329</v>
+        <v>49664.79770848178</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>28607788</v>
+        <v>28816930</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4737508</v>
+        <v>4721929</v>
       </c>
       <c r="E7" t="n">
-        <v>29099877</v>
+        <v>29003807</v>
       </c>
       <c r="F7" t="n">
-        <v>2547.200890254677</v>
+        <v>1413.216039588524</v>
       </c>
       <c r="G7" t="n">
-        <v>2362.128360200848</v>
+        <v>1480.093455831988</v>
       </c>
       <c r="H7" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I7" t="n">
-        <v>468285</v>
+        <v>467302</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>199176</v>
+        <v>199438</v>
       </c>
       <c r="E8" t="n">
-        <v>2191150</v>
+        <v>2194036</v>
       </c>
       <c r="F8" t="n">
-        <v>3734.408701287999</v>
+        <v>3783.114046925359</v>
       </c>
       <c r="G8" t="n">
-        <v>3194.356881694153</v>
+        <v>3095.438414272308</v>
       </c>
       <c r="H8" t="n">
         <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>40226</v>
+        <v>41150</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72250427</v>
+        <v>72590390</v>
       </c>
       <c r="E9" t="n">
-        <v>125165180</v>
+        <v>125751119</v>
       </c>
       <c r="F9" t="n">
-        <v>4507.028521247768</v>
+        <v>9274.972129131424</v>
       </c>
       <c r="G9" t="n">
-        <v>12514.72148583175</v>
+        <v>12604.24267853269</v>
       </c>
       <c r="H9" t="n">
         <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>663218</v>
+        <v>668442</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8874224</v>
+        <v>8883030</v>
       </c>
       <c r="E10" t="n">
-        <v>12560806</v>
+        <v>12573268</v>
       </c>
       <c r="F10" t="n">
-        <v>4366.70257561219</v>
+        <v>4529.073583288203</v>
       </c>
       <c r="G10" t="n">
-        <v>4366.640341235817</v>
+        <v>4195.888976250621</v>
       </c>
       <c r="H10" t="n">
         <v>0.16</v>
       </c>
       <c r="I10" t="n">
-        <v>59985</v>
+        <v>34516</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>468532009</v>
+        <v>466721421</v>
       </c>
       <c r="E11" t="n">
-        <v>468532009</v>
+        <v>466721423</v>
       </c>
       <c r="F11" t="n">
-        <v>70563.53033580301</v>
+        <v>79335.30523862352</v>
       </c>
       <c r="G11" t="n">
-        <v>90071.08187650052</v>
+        <v>80705.47126942947</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>58546967</v>
+        <v>59883094</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>308991</v>
+        <v>314957</v>
       </c>
       <c r="E12" t="n">
-        <v>1442402</v>
+        <v>1470249</v>
       </c>
       <c r="F12" t="n">
-        <v>15.75821233816661</v>
+        <v>18.8692349794762</v>
       </c>
       <c r="G12" t="n">
-        <v>1263.376613409468</v>
+        <v>1310.528290635208</v>
       </c>
       <c r="H12" t="n">
-        <v>0.27</v>
+        <v>0.61</v>
       </c>
       <c r="I12" t="n">
-        <v>619065</v>
+        <v>617964</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1552604</v>
+        <v>1626435</v>
       </c>
       <c r="F13" t="n">
-        <v>4504.770382672155</v>
+        <v>5126.809853970278</v>
       </c>
       <c r="G13" t="n">
-        <v>1164.231832381643</v>
+        <v>633.3508334897338</v>
       </c>
       <c r="H13" t="n">
-        <v>0.45</v>
+        <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>190619</v>
+        <v>207708</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12845761</v>
+        <v>12778160</v>
       </c>
       <c r="E14" t="n">
-        <v>32349858</v>
+        <v>32179616</v>
       </c>
       <c r="F14" t="n">
-        <v>1803.772570333037</v>
+        <v>926.3671992164135</v>
       </c>
       <c r="G14" t="n">
-        <v>961.2193318964756</v>
+        <v>1181.978306924001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.25</v>
+        <v>0.62</v>
       </c>
       <c r="I14" t="n">
-        <v>1586848</v>
+        <v>1578196</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>107708564</v>
+        <v>107847775</v>
       </c>
       <c r="E15" t="n">
-        <v>419383041</v>
+        <v>419900911</v>
       </c>
       <c r="F15" t="n">
-        <v>35044.72016922161</v>
+        <v>34279.88756764269</v>
       </c>
       <c r="G15" t="n">
-        <v>95412.58923414433</v>
+        <v>100861.2980153515</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>6391036</v>
+        <v>6374928</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5356871</v>
+        <v>5358638</v>
       </c>
       <c r="E16" t="n">
-        <v>7885604</v>
+        <v>7888206</v>
       </c>
       <c r="F16" t="n">
-        <v>2534.425305783121</v>
+        <v>853.4398829986319</v>
       </c>
       <c r="G16" t="n">
-        <v>3564.557426495085</v>
+        <v>1926.465311938253</v>
       </c>
       <c r="H16" t="n">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>639147</v>
+        <v>646400</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1922856</v>
+        <v>1926710</v>
       </c>
       <c r="F17" t="n">
-        <v>277.0527285426421</v>
+        <v>655.7519533286296</v>
       </c>
       <c r="G17" t="n">
-        <v>591.0945175378304</v>
+        <v>506.0188816659116</v>
       </c>
       <c r="H17" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="I17" t="n">
-        <v>216227</v>
+        <v>217452</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>133555219</v>
+        <v>133845167</v>
       </c>
       <c r="E18" t="n">
-        <v>133555219</v>
+        <v>133845167</v>
       </c>
       <c r="F18" t="n">
-        <v>95529.93853141739</v>
+        <v>113104.0840954627</v>
       </c>
       <c r="G18" t="n">
-        <v>153141.1518711656</v>
+        <v>149339.0973470156</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>63223387</v>
+        <v>63168736</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63702129</v>
+        <v>64204911</v>
       </c>
       <c r="E19" t="n">
-        <v>326677584</v>
+        <v>329255953</v>
       </c>
       <c r="F19" t="n">
-        <v>22271.29629578711</v>
+        <v>15183.7038989823</v>
       </c>
       <c r="G19" t="n">
-        <v>17238.56290535597</v>
+        <v>22221.94437641171</v>
       </c>
       <c r="H19" t="n">
         <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>18023793</v>
+        <v>18006483</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>249070807</v>
+        <v>250379733</v>
       </c>
       <c r="E20" t="n">
-        <v>249070807</v>
+        <v>250379733</v>
       </c>
       <c r="F20" t="n">
-        <v>69009.36310529671</v>
+        <v>67949.31549674271</v>
       </c>
       <c r="G20" t="n">
-        <v>90927.78840554746</v>
+        <v>82766.62413024645</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14837512</v>
+        <v>14680883</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>151573358</v>
+        <v>148625822</v>
       </c>
       <c r="E21" t="n">
-        <v>199452813</v>
+        <v>195574200</v>
       </c>
       <c r="F21" t="n">
-        <v>22417.80463961464</v>
+        <v>25762.15835408082</v>
       </c>
       <c r="G21" t="n">
-        <v>35630.1647657377</v>
+        <v>28545.54703905838</v>
       </c>
       <c r="H21" t="n">
         <v>0.26</v>
       </c>
       <c r="I21" t="n">
-        <v>6978040</v>
+        <v>7170504</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71847414</v>
+        <v>71826606</v>
       </c>
       <c r="E22" t="n">
-        <v>201120723</v>
+        <v>201071392</v>
       </c>
       <c r="F22" t="n">
-        <v>23748.71748400997</v>
+        <v>29430.84874513352</v>
       </c>
       <c r="G22" t="n">
-        <v>38860.03431203985</v>
+        <v>46761.32547225309</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>32319175</v>
+        <v>32587767</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71441000</v>
+        <v>71734940</v>
       </c>
       <c r="E23" t="n">
-        <v>148990763</v>
+        <v>149603779</v>
       </c>
       <c r="F23" t="n">
-        <v>17099.86720915621</v>
+        <v>20030.15458137375</v>
       </c>
       <c r="G23" t="n">
-        <v>41521.74171975231</v>
+        <v>39361.70057561616</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>13669581</v>
+        <v>13685250</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>606079925</v>
+        <v>612928336</v>
       </c>
       <c r="E24" t="n">
-        <v>606079925</v>
+        <v>612928336</v>
       </c>
       <c r="F24" t="n">
-        <v>212129.1685831417</v>
+        <v>269198.3472443923</v>
       </c>
       <c r="G24" t="n">
-        <v>210641.1900279771</v>
+        <v>249091.4811245134</v>
       </c>
       <c r="H24" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>256366043</v>
+        <v>256902512</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>196112339</v>
+        <v>196318411</v>
       </c>
       <c r="E25" t="n">
-        <v>681311989</v>
+        <v>682027904</v>
       </c>
       <c r="F25" t="n">
-        <v>84378.4272154486</v>
+        <v>83815.79491504241</v>
       </c>
       <c r="G25" t="n">
-        <v>363022.6795884408</v>
+        <v>358038.4502496845</v>
       </c>
       <c r="H25" t="n">
         <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>26306811</v>
+        <v>26020270</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5895750</v>
+        <v>5904243</v>
       </c>
       <c r="E26" t="n">
-        <v>8011397</v>
+        <v>8022490</v>
       </c>
       <c r="F26" t="n">
-        <v>2479.059457175936</v>
+        <v>2434.073146995684</v>
       </c>
       <c r="G26" t="n">
-        <v>668.0101089084245</v>
+        <v>623.1760780118053</v>
       </c>
       <c r="H26" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I26" t="n">
-        <v>6394229</v>
+        <v>6449694</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14300981</v>
+        <v>14334335</v>
       </c>
       <c r="F27" t="n">
-        <v>1973.065682926807</v>
+        <v>2484.59858730749</v>
       </c>
       <c r="G27" t="n">
-        <v>3221.378339384224</v>
+        <v>3324.365983555821</v>
       </c>
       <c r="H27" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I27" t="n">
-        <v>466310</v>
+        <v>461839</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24990670</v>
+        <v>24995723</v>
       </c>
       <c r="E28" t="n">
-        <v>35323336</v>
+        <v>35330478</v>
       </c>
       <c r="F28" t="n">
-        <v>1258.042060152083</v>
+        <v>1045.816742993461</v>
       </c>
       <c r="G28" t="n">
-        <v>10242.62012008413</v>
+        <v>10185.7110823159</v>
       </c>
       <c r="H28" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="I28" t="n">
-        <v>74388</v>
+        <v>68048</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>265022372</v>
+        <v>267170804</v>
       </c>
       <c r="E29" t="n">
-        <v>1143983682</v>
+        <v>1153257507</v>
       </c>
       <c r="F29" t="n">
-        <v>357152.4006531835</v>
+        <v>349022.4512747597</v>
       </c>
       <c r="G29" t="n">
-        <v>370956.1244347949</v>
+        <v>356973.1807881049</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>112408469</v>
+        <v>110254118</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10849896</v>
+        <v>10854205</v>
       </c>
       <c r="E30" t="n">
-        <v>131023429</v>
+        <v>131074517</v>
       </c>
       <c r="F30" t="n">
-        <v>2826.322733546331</v>
+        <v>4435.460204816847</v>
       </c>
       <c r="G30" t="n">
-        <v>7251.705450484551</v>
+        <v>3766.077348522282</v>
       </c>
       <c r="H30" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>236925</v>
+        <v>235661</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21294121</v>
+        <v>21509651</v>
       </c>
       <c r="E31" t="n">
-        <v>53235304</v>
+        <v>53774127</v>
       </c>
       <c r="F31" t="n">
-        <v>12888.49954513103</v>
+        <v>12268.31151348754</v>
       </c>
       <c r="G31" t="n">
-        <v>10022.77008023168</v>
+        <v>10413.97470319334</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>2049160</v>
+        <v>2087743</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20099713</v>
+        <v>20152864</v>
       </c>
       <c r="F32" t="n">
-        <v>2556.334795290737</v>
+        <v>2584.419891232485</v>
       </c>
       <c r="G32" t="n">
-        <v>2409.73974587577</v>
+        <v>2391.189586290233</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>128693</v>
+        <v>128854</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1361597</v>
+        <v>1354902</v>
       </c>
       <c r="E33" t="n">
-        <v>5076540</v>
+        <v>5051576</v>
       </c>
       <c r="F33" t="n">
-        <v>2165.160958006431</v>
+        <v>2178.94188565192</v>
       </c>
       <c r="G33" t="n">
-        <v>2075.573332214877</v>
+        <v>3081.052871089536</v>
       </c>
       <c r="H33" t="n">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="I33" t="n">
-        <v>608774</v>
+        <v>612665</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3971062</v>
+        <v>3889262</v>
       </c>
       <c r="E34" t="n">
-        <v>11438268</v>
+        <v>11202653</v>
       </c>
       <c r="F34" t="n">
-        <v>2249.779204855687</v>
+        <v>3342.031391415842</v>
       </c>
       <c r="G34" t="n">
-        <v>2799.629372330227</v>
+        <v>2049.584640394661</v>
       </c>
       <c r="H34" t="n">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="I34" t="n">
-        <v>513433</v>
+        <v>527344</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13825835</v>
+        <v>13751239</v>
       </c>
       <c r="E35" t="n">
-        <v>66960723</v>
+        <v>66599444</v>
       </c>
       <c r="F35" t="n">
-        <v>8167.631570540113</v>
+        <v>9543.807221782447</v>
       </c>
       <c r="G35" t="n">
-        <v>12760.25605134789</v>
+        <v>12832.20387812902</v>
       </c>
       <c r="H35" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I35" t="n">
-        <v>3596950</v>
+        <v>3618204</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1470663</v>
+        <v>1475920</v>
       </c>
       <c r="E36" t="n">
-        <v>9625451</v>
+        <v>9659857</v>
       </c>
       <c r="F36" t="n">
-        <v>4047.203660840682</v>
+        <v>4051.110984489946</v>
       </c>
       <c r="G36" t="n">
-        <v>2559.635868771584</v>
+        <v>2615.459043091585</v>
       </c>
       <c r="H36" t="n">
-        <v>0.72</v>
+        <v>0.31</v>
       </c>
       <c r="I36" t="n">
-        <v>342583</v>
+        <v>341296</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1874205379</v>
+        <v>1878984849</v>
       </c>
       <c r="F37" t="n">
-        <v>70578.72337122988</v>
+        <v>69783.73089690515</v>
       </c>
       <c r="G37" t="n">
-        <v>78212.48913722449</v>
+        <v>76524.48962339475</v>
       </c>
       <c r="H37" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="I37" t="n">
-        <v>26062458</v>
+        <v>26183091</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2025891</v>
+        <v>2084901</v>
       </c>
       <c r="E38" t="n">
-        <v>14527464</v>
+        <v>14950614</v>
       </c>
       <c r="F38" t="n">
-        <v>5230.48206574605</v>
+        <v>4345.452369230591</v>
       </c>
       <c r="G38" t="n">
-        <v>2650.517894830242</v>
+        <v>5350.951041729262</v>
       </c>
       <c r="H38" t="n">
-        <v>0.55</v>
+        <v>0.67</v>
       </c>
       <c r="I38" t="n">
-        <v>608905</v>
+        <v>1942571</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>196274156</v>
+        <v>197767115</v>
       </c>
       <c r="E39" t="n">
-        <v>1111424870</v>
+        <v>1119878923</v>
       </c>
       <c r="F39" t="n">
-        <v>143847.2287751468</v>
+        <v>130689.1977562467</v>
       </c>
       <c r="G39" t="n">
-        <v>168090.7721616332</v>
+        <v>139583.5910779324</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>60556649</v>
+        <v>60533291</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>137325315</v>
+        <v>137413754</v>
       </c>
       <c r="E40" t="n">
-        <v>1017224554</v>
+        <v>1017879662</v>
       </c>
       <c r="F40" t="n">
-        <v>199171.1763833411</v>
+        <v>214333.7996306513</v>
       </c>
       <c r="G40" t="n">
-        <v>194679.0014885851</v>
+        <v>202791.6124028866</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>12142618</v>
+        <v>11960980</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>333920648</v>
+        <v>334444656</v>
       </c>
       <c r="E41" t="n">
-        <v>3004157205</v>
+        <v>3008871503</v>
       </c>
       <c r="F41" t="n">
-        <v>261065.8034421803</v>
+        <v>262065.2802832139</v>
       </c>
       <c r="G41" t="n">
-        <v>286161.5074100729</v>
+        <v>277323.740187263</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>37692591</v>
+        <v>36040184</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1600952</v>
+        <v>1590735</v>
       </c>
       <c r="E42" t="n">
-        <v>13341268</v>
+        <v>13256125</v>
       </c>
       <c r="F42" t="n">
-        <v>2999.505527256247</v>
+        <v>2925.940334713476</v>
       </c>
       <c r="G42" t="n">
-        <v>3988.361725577416</v>
+        <v>5454.178165713941</v>
       </c>
       <c r="H42" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I42" t="n">
-        <v>53070</v>
+        <v>52942</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>26000024</v>
+        <v>25349462</v>
       </c>
       <c r="E43" t="n">
-        <v>77935336</v>
+        <v>75985269</v>
       </c>
       <c r="F43" t="n">
-        <v>55502.94121249509</v>
+        <v>53331.18500559354</v>
       </c>
       <c r="G43" t="n">
-        <v>67189.55469720167</v>
+        <v>67474.7860742592</v>
       </c>
       <c r="H43" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I43" t="n">
-        <v>2429707</v>
+        <v>2499365</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9456946</v>
+        <v>9451864</v>
       </c>
       <c r="F44" t="n">
-        <v>5880.131419404905</v>
+        <v>5739.647912628864</v>
       </c>
       <c r="G44" t="n">
-        <v>6034.125722737939</v>
+        <v>6039.433444137579</v>
       </c>
       <c r="H44" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="I44" t="n">
-        <v>121745</v>
+        <v>83885</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12989507</v>
+        <v>12973093</v>
       </c>
       <c r="E45" t="n">
-        <v>12989507</v>
+        <v>12973093</v>
       </c>
       <c r="F45" t="n">
-        <v>1564.623149123928</v>
+        <v>1822.822464221706</v>
       </c>
       <c r="G45" t="n">
-        <v>804.189122794201</v>
+        <v>752.0926305486439</v>
       </c>
       <c r="H45" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="I45" t="n">
-        <v>2646362</v>
+        <v>2921956</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>290573991</v>
+        <v>292407722</v>
       </c>
       <c r="E46" t="n">
-        <v>290573991</v>
+        <v>292407722</v>
       </c>
       <c r="F46" t="n">
-        <v>17975.86933754299</v>
+        <v>19960.43266981621</v>
       </c>
       <c r="G46" t="n">
-        <v>41185.94678805208</v>
+        <v>46079.05531094469</v>
       </c>
       <c r="H46" t="n">
         <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>12156519</v>
+        <v>12094054</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12658062</v>
+        <v>12729569</v>
       </c>
       <c r="E47" t="n">
-        <v>40046559</v>
+        <v>40272587</v>
       </c>
       <c r="F47" t="n">
-        <v>22954.10701850759</v>
+        <v>34975.78215925919</v>
       </c>
       <c r="G47" t="n">
-        <v>23786.30252384866</v>
+        <v>15191.91842039748</v>
       </c>
       <c r="H47" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I47" t="n">
-        <v>1489086</v>
+        <v>1495441</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31550436</v>
+        <v>31446357</v>
       </c>
       <c r="E48" t="n">
-        <v>87391576</v>
+        <v>87103289</v>
       </c>
       <c r="F48" t="n">
-        <v>3689.675701853345</v>
+        <v>4683.179185803012</v>
       </c>
       <c r="G48" t="n">
-        <v>8001.051486832533</v>
+        <v>9581.928470571038</v>
       </c>
       <c r="H48" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="I48" t="n">
-        <v>11958975</v>
+        <v>12003009</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28110028</v>
+        <v>28137390</v>
       </c>
       <c r="E49" t="n">
-        <v>66782438</v>
+        <v>66847442</v>
       </c>
       <c r="F49" t="n">
-        <v>16692.79755096486</v>
+        <v>17416.73104231905</v>
       </c>
       <c r="G49" t="n">
-        <v>10857.70509993699</v>
+        <v>11191.96906656884</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>571867</v>
+        <v>490004</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12022960</v>
+        <v>12085288</v>
       </c>
       <c r="E50" t="n">
-        <v>18323784</v>
+        <v>18418776</v>
       </c>
       <c r="F50" t="n">
-        <v>3376.174479923421</v>
+        <v>4999.090163489612</v>
       </c>
       <c r="G50" t="n">
-        <v>21126.29483869554</v>
+        <v>21410.14196022216</v>
       </c>
       <c r="H50" t="n">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="I50" t="n">
-        <v>668184</v>
+        <v>672846</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>295947514</v>
+        <v>298594125</v>
       </c>
       <c r="E51" t="n">
-        <v>295947514</v>
+        <v>298594125</v>
       </c>
       <c r="F51" t="n">
-        <v>75128.8003735673</v>
+        <v>61610.81434549626</v>
       </c>
       <c r="G51" t="n">
-        <v>124347.366290277</v>
+        <v>129130.5854788311</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>50026409</v>
+        <v>50126793</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>88670869</v>
+        <v>88905267</v>
       </c>
       <c r="E52" t="n">
-        <v>510959795</v>
+        <v>512310493</v>
       </c>
       <c r="F52" t="n">
-        <v>267845.6455733788</v>
+        <v>266445.118747963</v>
       </c>
       <c r="G52" t="n">
-        <v>238653.4423490418</v>
+        <v>235207.7059544175</v>
       </c>
       <c r="H52" t="n">
         <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>15924385</v>
+        <v>16090044</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30035680</v>
+        <v>30305901</v>
       </c>
       <c r="E53" t="n">
-        <v>134482061</v>
+        <v>135691950</v>
       </c>
       <c r="F53" t="n">
-        <v>42050.99263225175</v>
+        <v>42364.59487675034</v>
       </c>
       <c r="G53" t="n">
-        <v>47875.4039821861</v>
+        <v>46258.13803669113</v>
       </c>
       <c r="H53" t="n">
         <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>8877022</v>
+        <v>8812718</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9323046</v>
+        <v>9369330</v>
       </c>
       <c r="F54" t="n">
-        <v>2877.535693870141</v>
+        <v>2893.022756208898</v>
       </c>
       <c r="G54" t="n">
-        <v>8305.680159138597</v>
+        <v>7203.179630026981</v>
       </c>
       <c r="H54" t="n">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="I54" t="n">
-        <v>266981</v>
+        <v>300080</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4800111</v>
+        <v>4814740</v>
       </c>
       <c r="F55" t="n">
-        <v>2333.265318291574</v>
+        <v>4421.346765219262</v>
       </c>
       <c r="G55" t="n">
-        <v>1322.644579223715</v>
+        <v>929.9624037938725</v>
       </c>
       <c r="H55" t="n">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="I55" t="n">
-        <v>158868</v>
+        <v>160093</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125210039</v>
+        <v>125154291</v>
       </c>
       <c r="E56" t="n">
-        <v>2073580797</v>
+        <v>2072657561</v>
       </c>
       <c r="F56" t="n">
-        <v>191809.0543050812</v>
+        <v>191514.4213516271</v>
       </c>
       <c r="G56" t="n">
-        <v>190771.4480125424</v>
+        <v>189892.9693519716</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5021942</v>
+        <v>5052146</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>72822882</v>
+        <v>73203884</v>
       </c>
       <c r="E57" t="n">
-        <v>73606773</v>
+        <v>73991876</v>
       </c>
       <c r="F57" t="n">
-        <v>39412.25064648764</v>
+        <v>55952.95085345004</v>
       </c>
       <c r="G57" t="n">
-        <v>62171.23477829419</v>
+        <v>63922.7646979378</v>
       </c>
       <c r="H57" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I57" t="n">
-        <v>8629809</v>
+        <v>8603354</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>232880674</v>
+        <v>234947359</v>
       </c>
       <c r="E58" t="n">
-        <v>232880674</v>
+        <v>234947359</v>
       </c>
       <c r="F58" t="n">
-        <v>113953.7177758625</v>
+        <v>101844.1360312498</v>
       </c>
       <c r="G58" t="n">
-        <v>128119.4275532511</v>
+        <v>156645.2326898986</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>43288395</v>
+        <v>43669294</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23126889</v>
+        <v>23164759</v>
       </c>
       <c r="E59" t="n">
-        <v>138372825</v>
+        <v>138599407</v>
       </c>
       <c r="F59" t="n">
-        <v>67011.61725492254</v>
+        <v>65242.7534475264</v>
       </c>
       <c r="G59" t="n">
-        <v>71737.23323544548</v>
+        <v>73293.64176229009</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>12636769</v>
+        <v>12569170</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2405724</v>
+        <v>2401100</v>
       </c>
       <c r="E60" t="n">
-        <v>4439900</v>
+        <v>4431368</v>
       </c>
       <c r="F60" t="n">
-        <v>4656.61748609286</v>
+        <v>4576.532701466341</v>
       </c>
       <c r="G60" t="n">
-        <v>381.2796911288962</v>
+        <v>387.9203708342924</v>
       </c>
       <c r="H60" t="n">
-        <v>0.34</v>
+        <v>0.57</v>
       </c>
       <c r="I60" t="n">
-        <v>23162</v>
+        <v>23199</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9868894</v>
+        <v>9607176</v>
       </c>
       <c r="E62" t="n">
-        <v>29289005</v>
+        <v>28512274</v>
       </c>
       <c r="F62" t="n">
-        <v>4479.344489141972</v>
+        <v>4210.784912556791</v>
       </c>
       <c r="G62" t="n">
-        <v>4600.608022599738</v>
+        <v>6426.66321672966</v>
       </c>
       <c r="H62" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>5476491</v>
+        <v>5519167</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14599795</v>
+        <v>14565246</v>
       </c>
       <c r="E63" t="n">
-        <v>29556394</v>
+        <v>29486452</v>
       </c>
       <c r="F63" t="n">
-        <v>6723.302892426576</v>
+        <v>6489.243465423816</v>
       </c>
       <c r="G63" t="n">
-        <v>15951.506852661</v>
+        <v>17141.97188149838</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="I63" t="n">
-        <v>499243</v>
+        <v>487951</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37194641</v>
+        <v>37400888</v>
       </c>
       <c r="E64" t="n">
-        <v>263703938</v>
+        <v>265166195</v>
       </c>
       <c r="F64" t="n">
-        <v>71319.44269323947</v>
+        <v>77233.43424140685</v>
       </c>
       <c r="G64" t="n">
-        <v>67065.79162782383</v>
+        <v>62380.28830420798</v>
       </c>
       <c r="H64" t="n">
         <v>0.08</v>
       </c>
       <c r="I64" t="n">
-        <v>1851416</v>
+        <v>1868831</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1258910</v>
+        <v>1257390</v>
       </c>
       <c r="E65" t="n">
-        <v>7807194</v>
+        <v>7797767</v>
       </c>
       <c r="F65" t="n">
-        <v>1790.60336845829</v>
+        <v>1812.55883229449</v>
       </c>
       <c r="G65" t="n">
-        <v>2470.740927343852</v>
+        <v>2470.927868989815</v>
       </c>
       <c r="H65" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>785777</v>
+        <v>768160</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>593480717</v>
+        <v>591219657</v>
       </c>
       <c r="E66" t="n">
-        <v>2298463254</v>
+        <v>2289706502</v>
       </c>
       <c r="F66" t="n">
-        <v>70690.69824459316</v>
+        <v>73133.49033584454</v>
       </c>
       <c r="G66" t="n">
-        <v>86825.019207203</v>
+        <v>71225.56796090814</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>28941860</v>
+        <v>30144089</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5810614</v>
+        <v>5840289</v>
       </c>
       <c r="E67" t="n">
-        <v>26014863</v>
+        <v>26147725</v>
       </c>
       <c r="F67" t="n">
-        <v>1448.836425828178</v>
+        <v>4238.094335670745</v>
       </c>
       <c r="G67" t="n">
-        <v>2135.107895927094</v>
+        <v>4571.864790222581</v>
       </c>
       <c r="H67" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>142581</v>
+        <v>143905</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>116677731</v>
+        <v>117454067</v>
       </c>
       <c r="E68" t="n">
-        <v>1014441158</v>
+        <v>1021190925</v>
       </c>
       <c r="F68" t="n">
-        <v>157223.9489661173</v>
+        <v>163875.2244194499</v>
       </c>
       <c r="G68" t="n">
-        <v>158904.6902364409</v>
+        <v>157911.0142966156</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I68" t="n">
-        <v>9107356</v>
+        <v>9232386</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>103910386</v>
+        <v>103871649</v>
       </c>
       <c r="E69" t="n">
-        <v>158517729</v>
+        <v>158458635</v>
       </c>
       <c r="F69" t="n">
-        <v>56994.14211385803</v>
+        <v>70023.13690980493</v>
       </c>
       <c r="G69" t="n">
-        <v>78369.05182036919</v>
+        <v>85564.00933209145</v>
       </c>
       <c r="H69" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I69" t="n">
-        <v>7276555</v>
+        <v>7189971</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1135685</v>
+        <v>1136822</v>
       </c>
       <c r="E70" t="n">
-        <v>4397619</v>
+        <v>4402024</v>
       </c>
       <c r="F70" t="n">
-        <v>2452.516462867347</v>
+        <v>3056.54355331065</v>
       </c>
       <c r="G70" t="n">
-        <v>2656.6564525012</v>
+        <v>2468.146760610874</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I70" t="n">
-        <v>455737</v>
+        <v>342139</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>109422965</v>
+        <v>110995810</v>
       </c>
       <c r="E71" t="n">
-        <v>419764106</v>
+        <v>425797792</v>
       </c>
       <c r="F71" t="n">
-        <v>150182.113905957</v>
+        <v>152911.8928887523</v>
       </c>
       <c r="G71" t="n">
-        <v>157167.3609527113</v>
+        <v>159551.4253577248</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I71" t="n">
-        <v>18904428</v>
+        <v>19291137</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3172552</v>
+        <v>3165944</v>
       </c>
       <c r="E72" t="n">
-        <v>30060403</v>
+        <v>29997788</v>
       </c>
       <c r="F72" t="n">
-        <v>3567.897509627196</v>
+        <v>4227.949882176968</v>
       </c>
       <c r="G72" t="n">
-        <v>2216.343963196736</v>
+        <v>2159.415858168227</v>
       </c>
       <c r="H72" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="I72" t="n">
-        <v>237872</v>
+        <v>244989</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31129858</v>
+        <v>31454518</v>
       </c>
       <c r="F73" t="n">
-        <v>3398.392182339327</v>
+        <v>2071.711223532953</v>
       </c>
       <c r="G73" t="n">
-        <v>4323.02876856997</v>
+        <v>4549.561225498283</v>
       </c>
       <c r="H73" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>5718412</v>
+        <v>5661156</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>86663243</v>
+        <v>86599835</v>
       </c>
       <c r="E74" t="n">
-        <v>320372490</v>
+        <v>320137300</v>
       </c>
       <c r="F74" t="n">
-        <v>10203.23828637848</v>
+        <v>10604.99904908494</v>
       </c>
       <c r="G74" t="n">
-        <v>747.8191776221562</v>
+        <v>986.5851170899605</v>
       </c>
       <c r="H74" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I74" t="n">
-        <v>369111</v>
+        <v>369397</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23233126</v>
+        <v>23496127</v>
       </c>
       <c r="E75" t="n">
-        <v>23233126</v>
+        <v>23496127</v>
       </c>
       <c r="F75" t="n">
-        <v>20564.70823129096</v>
+        <v>24673.3449995809</v>
       </c>
       <c r="G75" t="n">
-        <v>31717.11445320462</v>
+        <v>27501.2612708919</v>
       </c>
       <c r="H75" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I75" t="n">
-        <v>6123221</v>
+        <v>6157857</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>483301167</v>
+        <v>486318893</v>
       </c>
       <c r="E76" t="n">
-        <v>1683184650</v>
+        <v>1693694434</v>
       </c>
       <c r="F76" t="n">
-        <v>133229.5731837083</v>
+        <v>129968.3105482992</v>
       </c>
       <c r="G76" t="n">
-        <v>157715.3097877569</v>
+        <v>154234.2685593096</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>31124071</v>
+        <v>31344048</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5538448179</v>
+        <v>5539096653</v>
       </c>
       <c r="E77" t="n">
-        <v>5538448179</v>
+        <v>5539096653</v>
       </c>
       <c r="F77" t="n">
-        <v>40456.26599493229</v>
+        <v>41609.77176981522</v>
       </c>
       <c r="G77" t="n">
-        <v>92925.83695113812</v>
+        <v>93409.33667527448</v>
       </c>
       <c r="H77" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>28135999</v>
+        <v>28799893</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7618799</v>
+        <v>7641035</v>
       </c>
       <c r="E78" t="n">
-        <v>19792820</v>
+        <v>19850588</v>
       </c>
       <c r="F78" t="n">
-        <v>1219.90632558866</v>
+        <v>1024.829254020318</v>
       </c>
       <c r="G78" t="n">
-        <v>5779.53586522585</v>
+        <v>2884.369824126786</v>
       </c>
       <c r="H78" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I78" t="n">
-        <v>677509</v>
+        <v>678612</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100455698</v>
+        <v>100542264</v>
       </c>
       <c r="E79" t="n">
-        <v>152201989</v>
+        <v>152333147</v>
       </c>
       <c r="F79" t="n">
-        <v>40272.51638980598</v>
+        <v>42834.16420877834</v>
       </c>
       <c r="G79" t="n">
-        <v>20036.76761412104</v>
+        <v>17456.46131954358</v>
       </c>
       <c r="H79" t="n">
         <v>0.19</v>
       </c>
       <c r="I79" t="n">
-        <v>7369039</v>
+        <v>7118693</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2659744</v>
+        <v>2665893</v>
       </c>
       <c r="E80" t="n">
-        <v>10638977</v>
+        <v>10663574</v>
       </c>
       <c r="F80" t="n">
-        <v>70186.80537274502</v>
+        <v>56737.74756128739</v>
       </c>
       <c r="G80" t="n">
-        <v>5942.503815205574</v>
+        <v>13525.56021474283</v>
       </c>
       <c r="H80" t="n">
         <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>5066164</v>
+        <v>5040519</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2752962</v>
+        <v>3282437</v>
       </c>
       <c r="F81" t="n">
-        <v>363.8400483449043</v>
+        <v>136.7837360529659</v>
       </c>
       <c r="G81" t="n">
-        <v>50.0239774656099</v>
+        <v>326.5005651870069</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I81" t="n">
-        <v>378803</v>
+        <v>350517</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>398743206</v>
+        <v>399287816</v>
       </c>
       <c r="E82" t="n">
-        <v>2278532603</v>
+        <v>2281644664</v>
       </c>
       <c r="F82" t="n">
-        <v>165161.3738615985</v>
+        <v>173859.7352583713</v>
       </c>
       <c r="G82" t="n">
-        <v>185942.8860269373</v>
+        <v>183450.0888313246</v>
       </c>
       <c r="H82" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>36485811</v>
+        <v>36243530</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3851991</v>
+        <v>3831514</v>
       </c>
       <c r="F2" t="n">
-        <v>708.260718848807</v>
+        <v>680.1246493174825</v>
       </c>
       <c r="G2" t="n">
-        <v>636.4296874945712</v>
+        <v>687.983583259694</v>
       </c>
       <c r="H2" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="I2" t="n">
-        <v>98355</v>
+        <v>99258</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1327448</v>
+        <v>1346926</v>
       </c>
       <c r="E3" t="n">
-        <v>4290858</v>
+        <v>4353817</v>
       </c>
       <c r="F3" t="n">
-        <v>788.4134834800168</v>
+        <v>6824.702798570914</v>
       </c>
       <c r="G3" t="n">
-        <v>6079.591523840088</v>
+        <v>9171.054409362883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I3" t="n">
-        <v>74715</v>
+        <v>90117</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245203005</v>
+        <v>244781083</v>
       </c>
       <c r="E4" t="n">
-        <v>1537633581</v>
+        <v>1534987767</v>
       </c>
       <c r="F4" t="n">
-        <v>239631.9762726926</v>
+        <v>257437.9946956153</v>
       </c>
       <c r="G4" t="n">
-        <v>246539.2745739587</v>
+        <v>246954.381272715</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15526255</v>
+        <v>15542132</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139486331</v>
+        <v>138596364</v>
       </c>
       <c r="E5" t="n">
-        <v>154573134</v>
+        <v>153586908</v>
       </c>
       <c r="F5" t="n">
-        <v>93754.15403027377</v>
+        <v>90360.08590342972</v>
       </c>
       <c r="G5" t="n">
-        <v>98470.7886940303</v>
+        <v>94804.74011439609</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>33037713</v>
+        <v>33297637</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>125058170</v>
+        <v>125307643</v>
       </c>
       <c r="E6" t="n">
-        <v>490190583</v>
+        <v>491168439</v>
       </c>
       <c r="F6" t="n">
-        <v>44615.08003427953</v>
+        <v>41442.0257653807</v>
       </c>
       <c r="G6" t="n">
-        <v>49664.79770848178</v>
+        <v>46093.37199871433</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>28816930</v>
+        <v>28874646</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4721929</v>
+        <v>4722096</v>
       </c>
       <c r="E7" t="n">
-        <v>29003807</v>
+        <v>29004833</v>
       </c>
       <c r="F7" t="n">
-        <v>1413.216039588524</v>
+        <v>2348.036861146749</v>
       </c>
       <c r="G7" t="n">
-        <v>1480.093455831988</v>
+        <v>1816.015326426072</v>
       </c>
       <c r="H7" t="n">
         <v>0.17</v>
       </c>
       <c r="I7" t="n">
-        <v>467302</v>
+        <v>466825</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>199438</v>
+        <v>199586</v>
       </c>
       <c r="E8" t="n">
-        <v>2194036</v>
+        <v>2195661</v>
       </c>
       <c r="F8" t="n">
-        <v>3783.114046925359</v>
+        <v>3905.701351959784</v>
       </c>
       <c r="G8" t="n">
-        <v>3095.438414272308</v>
+        <v>3315.203263521509</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="I8" t="n">
-        <v>41150</v>
+        <v>38953</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72590390</v>
+        <v>72923576</v>
       </c>
       <c r="E9" t="n">
-        <v>125751119</v>
+        <v>126328309</v>
       </c>
       <c r="F9" t="n">
-        <v>9274.972129131424</v>
+        <v>1104.855930380936</v>
       </c>
       <c r="G9" t="n">
-        <v>12604.24267853269</v>
+        <v>4330.52328912086</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I9" t="n">
-        <v>668442</v>
+        <v>672810</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8883030</v>
+        <v>8869272</v>
       </c>
       <c r="E10" t="n">
-        <v>12573268</v>
+        <v>12553796</v>
       </c>
       <c r="F10" t="n">
-        <v>4529.073583288203</v>
+        <v>3386.327327881413</v>
       </c>
       <c r="G10" t="n">
-        <v>4195.888976250621</v>
+        <v>4157.808139198542</v>
       </c>
       <c r="H10" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>34516</v>
+        <v>60251</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>466721421</v>
+        <v>468471329</v>
       </c>
       <c r="E11" t="n">
-        <v>466721423</v>
+        <v>468471327</v>
       </c>
       <c r="F11" t="n">
-        <v>79335.30523862352</v>
+        <v>60183.4173831022</v>
       </c>
       <c r="G11" t="n">
-        <v>80705.47126942947</v>
+        <v>64210.03202726124</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>59883094</v>
+        <v>60447548</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>314957</v>
+        <v>312847</v>
       </c>
       <c r="E12" t="n">
-        <v>1470249</v>
+        <v>1460400</v>
       </c>
       <c r="F12" t="n">
-        <v>18.8692349794762</v>
+        <v>99.03306179194702</v>
       </c>
       <c r="G12" t="n">
-        <v>1310.528290635208</v>
+        <v>1395.693582629743</v>
       </c>
       <c r="H12" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c r="I12" t="n">
-        <v>617964</v>
+        <v>613851</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1626435</v>
+        <v>1618345</v>
       </c>
       <c r="F13" t="n">
-        <v>5126.809853970278</v>
+        <v>4837.524589088342</v>
       </c>
       <c r="G13" t="n">
-        <v>633.3508334897338</v>
+        <v>1393.977143571229</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I13" t="n">
-        <v>207708</v>
+        <v>168647</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12778160</v>
+        <v>12729375</v>
       </c>
       <c r="E14" t="n">
-        <v>32179616</v>
+        <v>32056760</v>
       </c>
       <c r="F14" t="n">
-        <v>926.3671992164135</v>
+        <v>1478.450566979944</v>
       </c>
       <c r="G14" t="n">
-        <v>1181.978306924001</v>
+        <v>1636.765567628638</v>
       </c>
       <c r="H14" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>1578196</v>
+        <v>1589746</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>107847775</v>
+        <v>108163665</v>
       </c>
       <c r="E15" t="n">
-        <v>419900911</v>
+        <v>421130813</v>
       </c>
       <c r="F15" t="n">
-        <v>34279.88756764269</v>
+        <v>29629.0437925696</v>
       </c>
       <c r="G15" t="n">
-        <v>100861.2980153515</v>
+        <v>96070.5392666611</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>6374928</v>
+        <v>6421599</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5358638</v>
+        <v>5435108</v>
       </c>
       <c r="E16" t="n">
-        <v>7888206</v>
+        <v>8000773</v>
       </c>
       <c r="F16" t="n">
-        <v>853.4398829986319</v>
+        <v>2493.992892179163</v>
       </c>
       <c r="G16" t="n">
-        <v>1926.465311938253</v>
+        <v>1805.9049849696</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I16" t="n">
-        <v>646400</v>
+        <v>643904</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1926710</v>
+        <v>1912005</v>
       </c>
       <c r="F17" t="n">
-        <v>655.7519533286296</v>
+        <v>739.7118436920048</v>
       </c>
       <c r="G17" t="n">
-        <v>506.0188816659116</v>
+        <v>543.9062911539741</v>
       </c>
       <c r="H17" t="n">
-        <v>1.19</v>
+        <v>0.73</v>
       </c>
       <c r="I17" t="n">
-        <v>217452</v>
+        <v>216912</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>133845167</v>
+        <v>134145710</v>
       </c>
       <c r="E18" t="n">
-        <v>133845167</v>
+        <v>134145710</v>
       </c>
       <c r="F18" t="n">
-        <v>113104.0840954627</v>
+        <v>123301.4114702596</v>
       </c>
       <c r="G18" t="n">
-        <v>149339.0973470156</v>
+        <v>121836.9426315162</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>63168736</v>
+        <v>63140779</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64204911</v>
+        <v>63899139</v>
       </c>
       <c r="E19" t="n">
-        <v>329255953</v>
+        <v>327687894</v>
       </c>
       <c r="F19" t="n">
-        <v>15183.7038989823</v>
+        <v>14303.53798110595</v>
       </c>
       <c r="G19" t="n">
-        <v>22221.94437641171</v>
+        <v>25493.80205348498</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>18006483</v>
+        <v>18020793</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>250379733</v>
+        <v>250286629</v>
       </c>
       <c r="E20" t="n">
-        <v>250379733</v>
+        <v>250286629</v>
       </c>
       <c r="F20" t="n">
-        <v>67949.31549674271</v>
+        <v>66716.16249456552</v>
       </c>
       <c r="G20" t="n">
-        <v>82766.62413024645</v>
+        <v>87990.87241462817</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14680883</v>
+        <v>14611747</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>148625822</v>
+        <v>147758719</v>
       </c>
       <c r="E21" t="n">
-        <v>195574200</v>
+        <v>194433194</v>
       </c>
       <c r="F21" t="n">
-        <v>25762.15835408082</v>
+        <v>21530.0921496461</v>
       </c>
       <c r="G21" t="n">
-        <v>28545.54703905838</v>
+        <v>21073.7695522327</v>
       </c>
       <c r="H21" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="I21" t="n">
-        <v>7170504</v>
+        <v>7294510</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71826606</v>
+        <v>71835024</v>
       </c>
       <c r="E22" t="n">
-        <v>201071392</v>
+        <v>201094956</v>
       </c>
       <c r="F22" t="n">
-        <v>29430.84874513352</v>
+        <v>30047.03314270205</v>
       </c>
       <c r="G22" t="n">
-        <v>46761.32547225309</v>
+        <v>51191.97798096132</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>32587767</v>
+        <v>32604896</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71734940</v>
+        <v>72110728</v>
       </c>
       <c r="E23" t="n">
-        <v>149603779</v>
+        <v>150387487</v>
       </c>
       <c r="F23" t="n">
-        <v>20030.15458137375</v>
+        <v>20911.56056511043</v>
       </c>
       <c r="G23" t="n">
-        <v>39361.70057561616</v>
+        <v>36670.7781666705</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>13685250</v>
+        <v>13734331</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>612928336</v>
+        <v>613006968</v>
       </c>
       <c r="E24" t="n">
-        <v>612928336</v>
+        <v>613006968</v>
       </c>
       <c r="F24" t="n">
-        <v>269198.3472443923</v>
+        <v>220331.7007012672</v>
       </c>
       <c r="G24" t="n">
-        <v>249091.4811245134</v>
+        <v>266580.204049862</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>256902512</v>
+        <v>257217397</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>196318411</v>
+        <v>196382747</v>
       </c>
       <c r="E25" t="n">
-        <v>682027904</v>
+        <v>682251412</v>
       </c>
       <c r="F25" t="n">
-        <v>83815.79491504241</v>
+        <v>91194.99347081828</v>
       </c>
       <c r="G25" t="n">
-        <v>358038.4502496845</v>
+        <v>358147.483594089</v>
       </c>
       <c r="H25" t="n">
         <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>26020270</v>
+        <v>25626732</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5904243</v>
+        <v>5937125</v>
       </c>
       <c r="E26" t="n">
-        <v>8022490</v>
+        <v>8067469</v>
       </c>
       <c r="F26" t="n">
-        <v>2434.073146995684</v>
+        <v>2270.683513298668</v>
       </c>
       <c r="G26" t="n">
-        <v>623.1760780118053</v>
+        <v>735.5188305674203</v>
       </c>
       <c r="H26" t="n">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="I26" t="n">
-        <v>6449694</v>
+        <v>6473746</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14334335</v>
+        <v>14294342</v>
       </c>
       <c r="F27" t="n">
-        <v>2484.59858730749</v>
+        <v>2169.712613100386</v>
       </c>
       <c r="G27" t="n">
-        <v>3324.365983555821</v>
+        <v>3245.548078413912</v>
       </c>
       <c r="H27" t="n">
         <v>0.15</v>
       </c>
       <c r="I27" t="n">
-        <v>461839</v>
+        <v>229932</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24995723</v>
+        <v>25021527</v>
       </c>
       <c r="E28" t="n">
-        <v>35330478</v>
+        <v>35366952</v>
       </c>
       <c r="F28" t="n">
-        <v>1045.816742993461</v>
+        <v>112.1619325544048</v>
       </c>
       <c r="G28" t="n">
-        <v>10185.7110823159</v>
+        <v>8677.77356423054</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="I28" t="n">
-        <v>68048</v>
+        <v>86655</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>267170804</v>
+        <v>266306546</v>
       </c>
       <c r="E29" t="n">
-        <v>1153257507</v>
+        <v>1149526891</v>
       </c>
       <c r="F29" t="n">
-        <v>349022.4512747597</v>
+        <v>353904.4087039677</v>
       </c>
       <c r="G29" t="n">
-        <v>356973.1807881049</v>
+        <v>360134.1819763715</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>110254118</v>
+        <v>109906193</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10854205</v>
+        <v>10911455</v>
       </c>
       <c r="E30" t="n">
-        <v>131074517</v>
+        <v>131765861</v>
       </c>
       <c r="F30" t="n">
-        <v>4435.460204816847</v>
+        <v>5070.529380197157</v>
       </c>
       <c r="G30" t="n">
-        <v>3766.077348522282</v>
+        <v>4178.403651862444</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>235661</v>
+        <v>235627</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21509651</v>
+        <v>21399686</v>
       </c>
       <c r="E31" t="n">
-        <v>53774127</v>
+        <v>53499215</v>
       </c>
       <c r="F31" t="n">
-        <v>12268.31151348754</v>
+        <v>13317.1770746198</v>
       </c>
       <c r="G31" t="n">
-        <v>10413.97470319334</v>
+        <v>9722.972569273221</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>2087743</v>
+        <v>1960688</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20152864</v>
+        <v>20200060</v>
       </c>
       <c r="F32" t="n">
-        <v>2584.419891232485</v>
+        <v>2638.040959052615</v>
       </c>
       <c r="G32" t="n">
-        <v>2391.189586290233</v>
+        <v>2398.64150326139</v>
       </c>
       <c r="H32" t="n">
         <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>128854</v>
+        <v>128408</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1354902</v>
+        <v>1350117</v>
       </c>
       <c r="E33" t="n">
-        <v>5051576</v>
+        <v>5033739</v>
       </c>
       <c r="F33" t="n">
-        <v>2178.94188565192</v>
+        <v>2499.550665380035</v>
       </c>
       <c r="G33" t="n">
-        <v>3081.052871089536</v>
+        <v>2303.216270756601</v>
       </c>
       <c r="H33" t="n">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
       <c r="I33" t="n">
-        <v>612665</v>
+        <v>606555</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3889262</v>
+        <v>3936016</v>
       </c>
       <c r="E34" t="n">
-        <v>11202653</v>
+        <v>11337321</v>
       </c>
       <c r="F34" t="n">
-        <v>3342.031391415842</v>
+        <v>1923.331052603476</v>
       </c>
       <c r="G34" t="n">
-        <v>2049.584640394661</v>
+        <v>4063.457978079522</v>
       </c>
       <c r="H34" t="n">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="I34" t="n">
-        <v>527344</v>
+        <v>529416</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13751239</v>
+        <v>13769729</v>
       </c>
       <c r="E35" t="n">
-        <v>66599444</v>
+        <v>66688994</v>
       </c>
       <c r="F35" t="n">
-        <v>9543.807221782447</v>
+        <v>10314.91316070511</v>
       </c>
       <c r="G35" t="n">
-        <v>12832.20387812902</v>
+        <v>10691.04352721122</v>
       </c>
       <c r="H35" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="I35" t="n">
-        <v>3618204</v>
+        <v>3616618</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1475920</v>
+        <v>1471730</v>
       </c>
       <c r="E36" t="n">
-        <v>9659857</v>
+        <v>9632431</v>
       </c>
       <c r="F36" t="n">
-        <v>4051.110984489946</v>
+        <v>4040.059151590572</v>
       </c>
       <c r="G36" t="n">
-        <v>2615.459043091585</v>
+        <v>2575.940909200486</v>
       </c>
       <c r="H36" t="n">
-        <v>0.31</v>
+        <v>0.52</v>
       </c>
       <c r="I36" t="n">
-        <v>341296</v>
+        <v>341259</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1878984849</v>
+        <v>1880505224</v>
       </c>
       <c r="F37" t="n">
-        <v>69783.73089690515</v>
+        <v>70833.57001574808</v>
       </c>
       <c r="G37" t="n">
-        <v>76524.48962339475</v>
+        <v>79543.50121724515</v>
       </c>
       <c r="H37" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>26183091</v>
+        <v>26212938</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2084901</v>
+        <v>2080627</v>
       </c>
       <c r="E38" t="n">
-        <v>14950614</v>
+        <v>14919969</v>
       </c>
       <c r="F38" t="n">
-        <v>4345.452369230591</v>
+        <v>3805.932215783925</v>
       </c>
       <c r="G38" t="n">
-        <v>5350.951041729262</v>
+        <v>5352.075452298507</v>
       </c>
       <c r="H38" t="n">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="I38" t="n">
-        <v>1942571</v>
+        <v>1926761</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>197767115</v>
+        <v>199710551</v>
       </c>
       <c r="E39" t="n">
-        <v>1119878923</v>
+        <v>1130883848</v>
       </c>
       <c r="F39" t="n">
-        <v>130689.1977562467</v>
+        <v>155685.8660150665</v>
       </c>
       <c r="G39" t="n">
-        <v>139583.5910779324</v>
+        <v>177185.5017048182</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>60533291</v>
+        <v>61681175</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>137413754</v>
+        <v>137459340</v>
       </c>
       <c r="E40" t="n">
-        <v>1017879662</v>
+        <v>1018217331</v>
       </c>
       <c r="F40" t="n">
-        <v>214333.7996306513</v>
+        <v>215013.2165362046</v>
       </c>
       <c r="G40" t="n">
-        <v>202791.6124028866</v>
+        <v>201314.0665331026</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I40" t="n">
-        <v>11960980</v>
+        <v>11892994</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>334444656</v>
+        <v>335057954</v>
       </c>
       <c r="E41" t="n">
-        <v>3008871503</v>
+        <v>3014389117</v>
       </c>
       <c r="F41" t="n">
-        <v>262065.2802832139</v>
+        <v>266621.8931450456</v>
       </c>
       <c r="G41" t="n">
-        <v>277323.740187263</v>
+        <v>273519.0273187149</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>36040184</v>
+        <v>36512060</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1590735</v>
+        <v>1589214</v>
       </c>
       <c r="E42" t="n">
-        <v>13256125</v>
+        <v>13243453</v>
       </c>
       <c r="F42" t="n">
-        <v>2925.940334713476</v>
+        <v>2921.846043998865</v>
       </c>
       <c r="G42" t="n">
-        <v>5454.178165713941</v>
+        <v>5410.018195354196</v>
       </c>
       <c r="H42" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I42" t="n">
-        <v>52942</v>
+        <v>46970</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>25349462</v>
+        <v>25092853</v>
       </c>
       <c r="E43" t="n">
-        <v>75985269</v>
+        <v>75216550</v>
       </c>
       <c r="F43" t="n">
-        <v>53331.18500559354</v>
+        <v>63594.51764839404</v>
       </c>
       <c r="G43" t="n">
-        <v>67474.7860742592</v>
+        <v>65587.73587263726</v>
       </c>
       <c r="H43" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I43" t="n">
-        <v>2499365</v>
+        <v>2544706</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9451864</v>
+        <v>9482659</v>
       </c>
       <c r="F44" t="n">
-        <v>5739.647912628864</v>
+        <v>5677.635733466082</v>
       </c>
       <c r="G44" t="n">
-        <v>6039.433444137579</v>
+        <v>6039.616158146476</v>
       </c>
       <c r="H44" t="n">
         <v>0.63</v>
       </c>
       <c r="I44" t="n">
-        <v>83885</v>
+        <v>121603</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12973093</v>
+        <v>13039861</v>
       </c>
       <c r="E45" t="n">
-        <v>12973093</v>
+        <v>13039861</v>
       </c>
       <c r="F45" t="n">
-        <v>1822.822464221706</v>
+        <v>1770.841634171989</v>
       </c>
       <c r="G45" t="n">
-        <v>752.0926305486439</v>
+        <v>788.8028411194801</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="I45" t="n">
-        <v>2921956</v>
+        <v>3018538</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>292407722</v>
+        <v>294176210</v>
       </c>
       <c r="E46" t="n">
-        <v>292407722</v>
+        <v>294176210</v>
       </c>
       <c r="F46" t="n">
-        <v>19960.43266981621</v>
+        <v>19945.34903042315</v>
       </c>
       <c r="G46" t="n">
-        <v>46079.05531094469</v>
+        <v>47814.90551064835</v>
       </c>
       <c r="H46" t="n">
         <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>12094054</v>
+        <v>12192556</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12729569</v>
+        <v>12778557</v>
       </c>
       <c r="E47" t="n">
-        <v>40272587</v>
+        <v>40427570</v>
       </c>
       <c r="F47" t="n">
-        <v>34975.78215925919</v>
+        <v>32490.5517755009</v>
       </c>
       <c r="G47" t="n">
-        <v>15191.91842039748</v>
+        <v>17043.18234862906</v>
       </c>
       <c r="H47" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="I47" t="n">
-        <v>1495441</v>
+        <v>1485311</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31446357</v>
+        <v>31332025</v>
       </c>
       <c r="E48" t="n">
-        <v>87103289</v>
+        <v>86786599</v>
       </c>
       <c r="F48" t="n">
-        <v>4683.179185803012</v>
+        <v>4207.654147123291</v>
       </c>
       <c r="G48" t="n">
-        <v>9581.928470571038</v>
+        <v>9841.09358613016</v>
       </c>
       <c r="H48" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="I48" t="n">
-        <v>12003009</v>
+        <v>11998539</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28137390</v>
+        <v>28401638</v>
       </c>
       <c r="E49" t="n">
-        <v>66847442</v>
+        <v>67475231</v>
       </c>
       <c r="F49" t="n">
-        <v>17416.73104231905</v>
+        <v>17910.27081689229</v>
       </c>
       <c r="G49" t="n">
-        <v>11191.96906656884</v>
+        <v>17679.54873053606</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I49" t="n">
-        <v>490004</v>
+        <v>414372</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12085288</v>
+        <v>12089386</v>
       </c>
       <c r="E50" t="n">
-        <v>18418776</v>
+        <v>18425022</v>
       </c>
       <c r="F50" t="n">
-        <v>4999.090163489612</v>
+        <v>2756.500634592126</v>
       </c>
       <c r="G50" t="n">
-        <v>21410.14196022216</v>
+        <v>5503.169010487752</v>
       </c>
       <c r="H50" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="I50" t="n">
-        <v>672846</v>
+        <v>672071</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>298594125</v>
+        <v>298678120</v>
       </c>
       <c r="E51" t="n">
-        <v>298594125</v>
+        <v>298678120</v>
       </c>
       <c r="F51" t="n">
-        <v>61610.81434549626</v>
+        <v>61193.58620117825</v>
       </c>
       <c r="G51" t="n">
-        <v>129130.5854788311</v>
+        <v>112268.3681916625</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>50126793</v>
+        <v>50138635</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>88905267</v>
+        <v>88897159</v>
       </c>
       <c r="E52" t="n">
-        <v>512310493</v>
+        <v>512263772</v>
       </c>
       <c r="F52" t="n">
-        <v>266445.118747963</v>
+        <v>268165.6307728448</v>
       </c>
       <c r="G52" t="n">
-        <v>235207.7059544175</v>
+        <v>240078.3308856448</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>16090044</v>
+        <v>15944107</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30305901</v>
+        <v>30307749</v>
       </c>
       <c r="E53" t="n">
-        <v>135691950</v>
+        <v>135700224</v>
       </c>
       <c r="F53" t="n">
-        <v>42364.59487675034</v>
+        <v>38109.77577937253</v>
       </c>
       <c r="G53" t="n">
-        <v>46258.13803669113</v>
+        <v>44930.70724350788</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>8812718</v>
+        <v>8544956</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9369330</v>
+        <v>9317366</v>
       </c>
       <c r="F54" t="n">
-        <v>2893.022756208898</v>
+        <v>2868.6324234524</v>
       </c>
       <c r="G54" t="n">
-        <v>7203.179630026981</v>
+        <v>7183.562544090797</v>
       </c>
       <c r="H54" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="I54" t="n">
-        <v>300080</v>
+        <v>300266</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4814740</v>
+        <v>4840762</v>
       </c>
       <c r="F55" t="n">
-        <v>4421.346765219262</v>
+        <v>2427.36303166298</v>
       </c>
       <c r="G55" t="n">
-        <v>929.9624037938725</v>
+        <v>1552.617232698153</v>
       </c>
       <c r="H55" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I55" t="n">
-        <v>160093</v>
+        <v>158402</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125154291</v>
+        <v>125184000</v>
       </c>
       <c r="E56" t="n">
-        <v>2072657561</v>
+        <v>2073149576</v>
       </c>
       <c r="F56" t="n">
-        <v>191514.4213516271</v>
+        <v>185304.3991614911</v>
       </c>
       <c r="G56" t="n">
-        <v>189892.9693519716</v>
+        <v>184059.8552748369</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5052146</v>
+        <v>5050593</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>73203884</v>
+        <v>73490952</v>
       </c>
       <c r="E57" t="n">
-        <v>73991876</v>
+        <v>74282034</v>
       </c>
       <c r="F57" t="n">
-        <v>55952.95085345004</v>
+        <v>52086.78803885425</v>
       </c>
       <c r="G57" t="n">
-        <v>63922.7646979378</v>
+        <v>68479.9094037824</v>
       </c>
       <c r="H57" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I57" t="n">
-        <v>8603354</v>
+        <v>8615545</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>234947359</v>
+        <v>236012345</v>
       </c>
       <c r="E58" t="n">
-        <v>234947359</v>
+        <v>236012345</v>
       </c>
       <c r="F58" t="n">
-        <v>101844.1360312498</v>
+        <v>108732.2023547922</v>
       </c>
       <c r="G58" t="n">
-        <v>156645.2326898986</v>
+        <v>136448.3422499622</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>43669294</v>
+        <v>44095111</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23164759</v>
+        <v>23148471</v>
       </c>
       <c r="E59" t="n">
-        <v>138599407</v>
+        <v>138501954</v>
       </c>
       <c r="F59" t="n">
-        <v>65242.7534475264</v>
+        <v>64417.03128325581</v>
       </c>
       <c r="G59" t="n">
-        <v>73293.64176229009</v>
+        <v>74242.91006291535</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>12569170</v>
+        <v>12712924</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2401100</v>
+        <v>2412960</v>
       </c>
       <c r="E60" t="n">
-        <v>4431368</v>
+        <v>4453255</v>
       </c>
       <c r="F60" t="n">
-        <v>4576.532701466341</v>
+        <v>4595.319303213576</v>
       </c>
       <c r="G60" t="n">
-        <v>387.9203708342924</v>
+        <v>419.6354802902528</v>
       </c>
       <c r="H60" t="n">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>23199</v>
+        <v>23210</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9607176</v>
+        <v>9572260</v>
       </c>
       <c r="E62" t="n">
-        <v>28512274</v>
+        <v>28408651</v>
       </c>
       <c r="F62" t="n">
-        <v>4210.784912556791</v>
+        <v>4806.486286783768</v>
       </c>
       <c r="G62" t="n">
-        <v>6426.66321672966</v>
+        <v>8162.520456186175</v>
       </c>
       <c r="H62" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I62" t="n">
-        <v>5519167</v>
+        <v>5539564</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14565246</v>
+        <v>14532239</v>
       </c>
       <c r="E63" t="n">
-        <v>29486452</v>
+        <v>29419630</v>
       </c>
       <c r="F63" t="n">
-        <v>6489.243465423816</v>
+        <v>6891.959716529361</v>
       </c>
       <c r="G63" t="n">
-        <v>17141.97188149838</v>
+        <v>17055.16048158123</v>
       </c>
       <c r="H63" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="I63" t="n">
-        <v>487951</v>
+        <v>484873</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37400888</v>
+        <v>37501874</v>
       </c>
       <c r="E64" t="n">
-        <v>265166195</v>
+        <v>265882169</v>
       </c>
       <c r="F64" t="n">
-        <v>77233.43424140685</v>
+        <v>83705.45255516062</v>
       </c>
       <c r="G64" t="n">
-        <v>62380.28830420798</v>
+        <v>51811.97606984685</v>
       </c>
       <c r="H64" t="n">
         <v>0.08</v>
       </c>
       <c r="I64" t="n">
-        <v>1868831</v>
+        <v>1846962</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1257390</v>
+        <v>1257375</v>
       </c>
       <c r="E65" t="n">
-        <v>7797767</v>
+        <v>7797675</v>
       </c>
       <c r="F65" t="n">
-        <v>1812.55883229449</v>
+        <v>1812.838754598978</v>
       </c>
       <c r="G65" t="n">
-        <v>2470.927868989815</v>
+        <v>2471.022762880632</v>
       </c>
       <c r="H65" t="n">
         <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>768160</v>
+        <v>762882</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>591219657</v>
+        <v>589356139</v>
       </c>
       <c r="E66" t="n">
-        <v>2289706502</v>
+        <v>2282489374</v>
       </c>
       <c r="F66" t="n">
-        <v>73133.49033584454</v>
+        <v>60538.12827576137</v>
       </c>
       <c r="G66" t="n">
-        <v>71225.56796090814</v>
+        <v>94035.94043188398</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>30144089</v>
+        <v>30349540</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5840289</v>
+        <v>5838290</v>
       </c>
       <c r="E67" t="n">
-        <v>26147725</v>
+        <v>26138775</v>
       </c>
       <c r="F67" t="n">
-        <v>4238.094335670745</v>
+        <v>1419.759920160039</v>
       </c>
       <c r="G67" t="n">
-        <v>4571.864790222581</v>
+        <v>2319.20398817097</v>
       </c>
       <c r="H67" t="n">
         <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>143905</v>
+        <v>144031</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>117454067</v>
+        <v>117706909</v>
       </c>
       <c r="E68" t="n">
-        <v>1021190925</v>
+        <v>1023389234</v>
       </c>
       <c r="F68" t="n">
-        <v>163875.2244194499</v>
+        <v>157711.7367389493</v>
       </c>
       <c r="G68" t="n">
-        <v>157911.0142966156</v>
+        <v>157952.8326509117</v>
       </c>
       <c r="H68" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I68" t="n">
-        <v>9232386</v>
+        <v>9250888</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>103871649</v>
+        <v>104692875</v>
       </c>
       <c r="E69" t="n">
-        <v>158458635</v>
+        <v>159711434</v>
       </c>
       <c r="F69" t="n">
-        <v>70023.13690980493</v>
+        <v>67702.45447712873</v>
       </c>
       <c r="G69" t="n">
-        <v>85564.00933209145</v>
+        <v>77314.83095240559</v>
       </c>
       <c r="H69" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I69" t="n">
-        <v>7189971</v>
+        <v>7210891</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1136822</v>
+        <v>1138313</v>
       </c>
       <c r="E70" t="n">
-        <v>4402024</v>
+        <v>4407796</v>
       </c>
       <c r="F70" t="n">
-        <v>3056.54355331065</v>
+        <v>2471.99391384805</v>
       </c>
       <c r="G70" t="n">
-        <v>2468.146760610874</v>
+        <v>3154.556344750131</v>
       </c>
       <c r="H70" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I70" t="n">
-        <v>342139</v>
+        <v>428243</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>110995810</v>
+        <v>110887124</v>
       </c>
       <c r="E71" t="n">
-        <v>425797792</v>
+        <v>425380856</v>
       </c>
       <c r="F71" t="n">
-        <v>152911.8928887523</v>
+        <v>153055.035040302</v>
       </c>
       <c r="G71" t="n">
-        <v>159551.4253577248</v>
+        <v>160423.9987323282</v>
       </c>
       <c r="H71" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I71" t="n">
-        <v>19291137</v>
+        <v>19541673</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3165944</v>
+        <v>3159350</v>
       </c>
       <c r="E72" t="n">
-        <v>29997788</v>
+        <v>29935305</v>
       </c>
       <c r="F72" t="n">
-        <v>4227.949882176968</v>
+        <v>4280.711163946547</v>
       </c>
       <c r="G72" t="n">
-        <v>2159.415858168227</v>
+        <v>2182.307428535327</v>
       </c>
       <c r="H72" t="n">
         <v>0.3</v>
       </c>
       <c r="I72" t="n">
-        <v>244989</v>
+        <v>149593</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31454518</v>
+        <v>31571313</v>
       </c>
       <c r="F73" t="n">
-        <v>2071.711223532953</v>
+        <v>3115.285866122504</v>
       </c>
       <c r="G73" t="n">
-        <v>4549.561225498283</v>
+        <v>4160.712531680687</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>5661156</v>
+        <v>5604941</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>86599835</v>
+        <v>86769215</v>
       </c>
       <c r="E74" t="n">
-        <v>320137300</v>
+        <v>320763131</v>
       </c>
       <c r="F74" t="n">
-        <v>10604.99904908494</v>
+        <v>10625.17092940438</v>
       </c>
       <c r="G74" t="n">
-        <v>986.5851170899605</v>
+        <v>967.8585422150504</v>
       </c>
       <c r="H74" t="n">
         <v>0.05</v>
       </c>
       <c r="I74" t="n">
-        <v>369397</v>
+        <v>358983</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23496127</v>
+        <v>23430201</v>
       </c>
       <c r="E75" t="n">
-        <v>23496127</v>
+        <v>23430201</v>
       </c>
       <c r="F75" t="n">
-        <v>24673.3449995809</v>
+        <v>25659.0957121156</v>
       </c>
       <c r="G75" t="n">
-        <v>27501.2612708919</v>
+        <v>26784.29483168344</v>
       </c>
       <c r="H75" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I75" t="n">
-        <v>6157857</v>
+        <v>6190434</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>486318893</v>
+        <v>487194354</v>
       </c>
       <c r="E76" t="n">
-        <v>1693694434</v>
+        <v>1696743388</v>
       </c>
       <c r="F76" t="n">
-        <v>129968.3105482992</v>
+        <v>129810.944000057</v>
       </c>
       <c r="G76" t="n">
-        <v>154234.2685593096</v>
+        <v>152180.3938268013</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>31344048</v>
+        <v>31483712</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5539096653</v>
+        <v>5543732911</v>
       </c>
       <c r="E77" t="n">
-        <v>5539096653</v>
+        <v>5543732911</v>
       </c>
       <c r="F77" t="n">
-        <v>41609.77176981522</v>
+        <v>10264.6988534691</v>
       </c>
       <c r="G77" t="n">
-        <v>93409.33667527448</v>
+        <v>93576.65730279025</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>28799893</v>
+        <v>24643844</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7641035</v>
+        <v>7626919</v>
       </c>
       <c r="E78" t="n">
-        <v>19850588</v>
+        <v>19813915</v>
       </c>
       <c r="F78" t="n">
-        <v>1024.829254020318</v>
+        <v>1125.767711740091</v>
       </c>
       <c r="G78" t="n">
-        <v>2884.369824126786</v>
+        <v>3055.230631218336</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I78" t="n">
-        <v>678612</v>
+        <v>679640</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100542264</v>
+        <v>100232759</v>
       </c>
       <c r="E79" t="n">
-        <v>152333147</v>
+        <v>151864211</v>
       </c>
       <c r="F79" t="n">
-        <v>42834.16420877834</v>
+        <v>39289.07220693039</v>
       </c>
       <c r="G79" t="n">
-        <v>17456.46131954358</v>
+        <v>19265.15977284525</v>
       </c>
       <c r="H79" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="I79" t="n">
-        <v>7118693</v>
+        <v>7131641</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2665893</v>
+        <v>2657237</v>
       </c>
       <c r="E80" t="n">
-        <v>10663574</v>
+        <v>10628947</v>
       </c>
       <c r="F80" t="n">
-        <v>56737.74756128739</v>
+        <v>58551.99879566242</v>
       </c>
       <c r="G80" t="n">
-        <v>13525.56021474283</v>
+        <v>56336.00646321361</v>
       </c>
       <c r="H80" t="n">
         <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>5040519</v>
+        <v>5060409</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3282437</v>
+        <v>2840435</v>
       </c>
       <c r="F81" t="n">
-        <v>136.7837360529659</v>
+        <v>36.97663599531835</v>
       </c>
       <c r="G81" t="n">
-        <v>326.5005651870069</v>
+        <v>77.13605535370912</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>350517</v>
+        <v>334510</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>399287816</v>
+        <v>399355980</v>
       </c>
       <c r="E82" t="n">
-        <v>2281644664</v>
+        <v>2282034170</v>
       </c>
       <c r="F82" t="n">
-        <v>173859.7352583713</v>
+        <v>165873.3242565701</v>
       </c>
       <c r="G82" t="n">
-        <v>183450.0888313246</v>
+        <v>181093.9487990191</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>36243530</v>
+        <v>36161771</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3831514</v>
+        <v>3908107</v>
       </c>
       <c r="F2" t="n">
-        <v>680.1246493174825</v>
+        <v>611.0885566002773</v>
       </c>
       <c r="G2" t="n">
-        <v>687.983583259694</v>
+        <v>654.4950757441619</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7</v>
+        <v>0.28</v>
       </c>
       <c r="I2" t="n">
-        <v>99258</v>
+        <v>100619</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1346926</v>
+        <v>1349248</v>
       </c>
       <c r="E3" t="n">
-        <v>4353817</v>
+        <v>4361324</v>
       </c>
       <c r="F3" t="n">
-        <v>6824.702798570914</v>
+        <v>5703.973241451541</v>
       </c>
       <c r="G3" t="n">
-        <v>9171.054409362883</v>
+        <v>11395.01344338758</v>
       </c>
       <c r="H3" t="n">
-        <v>0.32</v>
+        <v>0.14</v>
       </c>
       <c r="I3" t="n">
-        <v>90117</v>
+        <v>97732</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244781083</v>
+        <v>245871609</v>
       </c>
       <c r="E4" t="n">
-        <v>1534987767</v>
+        <v>1541826300</v>
       </c>
       <c r="F4" t="n">
-        <v>257437.9946956153</v>
+        <v>253674.3442378078</v>
       </c>
       <c r="G4" t="n">
-        <v>246954.381272715</v>
+        <v>244496.5824979915</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>15542132</v>
+        <v>15637819</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138596364</v>
+        <v>139633397</v>
       </c>
       <c r="E5" t="n">
-        <v>153586908</v>
+        <v>154736106</v>
       </c>
       <c r="F5" t="n">
-        <v>90360.08590342972</v>
+        <v>85452.19023955033</v>
       </c>
       <c r="G5" t="n">
-        <v>94804.74011439609</v>
+        <v>107794.5446477209</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>33297637</v>
+        <v>33778228</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>125307643</v>
+        <v>125824815</v>
       </c>
       <c r="E6" t="n">
-        <v>491168439</v>
+        <v>493195599</v>
       </c>
       <c r="F6" t="n">
-        <v>41442.0257653807</v>
+        <v>38424.9711538445</v>
       </c>
       <c r="G6" t="n">
-        <v>46093.37199871433</v>
+        <v>43496.05580622876</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>28874646</v>
+        <v>28994694</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4722096</v>
+        <v>4723882</v>
       </c>
       <c r="E7" t="n">
-        <v>29004833</v>
+        <v>29015801</v>
       </c>
       <c r="F7" t="n">
-        <v>2348.036861146749</v>
+        <v>2129.394195855315</v>
       </c>
       <c r="G7" t="n">
-        <v>1816.015326426072</v>
+        <v>1866.731536083938</v>
       </c>
       <c r="H7" t="n">
         <v>0.17</v>
       </c>
       <c r="I7" t="n">
-        <v>466825</v>
+        <v>476530</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>199586</v>
+        <v>197828</v>
       </c>
       <c r="E8" t="n">
-        <v>2195661</v>
+        <v>2176323</v>
       </c>
       <c r="F8" t="n">
-        <v>3905.701351959784</v>
+        <v>3659.713786908511</v>
       </c>
       <c r="G8" t="n">
-        <v>3315.203263521509</v>
+        <v>5065.655015034407</v>
       </c>
       <c r="H8" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I8" t="n">
-        <v>38953</v>
+        <v>40007</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72923576</v>
+        <v>72963211</v>
       </c>
       <c r="E9" t="n">
-        <v>126328309</v>
+        <v>126393948</v>
       </c>
       <c r="F9" t="n">
-        <v>1104.855930380936</v>
+        <v>9394.378858417169</v>
       </c>
       <c r="G9" t="n">
-        <v>4330.52328912086</v>
+        <v>12171.08869992952</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08</v>
+        <v>0.39</v>
       </c>
       <c r="I9" t="n">
-        <v>672810</v>
+        <v>746892</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8869272</v>
+        <v>8838815</v>
       </c>
       <c r="E10" t="n">
-        <v>12553796</v>
+        <v>12510686</v>
       </c>
       <c r="F10" t="n">
-        <v>3386.327327881413</v>
+        <v>3392.656579614924</v>
       </c>
       <c r="G10" t="n">
-        <v>4157.808139198542</v>
+        <v>4158.052240104977</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>60251</v>
+        <v>60479</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>468471329</v>
+        <v>480264452</v>
       </c>
       <c r="E11" t="n">
-        <v>468471327</v>
+        <v>480264452</v>
       </c>
       <c r="F11" t="n">
-        <v>60183.4173831022</v>
+        <v>32549.22649035029</v>
       </c>
       <c r="G11" t="n">
-        <v>64210.03202726124</v>
+        <v>62627.86712747775</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>60447548</v>
+        <v>62640598</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>312847</v>
+        <v>323672</v>
       </c>
       <c r="E12" t="n">
-        <v>1460400</v>
+        <v>1510934</v>
       </c>
       <c r="F12" t="n">
-        <v>99.03306179194702</v>
+        <v>1281.201392881519</v>
       </c>
       <c r="G12" t="n">
-        <v>1395.693582629743</v>
+        <v>4.484587224145354</v>
       </c>
       <c r="H12" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="I12" t="n">
-        <v>613851</v>
+        <v>639267</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1618345</v>
+        <v>1602052</v>
       </c>
       <c r="F13" t="n">
-        <v>4837.524589088342</v>
+        <v>4547.228628618982</v>
       </c>
       <c r="G13" t="n">
-        <v>1393.977143571229</v>
+        <v>553.768613491806</v>
       </c>
       <c r="H13" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>168647</v>
+        <v>182443</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12729375</v>
+        <v>12831588</v>
       </c>
       <c r="E14" t="n">
-        <v>32056760</v>
+        <v>31935502</v>
       </c>
       <c r="F14" t="n">
-        <v>1478.450566979944</v>
+        <v>1547.703033173686</v>
       </c>
       <c r="G14" t="n">
-        <v>1636.765567628638</v>
+        <v>1218.032552932585</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1589746</v>
+        <v>1590521</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>108163665</v>
+        <v>109526186</v>
       </c>
       <c r="E15" t="n">
-        <v>421130813</v>
+        <v>426411072</v>
       </c>
       <c r="F15" t="n">
-        <v>29629.0437925696</v>
+        <v>36529.07004547854</v>
       </c>
       <c r="G15" t="n">
-        <v>96070.5392666611</v>
+        <v>104137.3130274438</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>6421599</v>
+        <v>6649818</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5435108</v>
+        <v>5489253</v>
       </c>
       <c r="E16" t="n">
-        <v>8000773</v>
+        <v>8080478</v>
       </c>
       <c r="F16" t="n">
-        <v>2493.992892179163</v>
+        <v>3021.259686488872</v>
       </c>
       <c r="G16" t="n">
-        <v>1805.9049849696</v>
+        <v>2014.999617816401</v>
       </c>
       <c r="H16" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="I16" t="n">
-        <v>643904</v>
+        <v>585536</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1912005</v>
+        <v>2009357</v>
       </c>
       <c r="F17" t="n">
-        <v>739.7118436920048</v>
+        <v>2919.282751349443</v>
       </c>
       <c r="G17" t="n">
-        <v>543.9062911539741</v>
+        <v>391.8549650131939</v>
       </c>
       <c r="H17" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="I17" t="n">
-        <v>216912</v>
+        <v>214810</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>134145710</v>
+        <v>135341363</v>
       </c>
       <c r="E18" t="n">
-        <v>134145710</v>
+        <v>135341363</v>
       </c>
       <c r="F18" t="n">
-        <v>123301.4114702596</v>
+        <v>115496.6994743182</v>
       </c>
       <c r="G18" t="n">
-        <v>121836.9426315162</v>
+        <v>121043.7323268823</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>63140779</v>
+        <v>65618444</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63899139</v>
+        <v>64703476</v>
       </c>
       <c r="E19" t="n">
-        <v>327687894</v>
+        <v>331812696</v>
       </c>
       <c r="F19" t="n">
-        <v>14303.53798110595</v>
+        <v>21777.20752027646</v>
       </c>
       <c r="G19" t="n">
-        <v>25493.80205348498</v>
+        <v>23405.46013877662</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>18020793</v>
+        <v>18624450</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>250286629</v>
+        <v>252359176</v>
       </c>
       <c r="E20" t="n">
-        <v>250286629</v>
+        <v>252359176</v>
       </c>
       <c r="F20" t="n">
-        <v>66716.16249456552</v>
+        <v>63844.08652598591</v>
       </c>
       <c r="G20" t="n">
-        <v>87990.87241462817</v>
+        <v>93380.09157976159</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14611747</v>
+        <v>14972278</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>147758719</v>
+        <v>151626509</v>
       </c>
       <c r="E21" t="n">
-        <v>194433194</v>
+        <v>199522752</v>
       </c>
       <c r="F21" t="n">
-        <v>21530.0921496461</v>
+        <v>24828.54495478119</v>
       </c>
       <c r="G21" t="n">
-        <v>21073.7695522327</v>
+        <v>25667.09016358015</v>
       </c>
       <c r="H21" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="I21" t="n">
-        <v>7294510</v>
+        <v>7452239</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71835024</v>
+        <v>72143698</v>
       </c>
       <c r="E22" t="n">
-        <v>201094956</v>
+        <v>201954772</v>
       </c>
       <c r="F22" t="n">
-        <v>30047.03314270205</v>
+        <v>19188.99643820786</v>
       </c>
       <c r="G22" t="n">
-        <v>51191.97798096132</v>
+        <v>40846.27590610128</v>
       </c>
       <c r="H22" t="n">
         <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>32604896</v>
+        <v>32881222</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72110728</v>
+        <v>72400003</v>
       </c>
       <c r="E23" t="n">
-        <v>150387487</v>
+        <v>150990773</v>
       </c>
       <c r="F23" t="n">
-        <v>20911.56056511043</v>
+        <v>18327.62315162719</v>
       </c>
       <c r="G23" t="n">
-        <v>36670.7781666705</v>
+        <v>39351.79320018156</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>13734331</v>
+        <v>13989136</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>613006968</v>
+        <v>619135132</v>
       </c>
       <c r="E24" t="n">
-        <v>613006968</v>
+        <v>619135132</v>
       </c>
       <c r="F24" t="n">
-        <v>220331.7007012672</v>
+        <v>237024.2023200952</v>
       </c>
       <c r="G24" t="n">
-        <v>266580.204049862</v>
+        <v>234898.9079016792</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>257217397</v>
+        <v>260893988</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>196382747</v>
+        <v>197704503</v>
       </c>
       <c r="E25" t="n">
-        <v>682251412</v>
+        <v>686843311</v>
       </c>
       <c r="F25" t="n">
-        <v>91194.99347081828</v>
+        <v>93393.2312751845</v>
       </c>
       <c r="G25" t="n">
-        <v>358147.483594089</v>
+        <v>348451.0212003718</v>
       </c>
       <c r="H25" t="n">
         <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>25626732</v>
+        <v>26103952</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5937125</v>
+        <v>5944953</v>
       </c>
       <c r="E26" t="n">
-        <v>8067469</v>
+        <v>8077959</v>
       </c>
       <c r="F26" t="n">
-        <v>2270.683513298668</v>
+        <v>2519.59825040237</v>
       </c>
       <c r="G26" t="n">
-        <v>735.5188305674203</v>
+        <v>369.1108121480717</v>
       </c>
       <c r="H26" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I26" t="n">
-        <v>6473746</v>
+        <v>6466820</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14294342</v>
+        <v>14413286</v>
       </c>
       <c r="F27" t="n">
-        <v>2169.712613100386</v>
+        <v>2923.166320487473</v>
       </c>
       <c r="G27" t="n">
-        <v>3245.548078413912</v>
+        <v>1761.932253049356</v>
       </c>
       <c r="H27" t="n">
-        <v>0.15</v>
+        <v>0.43</v>
       </c>
       <c r="I27" t="n">
-        <v>229932</v>
+        <v>440758</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25021527</v>
+        <v>25035686</v>
       </c>
       <c r="E28" t="n">
-        <v>35366952</v>
+        <v>35386965</v>
       </c>
       <c r="F28" t="n">
-        <v>112.1619325544048</v>
+        <v>58.51653189552155</v>
       </c>
       <c r="G28" t="n">
-        <v>8677.77356423054</v>
+        <v>8930.530760340707</v>
       </c>
       <c r="H28" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="I28" t="n">
-        <v>86655</v>
+        <v>82489</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>266306546</v>
+        <v>264901472</v>
       </c>
       <c r="E29" t="n">
-        <v>1149526891</v>
+        <v>1143461812</v>
       </c>
       <c r="F29" t="n">
-        <v>353904.4087039677</v>
+        <v>368879.7758127776</v>
       </c>
       <c r="G29" t="n">
-        <v>360134.1819763715</v>
+        <v>354763.3656839345</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>109906193</v>
+        <v>111105280</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10911455</v>
+        <v>11111548</v>
       </c>
       <c r="E30" t="n">
-        <v>131765861</v>
+        <v>134180948</v>
       </c>
       <c r="F30" t="n">
-        <v>5070.529380197157</v>
+        <v>3183.655596507544</v>
       </c>
       <c r="G30" t="n">
-        <v>4178.403651862444</v>
+        <v>2850.898672217342</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.74</v>
       </c>
       <c r="I30" t="n">
-        <v>235627</v>
+        <v>229422</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21399686</v>
+        <v>21304022</v>
       </c>
       <c r="E31" t="n">
-        <v>53499215</v>
+        <v>53260054</v>
       </c>
       <c r="F31" t="n">
-        <v>13317.1770746198</v>
+        <v>12170.36953089336</v>
       </c>
       <c r="G31" t="n">
-        <v>9722.972569273221</v>
+        <v>8872.172200420546</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I31" t="n">
-        <v>1960688</v>
+        <v>2060128</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20200060</v>
+        <v>20169242</v>
       </c>
       <c r="F32" t="n">
-        <v>2638.040959052615</v>
+        <v>2672.412879411702</v>
       </c>
       <c r="G32" t="n">
-        <v>2398.64150326139</v>
+        <v>2354.834751825253</v>
       </c>
       <c r="H32" t="n">
         <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>128408</v>
+        <v>125908</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1350117</v>
+        <v>1362616</v>
       </c>
       <c r="E33" t="n">
-        <v>5033739</v>
+        <v>5080294</v>
       </c>
       <c r="F33" t="n">
-        <v>2499.550665380035</v>
+        <v>2088.087829166186</v>
       </c>
       <c r="G33" t="n">
-        <v>2303.216270756601</v>
+        <v>2167.447523584376</v>
       </c>
       <c r="H33" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="I33" t="n">
-        <v>606555</v>
+        <v>611699</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3936016</v>
+        <v>4048716</v>
       </c>
       <c r="E34" t="n">
-        <v>11337321</v>
+        <v>11661609</v>
       </c>
       <c r="F34" t="n">
-        <v>1923.331052603476</v>
+        <v>4308.137864819043</v>
       </c>
       <c r="G34" t="n">
-        <v>4063.457978079522</v>
+        <v>5062.431886759672</v>
       </c>
       <c r="H34" t="n">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="I34" t="n">
-        <v>529416</v>
+        <v>563473</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13769729</v>
+        <v>13923901</v>
       </c>
       <c r="E35" t="n">
-        <v>66688994</v>
+        <v>67435677</v>
       </c>
       <c r="F35" t="n">
-        <v>10314.91316070511</v>
+        <v>9643.979864146348</v>
       </c>
       <c r="G35" t="n">
-        <v>10691.04352721122</v>
+        <v>11818.5631163006</v>
       </c>
       <c r="H35" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="I35" t="n">
-        <v>3616618</v>
+        <v>3613094</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1471730</v>
+        <v>1439368</v>
       </c>
       <c r="E36" t="n">
-        <v>9632431</v>
+        <v>9420623</v>
       </c>
       <c r="F36" t="n">
-        <v>4040.059151590572</v>
+        <v>4270.155653938088</v>
       </c>
       <c r="G36" t="n">
-        <v>2575.940909200486</v>
+        <v>4581.518282916249</v>
       </c>
       <c r="H36" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I36" t="n">
-        <v>341259</v>
+        <v>21601</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1880505224</v>
+        <v>1883239490</v>
       </c>
       <c r="F37" t="n">
-        <v>70833.57001574808</v>
+        <v>69491.25077762605</v>
       </c>
       <c r="G37" t="n">
-        <v>79543.50121724515</v>
+        <v>74709.22112512897</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="I37" t="n">
-        <v>26212938</v>
+        <v>25890486</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2080627</v>
+        <v>2068869</v>
       </c>
       <c r="E38" t="n">
-        <v>14919969</v>
+        <v>14835654</v>
       </c>
       <c r="F38" t="n">
-        <v>3805.932215783925</v>
+        <v>4392.64644869974</v>
       </c>
       <c r="G38" t="n">
-        <v>5352.075452298507</v>
+        <v>5431.166759999212</v>
       </c>
       <c r="H38" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="I38" t="n">
-        <v>1926761</v>
+        <v>1934502</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>199710551</v>
+        <v>201898937</v>
       </c>
       <c r="E39" t="n">
-        <v>1130883848</v>
+        <v>1143275837</v>
       </c>
       <c r="F39" t="n">
-        <v>155685.8660150665</v>
+        <v>149318.2386223972</v>
       </c>
       <c r="G39" t="n">
-        <v>177185.5017048182</v>
+        <v>145796.1964631942</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>61681175</v>
+        <v>63069328</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>137459340</v>
+        <v>138871838</v>
       </c>
       <c r="E40" t="n">
-        <v>1018217331</v>
+        <v>1028680282</v>
       </c>
       <c r="F40" t="n">
-        <v>215013.2165362046</v>
+        <v>215409.6708377716</v>
       </c>
       <c r="G40" t="n">
-        <v>201314.0665331026</v>
+        <v>192314.2016205117</v>
       </c>
       <c r="H40" t="n">
         <v>0.03</v>
       </c>
       <c r="I40" t="n">
-        <v>11892994</v>
+        <v>11165579</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>335057954</v>
+        <v>336846659</v>
       </c>
       <c r="E41" t="n">
-        <v>3014389117</v>
+        <v>3030481416</v>
       </c>
       <c r="F41" t="n">
-        <v>266621.8931450456</v>
+        <v>237559.232892416</v>
       </c>
       <c r="G41" t="n">
-        <v>273519.0273187149</v>
+        <v>269303.4666059512</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>36512060</v>
+        <v>37029697</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1589214</v>
+        <v>1588820</v>
       </c>
       <c r="E42" t="n">
-        <v>13243453</v>
+        <v>13240170</v>
       </c>
       <c r="F42" t="n">
-        <v>2921.846043998865</v>
+        <v>1934.200076710946</v>
       </c>
       <c r="G42" t="n">
-        <v>5410.018195354196</v>
+        <v>5387.35560950196</v>
       </c>
       <c r="H42" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="I42" t="n">
-        <v>46970</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>25092853</v>
+        <v>24380338</v>
       </c>
       <c r="E43" t="n">
-        <v>75216550</v>
+        <v>73079396</v>
       </c>
       <c r="F43" t="n">
-        <v>63594.51764839404</v>
+        <v>58623.07851644329</v>
       </c>
       <c r="G43" t="n">
-        <v>65587.73587263726</v>
+        <v>55111.37194959854</v>
       </c>
       <c r="H43" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I43" t="n">
-        <v>2544706</v>
+        <v>2682472</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9482659</v>
+        <v>9452976</v>
       </c>
       <c r="F44" t="n">
-        <v>5677.635733466082</v>
+        <v>5689.245406366996</v>
       </c>
       <c r="G44" t="n">
-        <v>6039.616158146476</v>
+        <v>6059.142819412975</v>
       </c>
       <c r="H44" t="n">
         <v>0.63</v>
       </c>
       <c r="I44" t="n">
-        <v>121603</v>
+        <v>121669</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13039861</v>
+        <v>12908902</v>
       </c>
       <c r="E45" t="n">
-        <v>13039861</v>
+        <v>12908902</v>
       </c>
       <c r="F45" t="n">
-        <v>1770.841634171989</v>
+        <v>1741.455942429611</v>
       </c>
       <c r="G45" t="n">
-        <v>788.8028411194801</v>
+        <v>946.1530447135187</v>
       </c>
       <c r="H45" t="n">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="I45" t="n">
-        <v>3018538</v>
+        <v>3163122</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>294176210</v>
+        <v>300932263</v>
       </c>
       <c r="E46" t="n">
-        <v>294176210</v>
+        <v>300932263</v>
       </c>
       <c r="F46" t="n">
-        <v>19945.34903042315</v>
+        <v>23250.05347928103</v>
       </c>
       <c r="G46" t="n">
-        <v>47814.90551064835</v>
+        <v>51224.22610855399</v>
       </c>
       <c r="H46" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I46" t="n">
-        <v>12192556</v>
+        <v>12532138</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12778557</v>
+        <v>12770450</v>
       </c>
       <c r="E47" t="n">
-        <v>40427570</v>
+        <v>40401557</v>
       </c>
       <c r="F47" t="n">
-        <v>32490.5517755009</v>
+        <v>32437.66648572893</v>
       </c>
       <c r="G47" t="n">
-        <v>17043.18234862906</v>
+        <v>13236.07795561344</v>
       </c>
       <c r="H47" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I47" t="n">
-        <v>1485311</v>
+        <v>1398645</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31332025</v>
+        <v>31414067</v>
       </c>
       <c r="E48" t="n">
-        <v>86786599</v>
+        <v>87013849</v>
       </c>
       <c r="F48" t="n">
-        <v>4207.654147123291</v>
+        <v>4826.386682056122</v>
       </c>
       <c r="G48" t="n">
-        <v>9841.09358613016</v>
+        <v>10192.60128687596</v>
       </c>
       <c r="H48" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="I48" t="n">
-        <v>11998539</v>
+        <v>11994382</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28401638</v>
+        <v>28868327</v>
       </c>
       <c r="E49" t="n">
-        <v>67475231</v>
+        <v>68583967</v>
       </c>
       <c r="F49" t="n">
-        <v>17910.27081689229</v>
+        <v>18013.25245282066</v>
       </c>
       <c r="G49" t="n">
-        <v>17679.54873053606</v>
+        <v>10788.0198728235</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>414372</v>
+        <v>486001</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12089386</v>
+        <v>12239055</v>
       </c>
       <c r="E50" t="n">
-        <v>18425022</v>
+        <v>18653127</v>
       </c>
       <c r="F50" t="n">
-        <v>2756.500634592126</v>
+        <v>4772.445038120541</v>
       </c>
       <c r="G50" t="n">
-        <v>5503.169010487752</v>
+        <v>18867.88658965646</v>
       </c>
       <c r="H50" t="n">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="I50" t="n">
-        <v>672071</v>
+        <v>687196</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>298678120</v>
+        <v>301362105</v>
       </c>
       <c r="E51" t="n">
-        <v>298678120</v>
+        <v>301362105</v>
       </c>
       <c r="F51" t="n">
-        <v>61193.58620117825</v>
+        <v>64781.9570669154</v>
       </c>
       <c r="G51" t="n">
-        <v>112268.3681916625</v>
+        <v>129544.5546710598</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>50138635</v>
+        <v>49973784</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>88897159</v>
+        <v>88994127</v>
       </c>
       <c r="E52" t="n">
-        <v>512263772</v>
+        <v>512822544</v>
       </c>
       <c r="F52" t="n">
-        <v>268165.6307728448</v>
+        <v>272518.5251994794</v>
       </c>
       <c r="G52" t="n">
-        <v>240078.3308856448</v>
+        <v>235290.2473522005</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I52" t="n">
-        <v>15944107</v>
+        <v>16029812</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30307749</v>
+        <v>30554951</v>
       </c>
       <c r="E53" t="n">
-        <v>135700224</v>
+        <v>136807051</v>
       </c>
       <c r="F53" t="n">
-        <v>38109.77577937253</v>
+        <v>42971.28289195806</v>
       </c>
       <c r="G53" t="n">
-        <v>44930.70724350788</v>
+        <v>42643.8616853524</v>
       </c>
       <c r="H53" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>8544956</v>
+        <v>8769925</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9317366</v>
+        <v>9289548</v>
       </c>
       <c r="F54" t="n">
-        <v>2868.6324234524</v>
+        <v>2873.626227871398</v>
       </c>
       <c r="G54" t="n">
-        <v>7183.562544090797</v>
+        <v>7465.197100472144</v>
       </c>
       <c r="H54" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="I54" t="n">
-        <v>300266</v>
+        <v>298125</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4840762</v>
+        <v>4854133</v>
       </c>
       <c r="F55" t="n">
-        <v>2427.36303166298</v>
+        <v>2895.461243683495</v>
       </c>
       <c r="G55" t="n">
-        <v>1552.617232698153</v>
+        <v>1378.709540482723</v>
       </c>
       <c r="H55" t="n">
-        <v>0.17</v>
+        <v>0.41</v>
       </c>
       <c r="I55" t="n">
-        <v>158402</v>
+        <v>188762</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125184000</v>
+        <v>125331142</v>
       </c>
       <c r="E56" t="n">
-        <v>2073149576</v>
+        <v>2075586366</v>
       </c>
       <c r="F56" t="n">
-        <v>185304.3991614911</v>
+        <v>187272.5179461332</v>
       </c>
       <c r="G56" t="n">
-        <v>184059.8552748369</v>
+        <v>187403.2964447125</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5050593</v>
+        <v>5085998</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>73490952</v>
+        <v>74240270</v>
       </c>
       <c r="E57" t="n">
-        <v>74282034</v>
+        <v>75039418</v>
       </c>
       <c r="F57" t="n">
-        <v>52086.78803885425</v>
+        <v>53978.62088127753</v>
       </c>
       <c r="G57" t="n">
-        <v>68479.9094037824</v>
+        <v>64370.60658947459</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I57" t="n">
-        <v>8615545</v>
+        <v>8655661</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>236012345</v>
+        <v>235724286</v>
       </c>
       <c r="E58" t="n">
-        <v>236012345</v>
+        <v>235724286</v>
       </c>
       <c r="F58" t="n">
-        <v>108732.2023547922</v>
+        <v>102285.0725064045</v>
       </c>
       <c r="G58" t="n">
-        <v>136448.3422499622</v>
+        <v>95586.65210954344</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>44095111</v>
+        <v>44772280</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23148471</v>
+        <v>23395304</v>
       </c>
       <c r="E59" t="n">
-        <v>138501954</v>
+        <v>139978809</v>
       </c>
       <c r="F59" t="n">
-        <v>64417.03128325581</v>
+        <v>65112.76945464972</v>
       </c>
       <c r="G59" t="n">
-        <v>74242.91006291535</v>
+        <v>41883.67484181758</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>12712924</v>
+        <v>12774941</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2412960</v>
+        <v>2402980</v>
       </c>
       <c r="E60" t="n">
-        <v>4453255</v>
+        <v>4434836</v>
       </c>
       <c r="F60" t="n">
-        <v>4595.319303213576</v>
+        <v>4585.602519305457</v>
       </c>
       <c r="G60" t="n">
-        <v>419.6354802902528</v>
+        <v>384.4932445593583</v>
       </c>
       <c r="H60" t="n">
         <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>23210</v>
+        <v>23176</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9572260</v>
+        <v>9378647</v>
       </c>
       <c r="E62" t="n">
-        <v>28408651</v>
+        <v>27832941</v>
       </c>
       <c r="F62" t="n">
-        <v>4806.486286783768</v>
+        <v>3983.214463038695</v>
       </c>
       <c r="G62" t="n">
-        <v>8162.520456186175</v>
+        <v>6853.374197247617</v>
       </c>
       <c r="H62" t="n">
         <v>0.09</v>
       </c>
       <c r="I62" t="n">
-        <v>5539564</v>
+        <v>5796470</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14532239</v>
+        <v>14586569</v>
       </c>
       <c r="E63" t="n">
-        <v>29419630</v>
+        <v>29529618</v>
       </c>
       <c r="F63" t="n">
-        <v>6891.959716529361</v>
+        <v>6920.264486687319</v>
       </c>
       <c r="G63" t="n">
-        <v>17055.16048158123</v>
+        <v>13938.12064338375</v>
       </c>
       <c r="H63" t="n">
         <v>0.3</v>
       </c>
       <c r="I63" t="n">
-        <v>484873</v>
+        <v>475581</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37501874</v>
+        <v>37400065</v>
       </c>
       <c r="E64" t="n">
-        <v>265882169</v>
+        <v>265160361</v>
       </c>
       <c r="F64" t="n">
-        <v>83705.45255516062</v>
+        <v>64360.74304891272</v>
       </c>
       <c r="G64" t="n">
-        <v>51811.97606984685</v>
+        <v>34372.73405564835</v>
       </c>
       <c r="H64" t="n">
         <v>0.08</v>
       </c>
       <c r="I64" t="n">
-        <v>1846962</v>
+        <v>1831299</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1257375</v>
+        <v>1258361</v>
       </c>
       <c r="E65" t="n">
-        <v>7797675</v>
+        <v>7803792</v>
       </c>
       <c r="F65" t="n">
-        <v>1812.838754598978</v>
+        <v>1718.251233494717</v>
       </c>
       <c r="G65" t="n">
-        <v>2471.022762880632</v>
+        <v>2530.553988035974</v>
       </c>
       <c r="H65" t="n">
         <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>762882</v>
+        <v>760659</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>589356139</v>
+        <v>598810318</v>
       </c>
       <c r="E66" t="n">
-        <v>2282489374</v>
+        <v>2319104014</v>
       </c>
       <c r="F66" t="n">
-        <v>60538.12827576137</v>
+        <v>63172.45532965233</v>
       </c>
       <c r="G66" t="n">
-        <v>94035.94043188398</v>
+        <v>92727.77151904283</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>30349540</v>
+        <v>30932229</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5838290</v>
+        <v>5840454</v>
       </c>
       <c r="E67" t="n">
-        <v>26138775</v>
+        <v>26148441</v>
       </c>
       <c r="F67" t="n">
-        <v>1419.759920160039</v>
+        <v>4260.618606172653</v>
       </c>
       <c r="G67" t="n">
-        <v>2319.20398817097</v>
+        <v>5148.468787694345</v>
       </c>
       <c r="H67" t="n">
         <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>144031</v>
+        <v>144744</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>117706909</v>
+        <v>118262597</v>
       </c>
       <c r="E68" t="n">
-        <v>1023389234</v>
+        <v>1028220592</v>
       </c>
       <c r="F68" t="n">
-        <v>157711.7367389493</v>
+        <v>157542.5535021966</v>
       </c>
       <c r="G68" t="n">
-        <v>157952.8326509117</v>
+        <v>162387.9052251183</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>9250888</v>
+        <v>9079837</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>104692875</v>
+        <v>105749928</v>
       </c>
       <c r="E69" t="n">
-        <v>159711434</v>
+        <v>161323994</v>
       </c>
       <c r="F69" t="n">
-        <v>67702.45447712873</v>
+        <v>69583.89365070191</v>
       </c>
       <c r="G69" t="n">
-        <v>77314.83095240559</v>
+        <v>87775.60697432807</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I69" t="n">
-        <v>7210891</v>
+        <v>7533182</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1138313</v>
+        <v>1120277</v>
       </c>
       <c r="E70" t="n">
-        <v>4407796</v>
+        <v>4337959</v>
       </c>
       <c r="F70" t="n">
-        <v>2471.99391384805</v>
+        <v>2835.032518215326</v>
       </c>
       <c r="G70" t="n">
-        <v>3154.556344750131</v>
+        <v>4113.631833463316</v>
       </c>
       <c r="H70" t="n">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
       <c r="I70" t="n">
-        <v>428243</v>
+        <v>435809</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>110887124</v>
+        <v>111836884</v>
       </c>
       <c r="E71" t="n">
-        <v>425380856</v>
+        <v>429024287</v>
       </c>
       <c r="F71" t="n">
-        <v>153055.035040302</v>
+        <v>147328.9988187431</v>
       </c>
       <c r="G71" t="n">
-        <v>160423.9987323282</v>
+        <v>162816.3515705124</v>
       </c>
       <c r="H71" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I71" t="n">
-        <v>19541673</v>
+        <v>20525772</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3159350</v>
+        <v>3151929</v>
       </c>
       <c r="E72" t="n">
-        <v>29935305</v>
+        <v>29864997</v>
       </c>
       <c r="F72" t="n">
-        <v>4280.711163946547</v>
+        <v>3943.444610899487</v>
       </c>
       <c r="G72" t="n">
-        <v>2182.307428535327</v>
+        <v>3857.298475964882</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="I72" t="n">
-        <v>149593</v>
+        <v>283265</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31571313</v>
+        <v>31298742</v>
       </c>
       <c r="F73" t="n">
-        <v>3115.285866122504</v>
+        <v>1109.916615357967</v>
       </c>
       <c r="G73" t="n">
-        <v>4160.712531680687</v>
+        <v>5647.101633489569</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>5604941</v>
+        <v>5607461</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>86769215</v>
+        <v>86728519</v>
       </c>
       <c r="E74" t="n">
-        <v>320763131</v>
+        <v>320611205</v>
       </c>
       <c r="F74" t="n">
-        <v>10625.17092940438</v>
+        <v>11236.54833263435</v>
       </c>
       <c r="G74" t="n">
-        <v>967.8585422150504</v>
+        <v>1322.364112265869</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>358983</v>
+        <v>348587</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23430201</v>
+        <v>23360182</v>
       </c>
       <c r="E75" t="n">
-        <v>23430201</v>
+        <v>23360182</v>
       </c>
       <c r="F75" t="n">
-        <v>25659.0957121156</v>
+        <v>29331.42473153065</v>
       </c>
       <c r="G75" t="n">
-        <v>26784.29483168344</v>
+        <v>23612.79703133615</v>
       </c>
       <c r="H75" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I75" t="n">
-        <v>6190434</v>
+        <v>6272656</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>487194354</v>
+        <v>490239198</v>
       </c>
       <c r="E76" t="n">
-        <v>1696743388</v>
+        <v>1707347613</v>
       </c>
       <c r="F76" t="n">
-        <v>129810.944000057</v>
+        <v>131747.2137224599</v>
       </c>
       <c r="G76" t="n">
-        <v>152180.3938268013</v>
+        <v>155783.6611228908</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I76" t="n">
-        <v>31483712</v>
+        <v>31227456</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5543732911</v>
+        <v>5552585692</v>
       </c>
       <c r="E77" t="n">
-        <v>5543732911</v>
+        <v>5552586190</v>
       </c>
       <c r="F77" t="n">
-        <v>10264.6988534691</v>
+        <v>10288.56036384339</v>
       </c>
       <c r="G77" t="n">
-        <v>93576.65730279025</v>
+        <v>93012.30812741329</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>24643844</v>
+        <v>28957431</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7626919</v>
+        <v>7652187</v>
       </c>
       <c r="E78" t="n">
-        <v>19813915</v>
+        <v>19879560</v>
       </c>
       <c r="F78" t="n">
-        <v>1125.767711740091</v>
+        <v>1058.634663047202</v>
       </c>
       <c r="G78" t="n">
-        <v>3055.230631218336</v>
+        <v>2844.718820021862</v>
       </c>
       <c r="H78" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="I78" t="n">
-        <v>679640</v>
+        <v>680888</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100232759</v>
+        <v>101011913</v>
       </c>
       <c r="E79" t="n">
-        <v>151864211</v>
+        <v>153044720</v>
       </c>
       <c r="F79" t="n">
-        <v>39289.07220693039</v>
+        <v>33220.76617847569</v>
       </c>
       <c r="G79" t="n">
-        <v>19265.15977284525</v>
+        <v>22489.35877592392</v>
       </c>
       <c r="H79" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>7131641</v>
+        <v>7251207</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2657237</v>
+        <v>2646553</v>
       </c>
       <c r="E80" t="n">
-        <v>10628947</v>
+        <v>10586212</v>
       </c>
       <c r="F80" t="n">
-        <v>58551.99879566242</v>
+        <v>3700.81486138127</v>
       </c>
       <c r="G80" t="n">
-        <v>56336.00646321361</v>
+        <v>55843.28262592362</v>
       </c>
       <c r="H80" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="I80" t="n">
-        <v>5060409</v>
+        <v>5141851</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2840435</v>
+        <v>2735586</v>
       </c>
       <c r="F81" t="n">
-        <v>36.97663599531835</v>
+        <v>213.9678362223387</v>
       </c>
       <c r="G81" t="n">
-        <v>77.13605535370912</v>
+        <v>30.87944410203381</v>
       </c>
       <c r="H81" t="n">
         <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>334510</v>
+        <v>320732</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>399355980</v>
+        <v>399793999</v>
       </c>
       <c r="E82" t="n">
-        <v>2282034170</v>
+        <v>2284537136</v>
       </c>
       <c r="F82" t="n">
-        <v>165873.3242565701</v>
+        <v>173579.8687004858</v>
       </c>
       <c r="G82" t="n">
-        <v>181093.9487990191</v>
+        <v>183696.6896202986</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>36161771</v>
+        <v>36530580</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3908107</v>
+        <v>3892184</v>
       </c>
       <c r="F2" t="n">
-        <v>611.0885566002773</v>
+        <v>627.7898066646446</v>
       </c>
       <c r="G2" t="n">
-        <v>654.4950757441619</v>
+        <v>736.7678475202054</v>
       </c>
       <c r="H2" t="n">
-        <v>0.28</v>
+        <v>0.46</v>
       </c>
       <c r="I2" t="n">
-        <v>100619</v>
+        <v>61709</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1349248</v>
+        <v>1343503</v>
       </c>
       <c r="E3" t="n">
-        <v>4361324</v>
+        <v>4342752</v>
       </c>
       <c r="F3" t="n">
-        <v>5703.973241451541</v>
+        <v>6900.394823237712</v>
       </c>
       <c r="G3" t="n">
-        <v>11395.01344338758</v>
+        <v>11943.78048623743</v>
       </c>
       <c r="H3" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I3" t="n">
-        <v>97732</v>
+        <v>96333</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245871609</v>
+        <v>246644954</v>
       </c>
       <c r="E4" t="n">
-        <v>1541826300</v>
+        <v>1546675836</v>
       </c>
       <c r="F4" t="n">
-        <v>253674.3442378078</v>
+        <v>201438.8786502524</v>
       </c>
       <c r="G4" t="n">
-        <v>244496.5824979915</v>
+        <v>258206.8300291655</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>15637819</v>
+        <v>15556361</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139633397</v>
+        <v>140920535</v>
       </c>
       <c r="E5" t="n">
-        <v>154736106</v>
+        <v>156162461</v>
       </c>
       <c r="F5" t="n">
-        <v>85452.19023955033</v>
+        <v>84911.88803276711</v>
       </c>
       <c r="G5" t="n">
-        <v>107794.5446477209</v>
+        <v>109670.5482739101</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>33778228</v>
+        <v>34001024</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>125824815</v>
+        <v>125248669</v>
       </c>
       <c r="E6" t="n">
-        <v>493195599</v>
+        <v>490937279</v>
       </c>
       <c r="F6" t="n">
-        <v>38424.9711538445</v>
+        <v>42420.68510541913</v>
       </c>
       <c r="G6" t="n">
-        <v>43496.05580622876</v>
+        <v>52750.74410253725</v>
       </c>
       <c r="H6" t="n">
         <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>28994694</v>
+        <v>29733331</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4723882</v>
+        <v>4740834</v>
       </c>
       <c r="E7" t="n">
-        <v>29015801</v>
+        <v>29119905</v>
       </c>
       <c r="F7" t="n">
-        <v>2129.394195855315</v>
+        <v>1254.08763150932</v>
       </c>
       <c r="G7" t="n">
-        <v>1866.731536083938</v>
+        <v>1126.696690067107</v>
       </c>
       <c r="H7" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="I7" t="n">
-        <v>476530</v>
+        <v>472027</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197828</v>
+        <v>199132</v>
       </c>
       <c r="E8" t="n">
-        <v>2176323</v>
+        <v>2190669</v>
       </c>
       <c r="F8" t="n">
-        <v>3659.713786908511</v>
+        <v>3676.769298052847</v>
       </c>
       <c r="G8" t="n">
-        <v>5065.655015034407</v>
+        <v>3281.222560460065</v>
       </c>
       <c r="H8" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="I8" t="n">
-        <v>40007</v>
+        <v>37099</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72963211</v>
+        <v>72896548</v>
       </c>
       <c r="E9" t="n">
-        <v>126393948</v>
+        <v>126275450</v>
       </c>
       <c r="F9" t="n">
-        <v>9394.378858417169</v>
+        <v>9287.017866048085</v>
       </c>
       <c r="G9" t="n">
-        <v>12171.08869992952</v>
+        <v>10423.07544233544</v>
       </c>
       <c r="H9" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="I9" t="n">
-        <v>746892</v>
+        <v>739839</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8838815</v>
+        <v>8833261</v>
       </c>
       <c r="E10" t="n">
-        <v>12510686</v>
+        <v>12502824</v>
       </c>
       <c r="F10" t="n">
-        <v>3392.656579614924</v>
+        <v>3386.637795074824</v>
       </c>
       <c r="G10" t="n">
-        <v>4158.052240104977</v>
+        <v>4153.037106865557</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>60479</v>
+        <v>49182</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>480264452</v>
+        <v>477668233</v>
       </c>
       <c r="E11" t="n">
-        <v>480264452</v>
+        <v>477668238</v>
       </c>
       <c r="F11" t="n">
-        <v>32549.22649035029</v>
+        <v>37205.63500572543</v>
       </c>
       <c r="G11" t="n">
-        <v>62627.86712747775</v>
+        <v>63400.74719728807</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>62640598</v>
+        <v>63514633</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>323672</v>
+        <v>314491</v>
       </c>
       <c r="E12" t="n">
-        <v>1510934</v>
+        <v>1468076</v>
       </c>
       <c r="F12" t="n">
-        <v>1281.201392881519</v>
+        <v>1312.843712889441</v>
       </c>
       <c r="G12" t="n">
-        <v>4.484587224145354</v>
+        <v>575.4956737178168</v>
       </c>
       <c r="H12" t="n">
-        <v>0.46</v>
+        <v>1.01</v>
       </c>
       <c r="I12" t="n">
-        <v>639267</v>
+        <v>620451</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1602052</v>
+        <v>1610912</v>
       </c>
       <c r="F13" t="n">
-        <v>4547.228628618982</v>
+        <v>4823.216564218535</v>
       </c>
       <c r="G13" t="n">
-        <v>553.768613491806</v>
+        <v>1068.772888410333</v>
       </c>
       <c r="H13" t="n">
         <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>182443</v>
+        <v>221016</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12831588</v>
+        <v>12872061</v>
       </c>
       <c r="E14" t="n">
-        <v>31935502</v>
+        <v>32036232</v>
       </c>
       <c r="F14" t="n">
-        <v>1547.703033173686</v>
+        <v>1753.141355336492</v>
       </c>
       <c r="G14" t="n">
-        <v>1218.032552932585</v>
+        <v>1800.470845716146</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="I14" t="n">
-        <v>1590521</v>
+        <v>1598604</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>109526186</v>
+        <v>112638448</v>
       </c>
       <c r="E15" t="n">
-        <v>426411072</v>
+        <v>438511831</v>
       </c>
       <c r="F15" t="n">
-        <v>36529.07004547854</v>
+        <v>37717.38576420635</v>
       </c>
       <c r="G15" t="n">
-        <v>104137.3130274438</v>
+        <v>102350.5365765423</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I15" t="n">
-        <v>6649818</v>
+        <v>9716371</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5489253</v>
+        <v>5506705</v>
       </c>
       <c r="E16" t="n">
-        <v>8080478</v>
+        <v>8106169</v>
       </c>
       <c r="F16" t="n">
-        <v>3021.259686488872</v>
+        <v>2189.51200784593</v>
       </c>
       <c r="G16" t="n">
-        <v>2014.999617816401</v>
+        <v>1789.479769404387</v>
       </c>
       <c r="H16" t="n">
         <v>0.85</v>
       </c>
       <c r="I16" t="n">
-        <v>585536</v>
+        <v>683732</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2009357</v>
+        <v>1994744</v>
       </c>
       <c r="F17" t="n">
-        <v>2919.282751349443</v>
+        <v>2121.179952085881</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8549650131939</v>
+        <v>648.0653396588433</v>
       </c>
       <c r="H17" t="n">
         <v>0.7</v>
       </c>
       <c r="I17" t="n">
-        <v>214810</v>
+        <v>215044</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>135341363</v>
+        <v>136519323</v>
       </c>
       <c r="E18" t="n">
-        <v>135341363</v>
+        <v>136519323</v>
       </c>
       <c r="F18" t="n">
-        <v>115496.6994743182</v>
+        <v>105703.0610582914</v>
       </c>
       <c r="G18" t="n">
-        <v>121043.7323268823</v>
+        <v>119421.1104454502</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>65618444</v>
+        <v>66592610</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64703476</v>
+        <v>65138432</v>
       </c>
       <c r="E19" t="n">
-        <v>331812696</v>
+        <v>334043242</v>
       </c>
       <c r="F19" t="n">
-        <v>21777.20752027646</v>
+        <v>12891.63756950798</v>
       </c>
       <c r="G19" t="n">
-        <v>23405.46013877662</v>
+        <v>15892.28204578477</v>
       </c>
       <c r="H19" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>18624450</v>
+        <v>18798705</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>252359176</v>
+        <v>254164077</v>
       </c>
       <c r="E20" t="n">
-        <v>252359176</v>
+        <v>254164077</v>
       </c>
       <c r="F20" t="n">
-        <v>63844.08652598591</v>
+        <v>52864.7109244878</v>
       </c>
       <c r="G20" t="n">
-        <v>93380.09157976159</v>
+        <v>108686.6890953804</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14972278</v>
+        <v>14912091</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>151626509</v>
+        <v>151856486</v>
       </c>
       <c r="E21" t="n">
-        <v>199522752</v>
+        <v>199825375</v>
       </c>
       <c r="F21" t="n">
-        <v>24828.54495478119</v>
+        <v>23572.7033981532</v>
       </c>
       <c r="G21" t="n">
-        <v>25667.09016358015</v>
+        <v>27297.02831364475</v>
       </c>
       <c r="H21" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I21" t="n">
-        <v>7452239</v>
+        <v>7705727</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72143698</v>
+        <v>73059741</v>
       </c>
       <c r="E22" t="n">
-        <v>201954772</v>
+        <v>204516079</v>
       </c>
       <c r="F22" t="n">
-        <v>19188.99643820786</v>
+        <v>24581.547341201</v>
       </c>
       <c r="G22" t="n">
-        <v>40846.27590610128</v>
+        <v>42775.63042840629</v>
       </c>
       <c r="H22" t="n">
         <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>32881222</v>
+        <v>33000990</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72400003</v>
+        <v>73311299</v>
       </c>
       <c r="E23" t="n">
-        <v>150990773</v>
+        <v>152891288</v>
       </c>
       <c r="F23" t="n">
-        <v>18327.62315162719</v>
+        <v>12470.14217093972</v>
       </c>
       <c r="G23" t="n">
-        <v>39351.79320018156</v>
+        <v>42204.71557615378</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>13989136</v>
+        <v>14347129</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>619135132</v>
+        <v>627272138</v>
       </c>
       <c r="E24" t="n">
-        <v>619135132</v>
+        <v>627272138</v>
       </c>
       <c r="F24" t="n">
-        <v>237024.2023200952</v>
+        <v>194426.485051157</v>
       </c>
       <c r="G24" t="n">
-        <v>234898.9079016792</v>
+        <v>281284.6308354359</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>260893988</v>
+        <v>265625745</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>197704503</v>
+        <v>199034836</v>
       </c>
       <c r="E25" t="n">
-        <v>686843311</v>
+        <v>691465007</v>
       </c>
       <c r="F25" t="n">
-        <v>93393.2312751845</v>
+        <v>83474.80029670015</v>
       </c>
       <c r="G25" t="n">
-        <v>348451.0212003718</v>
+        <v>357579.7301551097</v>
       </c>
       <c r="H25" t="n">
         <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>26103952</v>
+        <v>26118350</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5944953</v>
+        <v>5986383</v>
       </c>
       <c r="E26" t="n">
-        <v>8077959</v>
+        <v>8133895</v>
       </c>
       <c r="F26" t="n">
-        <v>2519.59825040237</v>
+        <v>2524.749469300938</v>
       </c>
       <c r="G26" t="n">
-        <v>369.1108121480717</v>
+        <v>503.1238174069751</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I26" t="n">
-        <v>6466820</v>
+        <v>6438826</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14413286</v>
+        <v>14440656</v>
       </c>
       <c r="F27" t="n">
-        <v>2923.166320487473</v>
+        <v>2630.401105303775</v>
       </c>
       <c r="G27" t="n">
-        <v>1761.932253049356</v>
+        <v>1982.972855812822</v>
       </c>
       <c r="H27" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="I27" t="n">
-        <v>440758</v>
+        <v>419956</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25035686</v>
+        <v>25148882</v>
       </c>
       <c r="E28" t="n">
-        <v>35386965</v>
+        <v>35546963</v>
       </c>
       <c r="F28" t="n">
-        <v>58.51653189552155</v>
+        <v>69.67332988371619</v>
       </c>
       <c r="G28" t="n">
-        <v>8930.530760340707</v>
+        <v>8660.242168927816</v>
       </c>
       <c r="H28" t="n">
-        <v>0.62</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>82489</v>
+        <v>70566</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>264901472</v>
+        <v>267352893</v>
       </c>
       <c r="E29" t="n">
-        <v>1143461812</v>
+        <v>1154043507</v>
       </c>
       <c r="F29" t="n">
-        <v>368879.7758127776</v>
+        <v>277156.4796809339</v>
       </c>
       <c r="G29" t="n">
-        <v>354763.3656839345</v>
+        <v>349550.6036828145</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>111105280</v>
+        <v>111627517</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11111548</v>
+        <v>10801410</v>
       </c>
       <c r="E30" t="n">
-        <v>134180948</v>
+        <v>130434321</v>
       </c>
       <c r="F30" t="n">
-        <v>3183.655596507544</v>
+        <v>1176.927232674791</v>
       </c>
       <c r="G30" t="n">
-        <v>2850.898672217342</v>
+        <v>693.7497611321181</v>
       </c>
       <c r="H30" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
       <c r="I30" t="n">
-        <v>229422</v>
+        <v>288445</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21304022</v>
+        <v>21262528</v>
       </c>
       <c r="E31" t="n">
-        <v>53260054</v>
+        <v>53156321</v>
       </c>
       <c r="F31" t="n">
-        <v>12170.36953089336</v>
+        <v>13151.97208080747</v>
       </c>
       <c r="G31" t="n">
-        <v>8872.172200420546</v>
+        <v>8865.394865961371</v>
       </c>
       <c r="H31" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>2060128</v>
+        <v>1952718</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20169242</v>
+        <v>20172248</v>
       </c>
       <c r="F32" t="n">
-        <v>2672.412879411702</v>
+        <v>2828.88229190053</v>
       </c>
       <c r="G32" t="n">
-        <v>2354.834751825253</v>
+        <v>2280.857559438378</v>
       </c>
       <c r="H32" t="n">
         <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>125908</v>
+        <v>121193</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1362616</v>
+        <v>1377580</v>
       </c>
       <c r="E33" t="n">
-        <v>5080294</v>
+        <v>5136081</v>
       </c>
       <c r="F33" t="n">
-        <v>2088.087829166186</v>
+        <v>2273.868621579637</v>
       </c>
       <c r="G33" t="n">
-        <v>2167.447523584376</v>
+        <v>2824.266355103826</v>
       </c>
       <c r="H33" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="I33" t="n">
-        <v>611699</v>
+        <v>609120</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4048716</v>
+        <v>4178640</v>
       </c>
       <c r="E34" t="n">
-        <v>11661609</v>
+        <v>12035831</v>
       </c>
       <c r="F34" t="n">
-        <v>4308.137864819043</v>
+        <v>584.8487999892156</v>
       </c>
       <c r="G34" t="n">
-        <v>5062.431886759672</v>
+        <v>2915.239554737647</v>
       </c>
       <c r="H34" t="n">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>563473</v>
+        <v>574225</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13923901</v>
+        <v>13974490</v>
       </c>
       <c r="E35" t="n">
-        <v>67435677</v>
+        <v>67680687</v>
       </c>
       <c r="F35" t="n">
-        <v>9643.979864146348</v>
+        <v>9868.769657051889</v>
       </c>
       <c r="G35" t="n">
-        <v>11818.5631163006</v>
+        <v>11184.94186523979</v>
       </c>
       <c r="H35" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="I35" t="n">
-        <v>3613094</v>
+        <v>3630605</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1439368</v>
+        <v>1519002</v>
       </c>
       <c r="E36" t="n">
-        <v>9420623</v>
+        <v>9941831</v>
       </c>
       <c r="F36" t="n">
-        <v>4270.155653938088</v>
+        <v>3998.455672769074</v>
       </c>
       <c r="G36" t="n">
-        <v>4581.518282916249</v>
+        <v>1646.363618308597</v>
       </c>
       <c r="H36" t="n">
-        <v>0.53</v>
+        <v>0.82</v>
       </c>
       <c r="I36" t="n">
-        <v>21601</v>
+        <v>400893</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1883239490</v>
+        <v>1891861931</v>
       </c>
       <c r="F37" t="n">
-        <v>69491.25077762605</v>
+        <v>74185.69872227001</v>
       </c>
       <c r="G37" t="n">
-        <v>74709.22112512897</v>
+        <v>79008.22978545315</v>
       </c>
       <c r="H37" t="n">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="I37" t="n">
-        <v>25890486</v>
+        <v>25914518</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2068869</v>
+        <v>2053023</v>
       </c>
       <c r="E38" t="n">
-        <v>14835654</v>
+        <v>14722022</v>
       </c>
       <c r="F38" t="n">
-        <v>4392.64644869974</v>
+        <v>4390.563754490629</v>
       </c>
       <c r="G38" t="n">
-        <v>5431.166759999212</v>
+        <v>5424.084475369908</v>
       </c>
       <c r="H38" t="n">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="I38" t="n">
-        <v>1934502</v>
+        <v>1934170</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>201898937</v>
+        <v>203473180</v>
       </c>
       <c r="E39" t="n">
-        <v>1143275837</v>
+        <v>1152190166</v>
       </c>
       <c r="F39" t="n">
-        <v>149318.2386223972</v>
+        <v>145739.6857764364</v>
       </c>
       <c r="G39" t="n">
-        <v>145796.1964631942</v>
+        <v>162794.8195640048</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>63069328</v>
+        <v>63624763</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>138871838</v>
+        <v>139245899</v>
       </c>
       <c r="E40" t="n">
-        <v>1028680282</v>
+        <v>1031451102</v>
       </c>
       <c r="F40" t="n">
-        <v>215409.6708377716</v>
+        <v>224795.0308167324</v>
       </c>
       <c r="G40" t="n">
-        <v>192314.2016205117</v>
+        <v>191255.2759717391</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>11165579</v>
+        <v>11024456</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>336846659</v>
+        <v>338303596</v>
       </c>
       <c r="E41" t="n">
-        <v>3030481416</v>
+        <v>3043588927</v>
       </c>
       <c r="F41" t="n">
-        <v>237559.232892416</v>
+        <v>229373.6796630195</v>
       </c>
       <c r="G41" t="n">
-        <v>269303.4666059512</v>
+        <v>277899.9391029261</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>37029697</v>
+        <v>37620951</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1588820</v>
+        <v>1589475</v>
       </c>
       <c r="E42" t="n">
-        <v>13240170</v>
+        <v>13245625</v>
       </c>
       <c r="F42" t="n">
-        <v>1934.200076710946</v>
+        <v>1944.710876682141</v>
       </c>
       <c r="G42" t="n">
-        <v>5387.35560950196</v>
+        <v>5365.609729808846</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I42" t="n">
-        <v>44321</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>24380338</v>
+        <v>24666655</v>
       </c>
       <c r="E43" t="n">
-        <v>73079396</v>
+        <v>73937624</v>
       </c>
       <c r="F43" t="n">
-        <v>58623.07851644329</v>
+        <v>61990.11734639716</v>
       </c>
       <c r="G43" t="n">
-        <v>55111.37194959854</v>
+        <v>65724.84077518282</v>
       </c>
       <c r="H43" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I43" t="n">
-        <v>2682472</v>
+        <v>2721746</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9452976</v>
+        <v>9485774</v>
       </c>
       <c r="F44" t="n">
-        <v>5689.245406366996</v>
+        <v>5709.29631335135</v>
       </c>
       <c r="G44" t="n">
-        <v>6059.142819412975</v>
+        <v>6102.149732317257</v>
       </c>
       <c r="H44" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="I44" t="n">
-        <v>121669</v>
+        <v>121662</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12908902</v>
+        <v>12974279</v>
       </c>
       <c r="E45" t="n">
-        <v>12908902</v>
+        <v>12974279</v>
       </c>
       <c r="F45" t="n">
-        <v>1741.455942429611</v>
+        <v>1740.983967081049</v>
       </c>
       <c r="G45" t="n">
-        <v>946.1530447135187</v>
+        <v>884.5187964367624</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7</v>
+        <v>0.23</v>
       </c>
       <c r="I45" t="n">
-        <v>3163122</v>
+        <v>3283157</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>300932263</v>
+        <v>304353513</v>
       </c>
       <c r="E46" t="n">
-        <v>300932263</v>
+        <v>304353513</v>
       </c>
       <c r="F46" t="n">
-        <v>23250.05347928103</v>
+        <v>18193.68278871024</v>
       </c>
       <c r="G46" t="n">
-        <v>51224.22610855399</v>
+        <v>44993.8388599173</v>
       </c>
       <c r="H46" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I46" t="n">
-        <v>12532138</v>
+        <v>12644061</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12770450</v>
+        <v>12788656</v>
       </c>
       <c r="E47" t="n">
-        <v>40401557</v>
+        <v>40459155</v>
       </c>
       <c r="F47" t="n">
-        <v>32437.66648572893</v>
+        <v>33168.50051390754</v>
       </c>
       <c r="G47" t="n">
-        <v>13236.07795561344</v>
+        <v>12743.35001369029</v>
       </c>
       <c r="H47" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I47" t="n">
-        <v>1398645</v>
+        <v>1396512</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31414067</v>
+        <v>31473063</v>
       </c>
       <c r="E48" t="n">
-        <v>87013849</v>
+        <v>87177263</v>
       </c>
       <c r="F48" t="n">
-        <v>4826.386682056122</v>
+        <v>4332.268463980518</v>
       </c>
       <c r="G48" t="n">
-        <v>10192.60128687596</v>
+        <v>6870.849593749511</v>
       </c>
       <c r="H48" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I48" t="n">
-        <v>11994382</v>
+        <v>11901198</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28868327</v>
+        <v>28679222</v>
       </c>
       <c r="E49" t="n">
-        <v>68583967</v>
+        <v>68134700</v>
       </c>
       <c r="F49" t="n">
-        <v>18013.25245282066</v>
+        <v>18219.48492250299</v>
       </c>
       <c r="G49" t="n">
-        <v>10788.0198728235</v>
+        <v>17722.8386878425</v>
       </c>
       <c r="H49" t="n">
         <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>486001</v>
+        <v>459272</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12239055</v>
+        <v>12419978</v>
       </c>
       <c r="E50" t="n">
-        <v>18653127</v>
+        <v>18928865</v>
       </c>
       <c r="F50" t="n">
-        <v>4772.445038120541</v>
+        <v>3914.225518117299</v>
       </c>
       <c r="G50" t="n">
-        <v>18867.88658965646</v>
+        <v>4626.03991538592</v>
       </c>
       <c r="H50" t="n">
         <v>0.38</v>
       </c>
       <c r="I50" t="n">
-        <v>687196</v>
+        <v>697916</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>301362105</v>
+        <v>303599416</v>
       </c>
       <c r="E51" t="n">
-        <v>301362105</v>
+        <v>303599416</v>
       </c>
       <c r="F51" t="n">
-        <v>64781.9570669154</v>
+        <v>69530.1240197132</v>
       </c>
       <c r="G51" t="n">
-        <v>129544.5546710598</v>
+        <v>107358.9565413327</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>49973784</v>
+        <v>50553011</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>88994127</v>
+        <v>89776982</v>
       </c>
       <c r="E52" t="n">
-        <v>512822544</v>
+        <v>517333694</v>
       </c>
       <c r="F52" t="n">
-        <v>272518.5251994794</v>
+        <v>271377.2752067806</v>
       </c>
       <c r="G52" t="n">
-        <v>235290.2473522005</v>
+        <v>236225.2816425757</v>
       </c>
       <c r="H52" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>16029812</v>
+        <v>16047649</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30554951</v>
+        <v>30550764</v>
       </c>
       <c r="E53" t="n">
-        <v>136807051</v>
+        <v>136788303</v>
       </c>
       <c r="F53" t="n">
-        <v>42971.28289195806</v>
+        <v>38405.35794117532</v>
       </c>
       <c r="G53" t="n">
-        <v>42643.8616853524</v>
+        <v>42769.59093956315</v>
       </c>
       <c r="H53" t="n">
         <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>8769925</v>
+        <v>8938952</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9289548</v>
+        <v>9243309</v>
       </c>
       <c r="F54" t="n">
-        <v>2873.626227871398</v>
+        <v>2873.697983275731</v>
       </c>
       <c r="G54" t="n">
-        <v>7465.197100472144</v>
+        <v>7476.37655400415</v>
       </c>
       <c r="H54" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="I54" t="n">
-        <v>298125</v>
+        <v>297609</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4854133</v>
+        <v>4805589</v>
       </c>
       <c r="F55" t="n">
-        <v>2895.461243683495</v>
+        <v>2555.587924528064</v>
       </c>
       <c r="G55" t="n">
-        <v>1378.709540482723</v>
+        <v>853.3558996270046</v>
       </c>
       <c r="H55" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="I55" t="n">
-        <v>188762</v>
+        <v>170144</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125331142</v>
+        <v>125393914</v>
       </c>
       <c r="E56" t="n">
-        <v>2075586366</v>
+        <v>2076625919</v>
       </c>
       <c r="F56" t="n">
-        <v>187272.5179461332</v>
+        <v>186700.7026471591</v>
       </c>
       <c r="G56" t="n">
-        <v>187403.2964447125</v>
+        <v>186387.3424953696</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5085998</v>
+        <v>5082422</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>74240270</v>
+        <v>74974567</v>
       </c>
       <c r="E57" t="n">
-        <v>75039418</v>
+        <v>75781619</v>
       </c>
       <c r="F57" t="n">
-        <v>53978.62088127753</v>
+        <v>46040.80371103673</v>
       </c>
       <c r="G57" t="n">
-        <v>64370.60658947459</v>
+        <v>71517.21430329804</v>
       </c>
       <c r="H57" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>8655661</v>
+        <v>8635417</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>235724286</v>
+        <v>236070156</v>
       </c>
       <c r="E58" t="n">
-        <v>235724286</v>
+        <v>236070156</v>
       </c>
       <c r="F58" t="n">
-        <v>102285.0725064045</v>
+        <v>108806.3373489602</v>
       </c>
       <c r="G58" t="n">
-        <v>95586.65210954344</v>
+        <v>118023.0391102894</v>
       </c>
       <c r="H58" t="n">
         <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>44772280</v>
+        <v>44616672</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23395304</v>
+        <v>23518870</v>
       </c>
       <c r="E59" t="n">
-        <v>139978809</v>
+        <v>140718128</v>
       </c>
       <c r="F59" t="n">
-        <v>65112.76945464972</v>
+        <v>64803.43141254632</v>
       </c>
       <c r="G59" t="n">
-        <v>41883.67484181758</v>
+        <v>80765.00644273221</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>12774941</v>
+        <v>13162943</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2402980</v>
+        <v>2401817</v>
       </c>
       <c r="E60" t="n">
-        <v>4434836</v>
+        <v>4432691</v>
       </c>
       <c r="F60" t="n">
-        <v>4585.602519305457</v>
+        <v>392.8393056242602</v>
       </c>
       <c r="G60" t="n">
-        <v>384.4932445593583</v>
+        <v>389.7852863096331</v>
       </c>
       <c r="H60" t="n">
-        <v>0.34</v>
+        <v>0.57</v>
       </c>
       <c r="I60" t="n">
-        <v>23176</v>
+        <v>23232</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9378647</v>
+        <v>9292905</v>
       </c>
       <c r="E62" t="n">
-        <v>27832941</v>
+        <v>27578485</v>
       </c>
       <c r="F62" t="n">
-        <v>3983.214463038695</v>
+        <v>6103.233129397376</v>
       </c>
       <c r="G62" t="n">
-        <v>6853.374197247617</v>
+        <v>4376.276350008593</v>
       </c>
       <c r="H62" t="n">
         <v>0.09</v>
       </c>
       <c r="I62" t="n">
-        <v>5796470</v>
+        <v>5778910</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14586569</v>
+        <v>14584152</v>
       </c>
       <c r="E63" t="n">
-        <v>29529618</v>
+        <v>29524725</v>
       </c>
       <c r="F63" t="n">
-        <v>6920.264486687319</v>
+        <v>6516.726991554449</v>
       </c>
       <c r="G63" t="n">
-        <v>13938.12064338375</v>
+        <v>13944.35180711436</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I63" t="n">
-        <v>475581</v>
+        <v>465319</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37400065</v>
+        <v>37859253</v>
       </c>
       <c r="E64" t="n">
-        <v>265160361</v>
+        <v>268415924</v>
       </c>
       <c r="F64" t="n">
-        <v>64360.74304891272</v>
+        <v>56410.16218243238</v>
       </c>
       <c r="G64" t="n">
-        <v>34372.73405564835</v>
+        <v>53421.26752962192</v>
       </c>
       <c r="H64" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1831299</v>
+        <v>1809147</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1258361</v>
+        <v>1260728</v>
       </c>
       <c r="E65" t="n">
-        <v>7803792</v>
+        <v>7818472</v>
       </c>
       <c r="F65" t="n">
-        <v>1718.251233494717</v>
+        <v>2045.934389528424</v>
       </c>
       <c r="G65" t="n">
-        <v>2530.553988035974</v>
+        <v>2333.807849697108</v>
       </c>
       <c r="H65" t="n">
         <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>760659</v>
+        <v>748223</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>598810318</v>
+        <v>601921001</v>
       </c>
       <c r="E66" t="n">
-        <v>2319104014</v>
+        <v>2331151229</v>
       </c>
       <c r="F66" t="n">
-        <v>63172.45532965233</v>
+        <v>64601.8746356108</v>
       </c>
       <c r="G66" t="n">
-        <v>92727.77151904283</v>
+        <v>99203.70338487395</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>30932229</v>
+        <v>31670586</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5840454</v>
+        <v>5847511</v>
       </c>
       <c r="E67" t="n">
-        <v>26148441</v>
+        <v>26180039</v>
       </c>
       <c r="F67" t="n">
-        <v>4260.618606172653</v>
+        <v>4201.799083541567</v>
       </c>
       <c r="G67" t="n">
-        <v>5148.468787694345</v>
+        <v>5016.072480883003</v>
       </c>
       <c r="H67" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I67" t="n">
-        <v>144744</v>
+        <v>144721</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>118262597</v>
+        <v>118659390</v>
       </c>
       <c r="E68" t="n">
-        <v>1028220592</v>
+        <v>1031670465</v>
       </c>
       <c r="F68" t="n">
-        <v>157542.5535021966</v>
+        <v>160434.7454031616</v>
       </c>
       <c r="G68" t="n">
-        <v>162387.9052251183</v>
+        <v>159828.5220896118</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I68" t="n">
-        <v>9079837</v>
+        <v>8992708</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>105749928</v>
+        <v>103302275</v>
       </c>
       <c r="E69" t="n">
-        <v>161323994</v>
+        <v>157590042</v>
       </c>
       <c r="F69" t="n">
-        <v>69583.89365070191</v>
+        <v>55514.32384538667</v>
       </c>
       <c r="G69" t="n">
-        <v>87775.60697432807</v>
+        <v>81560.12179014372</v>
       </c>
       <c r="H69" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I69" t="n">
-        <v>7533182</v>
+        <v>7711900</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1120277</v>
+        <v>1118271</v>
       </c>
       <c r="E70" t="n">
-        <v>4337959</v>
+        <v>4330191</v>
       </c>
       <c r="F70" t="n">
-        <v>2835.032518215326</v>
+        <v>3822.440957762802</v>
       </c>
       <c r="G70" t="n">
-        <v>4113.631833463316</v>
+        <v>3771.765530444357</v>
       </c>
       <c r="H70" t="n">
-        <v>0.41</v>
+        <v>0.62</v>
       </c>
       <c r="I70" t="n">
-        <v>435809</v>
+        <v>434297</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>111836884</v>
+        <v>113431989</v>
       </c>
       <c r="E71" t="n">
-        <v>429024287</v>
+        <v>435143366</v>
       </c>
       <c r="F71" t="n">
-        <v>147328.9988187431</v>
+        <v>140109.8977300049</v>
       </c>
       <c r="G71" t="n">
-        <v>162816.3515705124</v>
+        <v>159522.156458899</v>
       </c>
       <c r="H71" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I71" t="n">
-        <v>20525772</v>
+        <v>18760162</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3151929</v>
+        <v>3150849</v>
       </c>
       <c r="E72" t="n">
-        <v>29864997</v>
+        <v>29854761</v>
       </c>
       <c r="F72" t="n">
-        <v>3943.444610899487</v>
+        <v>4190.197935287771</v>
       </c>
       <c r="G72" t="n">
-        <v>3857.298475964882</v>
+        <v>4145.386485816904</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="I72" t="n">
-        <v>283265</v>
+        <v>278389</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31298742</v>
+        <v>31647242</v>
       </c>
       <c r="F73" t="n">
-        <v>1109.916615357967</v>
+        <v>4937.224918833249</v>
       </c>
       <c r="G73" t="n">
-        <v>5647.101633489569</v>
+        <v>5404.220833095154</v>
       </c>
       <c r="H73" t="n">
         <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>5607461</v>
+        <v>5590389</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>86728519</v>
+        <v>86839422</v>
       </c>
       <c r="E74" t="n">
-        <v>320611205</v>
+        <v>321021006</v>
       </c>
       <c r="F74" t="n">
-        <v>11236.54833263435</v>
+        <v>10529.53977153685</v>
       </c>
       <c r="G74" t="n">
-        <v>1322.364112265869</v>
+        <v>1082.339905614003</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I74" t="n">
-        <v>348587</v>
+        <v>340933</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23360182</v>
+        <v>23375296</v>
       </c>
       <c r="E75" t="n">
-        <v>23360182</v>
+        <v>23375296</v>
       </c>
       <c r="F75" t="n">
-        <v>29331.42473153065</v>
+        <v>24039.14327378791</v>
       </c>
       <c r="G75" t="n">
-        <v>23612.79703133615</v>
+        <v>31099.90959881356</v>
       </c>
       <c r="H75" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I75" t="n">
-        <v>6272656</v>
+        <v>6248434</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>490239198</v>
+        <v>491700476</v>
       </c>
       <c r="E76" t="n">
-        <v>1707347613</v>
+        <v>1712436779</v>
       </c>
       <c r="F76" t="n">
-        <v>131747.2137224599</v>
+        <v>132301.4534524864</v>
       </c>
       <c r="G76" t="n">
-        <v>155783.6611228908</v>
+        <v>157713.5137496297</v>
       </c>
       <c r="H76" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>31227456</v>
+        <v>31423375</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5552585692</v>
+        <v>5589367290</v>
       </c>
       <c r="E77" t="n">
-        <v>5552586190</v>
+        <v>5589367290</v>
       </c>
       <c r="F77" t="n">
-        <v>10288.56036384339</v>
+        <v>10339.01855622866</v>
       </c>
       <c r="G77" t="n">
-        <v>93012.30812741329</v>
+        <v>94707.35174714087</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>28957431</v>
+        <v>27921718</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7652187</v>
+        <v>7672862</v>
       </c>
       <c r="E78" t="n">
-        <v>19879560</v>
+        <v>19933270</v>
       </c>
       <c r="F78" t="n">
-        <v>1058.634663047202</v>
+        <v>997.4516308898877</v>
       </c>
       <c r="G78" t="n">
-        <v>2844.718820021862</v>
+        <v>2832.994616114369</v>
       </c>
       <c r="H78" t="n">
         <v>0.25</v>
       </c>
       <c r="I78" t="n">
-        <v>680888</v>
+        <v>682377</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101011913</v>
+        <v>100786344</v>
       </c>
       <c r="E79" t="n">
-        <v>153044720</v>
+        <v>152702956</v>
       </c>
       <c r="F79" t="n">
-        <v>33220.76617847569</v>
+        <v>43094.49569336286</v>
       </c>
       <c r="G79" t="n">
-        <v>22489.35877592392</v>
+        <v>20218.85786436128</v>
       </c>
       <c r="H79" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I79" t="n">
-        <v>7251207</v>
+        <v>7223831</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2646553</v>
+        <v>2651647</v>
       </c>
       <c r="E80" t="n">
-        <v>10586212</v>
+        <v>10606587</v>
       </c>
       <c r="F80" t="n">
-        <v>3700.81486138127</v>
+        <v>57196.45895255967</v>
       </c>
       <c r="G80" t="n">
-        <v>55843.28262592362</v>
+        <v>17542.72758605103</v>
       </c>
       <c r="H80" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>5141851</v>
+        <v>5306000</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2735586</v>
+        <v>2644187</v>
       </c>
       <c r="F81" t="n">
-        <v>213.9678362223387</v>
+        <v>526.0347481300831</v>
       </c>
       <c r="G81" t="n">
-        <v>30.87944410203381</v>
+        <v>60.27328774678984</v>
       </c>
       <c r="H81" t="n">
         <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>320732</v>
+        <v>321175</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>399793999</v>
+        <v>399760239</v>
       </c>
       <c r="E82" t="n">
-        <v>2284537136</v>
+        <v>2284344225</v>
       </c>
       <c r="F82" t="n">
-        <v>173579.8687004858</v>
+        <v>167357.8923884054</v>
       </c>
       <c r="G82" t="n">
-        <v>183696.6896202986</v>
+        <v>185023.9668172545</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>36530580</v>
+        <v>36553034</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3892184</v>
+        <v>3917024</v>
       </c>
       <c r="F2" t="n">
-        <v>627.7898066646446</v>
+        <v>672.5194796439373</v>
       </c>
       <c r="G2" t="n">
-        <v>736.7678475202054</v>
+        <v>574.0801403094457</v>
       </c>
       <c r="H2" t="n">
-        <v>0.46</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>61709</v>
+        <v>105587</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1343503</v>
+        <v>1343188</v>
       </c>
       <c r="E3" t="n">
-        <v>4342752</v>
+        <v>4341733</v>
       </c>
       <c r="F3" t="n">
-        <v>6900.394823237712</v>
+        <v>6797.829025918884</v>
       </c>
       <c r="G3" t="n">
-        <v>11943.78048623743</v>
+        <v>11714.66135836676</v>
       </c>
       <c r="H3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I3" t="n">
-        <v>96333</v>
+        <v>98077</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246644954</v>
+        <v>246440388</v>
       </c>
       <c r="E4" t="n">
-        <v>1546675836</v>
+        <v>1545393034</v>
       </c>
       <c r="F4" t="n">
-        <v>201438.8786502524</v>
+        <v>204470.6921940994</v>
       </c>
       <c r="G4" t="n">
-        <v>258206.8300291655</v>
+        <v>247925.2467735382</v>
       </c>
       <c r="H4" t="n">
         <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>15556361</v>
+        <v>15538019</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140920535</v>
+        <v>140810553</v>
       </c>
       <c r="E5" t="n">
-        <v>156162461</v>
+        <v>156040584</v>
       </c>
       <c r="F5" t="n">
-        <v>84911.88803276711</v>
+        <v>88510.51723242151</v>
       </c>
       <c r="G5" t="n">
-        <v>109670.5482739101</v>
+        <v>99638.37393980325</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>34001024</v>
+        <v>34066329</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>125248669</v>
+        <v>125085143</v>
       </c>
       <c r="E6" t="n">
-        <v>490937279</v>
+        <v>490296308</v>
       </c>
       <c r="F6" t="n">
-        <v>42420.68510541913</v>
+        <v>43937.5722799285</v>
       </c>
       <c r="G6" t="n">
-        <v>52750.74410253725</v>
+        <v>47350.82357963866</v>
       </c>
       <c r="H6" t="n">
         <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>29733331</v>
+        <v>29877524</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4740834</v>
+        <v>4751789</v>
       </c>
       <c r="E7" t="n">
-        <v>29119905</v>
+        <v>29187196</v>
       </c>
       <c r="F7" t="n">
-        <v>1254.08763150932</v>
+        <v>2146.151677668742</v>
       </c>
       <c r="G7" t="n">
-        <v>1126.696690067107</v>
+        <v>2661.24343431506</v>
       </c>
       <c r="H7" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="I7" t="n">
-        <v>472027</v>
+        <v>477050</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>199132</v>
+        <v>198579</v>
       </c>
       <c r="E8" t="n">
-        <v>2190669</v>
+        <v>2184590</v>
       </c>
       <c r="F8" t="n">
-        <v>3676.769298052847</v>
+        <v>3854.808271305387</v>
       </c>
       <c r="G8" t="n">
-        <v>3281.222560460065</v>
+        <v>4249.130329865932</v>
       </c>
       <c r="H8" t="n">
-        <v>0.18</v>
+        <v>0.46</v>
       </c>
       <c r="I8" t="n">
-        <v>37099</v>
+        <v>36573</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72896548</v>
+        <v>72681274</v>
       </c>
       <c r="E9" t="n">
-        <v>126275450</v>
+        <v>125902540</v>
       </c>
       <c r="F9" t="n">
-        <v>9287.017866048085</v>
+        <v>4200.374495131484</v>
       </c>
       <c r="G9" t="n">
-        <v>10423.07544233544</v>
+        <v>12777.94703190781</v>
       </c>
       <c r="H9" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="I9" t="n">
-        <v>739839</v>
+        <v>739864</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8833261</v>
+        <v>8829618</v>
       </c>
       <c r="E10" t="n">
-        <v>12502824</v>
+        <v>12497669</v>
       </c>
       <c r="F10" t="n">
-        <v>3386.637795074824</v>
+        <v>3386.655684593006</v>
       </c>
       <c r="G10" t="n">
-        <v>4153.037106865557</v>
+        <v>4149.850633049366</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>49182</v>
+        <v>48792</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>477668233</v>
+        <v>473270552</v>
       </c>
       <c r="E11" t="n">
-        <v>477668238</v>
+        <v>473270552</v>
       </c>
       <c r="F11" t="n">
-        <v>37205.63500572543</v>
+        <v>37428.53645071354</v>
       </c>
       <c r="G11" t="n">
-        <v>63400.74719728807</v>
+        <v>63882.81122908385</v>
       </c>
       <c r="H11" t="n">
         <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>63514633</v>
+        <v>63488189</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>314491</v>
+        <v>318941</v>
       </c>
       <c r="E12" t="n">
-        <v>1468076</v>
+        <v>1488850</v>
       </c>
       <c r="F12" t="n">
-        <v>1312.843712889441</v>
+        <v>2236.876650321609</v>
       </c>
       <c r="G12" t="n">
-        <v>575.4956737178168</v>
+        <v>564.7039057421619</v>
       </c>
       <c r="H12" t="n">
-        <v>1.01</v>
+        <v>0.74</v>
       </c>
       <c r="I12" t="n">
-        <v>620451</v>
+        <v>629738</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1610912</v>
+        <v>1599824</v>
       </c>
       <c r="F13" t="n">
-        <v>4823.216564218535</v>
+        <v>4485.795837296554</v>
       </c>
       <c r="G13" t="n">
-        <v>1068.772888410333</v>
+        <v>536.1094216178028</v>
       </c>
       <c r="H13" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="I13" t="n">
-        <v>221016</v>
+        <v>186338</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12872061</v>
+        <v>12914228</v>
       </c>
       <c r="E14" t="n">
-        <v>32036232</v>
+        <v>32141178</v>
       </c>
       <c r="F14" t="n">
-        <v>1753.141355336492</v>
+        <v>1773.870208661214</v>
       </c>
       <c r="G14" t="n">
-        <v>1800.470845716146</v>
+        <v>1163.089977245796</v>
       </c>
       <c r="H14" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="I14" t="n">
-        <v>1598604</v>
+        <v>1597683</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>112638448</v>
+        <v>112039489</v>
       </c>
       <c r="E15" t="n">
-        <v>438511831</v>
+        <v>436170808</v>
       </c>
       <c r="F15" t="n">
-        <v>37717.38576420635</v>
+        <v>34362.94026517703</v>
       </c>
       <c r="G15" t="n">
-        <v>102350.5365765423</v>
+        <v>107527.6119463943</v>
       </c>
       <c r="H15" t="n">
         <v>0.02</v>
       </c>
       <c r="I15" t="n">
-        <v>9716371</v>
+        <v>9767849</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5506705</v>
+        <v>5444221</v>
       </c>
       <c r="E16" t="n">
-        <v>8106169</v>
+        <v>8014188</v>
       </c>
       <c r="F16" t="n">
-        <v>2189.51200784593</v>
+        <v>1904.353433741253</v>
       </c>
       <c r="G16" t="n">
-        <v>1789.479769404387</v>
+        <v>625.0170959466677</v>
       </c>
       <c r="H16" t="n">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="I16" t="n">
-        <v>683732</v>
+        <v>617564</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1994744</v>
+        <v>2004958</v>
       </c>
       <c r="F17" t="n">
-        <v>2121.179952085881</v>
+        <v>3185.871575444386</v>
       </c>
       <c r="G17" t="n">
-        <v>648.0653396588433</v>
+        <v>468.6873483965886</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="I17" t="n">
-        <v>215044</v>
+        <v>215752</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>136519323</v>
+        <v>136725727</v>
       </c>
       <c r="E18" t="n">
-        <v>136519323</v>
+        <v>136725727</v>
       </c>
       <c r="F18" t="n">
-        <v>105703.0610582914</v>
+        <v>111238.3458784059</v>
       </c>
       <c r="G18" t="n">
-        <v>119421.1104454502</v>
+        <v>155969.3992819617</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>66592610</v>
+        <v>65812586</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65138432</v>
+        <v>65046262</v>
       </c>
       <c r="E19" t="n">
-        <v>334043242</v>
+        <v>333570575</v>
       </c>
       <c r="F19" t="n">
-        <v>12891.63756950798</v>
+        <v>19925.99846583838</v>
       </c>
       <c r="G19" t="n">
-        <v>15892.28204578477</v>
+        <v>15892.03519446018</v>
       </c>
       <c r="H19" t="n">
         <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>18798705</v>
+        <v>18890594</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>254164077</v>
+        <v>253887415</v>
       </c>
       <c r="E20" t="n">
-        <v>254164077</v>
+        <v>253887415</v>
       </c>
       <c r="F20" t="n">
-        <v>52864.7109244878</v>
+        <v>85898.49851463974</v>
       </c>
       <c r="G20" t="n">
-        <v>108686.6890953804</v>
+        <v>71437.35350713515</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>14912091</v>
+        <v>14834415</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>151856486</v>
+        <v>150183840</v>
       </c>
       <c r="E21" t="n">
-        <v>199825375</v>
+        <v>197624368</v>
       </c>
       <c r="F21" t="n">
-        <v>23572.7033981532</v>
+        <v>15792.4750721764</v>
       </c>
       <c r="G21" t="n">
-        <v>27297.02831364475</v>
+        <v>36569.90582294367</v>
       </c>
       <c r="H21" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>7705727</v>
+        <v>7877644</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>73059741</v>
+        <v>73141794</v>
       </c>
       <c r="E22" t="n">
-        <v>204516079</v>
+        <v>204741923</v>
       </c>
       <c r="F22" t="n">
-        <v>24581.547341201</v>
+        <v>29039.42372535767</v>
       </c>
       <c r="G22" t="n">
-        <v>42775.63042840629</v>
+        <v>38131.75148752695</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>33000990</v>
+        <v>32956893</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73311299</v>
+        <v>73342922</v>
       </c>
       <c r="E23" t="n">
-        <v>152891288</v>
+        <v>152957238</v>
       </c>
       <c r="F23" t="n">
-        <v>12470.14217093972</v>
+        <v>16373.05810862487</v>
       </c>
       <c r="G23" t="n">
-        <v>42204.71557615378</v>
+        <v>40047.02495119209</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>14347129</v>
+        <v>14370675</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>627272138</v>
+        <v>631317972</v>
       </c>
       <c r="E24" t="n">
-        <v>627272138</v>
+        <v>631317972</v>
       </c>
       <c r="F24" t="n">
-        <v>194426.485051157</v>
+        <v>242899.1014023385</v>
       </c>
       <c r="G24" t="n">
-        <v>281284.6308354359</v>
+        <v>261031.6231942285</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>265625745</v>
+        <v>257295159</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>199034836</v>
+        <v>198562951</v>
       </c>
       <c r="E25" t="n">
-        <v>691465007</v>
+        <v>689825636</v>
       </c>
       <c r="F25" t="n">
-        <v>83474.80029670015</v>
+        <v>91401.16213880653</v>
       </c>
       <c r="G25" t="n">
-        <v>357579.7301551097</v>
+        <v>353400.2477361939</v>
       </c>
       <c r="H25" t="n">
         <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>26118350</v>
+        <v>25957119</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5986383</v>
+        <v>5895773</v>
       </c>
       <c r="E26" t="n">
-        <v>8133895</v>
+        <v>8011082</v>
       </c>
       <c r="F26" t="n">
-        <v>2524.749469300938</v>
+        <v>1054.668435419659</v>
       </c>
       <c r="G26" t="n">
-        <v>503.1238174069751</v>
+        <v>1967.270366936829</v>
       </c>
       <c r="H26" t="n">
-        <v>0.34</v>
+        <v>0.74</v>
       </c>
       <c r="I26" t="n">
-        <v>6438826</v>
+        <v>827394</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14440656</v>
+        <v>14490925</v>
       </c>
       <c r="F27" t="n">
-        <v>2630.401105303775</v>
+        <v>2627.222258514865</v>
       </c>
       <c r="G27" t="n">
-        <v>1982.972855812822</v>
+        <v>2409.002769172886</v>
       </c>
       <c r="H27" t="n">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="I27" t="n">
-        <v>419956</v>
+        <v>428205</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25148882</v>
+        <v>25172662</v>
       </c>
       <c r="E28" t="n">
-        <v>35546963</v>
+        <v>35580575</v>
       </c>
       <c r="F28" t="n">
-        <v>69.67332988371619</v>
+        <v>210.3209920453023</v>
       </c>
       <c r="G28" t="n">
-        <v>8660.242168927816</v>
+        <v>6742.461491690404</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="I28" t="n">
-        <v>70566</v>
+        <v>74951</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>267352893</v>
+        <v>267537758</v>
       </c>
       <c r="E29" t="n">
-        <v>1154043507</v>
+        <v>1154841483</v>
       </c>
       <c r="F29" t="n">
-        <v>277156.4796809339</v>
+        <v>360904.7846335042</v>
       </c>
       <c r="G29" t="n">
-        <v>349550.6036828145</v>
+        <v>358803.3621877242</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>111627517</v>
+        <v>111207707</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10801410</v>
+        <v>10989177</v>
       </c>
       <c r="E30" t="n">
-        <v>130434321</v>
+        <v>132701741</v>
       </c>
       <c r="F30" t="n">
-        <v>1176.927232674791</v>
+        <v>4173.253554602271</v>
       </c>
       <c r="G30" t="n">
-        <v>693.7497611321181</v>
+        <v>3505.160512235074</v>
       </c>
       <c r="H30" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="I30" t="n">
-        <v>288445</v>
+        <v>216440</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21262528</v>
+        <v>21288906</v>
       </c>
       <c r="E31" t="n">
-        <v>53156321</v>
+        <v>53222266</v>
       </c>
       <c r="F31" t="n">
-        <v>13151.97208080747</v>
+        <v>13621.51188093425</v>
       </c>
       <c r="G31" t="n">
-        <v>8865.394865961371</v>
+        <v>8765.212857253775</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>1952718</v>
+        <v>2068346</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20172248</v>
+        <v>20121064</v>
       </c>
       <c r="F32" t="n">
-        <v>2828.88229190053</v>
+        <v>2604.675517471826</v>
       </c>
       <c r="G32" t="n">
-        <v>2280.857559438378</v>
+        <v>2362.663161944459</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="I32" t="n">
-        <v>121193</v>
+        <v>126136</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1377580</v>
+        <v>1370224</v>
       </c>
       <c r="E33" t="n">
-        <v>5136081</v>
+        <v>5108657</v>
       </c>
       <c r="F33" t="n">
-        <v>2273.868621579637</v>
+        <v>1512.943140793135</v>
       </c>
       <c r="G33" t="n">
-        <v>2824.266355103826</v>
+        <v>1771.009206412491</v>
       </c>
       <c r="H33" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="I33" t="n">
-        <v>609120</v>
+        <v>607499</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4178640</v>
+        <v>4171591</v>
       </c>
       <c r="E34" t="n">
-        <v>12035831</v>
+        <v>12015528</v>
       </c>
       <c r="F34" t="n">
-        <v>584.8487999892156</v>
+        <v>1108.234905535707</v>
       </c>
       <c r="G34" t="n">
-        <v>2915.239554737647</v>
+        <v>1655.455479568109</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="I34" t="n">
-        <v>574225</v>
+        <v>576696</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13974490</v>
+        <v>13945110</v>
       </c>
       <c r="E35" t="n">
-        <v>67680687</v>
+        <v>67538395</v>
       </c>
       <c r="F35" t="n">
-        <v>9868.769657051889</v>
+        <v>6160.482870117939</v>
       </c>
       <c r="G35" t="n">
-        <v>11184.94186523979</v>
+        <v>11130.79947554499</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>3630605</v>
+        <v>3653685</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1519002</v>
+        <v>1484153</v>
       </c>
       <c r="E36" t="n">
-        <v>9941831</v>
+        <v>9713742</v>
       </c>
       <c r="F36" t="n">
-        <v>3998.455672769074</v>
+        <v>3986.761646405594</v>
       </c>
       <c r="G36" t="n">
-        <v>1646.363618308597</v>
+        <v>1613.785499419226</v>
       </c>
       <c r="H36" t="n">
-        <v>0.82</v>
+        <v>1.13</v>
       </c>
       <c r="I36" t="n">
-        <v>400893</v>
+        <v>404925</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1891861931</v>
+        <v>1889527221</v>
       </c>
       <c r="F37" t="n">
-        <v>74185.69872227001</v>
+        <v>74583.82472990737</v>
       </c>
       <c r="G37" t="n">
-        <v>79008.22978545315</v>
+        <v>77003.60099368621</v>
       </c>
       <c r="H37" t="n">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
       <c r="I37" t="n">
-        <v>25914518</v>
+        <v>25823313</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2053023</v>
+        <v>2063873</v>
       </c>
       <c r="E38" t="n">
-        <v>14722022</v>
+        <v>14799825</v>
       </c>
       <c r="F38" t="n">
-        <v>4390.563754490629</v>
+        <v>4393.463067893144</v>
       </c>
       <c r="G38" t="n">
-        <v>5424.084475369908</v>
+        <v>5435.864267808934</v>
       </c>
       <c r="H38" t="n">
         <v>0.67</v>
       </c>
       <c r="I38" t="n">
-        <v>1934170</v>
+        <v>1935345</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>203473180</v>
+        <v>202677013</v>
       </c>
       <c r="E39" t="n">
-        <v>1152190166</v>
+        <v>1147681783</v>
       </c>
       <c r="F39" t="n">
-        <v>145739.6857764364</v>
+        <v>148007.3402673722</v>
       </c>
       <c r="G39" t="n">
-        <v>162794.8195640048</v>
+        <v>161164.3386833161</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>63624763</v>
+        <v>63969059</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>139245899</v>
+        <v>138795367</v>
       </c>
       <c r="E40" t="n">
-        <v>1031451102</v>
+        <v>1028113829</v>
       </c>
       <c r="F40" t="n">
-        <v>224795.0308167324</v>
+        <v>216309.6871321239</v>
       </c>
       <c r="G40" t="n">
-        <v>191255.2759717391</v>
+        <v>212661.6397574854</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>11024456</v>
+        <v>10966116</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>338303596</v>
+        <v>338119075</v>
       </c>
       <c r="E41" t="n">
-        <v>3043588927</v>
+        <v>3041928862</v>
       </c>
       <c r="F41" t="n">
-        <v>229373.6796630195</v>
+        <v>245652.1542548182</v>
       </c>
       <c r="G41" t="n">
-        <v>277899.9391029261</v>
+        <v>256023.5444223058</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>37620951</v>
+        <v>37096159</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1589475</v>
+        <v>1596461</v>
       </c>
       <c r="E42" t="n">
-        <v>13245625</v>
+        <v>13303840</v>
       </c>
       <c r="F42" t="n">
-        <v>1944.710876682141</v>
+        <v>2992.552429545432</v>
       </c>
       <c r="G42" t="n">
-        <v>5365.609729808846</v>
+        <v>3920.175885552878</v>
       </c>
       <c r="H42" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I42" t="n">
-        <v>44235</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>24666655</v>
+        <v>24581125</v>
       </c>
       <c r="E43" t="n">
-        <v>73937624</v>
+        <v>73681250</v>
       </c>
       <c r="F43" t="n">
-        <v>61990.11734639716</v>
+        <v>51717.83182577567</v>
       </c>
       <c r="G43" t="n">
-        <v>65724.84077518282</v>
+        <v>62531.82386719144</v>
       </c>
       <c r="H43" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="I43" t="n">
-        <v>2721746</v>
+        <v>2729674</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9485774</v>
+        <v>9446061</v>
       </c>
       <c r="F44" t="n">
-        <v>5709.29631335135</v>
+        <v>5667.51155642697</v>
       </c>
       <c r="G44" t="n">
-        <v>6102.149732317257</v>
+        <v>6117.349798768809</v>
       </c>
       <c r="H44" t="n">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
       <c r="I44" t="n">
-        <v>121662</v>
+        <v>121523</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12974279</v>
+        <v>12928531</v>
       </c>
       <c r="E45" t="n">
-        <v>12974279</v>
+        <v>12928531</v>
       </c>
       <c r="F45" t="n">
-        <v>1740.983967081049</v>
+        <v>761.6810947886112</v>
       </c>
       <c r="G45" t="n">
-        <v>884.5187964367624</v>
+        <v>1111.061209636751</v>
       </c>
       <c r="H45" t="n">
-        <v>0.23</v>
+        <v>0.62</v>
       </c>
       <c r="I45" t="n">
-        <v>3283157</v>
+        <v>3357174</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>304353513</v>
+        <v>305683664</v>
       </c>
       <c r="E46" t="n">
-        <v>304353513</v>
+        <v>305683664</v>
       </c>
       <c r="F46" t="n">
-        <v>18193.68278871024</v>
+        <v>21629.63585222982</v>
       </c>
       <c r="G46" t="n">
-        <v>44993.8388599173</v>
+        <v>54481.49901538916</v>
       </c>
       <c r="H46" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>12644061</v>
+        <v>12642573</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12788656</v>
+        <v>12759813</v>
       </c>
       <c r="E47" t="n">
-        <v>40459155</v>
+        <v>40367903</v>
       </c>
       <c r="F47" t="n">
-        <v>33168.50051390754</v>
+        <v>26937.28806661374</v>
       </c>
       <c r="G47" t="n">
-        <v>12743.35001369029</v>
+        <v>8484.263910784275</v>
       </c>
       <c r="H47" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="I47" t="n">
-        <v>1396512</v>
+        <v>1397273</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31473063</v>
+        <v>31342831</v>
       </c>
       <c r="E48" t="n">
-        <v>87177263</v>
+        <v>86816531</v>
       </c>
       <c r="F48" t="n">
-        <v>4332.268463980518</v>
+        <v>3907.628887032877</v>
       </c>
       <c r="G48" t="n">
-        <v>6870.849593749511</v>
+        <v>8371.393655130738</v>
       </c>
       <c r="H48" t="n">
         <v>0.21</v>
       </c>
       <c r="I48" t="n">
-        <v>11901198</v>
+        <v>11950162</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28679222</v>
+        <v>28668299</v>
       </c>
       <c r="E49" t="n">
-        <v>68134700</v>
+        <v>68108750</v>
       </c>
       <c r="F49" t="n">
-        <v>18219.48492250299</v>
+        <v>18028.73885770066</v>
       </c>
       <c r="G49" t="n">
-        <v>17722.8386878425</v>
+        <v>16922.70716865711</v>
       </c>
       <c r="H49" t="n">
         <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>459272</v>
+        <v>480080</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12419978</v>
+        <v>12415401</v>
       </c>
       <c r="E50" t="n">
-        <v>18928865</v>
+        <v>18921889</v>
       </c>
       <c r="F50" t="n">
-        <v>3914.225518117299</v>
+        <v>4534.368116250054</v>
       </c>
       <c r="G50" t="n">
-        <v>4626.03991538592</v>
+        <v>4512.90813342722</v>
       </c>
       <c r="H50" t="n">
         <v>0.38</v>
       </c>
       <c r="I50" t="n">
-        <v>697916</v>
+        <v>696275</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>303599416</v>
+        <v>302977901</v>
       </c>
       <c r="E51" t="n">
-        <v>303599416</v>
+        <v>302977901</v>
       </c>
       <c r="F51" t="n">
-        <v>69530.1240197132</v>
+        <v>74213.39722907013</v>
       </c>
       <c r="G51" t="n">
-        <v>107358.9565413327</v>
+        <v>107904.2709373323</v>
       </c>
       <c r="H51" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>50553011</v>
+        <v>50345707</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89776982</v>
+        <v>89878269</v>
       </c>
       <c r="E52" t="n">
-        <v>517333694</v>
+        <v>517917353</v>
       </c>
       <c r="F52" t="n">
-        <v>271377.2752067806</v>
+        <v>272894.4412217644</v>
       </c>
       <c r="G52" t="n">
-        <v>236225.2816425757</v>
+        <v>240113.7182142122</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I52" t="n">
-        <v>16047649</v>
+        <v>16009524</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30550764</v>
+        <v>30440484</v>
       </c>
       <c r="E53" t="n">
-        <v>136788303</v>
+        <v>136294534</v>
       </c>
       <c r="F53" t="n">
-        <v>38405.35794117532</v>
+        <v>39154.6559406692</v>
       </c>
       <c r="G53" t="n">
-        <v>42769.59093956315</v>
+        <v>48019.21713954549</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>8938952</v>
+        <v>8912455</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9243309</v>
+        <v>9267681</v>
       </c>
       <c r="F54" t="n">
-        <v>2873.697983275731</v>
+        <v>2873.713620731584</v>
       </c>
       <c r="G54" t="n">
-        <v>7476.37655400415</v>
+        <v>7472.765936841393</v>
       </c>
       <c r="H54" t="n">
         <v>0.64</v>
       </c>
       <c r="I54" t="n">
-        <v>297609</v>
+        <v>296865</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4805589</v>
+        <v>4818759</v>
       </c>
       <c r="F55" t="n">
-        <v>2555.587924528064</v>
+        <v>2676.429606056778</v>
       </c>
       <c r="G55" t="n">
-        <v>853.3558996270046</v>
+        <v>875.1814317460987</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="I55" t="n">
-        <v>170144</v>
+        <v>172115</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125393914</v>
+        <v>125411425</v>
       </c>
       <c r="E56" t="n">
-        <v>2076625919</v>
+        <v>2076915920</v>
       </c>
       <c r="F56" t="n">
-        <v>186700.7026471591</v>
+        <v>191306.7936265936</v>
       </c>
       <c r="G56" t="n">
-        <v>186387.3424953696</v>
+        <v>188926.70929982</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5082422</v>
+        <v>5093022</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>74974567</v>
+        <v>74711220</v>
       </c>
       <c r="E57" t="n">
-        <v>75781619</v>
+        <v>75515436</v>
       </c>
       <c r="F57" t="n">
-        <v>46040.80371103673</v>
+        <v>58086.71710226312</v>
       </c>
       <c r="G57" t="n">
-        <v>71517.21430329804</v>
+        <v>59410.2419141147</v>
       </c>
       <c r="H57" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>8635417</v>
+        <v>8608737</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>236070156</v>
+        <v>236565980</v>
       </c>
       <c r="E58" t="n">
-        <v>236070156</v>
+        <v>236565980</v>
       </c>
       <c r="F58" t="n">
-        <v>108806.3373489602</v>
+        <v>113005.8041863716</v>
       </c>
       <c r="G58" t="n">
-        <v>118023.0391102894</v>
+        <v>119020.2859507143</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>44616672</v>
+        <v>44590352</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23518870</v>
+        <v>23537847</v>
       </c>
       <c r="E59" t="n">
-        <v>140718128</v>
+        <v>140831671</v>
       </c>
       <c r="F59" t="n">
-        <v>64803.43141254632</v>
+        <v>67156.52098716491</v>
       </c>
       <c r="G59" t="n">
-        <v>80765.00644273221</v>
+        <v>72524.11347312681</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>13162943</v>
+        <v>13020544</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2401817</v>
+        <v>2402048</v>
       </c>
       <c r="E60" t="n">
-        <v>4432691</v>
+        <v>4433118</v>
       </c>
       <c r="F60" t="n">
-        <v>392.8393056242602</v>
+        <v>4584.069849067443</v>
       </c>
       <c r="G60" t="n">
-        <v>389.7852863096331</v>
+        <v>403.4774103376334</v>
       </c>
       <c r="H60" t="n">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>23232</v>
+        <v>23257</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9292905</v>
+        <v>9322745</v>
       </c>
       <c r="E62" t="n">
-        <v>27578485</v>
+        <v>27667041</v>
       </c>
       <c r="F62" t="n">
-        <v>6103.233129397376</v>
+        <v>5539.878705637714</v>
       </c>
       <c r="G62" t="n">
-        <v>4376.276350008593</v>
+        <v>7693.654355721673</v>
       </c>
       <c r="H62" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>5778910</v>
+        <v>5792511</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14584152</v>
+        <v>14592217</v>
       </c>
       <c r="E63" t="n">
-        <v>29524725</v>
+        <v>29541053</v>
       </c>
       <c r="F63" t="n">
-        <v>6516.726991554449</v>
+        <v>6266.766379688622</v>
       </c>
       <c r="G63" t="n">
-        <v>13944.35180711436</v>
+        <v>14007.34823891344</v>
       </c>
       <c r="H63" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="I63" t="n">
-        <v>465319</v>
+        <v>462802</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37859253</v>
+        <v>38186334</v>
       </c>
       <c r="E64" t="n">
-        <v>268415924</v>
+        <v>270734877</v>
       </c>
       <c r="F64" t="n">
-        <v>56410.16218243238</v>
+        <v>69134.5579021507</v>
       </c>
       <c r="G64" t="n">
-        <v>53421.26752962192</v>
+        <v>71912.15086354395</v>
       </c>
       <c r="H64" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1809147</v>
+        <v>1718323</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1260728</v>
+        <v>1260943</v>
       </c>
       <c r="E65" t="n">
-        <v>7818472</v>
+        <v>7819804</v>
       </c>
       <c r="F65" t="n">
-        <v>2045.934389528424</v>
+        <v>2059.638463020267</v>
       </c>
       <c r="G65" t="n">
-        <v>2333.807849697108</v>
+        <v>2257.704244294206</v>
       </c>
       <c r="H65" t="n">
         <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>748223</v>
+        <v>743181</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>601921001</v>
+        <v>603932146</v>
       </c>
       <c r="E66" t="n">
-        <v>2331151229</v>
+        <v>2338940097</v>
       </c>
       <c r="F66" t="n">
-        <v>64601.8746356108</v>
+        <v>89014.13114569226</v>
       </c>
       <c r="G66" t="n">
-        <v>99203.70338487395</v>
+        <v>84597.62361565078</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>31670586</v>
+        <v>31974533</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5847511</v>
+        <v>5843088</v>
       </c>
       <c r="E67" t="n">
-        <v>26180039</v>
+        <v>26160238</v>
       </c>
       <c r="F67" t="n">
-        <v>4201.799083541567</v>
+        <v>4594.399821635735</v>
       </c>
       <c r="G67" t="n">
-        <v>5016.072480883003</v>
+        <v>4342.766667049752</v>
       </c>
       <c r="H67" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I67" t="n">
-        <v>144721</v>
+        <v>144316</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>118659390</v>
+        <v>118094324</v>
       </c>
       <c r="E68" t="n">
-        <v>1031670465</v>
+        <v>1026757564</v>
       </c>
       <c r="F68" t="n">
-        <v>160434.7454031616</v>
+        <v>160407.9050709317</v>
       </c>
       <c r="G68" t="n">
-        <v>159828.5220896118</v>
+        <v>159353.8787059504</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I68" t="n">
-        <v>8992708</v>
+        <v>9088968</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>103302275</v>
+        <v>103315999</v>
       </c>
       <c r="E69" t="n">
-        <v>157590042</v>
+        <v>157610979</v>
       </c>
       <c r="F69" t="n">
-        <v>55514.32384538667</v>
+        <v>56093.02800015049</v>
       </c>
       <c r="G69" t="n">
-        <v>81560.12179014372</v>
+        <v>79665.73120160887</v>
       </c>
       <c r="H69" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I69" t="n">
-        <v>7711900</v>
+        <v>7733975</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1118271</v>
+        <v>1121276</v>
       </c>
       <c r="E70" t="n">
-        <v>4330191</v>
+        <v>4341825</v>
       </c>
       <c r="F70" t="n">
-        <v>3822.440957762802</v>
+        <v>4035.343878206063</v>
       </c>
       <c r="G70" t="n">
-        <v>3771.765530444357</v>
+        <v>3882.775793706285</v>
       </c>
       <c r="H70" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="I70" t="n">
-        <v>434297</v>
+        <v>429863</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>113431989</v>
+        <v>113371418</v>
       </c>
       <c r="E71" t="n">
-        <v>435143366</v>
+        <v>434911007</v>
       </c>
       <c r="F71" t="n">
-        <v>140109.8977300049</v>
+        <v>138793.7816389276</v>
       </c>
       <c r="G71" t="n">
-        <v>159522.156458899</v>
+        <v>161753.7731398563</v>
       </c>
       <c r="H71" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I71" t="n">
-        <v>18760162</v>
+        <v>20886570</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3150849</v>
+        <v>3171523</v>
       </c>
       <c r="E72" t="n">
-        <v>29854761</v>
+        <v>30050654</v>
       </c>
       <c r="F72" t="n">
-        <v>4190.197935287771</v>
+        <v>3874.73735206221</v>
       </c>
       <c r="G72" t="n">
-        <v>4145.386485816904</v>
+        <v>4249.546555715426</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I72" t="n">
-        <v>278389</v>
+        <v>315879</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31647242</v>
+        <v>31598462</v>
       </c>
       <c r="F73" t="n">
-        <v>4937.224918833249</v>
+        <v>4507.434281844525</v>
       </c>
       <c r="G73" t="n">
-        <v>5404.220833095154</v>
+        <v>5562.633125945593</v>
       </c>
       <c r="H73" t="n">
         <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>5590389</v>
+        <v>5581155</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>86839422</v>
+        <v>87240919</v>
       </c>
       <c r="E74" t="n">
-        <v>321021006</v>
+        <v>322504226</v>
       </c>
       <c r="F74" t="n">
-        <v>10529.53977153685</v>
+        <v>11354.86608068081</v>
       </c>
       <c r="G74" t="n">
-        <v>1082.339905614003</v>
+        <v>764.8159272563604</v>
       </c>
       <c r="H74" t="n">
         <v>0.02</v>
       </c>
       <c r="I74" t="n">
-        <v>340933</v>
+        <v>341551</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23375296</v>
+        <v>23204403</v>
       </c>
       <c r="E75" t="n">
-        <v>23375296</v>
+        <v>23204403</v>
       </c>
       <c r="F75" t="n">
-        <v>24039.14327378791</v>
+        <v>30251.83535697958</v>
       </c>
       <c r="G75" t="n">
-        <v>31099.90959881356</v>
+        <v>20226.51410526687</v>
       </c>
       <c r="H75" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I75" t="n">
-        <v>6248434</v>
+        <v>6424708</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>491700476</v>
+        <v>492093536</v>
       </c>
       <c r="E76" t="n">
-        <v>1712436779</v>
+        <v>1713805683</v>
       </c>
       <c r="F76" t="n">
-        <v>132301.4534524864</v>
+        <v>127087.29260567</v>
       </c>
       <c r="G76" t="n">
-        <v>157713.5137496297</v>
+        <v>150406.9868157424</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>31423375</v>
+        <v>31134377</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5589367290</v>
+        <v>5576024932</v>
       </c>
       <c r="E77" t="n">
-        <v>5589367290</v>
+        <v>5576024932</v>
       </c>
       <c r="F77" t="n">
-        <v>10339.01855622866</v>
+        <v>10325.5497116481</v>
       </c>
       <c r="G77" t="n">
-        <v>94707.35174714087</v>
+        <v>94583.97460119793</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>27921718</v>
+        <v>27890661</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7672862</v>
+        <v>7691635</v>
       </c>
       <c r="E78" t="n">
-        <v>19933270</v>
+        <v>19982040</v>
       </c>
       <c r="F78" t="n">
-        <v>997.4516308898877</v>
+        <v>1223.232538984714</v>
       </c>
       <c r="G78" t="n">
-        <v>2832.994616114369</v>
+        <v>2823.577758641431</v>
       </c>
       <c r="H78" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I78" t="n">
-        <v>682377</v>
+        <v>682734</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100786344</v>
+        <v>100788521</v>
       </c>
       <c r="E79" t="n">
-        <v>152702956</v>
+        <v>152706254</v>
       </c>
       <c r="F79" t="n">
-        <v>43094.49569336286</v>
+        <v>42687.44899001437</v>
       </c>
       <c r="G79" t="n">
-        <v>20218.85786436128</v>
+        <v>19080.87515210967</v>
       </c>
       <c r="H79" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>7223831</v>
+        <v>7226978</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2651647</v>
+        <v>2650625</v>
       </c>
       <c r="E80" t="n">
-        <v>10606587</v>
+        <v>10602501</v>
       </c>
       <c r="F80" t="n">
-        <v>57196.45895255967</v>
+        <v>64709.98744668085</v>
       </c>
       <c r="G80" t="n">
-        <v>17542.72758605103</v>
+        <v>38052.66123478214</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I80" t="n">
-        <v>5306000</v>
+        <v>5338820</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2644187</v>
+        <v>2614697</v>
       </c>
       <c r="F81" t="n">
-        <v>526.0347481300831</v>
+        <v>1904.429209485156</v>
       </c>
       <c r="G81" t="n">
-        <v>60.27328774678984</v>
+        <v>41.25356968962202</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.46</v>
       </c>
       <c r="I81" t="n">
-        <v>321175</v>
+        <v>315561</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>399760239</v>
+        <v>402256033</v>
       </c>
       <c r="E82" t="n">
-        <v>2284344225</v>
+        <v>2298605905</v>
       </c>
       <c r="F82" t="n">
-        <v>167357.8923884054</v>
+        <v>162401.1854301206</v>
       </c>
       <c r="G82" t="n">
-        <v>185023.9668172545</v>
+        <v>173415.7475036098</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>36553034</v>
+        <v>36812081</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3917024</v>
+        <v>3922618</v>
       </c>
       <c r="F2" t="n">
-        <v>672.5194796439373</v>
+        <v>699.07194746791</v>
       </c>
       <c r="G2" t="n">
-        <v>574.0801403094457</v>
+        <v>669.1217505718478</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
       <c r="I2" t="n">
-        <v>105587</v>
+        <v>109111</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1343188</v>
+        <v>1343375</v>
       </c>
       <c r="E3" t="n">
-        <v>4341733</v>
+        <v>4342340</v>
       </c>
       <c r="F3" t="n">
-        <v>6797.829025918884</v>
+        <v>6573.168496690195</v>
       </c>
       <c r="G3" t="n">
-        <v>11714.66135836676</v>
+        <v>11475.60934645257</v>
       </c>
       <c r="H3" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>98077</v>
+        <v>99002</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246440388</v>
+        <v>247286089</v>
       </c>
       <c r="E4" t="n">
-        <v>1545393034</v>
+        <v>1550696305</v>
       </c>
       <c r="F4" t="n">
-        <v>204470.6921940994</v>
+        <v>200150.5427255025</v>
       </c>
       <c r="G4" t="n">
-        <v>247925.2467735382</v>
+        <v>255929.0069921538</v>
       </c>
       <c r="H4" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>15538019</v>
+        <v>15452965</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140810553</v>
+        <v>140940761</v>
       </c>
       <c r="E5" t="n">
-        <v>156040584</v>
+        <v>156184808</v>
       </c>
       <c r="F5" t="n">
-        <v>88510.51723242151</v>
+        <v>87208.60849841822</v>
       </c>
       <c r="G5" t="n">
-        <v>99638.37393980325</v>
+        <v>109238.4906844595</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>34066329</v>
+        <v>34015660</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>125085143</v>
+        <v>125450504</v>
       </c>
       <c r="E6" t="n">
-        <v>490296308</v>
+        <v>491728414</v>
       </c>
       <c r="F6" t="n">
-        <v>43937.5722799285</v>
+        <v>25091.86893619855</v>
       </c>
       <c r="G6" t="n">
-        <v>47350.82357963866</v>
+        <v>49602.35989788816</v>
       </c>
       <c r="H6" t="n">
         <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>29877524</v>
+        <v>29777757</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4751789</v>
+        <v>4723626</v>
       </c>
       <c r="E7" t="n">
-        <v>29187196</v>
+        <v>29014162</v>
       </c>
       <c r="F7" t="n">
-        <v>2146.151677668742</v>
+        <v>1136.75158461041</v>
       </c>
       <c r="G7" t="n">
-        <v>2661.24343431506</v>
+        <v>1883.685727939002</v>
       </c>
       <c r="H7" t="n">
         <v>0.21</v>
       </c>
       <c r="I7" t="n">
-        <v>477050</v>
+        <v>482420</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198579</v>
+        <v>198039</v>
       </c>
       <c r="E8" t="n">
-        <v>2184590</v>
+        <v>2178648</v>
       </c>
       <c r="F8" t="n">
-        <v>3854.808271305387</v>
+        <v>3933.413116129162</v>
       </c>
       <c r="G8" t="n">
-        <v>4249.130329865932</v>
+        <v>5257.385111210504</v>
       </c>
       <c r="H8" t="n">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="I8" t="n">
-        <v>36573</v>
+        <v>37188</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72681274</v>
+        <v>72127026</v>
       </c>
       <c r="E9" t="n">
-        <v>125902540</v>
+        <v>124939453</v>
       </c>
       <c r="F9" t="n">
-        <v>4200.374495131484</v>
+        <v>10239.06643054258</v>
       </c>
       <c r="G9" t="n">
-        <v>12777.94703190781</v>
+        <v>11866.49693959741</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>739864</v>
+        <v>737944</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8829618</v>
+        <v>8843385</v>
       </c>
       <c r="E10" t="n">
-        <v>12497669</v>
+        <v>12517154</v>
       </c>
       <c r="F10" t="n">
-        <v>3386.655684593006</v>
+        <v>3386.880539863709</v>
       </c>
       <c r="G10" t="n">
-        <v>4149.850633049366</v>
+        <v>4229.890802718869</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>48792</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>473270552</v>
+        <v>479965803</v>
       </c>
       <c r="E11" t="n">
-        <v>473270552</v>
+        <v>479965808</v>
       </c>
       <c r="F11" t="n">
-        <v>37428.53645071354</v>
+        <v>39088.16988252739</v>
       </c>
       <c r="G11" t="n">
-        <v>63882.81122908385</v>
+        <v>59235.38860253163</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>63488189</v>
+        <v>64784260</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>318941</v>
+        <v>315109</v>
       </c>
       <c r="E12" t="n">
-        <v>1488850</v>
+        <v>1470959</v>
       </c>
       <c r="F12" t="n">
-        <v>2236.876650321609</v>
+        <v>35.40241855645294</v>
       </c>
       <c r="G12" t="n">
-        <v>564.7039057421619</v>
+        <v>1909.326224596696</v>
       </c>
       <c r="H12" t="n">
-        <v>0.74</v>
+        <v>0.33</v>
       </c>
       <c r="I12" t="n">
-        <v>629738</v>
+        <v>632579</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1599824</v>
+        <v>1581238</v>
       </c>
       <c r="F13" t="n">
-        <v>4485.795837296554</v>
+        <v>4525.666718364215</v>
       </c>
       <c r="G13" t="n">
-        <v>536.1094216178028</v>
+        <v>613.9004120025648</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="I13" t="n">
-        <v>186338</v>
+        <v>223414</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12914228</v>
+        <v>12876422</v>
       </c>
       <c r="E14" t="n">
-        <v>32141178</v>
+        <v>32047087</v>
       </c>
       <c r="F14" t="n">
-        <v>1773.870208661214</v>
+        <v>1025.067821059655</v>
       </c>
       <c r="G14" t="n">
-        <v>1163.089977245796</v>
+        <v>1578.485802532116</v>
       </c>
       <c r="H14" t="n">
         <v>0.31</v>
       </c>
       <c r="I14" t="n">
-        <v>1597683</v>
+        <v>1600703</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>112039489</v>
+        <v>112423261</v>
       </c>
       <c r="E15" t="n">
-        <v>436170808</v>
+        <v>437639501</v>
       </c>
       <c r="F15" t="n">
-        <v>34362.94026517703</v>
+        <v>33298.14552255023</v>
       </c>
       <c r="G15" t="n">
-        <v>107527.6119463943</v>
+        <v>94804.21755082764</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>9767849</v>
+        <v>7701895</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5444221</v>
+        <v>5383902</v>
       </c>
       <c r="E16" t="n">
-        <v>8014188</v>
+        <v>7925395</v>
       </c>
       <c r="F16" t="n">
-        <v>1904.353433741253</v>
+        <v>1785.121171299556</v>
       </c>
       <c r="G16" t="n">
-        <v>625.0170959466677</v>
+        <v>2810.703855058997</v>
       </c>
       <c r="H16" t="n">
-        <v>1.1</v>
+        <v>0.87</v>
       </c>
       <c r="I16" t="n">
-        <v>617564</v>
+        <v>632024</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2004958</v>
+        <v>2004266</v>
       </c>
       <c r="F17" t="n">
-        <v>3185.871575444386</v>
+        <v>3308.090760248322</v>
       </c>
       <c r="G17" t="n">
-        <v>468.6873483965886</v>
+        <v>894.1164363153616</v>
       </c>
       <c r="H17" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="I17" t="n">
-        <v>215752</v>
+        <v>217399</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>136725727</v>
+        <v>137031385</v>
       </c>
       <c r="E18" t="n">
-        <v>136725727</v>
+        <v>137031385</v>
       </c>
       <c r="F18" t="n">
-        <v>111238.3458784059</v>
+        <v>122089.4571612231</v>
       </c>
       <c r="G18" t="n">
-        <v>155969.3992819617</v>
+        <v>108628.9053558193</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>65812586</v>
+        <v>66099989</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65046262</v>
+        <v>65343514</v>
       </c>
       <c r="E19" t="n">
-        <v>333570575</v>
+        <v>335094945</v>
       </c>
       <c r="F19" t="n">
-        <v>19925.99846583838</v>
+        <v>15967.06278596897</v>
       </c>
       <c r="G19" t="n">
-        <v>15892.03519446018</v>
+        <v>21867.90595862468</v>
       </c>
       <c r="H19" t="n">
         <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>18890594</v>
+        <v>19164328</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>253887415</v>
+        <v>254904492</v>
       </c>
       <c r="E20" t="n">
-        <v>253887415</v>
+        <v>254904492</v>
       </c>
       <c r="F20" t="n">
-        <v>85898.49851463974</v>
+        <v>87914.4299998121</v>
       </c>
       <c r="G20" t="n">
-        <v>71437.35350713515</v>
+        <v>69560.30676799125</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14834415</v>
+        <v>14926717</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>150183840</v>
+        <v>152717426</v>
       </c>
       <c r="E21" t="n">
-        <v>197624368</v>
+        <v>200958272</v>
       </c>
       <c r="F21" t="n">
-        <v>15792.4750721764</v>
+        <v>24326.83627351496</v>
       </c>
       <c r="G21" t="n">
-        <v>36569.90582294367</v>
+        <v>42682.26676762532</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I21" t="n">
-        <v>7877644</v>
+        <v>7859545</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>73141794</v>
+        <v>72980523</v>
       </c>
       <c r="E22" t="n">
-        <v>204741923</v>
+        <v>204297332</v>
       </c>
       <c r="F22" t="n">
-        <v>29039.42372535767</v>
+        <v>28468.1022404155</v>
       </c>
       <c r="G22" t="n">
-        <v>38131.75148752695</v>
+        <v>70683.79998508489</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>32956893</v>
+        <v>33123926</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73342922</v>
+        <v>73907796</v>
       </c>
       <c r="E23" t="n">
-        <v>152957238</v>
+        <v>154135286</v>
       </c>
       <c r="F23" t="n">
-        <v>16373.05810862487</v>
+        <v>18515.8697555019</v>
       </c>
       <c r="G23" t="n">
-        <v>40047.02495119209</v>
+        <v>40275.13835964189</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>14370675</v>
+        <v>14465987</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>631317972</v>
+        <v>631566499</v>
       </c>
       <c r="E24" t="n">
-        <v>631317972</v>
+        <v>631566499</v>
       </c>
       <c r="F24" t="n">
-        <v>242899.1014023385</v>
+        <v>226042.0090647392</v>
       </c>
       <c r="G24" t="n">
-        <v>261031.6231942285</v>
+        <v>267028.8564495888</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I24" t="n">
-        <v>257295159</v>
+        <v>263989222</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>198562951</v>
+        <v>198817849</v>
       </c>
       <c r="E25" t="n">
-        <v>689825636</v>
+        <v>690711175</v>
       </c>
       <c r="F25" t="n">
-        <v>91401.16213880653</v>
+        <v>88575.75472854415</v>
       </c>
       <c r="G25" t="n">
-        <v>353400.2477361939</v>
+        <v>351180.7895810707</v>
       </c>
       <c r="H25" t="n">
         <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>25957119</v>
+        <v>25948854</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5895773</v>
+        <v>5948754</v>
       </c>
       <c r="E26" t="n">
-        <v>8011082</v>
+        <v>8082954</v>
       </c>
       <c r="F26" t="n">
-        <v>1054.668435419659</v>
+        <v>950.8477644855748</v>
       </c>
       <c r="G26" t="n">
-        <v>1967.270366936829</v>
+        <v>2054.273700058116</v>
       </c>
       <c r="H26" t="n">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="I26" t="n">
-        <v>827394</v>
+        <v>1342075</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14490925</v>
+        <v>14561401</v>
       </c>
       <c r="F27" t="n">
-        <v>2627.222258514865</v>
+        <v>2324.919164387099</v>
       </c>
       <c r="G27" t="n">
-        <v>2409.002769172886</v>
+        <v>2459.943617944344</v>
       </c>
       <c r="H27" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>428205</v>
+        <v>412568</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25172662</v>
+        <v>25200114</v>
       </c>
       <c r="E28" t="n">
-        <v>35580575</v>
+        <v>35619377</v>
       </c>
       <c r="F28" t="n">
-        <v>210.3209920453023</v>
+        <v>692.7848854412658</v>
       </c>
       <c r="G28" t="n">
-        <v>6742.461491690404</v>
+        <v>9368.018411253743</v>
       </c>
       <c r="H28" t="n">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
       <c r="I28" t="n">
-        <v>74951</v>
+        <v>72930</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>267537758</v>
+        <v>268775505</v>
       </c>
       <c r="E29" t="n">
-        <v>1154841483</v>
+        <v>1160184289</v>
       </c>
       <c r="F29" t="n">
-        <v>360904.7846335042</v>
+        <v>372546.200686586</v>
       </c>
       <c r="G29" t="n">
-        <v>358803.3621877242</v>
+        <v>350500.6613133329</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>111207707</v>
+        <v>110689584</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10989177</v>
+        <v>10953853</v>
       </c>
       <c r="E30" t="n">
-        <v>132701741</v>
+        <v>132275170</v>
       </c>
       <c r="F30" t="n">
-        <v>4173.253554602271</v>
+        <v>3347.111407961548</v>
       </c>
       <c r="G30" t="n">
-        <v>3505.160512235074</v>
+        <v>4938.412879929268</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="I30" t="n">
-        <v>216440</v>
+        <v>219652</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21288906</v>
+        <v>21123650</v>
       </c>
       <c r="E31" t="n">
-        <v>53222266</v>
+        <v>52809125</v>
       </c>
       <c r="F31" t="n">
-        <v>13621.51188093425</v>
+        <v>12146.7778285084</v>
       </c>
       <c r="G31" t="n">
-        <v>8765.212857253775</v>
+        <v>9365.545473194512</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I31" t="n">
-        <v>2068346</v>
+        <v>1959653</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20121064</v>
+        <v>19911138</v>
       </c>
       <c r="F32" t="n">
-        <v>2604.675517471826</v>
+        <v>2315.629921284199</v>
       </c>
       <c r="G32" t="n">
-        <v>2362.663161944459</v>
+        <v>2583.495548338395</v>
       </c>
       <c r="H32" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>126136</v>
+        <v>117469</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1370224</v>
+        <v>1357796</v>
       </c>
       <c r="E33" t="n">
-        <v>5108657</v>
+        <v>5062321</v>
       </c>
       <c r="F33" t="n">
-        <v>1512.943140793135</v>
+        <v>2408.593502970291</v>
       </c>
       <c r="G33" t="n">
-        <v>1771.009206412491</v>
+        <v>1522.081618956652</v>
       </c>
       <c r="H33" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="I33" t="n">
-        <v>607499</v>
+        <v>591357</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4171591</v>
+        <v>4202860</v>
       </c>
       <c r="E34" t="n">
-        <v>12015528</v>
+        <v>12105592</v>
       </c>
       <c r="F34" t="n">
-        <v>1108.234905535707</v>
+        <v>1422.976366843038</v>
       </c>
       <c r="G34" t="n">
-        <v>1655.455479568109</v>
+        <v>4291.9582702994</v>
       </c>
       <c r="H34" t="n">
-        <v>0.91</v>
+        <v>1.16</v>
       </c>
       <c r="I34" t="n">
-        <v>576696</v>
+        <v>581114</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13945110</v>
+        <v>13966283</v>
       </c>
       <c r="E35" t="n">
-        <v>67538395</v>
+        <v>67640940</v>
       </c>
       <c r="F35" t="n">
-        <v>6160.482870117939</v>
+        <v>11216.12141946715</v>
       </c>
       <c r="G35" t="n">
-        <v>11130.79947554499</v>
+        <v>13704.27180992145</v>
       </c>
       <c r="H35" t="n">
-        <v>0.19</v>
+        <v>0.37</v>
       </c>
       <c r="I35" t="n">
-        <v>3653685</v>
+        <v>3622437</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1484153</v>
+        <v>1511955</v>
       </c>
       <c r="E36" t="n">
-        <v>9713742</v>
+        <v>9895708</v>
       </c>
       <c r="F36" t="n">
-        <v>3986.761646405594</v>
+        <v>3356.730480878851</v>
       </c>
       <c r="G36" t="n">
-        <v>1613.785499419226</v>
+        <v>2621.142220401592</v>
       </c>
       <c r="H36" t="n">
-        <v>1.13</v>
+        <v>0.91</v>
       </c>
       <c r="I36" t="n">
-        <v>404925</v>
+        <v>478615</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1889527221</v>
+        <v>1900476956</v>
       </c>
       <c r="F37" t="n">
-        <v>74583.82472990737</v>
+        <v>75413.90074603433</v>
       </c>
       <c r="G37" t="n">
-        <v>77003.60099368621</v>
+        <v>78183.5111624687</v>
       </c>
       <c r="H37" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="I37" t="n">
-        <v>25823313</v>
+        <v>26408692</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2063873</v>
+        <v>2070926</v>
       </c>
       <c r="E38" t="n">
-        <v>14799825</v>
+        <v>14850405</v>
       </c>
       <c r="F38" t="n">
-        <v>4393.463067893144</v>
+        <v>4431.928994471262</v>
       </c>
       <c r="G38" t="n">
-        <v>5435.864267808934</v>
+        <v>5499.637791088869</v>
       </c>
       <c r="H38" t="n">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="I38" t="n">
-        <v>1935345</v>
+        <v>1928687</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>202677013</v>
+        <v>202978015</v>
       </c>
       <c r="E39" t="n">
-        <v>1147681783</v>
+        <v>1149386240</v>
       </c>
       <c r="F39" t="n">
-        <v>148007.3402673722</v>
+        <v>156636.2272634931</v>
       </c>
       <c r="G39" t="n">
-        <v>161164.3386833161</v>
+        <v>175225.4055855536</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I39" t="n">
-        <v>63969059</v>
+        <v>64986703</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>138795367</v>
+        <v>139169519</v>
       </c>
       <c r="E40" t="n">
-        <v>1028113829</v>
+        <v>1030885327</v>
       </c>
       <c r="F40" t="n">
-        <v>216309.6871321239</v>
+        <v>212718.851050137</v>
       </c>
       <c r="G40" t="n">
-        <v>212661.6397574854</v>
+        <v>229481.9663277857</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>10966116</v>
+        <v>10884246</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>338119075</v>
+        <v>338547712</v>
       </c>
       <c r="E41" t="n">
-        <v>3041928862</v>
+        <v>3045785142</v>
       </c>
       <c r="F41" t="n">
-        <v>245652.1542548182</v>
+        <v>233882.9624070423</v>
       </c>
       <c r="G41" t="n">
-        <v>256023.5444223058</v>
+        <v>267954.5780195415</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I41" t="n">
-        <v>37096159</v>
+        <v>37748473</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1596461</v>
+        <v>1586723</v>
       </c>
       <c r="E42" t="n">
-        <v>13303840</v>
+        <v>13222689</v>
       </c>
       <c r="F42" t="n">
-        <v>2992.552429545432</v>
+        <v>2932.906384428944</v>
       </c>
       <c r="G42" t="n">
-        <v>3920.175885552878</v>
+        <v>3920.600867920927</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I42" t="n">
-        <v>44911</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>24581125</v>
+        <v>23700770</v>
       </c>
       <c r="E43" t="n">
-        <v>73681250</v>
+        <v>71042412</v>
       </c>
       <c r="F43" t="n">
-        <v>51717.83182577567</v>
+        <v>58464.56862939175</v>
       </c>
       <c r="G43" t="n">
-        <v>62531.82386719144</v>
+        <v>48191.86085655636</v>
       </c>
       <c r="H43" t="n">
-        <v>0.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>2729674</v>
+        <v>2855448</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9446061</v>
+        <v>9481766</v>
       </c>
       <c r="F44" t="n">
-        <v>5667.51155642697</v>
+        <v>6139.711734690673</v>
       </c>
       <c r="G44" t="n">
-        <v>6117.349798768809</v>
+        <v>5930.878170471146</v>
       </c>
       <c r="H44" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="I44" t="n">
-        <v>121523</v>
+        <v>121613</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12928531</v>
+        <v>12980393</v>
       </c>
       <c r="E45" t="n">
-        <v>12928531</v>
+        <v>12980393</v>
       </c>
       <c r="F45" t="n">
-        <v>761.6810947886112</v>
+        <v>1639.029170346021</v>
       </c>
       <c r="G45" t="n">
-        <v>1111.061209636751</v>
+        <v>814.6121186063659</v>
       </c>
       <c r="H45" t="n">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="I45" t="n">
-        <v>3357174</v>
+        <v>3447391</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>305683664</v>
+        <v>302595904</v>
       </c>
       <c r="E46" t="n">
-        <v>305683664</v>
+        <v>302595904</v>
       </c>
       <c r="F46" t="n">
-        <v>21629.63585222982</v>
+        <v>22997.51464120901</v>
       </c>
       <c r="G46" t="n">
-        <v>54481.49901538916</v>
+        <v>62888.60560790907</v>
       </c>
       <c r="H46" t="n">
         <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>12642573</v>
+        <v>12847148</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12759813</v>
+        <v>12789103</v>
       </c>
       <c r="E47" t="n">
-        <v>40367903</v>
+        <v>40460567</v>
       </c>
       <c r="F47" t="n">
-        <v>26937.28806661374</v>
+        <v>14307.48559842063</v>
       </c>
       <c r="G47" t="n">
-        <v>8484.263910784275</v>
+        <v>10261.92325576653</v>
       </c>
       <c r="H47" t="n">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
       <c r="I47" t="n">
-        <v>1397273</v>
+        <v>1400378</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31342831</v>
+        <v>31670781</v>
       </c>
       <c r="E48" t="n">
-        <v>86816531</v>
+        <v>87724922</v>
       </c>
       <c r="F48" t="n">
-        <v>3907.628887032877</v>
+        <v>5239.965611955456</v>
       </c>
       <c r="G48" t="n">
-        <v>8371.393655130738</v>
+        <v>9823.356891444007</v>
       </c>
       <c r="H48" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I48" t="n">
-        <v>11950162</v>
+        <v>11901651</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28668299</v>
+        <v>28560364</v>
       </c>
       <c r="E49" t="n">
-        <v>68108750</v>
+        <v>67852323</v>
       </c>
       <c r="F49" t="n">
-        <v>18028.73885770066</v>
+        <v>18697.10603910159</v>
       </c>
       <c r="G49" t="n">
-        <v>16922.70716865711</v>
+        <v>11336.07993982767</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>480080</v>
+        <v>464246</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12415401</v>
+        <v>12488018</v>
       </c>
       <c r="E50" t="n">
-        <v>18921889</v>
+        <v>19032563</v>
       </c>
       <c r="F50" t="n">
-        <v>4534.368116250054</v>
+        <v>3471.847022509756</v>
       </c>
       <c r="G50" t="n">
-        <v>4512.90813342722</v>
+        <v>3918.950552187001</v>
       </c>
       <c r="H50" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="I50" t="n">
-        <v>696275</v>
+        <v>696514</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>302977901</v>
+        <v>304921170</v>
       </c>
       <c r="E51" t="n">
-        <v>302977901</v>
+        <v>304921170</v>
       </c>
       <c r="F51" t="n">
-        <v>74213.39722907013</v>
+        <v>66924.53065912801</v>
       </c>
       <c r="G51" t="n">
-        <v>107904.2709373323</v>
+        <v>108626.7318353884</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>50345707</v>
+        <v>50351559</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89878269</v>
+        <v>90760527</v>
       </c>
       <c r="E52" t="n">
-        <v>517917353</v>
+        <v>523001303</v>
       </c>
       <c r="F52" t="n">
-        <v>272894.4412217644</v>
+        <v>269393.4125905496</v>
       </c>
       <c r="G52" t="n">
-        <v>240113.7182142122</v>
+        <v>238598.1245044471</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I52" t="n">
-        <v>16009524</v>
+        <v>16196567</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30440484</v>
+        <v>30644866</v>
       </c>
       <c r="E53" t="n">
-        <v>136294534</v>
+        <v>137209639</v>
       </c>
       <c r="F53" t="n">
-        <v>39154.6559406692</v>
+        <v>39266.62994500611</v>
       </c>
       <c r="G53" t="n">
-        <v>48019.21713954549</v>
+        <v>49206.53720192214</v>
       </c>
       <c r="H53" t="n">
         <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>8912455</v>
+        <v>8595757</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9267681</v>
+        <v>8651383</v>
       </c>
       <c r="F54" t="n">
-        <v>2873.713620731584</v>
+        <v>181.8607730601706</v>
       </c>
       <c r="G54" t="n">
-        <v>7472.765936841393</v>
+        <v>310.3573587989845</v>
       </c>
       <c r="H54" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="I54" t="n">
-        <v>296865</v>
+        <v>302481</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4818759</v>
+        <v>4809986</v>
       </c>
       <c r="F55" t="n">
-        <v>2676.429606056778</v>
+        <v>4690.569818852207</v>
       </c>
       <c r="G55" t="n">
-        <v>875.1814317460987</v>
+        <v>959.5372862771283</v>
       </c>
       <c r="H55" t="n">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
       <c r="I55" t="n">
-        <v>172115</v>
+        <v>173481</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125411425</v>
+        <v>125394333</v>
       </c>
       <c r="E56" t="n">
-        <v>2076915920</v>
+        <v>2076632852</v>
       </c>
       <c r="F56" t="n">
-        <v>191306.7936265936</v>
+        <v>183649.8505255577</v>
       </c>
       <c r="G56" t="n">
-        <v>188926.70929982</v>
+        <v>189317.4741328514</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5093022</v>
+        <v>5051333</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>74711220</v>
+        <v>76794413</v>
       </c>
       <c r="E57" t="n">
-        <v>75515436</v>
+        <v>77621053</v>
       </c>
       <c r="F57" t="n">
-        <v>58086.71710226312</v>
+        <v>49731.99637798696</v>
       </c>
       <c r="G57" t="n">
-        <v>59410.2419141147</v>
+        <v>64607.27953685849</v>
       </c>
       <c r="H57" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I57" t="n">
-        <v>8608737</v>
+        <v>8766830</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>236565980</v>
+        <v>236209302</v>
       </c>
       <c r="E58" t="n">
-        <v>236565980</v>
+        <v>236209302</v>
       </c>
       <c r="F58" t="n">
-        <v>113005.8041863716</v>
+        <v>137607.9054594621</v>
       </c>
       <c r="G58" t="n">
-        <v>119020.2859507143</v>
+        <v>137755.0248249348</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>44590352</v>
+        <v>44789906</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23537847</v>
+        <v>23736553</v>
       </c>
       <c r="E59" t="n">
-        <v>140831671</v>
+        <v>142020567</v>
       </c>
       <c r="F59" t="n">
-        <v>67156.52098716491</v>
+        <v>66355.61072142419</v>
       </c>
       <c r="G59" t="n">
-        <v>72524.11347312681</v>
+        <v>73439.74813461483</v>
       </c>
       <c r="H59" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I59" t="n">
-        <v>13020544</v>
+        <v>13045439</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2402048</v>
+        <v>2417324</v>
       </c>
       <c r="E60" t="n">
-        <v>4433118</v>
+        <v>4461309</v>
       </c>
       <c r="F60" t="n">
-        <v>4584.069849067443</v>
+        <v>4514.908364699506</v>
       </c>
       <c r="G60" t="n">
-        <v>403.4774103376334</v>
+        <v>516.3071325187631</v>
       </c>
       <c r="H60" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="I60" t="n">
-        <v>23257</v>
+        <v>23538</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9322745</v>
+        <v>9314612</v>
       </c>
       <c r="E62" t="n">
-        <v>27667041</v>
+        <v>27642905</v>
       </c>
       <c r="F62" t="n">
-        <v>5539.878705637714</v>
+        <v>4155.193130138066</v>
       </c>
       <c r="G62" t="n">
-        <v>7693.654355721673</v>
+        <v>5768.29589452586</v>
       </c>
       <c r="H62" t="n">
         <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>5792511</v>
+        <v>5873199</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14592217</v>
+        <v>14601899</v>
       </c>
       <c r="E63" t="n">
-        <v>29541053</v>
+        <v>29560652</v>
       </c>
       <c r="F63" t="n">
-        <v>6266.766379688622</v>
+        <v>6740.023589424745</v>
       </c>
       <c r="G63" t="n">
-        <v>14007.34823891344</v>
+        <v>14267.61452312115</v>
       </c>
       <c r="H63" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="I63" t="n">
-        <v>462802</v>
+        <v>461299</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38186334</v>
+        <v>38292598</v>
       </c>
       <c r="E64" t="n">
-        <v>270734877</v>
+        <v>271488270</v>
       </c>
       <c r="F64" t="n">
-        <v>69134.5579021507</v>
+        <v>68314.15056969345</v>
       </c>
       <c r="G64" t="n">
-        <v>71912.15086354395</v>
+        <v>66019.70180247464</v>
       </c>
       <c r="H64" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1718323</v>
+        <v>1656217</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1260943</v>
+        <v>1262062</v>
       </c>
       <c r="E65" t="n">
-        <v>7819804</v>
+        <v>7826671</v>
       </c>
       <c r="F65" t="n">
-        <v>2059.638463020267</v>
+        <v>2292.469574777765</v>
       </c>
       <c r="G65" t="n">
-        <v>2257.704244294206</v>
+        <v>1876.862152626106</v>
       </c>
       <c r="H65" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>743181</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>603932146</v>
+        <v>602891379</v>
       </c>
       <c r="E66" t="n">
-        <v>2338940097</v>
+        <v>2334909360</v>
       </c>
       <c r="F66" t="n">
-        <v>89014.13114569226</v>
+        <v>53461.57162266094</v>
       </c>
       <c r="G66" t="n">
-        <v>84597.62361565078</v>
+        <v>91099.7116065467</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>31974533</v>
+        <v>32987750</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5843088</v>
+        <v>5857905</v>
       </c>
       <c r="E67" t="n">
-        <v>26160238</v>
+        <v>26226572</v>
       </c>
       <c r="F67" t="n">
-        <v>4594.399821635735</v>
+        <v>5033.036397266691</v>
       </c>
       <c r="G67" t="n">
-        <v>4342.766667049752</v>
+        <v>4584.002169464312</v>
       </c>
       <c r="H67" t="n">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>144316</v>
+        <v>143297</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>118094324</v>
+        <v>118226249</v>
       </c>
       <c r="E68" t="n">
-        <v>1026757564</v>
+        <v>1027904570</v>
       </c>
       <c r="F68" t="n">
-        <v>160407.9050709317</v>
+        <v>157449.6748514486</v>
       </c>
       <c r="G68" t="n">
-        <v>159353.8787059504</v>
+        <v>156163.2028816862</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I68" t="n">
-        <v>9088968</v>
+        <v>8861267</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>103315999</v>
+        <v>102679129</v>
       </c>
       <c r="E69" t="n">
-        <v>157610979</v>
+        <v>156639419</v>
       </c>
       <c r="F69" t="n">
-        <v>56093.02800015049</v>
+        <v>57281.49134673375</v>
       </c>
       <c r="G69" t="n">
-        <v>79665.73120160887</v>
+        <v>85138.75380518817</v>
       </c>
       <c r="H69" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I69" t="n">
-        <v>7733975</v>
+        <v>7783879</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1121276</v>
+        <v>1116265</v>
       </c>
       <c r="E70" t="n">
-        <v>4341825</v>
+        <v>4322424</v>
       </c>
       <c r="F70" t="n">
-        <v>4035.343878206063</v>
+        <v>4029.072021239776</v>
       </c>
       <c r="G70" t="n">
-        <v>3882.775793706285</v>
+        <v>3759.906614730391</v>
       </c>
       <c r="H70" t="n">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
       <c r="I70" t="n">
-        <v>429863</v>
+        <v>428264</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>113371418</v>
+        <v>115171797</v>
       </c>
       <c r="E71" t="n">
-        <v>434911007</v>
+        <v>441817551</v>
       </c>
       <c r="F71" t="n">
-        <v>138793.7816389276</v>
+        <v>151633.7318054008</v>
       </c>
       <c r="G71" t="n">
-        <v>161753.7731398563</v>
+        <v>154205.8947870246</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="I71" t="n">
-        <v>20886570</v>
+        <v>22560816</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3171523</v>
+        <v>3187381</v>
       </c>
       <c r="E72" t="n">
-        <v>30050654</v>
+        <v>30200906</v>
       </c>
       <c r="F72" t="n">
-        <v>3874.73735206221</v>
+        <v>4535.78076456181</v>
       </c>
       <c r="G72" t="n">
-        <v>4249.546555715426</v>
+        <v>4191.37992021189</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I72" t="n">
-        <v>315879</v>
+        <v>265996</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31598462</v>
+        <v>31470210</v>
       </c>
       <c r="F73" t="n">
-        <v>4507.434281844525</v>
+        <v>1933.205120280412</v>
       </c>
       <c r="G73" t="n">
-        <v>5562.633125945593</v>
+        <v>5683.797250992996</v>
       </c>
       <c r="H73" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I73" t="n">
-        <v>5581155</v>
+        <v>5519553</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87240919</v>
+        <v>87086814</v>
       </c>
       <c r="E74" t="n">
-        <v>322504226</v>
+        <v>321934453</v>
       </c>
       <c r="F74" t="n">
-        <v>11354.86608068081</v>
+        <v>10680.39201880542</v>
       </c>
       <c r="G74" t="n">
-        <v>764.8159272563604</v>
+        <v>607.8197173262525</v>
       </c>
       <c r="H74" t="n">
         <v>0.02</v>
       </c>
       <c r="I74" t="n">
-        <v>341551</v>
+        <v>351884</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23204403</v>
+        <v>23221756</v>
       </c>
       <c r="E75" t="n">
-        <v>23204403</v>
+        <v>23221756</v>
       </c>
       <c r="F75" t="n">
-        <v>30251.83535697958</v>
+        <v>24718.74353397141</v>
       </c>
       <c r="G75" t="n">
-        <v>20226.51410526687</v>
+        <v>29401.9877932857</v>
       </c>
       <c r="H75" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I75" t="n">
-        <v>6424708</v>
+        <v>6300578</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>492093536</v>
+        <v>493394219</v>
       </c>
       <c r="E76" t="n">
-        <v>1713805683</v>
+        <v>1718335549</v>
       </c>
       <c r="F76" t="n">
-        <v>127087.29260567</v>
+        <v>132601.7036196388</v>
       </c>
       <c r="G76" t="n">
-        <v>150406.9868157424</v>
+        <v>158483.2982368302</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>31134377</v>
+        <v>31345225</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5576024932</v>
+        <v>5605784923</v>
       </c>
       <c r="E77" t="n">
-        <v>5576024932</v>
+        <v>5605784923</v>
       </c>
       <c r="F77" t="n">
-        <v>10325.5497116481</v>
+        <v>10352.0371700799</v>
       </c>
       <c r="G77" t="n">
-        <v>94583.97460119793</v>
+        <v>94177.88538198825</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>27890661</v>
+        <v>28189661</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7691635</v>
+        <v>7652330</v>
       </c>
       <c r="E78" t="n">
-        <v>19982040</v>
+        <v>19879930</v>
       </c>
       <c r="F78" t="n">
-        <v>1223.232538984714</v>
+        <v>1054.161154356209</v>
       </c>
       <c r="G78" t="n">
-        <v>2823.577758641431</v>
+        <v>2812.654055760858</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I78" t="n">
-        <v>682734</v>
+        <v>687453</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100788521</v>
+        <v>100870803</v>
       </c>
       <c r="E79" t="n">
-        <v>152706254</v>
+        <v>152830922</v>
       </c>
       <c r="F79" t="n">
-        <v>42687.44899001437</v>
+        <v>38936.68414519877</v>
       </c>
       <c r="G79" t="n">
-        <v>19080.87515210967</v>
+        <v>30283.67383175022</v>
       </c>
       <c r="H79" t="n">
         <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>7226978</v>
+        <v>7269910</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2650625</v>
+        <v>2659293</v>
       </c>
       <c r="E80" t="n">
-        <v>10602501</v>
+        <v>10637171</v>
       </c>
       <c r="F80" t="n">
-        <v>64709.98744668085</v>
+        <v>77448.04021810458</v>
       </c>
       <c r="G80" t="n">
-        <v>38052.66123478214</v>
+        <v>43551.83447765964</v>
       </c>
       <c r="H80" t="n">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="I80" t="n">
-        <v>5338820</v>
+        <v>1165960</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2614697</v>
+        <v>2522850</v>
       </c>
       <c r="F81" t="n">
-        <v>1904.429209485156</v>
+        <v>312.8575671183631</v>
       </c>
       <c r="G81" t="n">
-        <v>41.25356968962202</v>
+        <v>2709.614342798252</v>
       </c>
       <c r="H81" t="n">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>315561</v>
+        <v>312663</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>402256033</v>
+        <v>404273363</v>
       </c>
       <c r="E82" t="n">
-        <v>2298605905</v>
+        <v>2310133501</v>
       </c>
       <c r="F82" t="n">
-        <v>162401.1854301206</v>
+        <v>168971.9269061231</v>
       </c>
       <c r="G82" t="n">
-        <v>173415.7475036098</v>
+        <v>171195.8419473964</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>36812081</v>
+        <v>37028708</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3922618</v>
+        <v>3905397</v>
       </c>
       <c r="F2" t="n">
-        <v>699.07194746791</v>
+        <v>888.2458083897977</v>
       </c>
       <c r="G2" t="n">
-        <v>669.1217505718478</v>
+        <v>455.9359683235664</v>
       </c>
       <c r="H2" t="n">
         <v>0.54</v>
       </c>
       <c r="I2" t="n">
-        <v>109111</v>
+        <v>112939</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1343375</v>
+        <v>1318773</v>
       </c>
       <c r="E3" t="n">
-        <v>4342340</v>
+        <v>4262816</v>
       </c>
       <c r="F3" t="n">
-        <v>6573.168496690195</v>
+        <v>5665.219204511242</v>
       </c>
       <c r="G3" t="n">
-        <v>11475.60934645257</v>
+        <v>12788.32964767533</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I3" t="n">
-        <v>99002</v>
+        <v>99266</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>247286089</v>
+        <v>246053568</v>
       </c>
       <c r="E4" t="n">
-        <v>1550696305</v>
+        <v>1542967337</v>
       </c>
       <c r="F4" t="n">
-        <v>200150.5427255025</v>
+        <v>192930.0058472546</v>
       </c>
       <c r="G4" t="n">
-        <v>255929.0069921538</v>
+        <v>245510.2371527755</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>15452965</v>
+        <v>15534842</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140940761</v>
+        <v>139490303</v>
       </c>
       <c r="E5" t="n">
-        <v>156184808</v>
+        <v>154577055</v>
       </c>
       <c r="F5" t="n">
-        <v>87208.60849841822</v>
+        <v>89006.88508066983</v>
       </c>
       <c r="G5" t="n">
-        <v>109238.4906844595</v>
+        <v>99308.205357546</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>34015660</v>
+        <v>34086653</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>125450504</v>
+        <v>125477576</v>
       </c>
       <c r="E6" t="n">
-        <v>491728414</v>
+        <v>491834526</v>
       </c>
       <c r="F6" t="n">
-        <v>25091.86893619855</v>
+        <v>12089.73673288696</v>
       </c>
       <c r="G6" t="n">
-        <v>49602.35989788816</v>
+        <v>51316.88449580291</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>29777757</v>
+        <v>30620761</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4723626</v>
+        <v>4720957</v>
       </c>
       <c r="E7" t="n">
-        <v>29014162</v>
+        <v>28997728</v>
       </c>
       <c r="F7" t="n">
-        <v>1136.75158461041</v>
+        <v>1892.431441138864</v>
       </c>
       <c r="G7" t="n">
-        <v>1883.685727939002</v>
+        <v>2386.957083182278</v>
       </c>
       <c r="H7" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="I7" t="n">
-        <v>482420</v>
+        <v>492299</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198039</v>
+        <v>198077</v>
       </c>
       <c r="E8" t="n">
-        <v>2178648</v>
+        <v>2179062</v>
       </c>
       <c r="F8" t="n">
-        <v>3933.413116129162</v>
+        <v>3624.437858171693</v>
       </c>
       <c r="G8" t="n">
-        <v>5257.385111210504</v>
+        <v>5226.629962729866</v>
       </c>
       <c r="H8" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="I8" t="n">
-        <v>37188</v>
+        <v>35076</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72127026</v>
+        <v>71478797</v>
       </c>
       <c r="E9" t="n">
-        <v>124939453</v>
+        <v>123813621</v>
       </c>
       <c r="F9" t="n">
-        <v>10239.06643054258</v>
+        <v>12286.64520257866</v>
       </c>
       <c r="G9" t="n">
-        <v>11866.49693959741</v>
+        <v>4078.627637872911</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>737944</v>
+        <v>764231</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8843385</v>
+        <v>8812568</v>
       </c>
       <c r="E10" t="n">
-        <v>12517154</v>
+        <v>12473536</v>
       </c>
       <c r="F10" t="n">
-        <v>3386.880539863709</v>
+        <v>3267.702854111121</v>
       </c>
       <c r="G10" t="n">
-        <v>4229.890802718869</v>
+        <v>4282.345561587797</v>
       </c>
       <c r="H10" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>45587</v>
+        <v>47161</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>479965803</v>
+        <v>468103128</v>
       </c>
       <c r="E11" t="n">
-        <v>479965808</v>
+        <v>468103132</v>
       </c>
       <c r="F11" t="n">
-        <v>39088.16988252739</v>
+        <v>40179.08182920822</v>
       </c>
       <c r="G11" t="n">
-        <v>59235.38860253163</v>
+        <v>62099.55116451811</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>64784260</v>
+        <v>65495606</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>315109</v>
+        <v>324105</v>
       </c>
       <c r="E12" t="n">
-        <v>1470959</v>
+        <v>1512953</v>
       </c>
       <c r="F12" t="n">
-        <v>35.40241855645294</v>
+        <v>511.8621837827871</v>
       </c>
       <c r="G12" t="n">
-        <v>1909.326224596696</v>
+        <v>1264.322620952157</v>
       </c>
       <c r="H12" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="I12" t="n">
-        <v>632579</v>
+        <v>647234</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1581238</v>
+        <v>1595212</v>
       </c>
       <c r="F13" t="n">
-        <v>4525.666718364215</v>
+        <v>4718.460025645443</v>
       </c>
       <c r="G13" t="n">
-        <v>613.9004120025648</v>
+        <v>1155.256346226118</v>
       </c>
       <c r="H13" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="I13" t="n">
-        <v>223414</v>
+        <v>234730</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12876422</v>
+        <v>12874821</v>
       </c>
       <c r="E14" t="n">
-        <v>32047087</v>
+        <v>32043101</v>
       </c>
       <c r="F14" t="n">
-        <v>1025.067821059655</v>
+        <v>1007.184841462209</v>
       </c>
       <c r="G14" t="n">
-        <v>1578.485802532116</v>
+        <v>1687.961705117155</v>
       </c>
       <c r="H14" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I14" t="n">
-        <v>1600703</v>
+        <v>1595999</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>112423261</v>
+        <v>110247188</v>
       </c>
       <c r="E15" t="n">
-        <v>437639501</v>
+        <v>429143750</v>
       </c>
       <c r="F15" t="n">
-        <v>33298.14552255023</v>
+        <v>33190.34774714409</v>
       </c>
       <c r="G15" t="n">
-        <v>94804.21755082764</v>
+        <v>102549.2771277319</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I15" t="n">
-        <v>7701895</v>
+        <v>7907870</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5383902</v>
+        <v>5386905</v>
       </c>
       <c r="E16" t="n">
-        <v>7925395</v>
+        <v>7929816</v>
       </c>
       <c r="F16" t="n">
-        <v>1785.121171299556</v>
+        <v>3816.587575488919</v>
       </c>
       <c r="G16" t="n">
-        <v>2810.703855058997</v>
+        <v>3945.19222370564</v>
       </c>
       <c r="H16" t="n">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="I16" t="n">
-        <v>632024</v>
+        <v>628438</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2004266</v>
+        <v>1981420</v>
       </c>
       <c r="F17" t="n">
-        <v>3308.090760248322</v>
+        <v>1082.27209949495</v>
       </c>
       <c r="G17" t="n">
-        <v>894.1164363153616</v>
+        <v>564.5584352818225</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4</v>
+        <v>0.91</v>
       </c>
       <c r="I17" t="n">
-        <v>217399</v>
+        <v>202423</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>137031385</v>
+        <v>136175177</v>
       </c>
       <c r="E18" t="n">
-        <v>137031385</v>
+        <v>136175177</v>
       </c>
       <c r="F18" t="n">
-        <v>122089.4571612231</v>
+        <v>121386.1383170413</v>
       </c>
       <c r="G18" t="n">
-        <v>108628.9053558193</v>
+        <v>123841.1083120945</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>66099989</v>
+        <v>66458389</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65343514</v>
+        <v>64931280</v>
       </c>
       <c r="E19" t="n">
-        <v>335094945</v>
+        <v>332980923</v>
       </c>
       <c r="F19" t="n">
-        <v>15967.06278596897</v>
+        <v>18540.54757296532</v>
       </c>
       <c r="G19" t="n">
-        <v>21867.90595862468</v>
+        <v>28740.83514175958</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>19164328</v>
+        <v>19322875</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>254904492</v>
+        <v>253870462</v>
       </c>
       <c r="E20" t="n">
-        <v>254904492</v>
+        <v>253870462</v>
       </c>
       <c r="F20" t="n">
-        <v>87914.4299998121</v>
+        <v>62297.88093523686</v>
       </c>
       <c r="G20" t="n">
-        <v>69560.30676799125</v>
+        <v>95375.79567654364</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14926717</v>
+        <v>14992943</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>152717426</v>
+        <v>151631072</v>
       </c>
       <c r="E21" t="n">
-        <v>200958272</v>
+        <v>199528757</v>
       </c>
       <c r="F21" t="n">
-        <v>24326.83627351496</v>
+        <v>19740.31196867604</v>
       </c>
       <c r="G21" t="n">
-        <v>42682.26676762532</v>
+        <v>34549.35309107057</v>
       </c>
       <c r="H21" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I21" t="n">
-        <v>7859545</v>
+        <v>7980130</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72980523</v>
+        <v>72478740</v>
       </c>
       <c r="E22" t="n">
-        <v>204297332</v>
+        <v>202887844</v>
       </c>
       <c r="F22" t="n">
-        <v>28468.1022404155</v>
+        <v>27001.41152936501</v>
       </c>
       <c r="G22" t="n">
-        <v>70683.79998508489</v>
+        <v>37608.4302957217</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>33123926</v>
+        <v>33799070</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73907796</v>
+        <v>72930714</v>
       </c>
       <c r="E23" t="n">
-        <v>154135286</v>
+        <v>152097574</v>
       </c>
       <c r="F23" t="n">
-        <v>18515.8697555019</v>
+        <v>19665.50528023583</v>
       </c>
       <c r="G23" t="n">
-        <v>40275.13835964189</v>
+        <v>37433.97810009955</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>14465987</v>
+        <v>14455517</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>631566499</v>
+        <v>628526304</v>
       </c>
       <c r="E24" t="n">
-        <v>631566499</v>
+        <v>628526304</v>
       </c>
       <c r="F24" t="n">
-        <v>226042.0090647392</v>
+        <v>173133.3046365392</v>
       </c>
       <c r="G24" t="n">
-        <v>267028.8564495888</v>
+        <v>342337.0069089474</v>
       </c>
       <c r="H24" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>263989222</v>
+        <v>277342456</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>198817849</v>
+        <v>197463631</v>
       </c>
       <c r="E25" t="n">
-        <v>690711175</v>
+        <v>686006499</v>
       </c>
       <c r="F25" t="n">
-        <v>88575.75472854415</v>
+        <v>89688.93080652706</v>
       </c>
       <c r="G25" t="n">
-        <v>351180.7895810707</v>
+        <v>338367.2222296264</v>
       </c>
       <c r="H25" t="n">
         <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>25948854</v>
+        <v>25839704</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5948754</v>
+        <v>5781752</v>
       </c>
       <c r="E26" t="n">
-        <v>8082954</v>
+        <v>7855649</v>
       </c>
       <c r="F26" t="n">
-        <v>950.8477644855748</v>
+        <v>1085.175149212867</v>
       </c>
       <c r="G26" t="n">
-        <v>2054.273700058116</v>
+        <v>1895.265216987964</v>
       </c>
       <c r="H26" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="I26" t="n">
-        <v>1342075</v>
+        <v>5986672</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14561401</v>
+        <v>14445467</v>
       </c>
       <c r="F27" t="n">
-        <v>2324.919164387099</v>
+        <v>2651.053434679241</v>
       </c>
       <c r="G27" t="n">
-        <v>2459.943617944344</v>
+        <v>3298.556553698001</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="I27" t="n">
-        <v>412568</v>
+        <v>388184</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25200114</v>
+        <v>25118766</v>
       </c>
       <c r="E28" t="n">
-        <v>35619377</v>
+        <v>35504396</v>
       </c>
       <c r="F28" t="n">
-        <v>692.7848854412658</v>
+        <v>101.9826783423071</v>
       </c>
       <c r="G28" t="n">
-        <v>9368.018411253743</v>
+        <v>6612.349761113088</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="I28" t="n">
-        <v>72930</v>
+        <v>72024</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>268775505</v>
+        <v>266515875</v>
       </c>
       <c r="E29" t="n">
-        <v>1160184289</v>
+        <v>1150430471</v>
       </c>
       <c r="F29" t="n">
-        <v>372546.200686586</v>
+        <v>350566.1681432083</v>
       </c>
       <c r="G29" t="n">
-        <v>350500.6613133329</v>
+        <v>337884.7247094703</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>110689584</v>
+        <v>109555667</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10953853</v>
+        <v>10802006</v>
       </c>
       <c r="E30" t="n">
-        <v>132275170</v>
+        <v>130439942</v>
       </c>
       <c r="F30" t="n">
-        <v>3347.111407961548</v>
+        <v>1142.463331243651</v>
       </c>
       <c r="G30" t="n">
-        <v>4938.412879929268</v>
+        <v>1277.86647875601</v>
       </c>
       <c r="H30" t="n">
-        <v>0.83</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>219652</v>
+        <v>169743</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21123650</v>
+        <v>21031918</v>
       </c>
       <c r="E31" t="n">
-        <v>52809125</v>
+        <v>52579794</v>
       </c>
       <c r="F31" t="n">
-        <v>12146.7778285084</v>
+        <v>13540.14823874691</v>
       </c>
       <c r="G31" t="n">
-        <v>9365.545473194512</v>
+        <v>9569.657125292586</v>
       </c>
       <c r="H31" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="I31" t="n">
-        <v>1959653</v>
+        <v>2083218</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19911138</v>
+        <v>19904324</v>
       </c>
       <c r="F32" t="n">
-        <v>2315.629921284199</v>
+        <v>2473.282225905572</v>
       </c>
       <c r="G32" t="n">
-        <v>2583.495548338395</v>
+        <v>2085.991929223644</v>
       </c>
       <c r="H32" t="n">
         <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>117469</v>
+        <v>94532</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1357796</v>
+        <v>1355294</v>
       </c>
       <c r="E33" t="n">
-        <v>5062321</v>
+        <v>5052975</v>
       </c>
       <c r="F33" t="n">
-        <v>2408.593502970291</v>
+        <v>1821.590215552047</v>
       </c>
       <c r="G33" t="n">
-        <v>1522.081618956652</v>
+        <v>2128.828837057283</v>
       </c>
       <c r="H33" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="I33" t="n">
-        <v>591357</v>
+        <v>578257</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4202860</v>
+        <v>4265086</v>
       </c>
       <c r="E34" t="n">
-        <v>12105592</v>
+        <v>12284812</v>
       </c>
       <c r="F34" t="n">
-        <v>1422.976366843038</v>
+        <v>4147.568891302313</v>
       </c>
       <c r="G34" t="n">
-        <v>4291.9582702994</v>
+        <v>109.8514356226033</v>
       </c>
       <c r="H34" t="n">
-        <v>1.16</v>
+        <v>0.24</v>
       </c>
       <c r="I34" t="n">
-        <v>581114</v>
+        <v>594206</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13966283</v>
+        <v>13875245</v>
       </c>
       <c r="E35" t="n">
-        <v>67640940</v>
+        <v>67200028</v>
       </c>
       <c r="F35" t="n">
-        <v>11216.12141946715</v>
+        <v>6204.594744239383</v>
       </c>
       <c r="G35" t="n">
-        <v>13704.27180992145</v>
+        <v>12143.42040940678</v>
       </c>
       <c r="H35" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="I35" t="n">
-        <v>3622437</v>
+        <v>3598399</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1511955</v>
+        <v>1513528</v>
       </c>
       <c r="E36" t="n">
-        <v>9895708</v>
+        <v>9905999</v>
       </c>
       <c r="F36" t="n">
-        <v>3356.730480878851</v>
+        <v>3495.770959068183</v>
       </c>
       <c r="G36" t="n">
-        <v>2621.142220401592</v>
+        <v>2590.030743010952</v>
       </c>
       <c r="H36" t="n">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="I36" t="n">
-        <v>478615</v>
+        <v>533335</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1900476956</v>
+        <v>1903191267</v>
       </c>
       <c r="F37" t="n">
-        <v>75413.90074603433</v>
+        <v>75373.57953254896</v>
       </c>
       <c r="G37" t="n">
-        <v>78183.5111624687</v>
+        <v>74576.91581169063</v>
       </c>
       <c r="H37" t="n">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="I37" t="n">
-        <v>26408692</v>
+        <v>26319611</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2070926</v>
+        <v>2062821</v>
       </c>
       <c r="E38" t="n">
-        <v>14850405</v>
+        <v>14792286</v>
       </c>
       <c r="F38" t="n">
-        <v>4431.928994471262</v>
+        <v>4432.129546182812</v>
       </c>
       <c r="G38" t="n">
-        <v>5499.637791088869</v>
+        <v>5411.916352817204</v>
       </c>
       <c r="H38" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="I38" t="n">
-        <v>1928687</v>
+        <v>1931519</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>202978015</v>
+        <v>200397074</v>
       </c>
       <c r="E39" t="n">
-        <v>1149386240</v>
+        <v>1134771368</v>
       </c>
       <c r="F39" t="n">
-        <v>156636.2272634931</v>
+        <v>149718.886028264</v>
       </c>
       <c r="G39" t="n">
-        <v>175225.4055855536</v>
+        <v>163838.3036379974</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>64986703</v>
+        <v>64865393</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>139169519</v>
+        <v>138188716</v>
       </c>
       <c r="E40" t="n">
-        <v>1030885327</v>
+        <v>1023620119</v>
       </c>
       <c r="F40" t="n">
-        <v>212718.851050137</v>
+        <v>205831.8916358043</v>
       </c>
       <c r="G40" t="n">
-        <v>229481.9663277857</v>
+        <v>209442.9660401483</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>10884246</v>
+        <v>10629013</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>338547712</v>
+        <v>336744954</v>
       </c>
       <c r="E41" t="n">
-        <v>3045785142</v>
+        <v>3029566413</v>
       </c>
       <c r="F41" t="n">
-        <v>233882.9624070423</v>
+        <v>228209.8892666342</v>
       </c>
       <c r="G41" t="n">
-        <v>267954.5780195415</v>
+        <v>266311.9170025421</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>37748473</v>
+        <v>37637487</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1586723</v>
+        <v>1589926</v>
       </c>
       <c r="E42" t="n">
-        <v>13222689</v>
+        <v>13249381</v>
       </c>
       <c r="F42" t="n">
-        <v>2932.906384428944</v>
+        <v>3022.346740848199</v>
       </c>
       <c r="G42" t="n">
-        <v>3920.600867920927</v>
+        <v>3944.417574902888</v>
       </c>
       <c r="H42" t="n">
         <v>0.45</v>
       </c>
       <c r="I42" t="n">
-        <v>43929</v>
+        <v>42425</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23700770</v>
+        <v>23491243</v>
       </c>
       <c r="E43" t="n">
-        <v>71042412</v>
+        <v>70414361</v>
       </c>
       <c r="F43" t="n">
-        <v>58464.56862939175</v>
+        <v>58184.7604882638</v>
       </c>
       <c r="G43" t="n">
-        <v>48191.86085655636</v>
+        <v>49280.83169979467</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I43" t="n">
-        <v>2855448</v>
+        <v>2273630</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9481766</v>
+        <v>9443387</v>
       </c>
       <c r="F44" t="n">
-        <v>6139.711734690673</v>
+        <v>6144.171185174609</v>
       </c>
       <c r="G44" t="n">
-        <v>5930.878170471146</v>
+        <v>5842.290476916751</v>
       </c>
       <c r="H44" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="I44" t="n">
-        <v>121613</v>
+        <v>121481</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12980393</v>
+        <v>12951221</v>
       </c>
       <c r="E45" t="n">
-        <v>12980393</v>
+        <v>12951221</v>
       </c>
       <c r="F45" t="n">
-        <v>1639.029170346021</v>
+        <v>1750.596041583143</v>
       </c>
       <c r="G45" t="n">
-        <v>814.6121186063659</v>
+        <v>1078.879255602232</v>
       </c>
       <c r="H45" t="n">
-        <v>0.85</v>
+        <v>0.61</v>
       </c>
       <c r="I45" t="n">
-        <v>3447391</v>
+        <v>3429384</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>302595904</v>
+        <v>294759352</v>
       </c>
       <c r="E46" t="n">
-        <v>302595904</v>
+        <v>294759352</v>
       </c>
       <c r="F46" t="n">
-        <v>22997.51464120901</v>
+        <v>31008.23986376482</v>
       </c>
       <c r="G46" t="n">
-        <v>62888.60560790907</v>
+        <v>53854.75696725172</v>
       </c>
       <c r="H46" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I46" t="n">
-        <v>12847148</v>
+        <v>12725296</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12789103</v>
+        <v>12826881</v>
       </c>
       <c r="E47" t="n">
-        <v>40460567</v>
+        <v>40580084</v>
       </c>
       <c r="F47" t="n">
-        <v>14307.48559842063</v>
+        <v>13736.72001002007</v>
       </c>
       <c r="G47" t="n">
-        <v>10261.92325576653</v>
+        <v>12685.30615808408</v>
       </c>
       <c r="H47" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I47" t="n">
-        <v>1400378</v>
+        <v>1386194</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31670781</v>
+        <v>31480806</v>
       </c>
       <c r="E48" t="n">
-        <v>87724922</v>
+        <v>87198708</v>
       </c>
       <c r="F48" t="n">
-        <v>5239.965611955456</v>
+        <v>5004.881597870697</v>
       </c>
       <c r="G48" t="n">
-        <v>9823.356891444007</v>
+        <v>7832.242463476788</v>
       </c>
       <c r="H48" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I48" t="n">
-        <v>11901651</v>
+        <v>9873038</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28560364</v>
+        <v>28366579</v>
       </c>
       <c r="E49" t="n">
-        <v>67852323</v>
+        <v>67391939</v>
       </c>
       <c r="F49" t="n">
-        <v>18697.10603910159</v>
+        <v>17107.15124533416</v>
       </c>
       <c r="G49" t="n">
-        <v>11336.07993982767</v>
+        <v>11339.7836628212</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>464246</v>
+        <v>481482</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12488018</v>
+        <v>12553724</v>
       </c>
       <c r="E50" t="n">
-        <v>19032563</v>
+        <v>19132703</v>
       </c>
       <c r="F50" t="n">
-        <v>3471.847022509756</v>
+        <v>7078.754316025596</v>
       </c>
       <c r="G50" t="n">
-        <v>3918.950552187001</v>
+        <v>17831.88432947055</v>
       </c>
       <c r="H50" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="I50" t="n">
-        <v>696514</v>
+        <v>697986</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>304921170</v>
+        <v>305870016</v>
       </c>
       <c r="E51" t="n">
-        <v>304921170</v>
+        <v>305870016</v>
       </c>
       <c r="F51" t="n">
-        <v>66924.53065912801</v>
+        <v>72478.31995405181</v>
       </c>
       <c r="G51" t="n">
-        <v>108626.7318353884</v>
+        <v>96141.60104835199</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>50351559</v>
+        <v>50437989</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>90760527</v>
+        <v>89692849</v>
       </c>
       <c r="E52" t="n">
-        <v>523001303</v>
+        <v>516848884</v>
       </c>
       <c r="F52" t="n">
-        <v>269393.4125905496</v>
+        <v>265977.0301060263</v>
       </c>
       <c r="G52" t="n">
-        <v>238598.1245044471</v>
+        <v>239979.6252454555</v>
       </c>
       <c r="H52" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>16196567</v>
+        <v>16145678</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30644866</v>
+        <v>30329557</v>
       </c>
       <c r="E53" t="n">
-        <v>137209639</v>
+        <v>135797871</v>
       </c>
       <c r="F53" t="n">
-        <v>39266.62994500611</v>
+        <v>42101.61725809939</v>
       </c>
       <c r="G53" t="n">
-        <v>49206.53720192214</v>
+        <v>46991.74144194477</v>
       </c>
       <c r="H53" t="n">
         <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>8595757</v>
+        <v>8685050</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8651383</v>
+        <v>8537228</v>
       </c>
       <c r="F54" t="n">
-        <v>181.8607730601706</v>
+        <v>84.90216422251943</v>
       </c>
       <c r="G54" t="n">
-        <v>310.3573587989845</v>
+        <v>490.1075054977244</v>
       </c>
       <c r="H54" t="n">
-        <v>0.83</v>
+        <v>0.35</v>
       </c>
       <c r="I54" t="n">
-        <v>302481</v>
+        <v>299025</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4809986</v>
+        <v>4811150</v>
       </c>
       <c r="F55" t="n">
-        <v>4690.569818852207</v>
+        <v>2861.865762770461</v>
       </c>
       <c r="G55" t="n">
-        <v>959.5372862771283</v>
+        <v>1444.711911751223</v>
       </c>
       <c r="H55" t="n">
         <v>0.25</v>
       </c>
       <c r="I55" t="n">
-        <v>173481</v>
+        <v>174879</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125394333</v>
+        <v>125364844</v>
       </c>
       <c r="E56" t="n">
-        <v>2076632852</v>
+        <v>2076144496</v>
       </c>
       <c r="F56" t="n">
-        <v>183649.8505255577</v>
+        <v>182680.9749619763</v>
       </c>
       <c r="G56" t="n">
-        <v>189317.4741328514</v>
+        <v>188378.7417268684</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5051333</v>
+        <v>5064057</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>76794413</v>
+        <v>77900018</v>
       </c>
       <c r="E57" t="n">
-        <v>77621053</v>
+        <v>78738559</v>
       </c>
       <c r="F57" t="n">
-        <v>49731.99637798696</v>
+        <v>50690.00925109519</v>
       </c>
       <c r="G57" t="n">
-        <v>64607.27953685849</v>
+        <v>49114.54174392288</v>
       </c>
       <c r="H57" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I57" t="n">
-        <v>8766830</v>
+        <v>9403646</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>236209302</v>
+        <v>234245870</v>
       </c>
       <c r="E58" t="n">
-        <v>236209302</v>
+        <v>234245870</v>
       </c>
       <c r="F58" t="n">
-        <v>137607.9054594621</v>
+        <v>123521.3510560518</v>
       </c>
       <c r="G58" t="n">
-        <v>137755.0248249348</v>
+        <v>123969.2355005712</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>44789906</v>
+        <v>42479013</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23736553</v>
+        <v>23627724</v>
       </c>
       <c r="E59" t="n">
-        <v>142020567</v>
+        <v>141369424</v>
       </c>
       <c r="F59" t="n">
-        <v>66355.61072142419</v>
+        <v>29411.39213873939</v>
       </c>
       <c r="G59" t="n">
-        <v>73439.74813461483</v>
+        <v>55042.84108214378</v>
       </c>
       <c r="H59" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>13045439</v>
+        <v>13201256</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2417324</v>
+        <v>2425390</v>
       </c>
       <c r="E60" t="n">
-        <v>4461309</v>
+        <v>4476197</v>
       </c>
       <c r="F60" t="n">
-        <v>4514.908364699506</v>
+        <v>4549.160949812564</v>
       </c>
       <c r="G60" t="n">
-        <v>516.3071325187631</v>
+        <v>484.1276247134772</v>
       </c>
       <c r="H60" t="n">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I60" t="n">
-        <v>23538</v>
+        <v>23395</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9314612</v>
+        <v>9417766</v>
       </c>
       <c r="E62" t="n">
-        <v>27642905</v>
+        <v>27949033</v>
       </c>
       <c r="F62" t="n">
-        <v>4155.193130138066</v>
+        <v>3148.544057899922</v>
       </c>
       <c r="G62" t="n">
-        <v>5768.29589452586</v>
+        <v>4513.968011514098</v>
       </c>
       <c r="H62" t="n">
         <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>5873199</v>
+        <v>6036461</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14601899</v>
+        <v>14723328</v>
       </c>
       <c r="E63" t="n">
-        <v>29560652</v>
+        <v>29806478</v>
       </c>
       <c r="F63" t="n">
-        <v>6740.023589424745</v>
+        <v>6919.354741420198</v>
       </c>
       <c r="G63" t="n">
-        <v>14267.61452312115</v>
+        <v>15714.03971561115</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="I63" t="n">
-        <v>461299</v>
+        <v>466300</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38292598</v>
+        <v>37877007</v>
       </c>
       <c r="E64" t="n">
-        <v>271488270</v>
+        <v>268541803</v>
       </c>
       <c r="F64" t="n">
-        <v>68314.15056969345</v>
+        <v>83858.74426497091</v>
       </c>
       <c r="G64" t="n">
-        <v>66019.70180247464</v>
+        <v>64091.28958066618</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I64" t="n">
-        <v>1656217</v>
+        <v>1510072</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1262062</v>
+        <v>1263077</v>
       </c>
       <c r="E65" t="n">
-        <v>7826671</v>
+        <v>7832960</v>
       </c>
       <c r="F65" t="n">
-        <v>2292.469574777765</v>
+        <v>2289.805047845321</v>
       </c>
       <c r="G65" t="n">
-        <v>1876.862152626106</v>
+        <v>2267.360161792594</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="I65" t="n">
-        <v>735000</v>
+        <v>731852</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>602891379</v>
+        <v>600494220</v>
       </c>
       <c r="E66" t="n">
-        <v>2334909360</v>
+        <v>2325625519</v>
       </c>
       <c r="F66" t="n">
-        <v>53461.57162266094</v>
+        <v>53937.27742821506</v>
       </c>
       <c r="G66" t="n">
-        <v>91099.7116065467</v>
+        <v>88728.47361157225</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>32987750</v>
+        <v>33329025</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5857905</v>
+        <v>5881922</v>
       </c>
       <c r="E67" t="n">
-        <v>26226572</v>
+        <v>26334099</v>
       </c>
       <c r="F67" t="n">
-        <v>5033.036397266691</v>
+        <v>4852.721697760779</v>
       </c>
       <c r="G67" t="n">
-        <v>4584.002169464312</v>
+        <v>4617.081785968446</v>
       </c>
       <c r="H67" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="I67" t="n">
-        <v>143297</v>
+        <v>144178</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>118226249</v>
+        <v>118942116</v>
       </c>
       <c r="E68" t="n">
-        <v>1027904570</v>
+        <v>1034128597</v>
       </c>
       <c r="F68" t="n">
-        <v>157449.6748514486</v>
+        <v>162773.994275375</v>
       </c>
       <c r="G68" t="n">
-        <v>156163.2028816862</v>
+        <v>160362.64155884</v>
       </c>
       <c r="H68" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I68" t="n">
-        <v>8861267</v>
+        <v>8879171</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>102679129</v>
+        <v>101876658</v>
       </c>
       <c r="E69" t="n">
-        <v>156639419</v>
+        <v>155415230</v>
       </c>
       <c r="F69" t="n">
-        <v>57281.49134673375</v>
+        <v>60319.18883203825</v>
       </c>
       <c r="G69" t="n">
-        <v>85138.75380518817</v>
+        <v>83243.06828411763</v>
       </c>
       <c r="H69" t="n">
         <v>0.19</v>
       </c>
       <c r="I69" t="n">
-        <v>7783879</v>
+        <v>7679520</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1116265</v>
+        <v>1121039</v>
       </c>
       <c r="E70" t="n">
-        <v>4322424</v>
+        <v>4340907</v>
       </c>
       <c r="F70" t="n">
-        <v>4029.072021239776</v>
+        <v>2662.374163390733</v>
       </c>
       <c r="G70" t="n">
-        <v>3759.906614730391</v>
+        <v>4826.877468665893</v>
       </c>
       <c r="H70" t="n">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="I70" t="n">
-        <v>428264</v>
+        <v>429673</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>115171797</v>
+        <v>114524686</v>
       </c>
       <c r="E71" t="n">
-        <v>441817551</v>
+        <v>439335130</v>
       </c>
       <c r="F71" t="n">
-        <v>151633.7318054008</v>
+        <v>153219.8028834416</v>
       </c>
       <c r="G71" t="n">
-        <v>154205.8947870246</v>
+        <v>156966.0125114947</v>
       </c>
       <c r="H71" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I71" t="n">
-        <v>22560816</v>
+        <v>22989673</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3187381</v>
+        <v>3198222</v>
       </c>
       <c r="E72" t="n">
-        <v>30200906</v>
+        <v>30303627</v>
       </c>
       <c r="F72" t="n">
-        <v>4535.78076456181</v>
+        <v>4428.261204421387</v>
       </c>
       <c r="G72" t="n">
-        <v>4191.37992021189</v>
+        <v>4309.622510647946</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="I72" t="n">
-        <v>265996</v>
+        <v>257429</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31470210</v>
+        <v>31970427</v>
       </c>
       <c r="F73" t="n">
-        <v>1933.205120280412</v>
+        <v>3409.670530699026</v>
       </c>
       <c r="G73" t="n">
-        <v>5683.797250992996</v>
+        <v>5166.691403997417</v>
       </c>
       <c r="H73" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>5519553</v>
+        <v>5372461</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87086814</v>
+        <v>87018234</v>
       </c>
       <c r="E74" t="n">
-        <v>321934453</v>
+        <v>321679837</v>
       </c>
       <c r="F74" t="n">
-        <v>10680.39201880542</v>
+        <v>11025.20997123692</v>
       </c>
       <c r="G74" t="n">
-        <v>607.8197173262525</v>
+        <v>733.5656646701838</v>
       </c>
       <c r="H74" t="n">
         <v>0.02</v>
       </c>
       <c r="I74" t="n">
-        <v>351884</v>
+        <v>348782</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23221756</v>
+        <v>22887653</v>
       </c>
       <c r="E75" t="n">
-        <v>23221756</v>
+        <v>22887653</v>
       </c>
       <c r="F75" t="n">
-        <v>24718.74353397141</v>
+        <v>24015.93395642894</v>
       </c>
       <c r="G75" t="n">
-        <v>29401.9877932857</v>
+        <v>24205.78150059024</v>
       </c>
       <c r="H75" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I75" t="n">
-        <v>6300578</v>
+        <v>6428480</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>493394219</v>
+        <v>491708959</v>
       </c>
       <c r="E76" t="n">
-        <v>1718335549</v>
+        <v>1712466322</v>
       </c>
       <c r="F76" t="n">
-        <v>132601.7036196388</v>
+        <v>133642.4469947244</v>
       </c>
       <c r="G76" t="n">
-        <v>158483.2982368302</v>
+        <v>153819.8316734422</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>31345225</v>
+        <v>30954620</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5605784923</v>
+        <v>5580032661</v>
       </c>
       <c r="E77" t="n">
-        <v>5605784923</v>
+        <v>5580032661</v>
       </c>
       <c r="F77" t="n">
-        <v>10352.0371700799</v>
+        <v>4602.465330752664</v>
       </c>
       <c r="G77" t="n">
-        <v>94177.88538198825</v>
+        <v>92492.55095031913</v>
       </c>
       <c r="H77" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I77" t="n">
-        <v>28189661</v>
+        <v>27559954</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7652330</v>
+        <v>7709326</v>
       </c>
       <c r="E78" t="n">
-        <v>19879930</v>
+        <v>20028001</v>
       </c>
       <c r="F78" t="n">
-        <v>1054.161154356209</v>
+        <v>1155.447841251035</v>
       </c>
       <c r="G78" t="n">
-        <v>2812.654055760858</v>
+        <v>4906.472110526447</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I78" t="n">
-        <v>687453</v>
+        <v>690361</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100870803</v>
+        <v>102882222</v>
       </c>
       <c r="E79" t="n">
-        <v>152830922</v>
+        <v>155878454</v>
       </c>
       <c r="F79" t="n">
-        <v>38936.68414519877</v>
+        <v>38175.83246271291</v>
       </c>
       <c r="G79" t="n">
-        <v>30283.67383175022</v>
+        <v>22522.42969706057</v>
       </c>
       <c r="H79" t="n">
         <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>7269910</v>
+        <v>7636114</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2659293</v>
+        <v>2641271</v>
       </c>
       <c r="E80" t="n">
-        <v>10637171</v>
+        <v>10565084</v>
       </c>
       <c r="F80" t="n">
-        <v>77448.04021810458</v>
+        <v>6208.488963348719</v>
       </c>
       <c r="G80" t="n">
-        <v>43551.83447765964</v>
+        <v>68441.39573884015</v>
       </c>
       <c r="H80" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="I80" t="n">
-        <v>1165960</v>
+        <v>5816098</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2522850</v>
+        <v>2509624</v>
       </c>
       <c r="F81" t="n">
-        <v>312.8575671183631</v>
+        <v>120.8661482260407</v>
       </c>
       <c r="G81" t="n">
-        <v>2709.614342798252</v>
+        <v>581.2186966940102</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="I81" t="n">
-        <v>312663</v>
+        <v>306108</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>404273363</v>
+        <v>400237568</v>
       </c>
       <c r="E82" t="n">
-        <v>2310133501</v>
+        <v>2287071816</v>
       </c>
       <c r="F82" t="n">
-        <v>168971.9269061231</v>
+        <v>173235.302901612</v>
       </c>
       <c r="G82" t="n">
-        <v>171195.8419473964</v>
+        <v>108487.1738392657</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>37028708</v>
+        <v>37041330</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3905397</v>
+        <v>3912313</v>
       </c>
       <c r="F2" t="n">
-        <v>888.2458083897977</v>
+        <v>870.5885256050619</v>
       </c>
       <c r="G2" t="n">
-        <v>455.9359683235664</v>
+        <v>877.6680965599164</v>
       </c>
       <c r="H2" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>112939</v>
+        <v>113693</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1318773</v>
+        <v>1319354</v>
       </c>
       <c r="E3" t="n">
-        <v>4262816</v>
+        <v>4264693</v>
       </c>
       <c r="F3" t="n">
-        <v>5665.219204511242</v>
+        <v>5648.76679161524</v>
       </c>
       <c r="G3" t="n">
-        <v>12788.32964767533</v>
+        <v>12503.15778213468</v>
       </c>
       <c r="H3" t="n">
         <v>0.05</v>
       </c>
       <c r="I3" t="n">
-        <v>99266</v>
+        <v>99735</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246053568</v>
+        <v>245644132</v>
       </c>
       <c r="E4" t="n">
-        <v>1542967337</v>
+        <v>1540399826</v>
       </c>
       <c r="F4" t="n">
-        <v>192930.0058472546</v>
+        <v>190932.8052813125</v>
       </c>
       <c r="G4" t="n">
-        <v>245510.2371527755</v>
+        <v>248813.6106564571</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>15534842</v>
+        <v>15581844</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139490303</v>
+        <v>139954361</v>
       </c>
       <c r="E5" t="n">
-        <v>154577055</v>
+        <v>155091304</v>
       </c>
       <c r="F5" t="n">
-        <v>89006.88508066983</v>
+        <v>88849.15838651819</v>
       </c>
       <c r="G5" t="n">
-        <v>99308.205357546</v>
+        <v>104201.6209438872</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>34086653</v>
+        <v>34381616</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>125477576</v>
+        <v>125586241</v>
       </c>
       <c r="E6" t="n">
-        <v>491834526</v>
+        <v>492260463</v>
       </c>
       <c r="F6" t="n">
-        <v>12089.73673288696</v>
+        <v>17464.71568615852</v>
       </c>
       <c r="G6" t="n">
-        <v>51316.88449580291</v>
+        <v>44608.12075330887</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>30620761</v>
+        <v>30836082</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4720957</v>
+        <v>4690865</v>
       </c>
       <c r="E7" t="n">
-        <v>28997728</v>
+        <v>28812896</v>
       </c>
       <c r="F7" t="n">
-        <v>1892.431441138864</v>
+        <v>1905.793824853882</v>
       </c>
       <c r="G7" t="n">
-        <v>2386.957083182278</v>
+        <v>1833.313155134968</v>
       </c>
       <c r="H7" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="I7" t="n">
-        <v>492299</v>
+        <v>491292</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198077</v>
+        <v>197868</v>
       </c>
       <c r="E8" t="n">
-        <v>2179062</v>
+        <v>2176769</v>
       </c>
       <c r="F8" t="n">
-        <v>3624.437858171693</v>
+        <v>3952.337350792636</v>
       </c>
       <c r="G8" t="n">
-        <v>5226.629962729866</v>
+        <v>5250.436209362231</v>
       </c>
       <c r="H8" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="I8" t="n">
-        <v>35076</v>
+        <v>34553</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71478797</v>
+        <v>71523996</v>
       </c>
       <c r="E9" t="n">
-        <v>123813621</v>
+        <v>123891915</v>
       </c>
       <c r="F9" t="n">
-        <v>12286.64520257866</v>
+        <v>12395.13226639202</v>
       </c>
       <c r="G9" t="n">
-        <v>4078.627637872911</v>
+        <v>4369.713404484786</v>
       </c>
       <c r="H9" t="n">
         <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>764231</v>
+        <v>760775</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8812568</v>
+        <v>8814703</v>
       </c>
       <c r="E10" t="n">
-        <v>12473536</v>
+        <v>12476558</v>
       </c>
       <c r="F10" t="n">
-        <v>3267.702854111121</v>
+        <v>3267.371698051842</v>
       </c>
       <c r="G10" t="n">
-        <v>4282.345561587797</v>
+        <v>4281.911579446837</v>
       </c>
       <c r="H10" t="n">
         <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>47161</v>
+        <v>47168</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>468103128</v>
+        <v>471974051</v>
       </c>
       <c r="E11" t="n">
-        <v>468103132</v>
+        <v>471974051</v>
       </c>
       <c r="F11" t="n">
-        <v>40179.08182920822</v>
+        <v>45377.09737246467</v>
       </c>
       <c r="G11" t="n">
-        <v>62099.55116451811</v>
+        <v>63162.79413445688</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>65495606</v>
+        <v>79020817</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>324105</v>
+        <v>324272</v>
       </c>
       <c r="E12" t="n">
-        <v>1512953</v>
+        <v>1513736</v>
       </c>
       <c r="F12" t="n">
-        <v>511.8621837827871</v>
+        <v>495.8456516953939</v>
       </c>
       <c r="G12" t="n">
-        <v>1264.322620952157</v>
+        <v>2103.21011770418</v>
       </c>
       <c r="H12" t="n">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="I12" t="n">
-        <v>647234</v>
+        <v>645630</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1595212</v>
+        <v>1595852</v>
       </c>
       <c r="F13" t="n">
-        <v>4718.460025645443</v>
+        <v>4717.246965834177</v>
       </c>
       <c r="G13" t="n">
-        <v>1155.256346226118</v>
+        <v>1153.06675833742</v>
       </c>
       <c r="H13" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>234730</v>
+        <v>240745</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12874821</v>
+        <v>12860611</v>
       </c>
       <c r="E14" t="n">
-        <v>32043101</v>
+        <v>32007735</v>
       </c>
       <c r="F14" t="n">
-        <v>1007.184841462209</v>
+        <v>1104.079344933601</v>
       </c>
       <c r="G14" t="n">
-        <v>1687.961705117155</v>
+        <v>1757.436631768267</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="I14" t="n">
-        <v>1595999</v>
+        <v>1596675</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>110247188</v>
+        <v>109578770</v>
       </c>
       <c r="E15" t="n">
-        <v>429143750</v>
+        <v>426541894</v>
       </c>
       <c r="F15" t="n">
-        <v>33190.34774714409</v>
+        <v>48103.46347209237</v>
       </c>
       <c r="G15" t="n">
-        <v>102549.2771277319</v>
+        <v>91245.26155567366</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>7907870</v>
+        <v>8006134</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5386905</v>
+        <v>5383604</v>
       </c>
       <c r="E16" t="n">
-        <v>7929816</v>
+        <v>7924956</v>
       </c>
       <c r="F16" t="n">
-        <v>3816.587575488919</v>
+        <v>3633.631387139739</v>
       </c>
       <c r="G16" t="n">
-        <v>3945.19222370564</v>
+        <v>4010.196967687014</v>
       </c>
       <c r="H16" t="n">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="I16" t="n">
-        <v>628438</v>
+        <v>628502</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1981420</v>
+        <v>1980533</v>
       </c>
       <c r="F17" t="n">
-        <v>1082.27209949495</v>
+        <v>2010.196656084887</v>
       </c>
       <c r="G17" t="n">
-        <v>564.5584352818225</v>
+        <v>1459.350141652437</v>
       </c>
       <c r="H17" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>202423</v>
+        <v>197380</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>136175177</v>
+        <v>136864091</v>
       </c>
       <c r="E18" t="n">
-        <v>136175177</v>
+        <v>136864091</v>
       </c>
       <c r="F18" t="n">
-        <v>121386.1383170413</v>
+        <v>125776.3651576766</v>
       </c>
       <c r="G18" t="n">
-        <v>123841.1083120945</v>
+        <v>129152.2328107874</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>66458389</v>
+        <v>66733766</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64931280</v>
+        <v>65248334</v>
       </c>
       <c r="E19" t="n">
-        <v>332980923</v>
+        <v>334606842</v>
       </c>
       <c r="F19" t="n">
-        <v>18540.54757296532</v>
+        <v>17805.82953833289</v>
       </c>
       <c r="G19" t="n">
-        <v>28740.83514175958</v>
+        <v>20917.34108977103</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>19322875</v>
+        <v>19407748</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>253870462</v>
+        <v>253917060</v>
       </c>
       <c r="E20" t="n">
-        <v>253870462</v>
+        <v>253917060</v>
       </c>
       <c r="F20" t="n">
-        <v>62297.88093523686</v>
+        <v>61487.89190107614</v>
       </c>
       <c r="G20" t="n">
-        <v>95375.79567654364</v>
+        <v>100488.0773264752</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I20" t="n">
-        <v>14992943</v>
+        <v>15065684</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>151631072</v>
+        <v>151512927</v>
       </c>
       <c r="E21" t="n">
-        <v>199528757</v>
+        <v>199373292</v>
       </c>
       <c r="F21" t="n">
-        <v>19740.31196867604</v>
+        <v>24809.96572367675</v>
       </c>
       <c r="G21" t="n">
-        <v>34549.35309107057</v>
+        <v>36616.57919844498</v>
       </c>
       <c r="H21" t="n">
         <v>0.18</v>
       </c>
       <c r="I21" t="n">
-        <v>7980130</v>
+        <v>7982060</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72478740</v>
+        <v>73718111</v>
       </c>
       <c r="E22" t="n">
-        <v>202887844</v>
+        <v>206362089</v>
       </c>
       <c r="F22" t="n">
-        <v>27001.41152936501</v>
+        <v>32373.95822671378</v>
       </c>
       <c r="G22" t="n">
-        <v>37608.4302957217</v>
+        <v>43395.12589384134</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>33799070</v>
+        <v>34138166</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72930714</v>
+        <v>73307726</v>
       </c>
       <c r="E23" t="n">
-        <v>152097574</v>
+        <v>152883835</v>
       </c>
       <c r="F23" t="n">
-        <v>19665.50528023583</v>
+        <v>17526.69581981663</v>
       </c>
       <c r="G23" t="n">
-        <v>37433.97810009955</v>
+        <v>39740.26020512194</v>
       </c>
       <c r="H23" t="n">
         <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>14455517</v>
+        <v>14500784</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>628526304</v>
+        <v>631612245</v>
       </c>
       <c r="E24" t="n">
-        <v>628526304</v>
+        <v>631612245</v>
       </c>
       <c r="F24" t="n">
-        <v>173133.3046365392</v>
+        <v>198500.1452223025</v>
       </c>
       <c r="G24" t="n">
-        <v>342337.0069089474</v>
+        <v>328309.4536954825</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>277342456</v>
+        <v>280689257</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>197463631</v>
+        <v>198045523</v>
       </c>
       <c r="E25" t="n">
-        <v>686006499</v>
+        <v>688028047</v>
       </c>
       <c r="F25" t="n">
-        <v>89688.93080652706</v>
+        <v>94379.69489030339</v>
       </c>
       <c r="G25" t="n">
-        <v>338367.2222296264</v>
+        <v>354355.003375481</v>
       </c>
       <c r="H25" t="n">
         <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>25839704</v>
+        <v>25907454</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5781752</v>
+        <v>5798425</v>
       </c>
       <c r="E26" t="n">
-        <v>7855649</v>
+        <v>7878648</v>
       </c>
       <c r="F26" t="n">
-        <v>1085.175149212867</v>
+        <v>1108.444492041904</v>
       </c>
       <c r="G26" t="n">
-        <v>1895.265216987964</v>
+        <v>1909.980946947205</v>
       </c>
       <c r="H26" t="n">
         <v>0.47</v>
       </c>
       <c r="I26" t="n">
-        <v>5986672</v>
+        <v>5972513</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14445467</v>
+        <v>14446839</v>
       </c>
       <c r="F27" t="n">
-        <v>2651.053434679241</v>
+        <v>2324.711228867519</v>
       </c>
       <c r="G27" t="n">
-        <v>3298.556553698001</v>
+        <v>2783.068936956766</v>
       </c>
       <c r="H27" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I27" t="n">
-        <v>388184</v>
+        <v>393504</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25118766</v>
+        <v>25035680</v>
       </c>
       <c r="E28" t="n">
-        <v>35504396</v>
+        <v>35386955</v>
       </c>
       <c r="F28" t="n">
-        <v>101.9826783423071</v>
+        <v>105.1291423758877</v>
       </c>
       <c r="G28" t="n">
-        <v>6612.349761113088</v>
+        <v>9286.251613164302</v>
       </c>
       <c r="H28" t="n">
-        <v>0.28</v>
+        <v>0.47</v>
       </c>
       <c r="I28" t="n">
-        <v>72024</v>
+        <v>68331</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>266515875</v>
+        <v>266806946</v>
       </c>
       <c r="E29" t="n">
-        <v>1150430471</v>
+        <v>1151686895</v>
       </c>
       <c r="F29" t="n">
-        <v>350566.1681432083</v>
+        <v>345375.3465759297</v>
       </c>
       <c r="G29" t="n">
-        <v>337884.7247094703</v>
+        <v>338610.2818863153</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>109555667</v>
+        <v>109775472</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10802006</v>
+        <v>11033490</v>
       </c>
       <c r="E30" t="n">
-        <v>130439942</v>
+        <v>133235230</v>
       </c>
       <c r="F30" t="n">
-        <v>1142.463331243651</v>
+        <v>3081.304591150787</v>
       </c>
       <c r="G30" t="n">
-        <v>1277.86647875601</v>
+        <v>2138.34863333636</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="I30" t="n">
-        <v>169743</v>
+        <v>237208</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21031918</v>
+        <v>21014317</v>
       </c>
       <c r="E31" t="n">
-        <v>52579794</v>
+        <v>52535793</v>
       </c>
       <c r="F31" t="n">
-        <v>13540.14823874691</v>
+        <v>11911.12479241337</v>
       </c>
       <c r="G31" t="n">
-        <v>9569.657125292586</v>
+        <v>9187.387104083702</v>
       </c>
       <c r="H31" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I31" t="n">
-        <v>2083218</v>
+        <v>2102948</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19904324</v>
+        <v>19921025</v>
       </c>
       <c r="F32" t="n">
-        <v>2473.282225905572</v>
+        <v>2363.616258822829</v>
       </c>
       <c r="G32" t="n">
-        <v>2085.991929223644</v>
+        <v>2021.548315998043</v>
       </c>
       <c r="H32" t="n">
         <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>94532</v>
+        <v>75302</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1355294</v>
+        <v>1356095</v>
       </c>
       <c r="E33" t="n">
-        <v>5052975</v>
+        <v>5055961</v>
       </c>
       <c r="F33" t="n">
-        <v>1821.590215552047</v>
+        <v>1168.315612633884</v>
       </c>
       <c r="G33" t="n">
-        <v>2128.828837057283</v>
+        <v>1953.036256265187</v>
       </c>
       <c r="H33" t="n">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
       <c r="I33" t="n">
-        <v>578257</v>
+        <v>577064</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4265086</v>
+        <v>4228064</v>
       </c>
       <c r="E34" t="n">
-        <v>12284812</v>
+        <v>12178176</v>
       </c>
       <c r="F34" t="n">
-        <v>4147.568891302313</v>
+        <v>1815.776658684503</v>
       </c>
       <c r="G34" t="n">
-        <v>109.8514356226033</v>
+        <v>1786.085229002983</v>
       </c>
       <c r="H34" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="I34" t="n">
-        <v>594206</v>
+        <v>599067</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13875245</v>
+        <v>13877011</v>
       </c>
       <c r="E35" t="n">
-        <v>67200028</v>
+        <v>67208579</v>
       </c>
       <c r="F35" t="n">
-        <v>6204.594744239383</v>
+        <v>6119.449018072653</v>
       </c>
       <c r="G35" t="n">
-        <v>12143.42040940678</v>
+        <v>14846.79061528071</v>
       </c>
       <c r="H35" t="n">
         <v>0.33</v>
       </c>
       <c r="I35" t="n">
-        <v>3598399</v>
+        <v>3607226</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1513528</v>
+        <v>1510530</v>
       </c>
       <c r="E36" t="n">
-        <v>9905999</v>
+        <v>9886379</v>
       </c>
       <c r="F36" t="n">
-        <v>3495.770959068183</v>
+        <v>3378.191840492197</v>
       </c>
       <c r="G36" t="n">
-        <v>2590.030743010952</v>
+        <v>3268.465885266417</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I36" t="n">
-        <v>533335</v>
+        <v>533400</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1903191267</v>
+        <v>1904305983</v>
       </c>
       <c r="F37" t="n">
-        <v>75373.57953254896</v>
+        <v>75392.16910975518</v>
       </c>
       <c r="G37" t="n">
-        <v>74576.91581169063</v>
+        <v>77177.6564105635</v>
       </c>
       <c r="H37" t="n">
         <v>0.78</v>
       </c>
       <c r="I37" t="n">
-        <v>26319611</v>
+        <v>26585128</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2062821</v>
+        <v>2047785</v>
       </c>
       <c r="E38" t="n">
-        <v>14792286</v>
+        <v>14684462</v>
       </c>
       <c r="F38" t="n">
-        <v>4432.129546182812</v>
+        <v>4431.680384609604</v>
       </c>
       <c r="G38" t="n">
-        <v>5411.916352817204</v>
+        <v>5411.367897534529</v>
       </c>
       <c r="H38" t="n">
         <v>0.6</v>
       </c>
       <c r="I38" t="n">
-        <v>1931519</v>
+        <v>1926476</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>200397074</v>
+        <v>201184921</v>
       </c>
       <c r="E39" t="n">
-        <v>1134771368</v>
+        <v>1139232641</v>
       </c>
       <c r="F39" t="n">
-        <v>149718.886028264</v>
+        <v>148905.4296333118</v>
       </c>
       <c r="G39" t="n">
-        <v>163838.3036379974</v>
+        <v>177055.1848310084</v>
       </c>
       <c r="H39" t="n">
         <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>64865393</v>
+        <v>64978129</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>138188716</v>
+        <v>138098484</v>
       </c>
       <c r="E40" t="n">
-        <v>1023620119</v>
+        <v>1022951730</v>
       </c>
       <c r="F40" t="n">
-        <v>205831.8916358043</v>
+        <v>193615.495942684</v>
       </c>
       <c r="G40" t="n">
-        <v>209442.9660401483</v>
+        <v>194550.1907736392</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>10629013</v>
+        <v>10629680</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>336744954</v>
+        <v>337291570</v>
       </c>
       <c r="E41" t="n">
-        <v>3029566413</v>
+        <v>3034484114</v>
       </c>
       <c r="F41" t="n">
-        <v>228209.8892666342</v>
+        <v>230652.3390099284</v>
       </c>
       <c r="G41" t="n">
-        <v>266311.9170025421</v>
+        <v>267977.848373525</v>
       </c>
       <c r="H41" t="n">
         <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>37637487</v>
+        <v>37693684</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1589926</v>
+        <v>1590297</v>
       </c>
       <c r="E42" t="n">
-        <v>13249381</v>
+        <v>13252471</v>
       </c>
       <c r="F42" t="n">
-        <v>3022.346740848199</v>
+        <v>2986.997221433488</v>
       </c>
       <c r="G42" t="n">
-        <v>3944.417574902888</v>
+        <v>3943.731370615689</v>
       </c>
       <c r="H42" t="n">
         <v>0.45</v>
       </c>
       <c r="I42" t="n">
-        <v>42425</v>
+        <v>42459</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23491243</v>
+        <v>23605537</v>
       </c>
       <c r="E43" t="n">
-        <v>70414361</v>
+        <v>70758546</v>
       </c>
       <c r="F43" t="n">
-        <v>58184.7604882638</v>
+        <v>62826.80939256386</v>
       </c>
       <c r="G43" t="n">
-        <v>49280.83169979467</v>
+        <v>60001.23673086352</v>
       </c>
       <c r="H43" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2273630</v>
+        <v>2929138</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9443387</v>
+        <v>9471896</v>
       </c>
       <c r="F44" t="n">
-        <v>6144.171185174609</v>
+        <v>6135.231860756974</v>
       </c>
       <c r="G44" t="n">
-        <v>5842.290476916751</v>
+        <v>5828.12643604839</v>
       </c>
       <c r="H44" t="n">
         <v>0.42</v>
       </c>
       <c r="I44" t="n">
-        <v>121481</v>
+        <v>121722</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12951221</v>
+        <v>13014160</v>
       </c>
       <c r="E45" t="n">
-        <v>12951221</v>
+        <v>13014160</v>
       </c>
       <c r="F45" t="n">
-        <v>1750.596041583143</v>
+        <v>1660.562234551791</v>
       </c>
       <c r="G45" t="n">
-        <v>1078.879255602232</v>
+        <v>790.589518810826</v>
       </c>
       <c r="H45" t="n">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>3429384</v>
+        <v>3477549</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>294759352</v>
+        <v>294471569</v>
       </c>
       <c r="E46" t="n">
-        <v>294759352</v>
+        <v>294471569</v>
       </c>
       <c r="F46" t="n">
-        <v>31008.23986376482</v>
+        <v>28020.81815397907</v>
       </c>
       <c r="G46" t="n">
-        <v>53854.75696725172</v>
+        <v>54261.47113495393</v>
       </c>
       <c r="H46" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>12725296</v>
+        <v>12711986</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12826881</v>
+        <v>12847753</v>
       </c>
       <c r="E47" t="n">
-        <v>40580084</v>
+        <v>40646118</v>
       </c>
       <c r="F47" t="n">
-        <v>13736.72001002007</v>
+        <v>16479.25637985073</v>
       </c>
       <c r="G47" t="n">
-        <v>12685.30615808408</v>
+        <v>13161.64728322744</v>
       </c>
       <c r="H47" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I47" t="n">
-        <v>1386194</v>
+        <v>1384855</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31480806</v>
+        <v>31379231</v>
       </c>
       <c r="E48" t="n">
-        <v>87198708</v>
+        <v>86917355</v>
       </c>
       <c r="F48" t="n">
-        <v>5004.881597870697</v>
+        <v>5293.236166286573</v>
       </c>
       <c r="G48" t="n">
-        <v>7832.242463476788</v>
+        <v>9775.106883817754</v>
       </c>
       <c r="H48" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="I48" t="n">
-        <v>9873038</v>
+        <v>11923247</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28366579</v>
+        <v>28847337</v>
       </c>
       <c r="E49" t="n">
-        <v>67391939</v>
+        <v>68534101</v>
       </c>
       <c r="F49" t="n">
-        <v>17107.15124533416</v>
+        <v>11324.57545360536</v>
       </c>
       <c r="G49" t="n">
-        <v>11339.7836628212</v>
+        <v>11022.62582738306</v>
       </c>
       <c r="H49" t="n">
         <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>481482</v>
+        <v>488303</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12553724</v>
+        <v>12554413</v>
       </c>
       <c r="E50" t="n">
-        <v>19132703</v>
+        <v>19133754</v>
       </c>
       <c r="F50" t="n">
-        <v>7078.754316025596</v>
+        <v>7192.232909622247</v>
       </c>
       <c r="G50" t="n">
-        <v>17831.88432947055</v>
+        <v>18180.08936609018</v>
       </c>
       <c r="H50" t="n">
         <v>0.46</v>
       </c>
       <c r="I50" t="n">
-        <v>697986</v>
+        <v>700345</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>305870016</v>
+        <v>306665973</v>
       </c>
       <c r="E51" t="n">
-        <v>305870016</v>
+        <v>306665973</v>
       </c>
       <c r="F51" t="n">
-        <v>72478.31995405181</v>
+        <v>64909.69447559972</v>
       </c>
       <c r="G51" t="n">
-        <v>96141.60104835199</v>
+        <v>119846.7025408619</v>
       </c>
       <c r="H51" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>50437989</v>
+        <v>50753329</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89692849</v>
+        <v>89963515</v>
       </c>
       <c r="E52" t="n">
-        <v>516848884</v>
+        <v>518408576</v>
       </c>
       <c r="F52" t="n">
-        <v>265977.0301060263</v>
+        <v>267571.0317858751</v>
       </c>
       <c r="G52" t="n">
-        <v>239979.6252454555</v>
+        <v>234937.5261649743</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I52" t="n">
-        <v>16145678</v>
+        <v>16359072</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30329557</v>
+        <v>30343122</v>
       </c>
       <c r="E53" t="n">
-        <v>135797871</v>
+        <v>135858603</v>
       </c>
       <c r="F53" t="n">
-        <v>42101.61725809939</v>
+        <v>31749.51282425315</v>
       </c>
       <c r="G53" t="n">
-        <v>46991.74144194477</v>
+        <v>47976.60851039018</v>
       </c>
       <c r="H53" t="n">
         <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>8685050</v>
+        <v>8702711</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8537228</v>
+        <v>8553950</v>
       </c>
       <c r="F54" t="n">
-        <v>84.90216422251943</v>
+        <v>84.8936252150547</v>
       </c>
       <c r="G54" t="n">
-        <v>490.1075054977244</v>
+        <v>489.5034898252376</v>
       </c>
       <c r="H54" t="n">
         <v>0.35</v>
       </c>
       <c r="I54" t="n">
-        <v>299025</v>
+        <v>297810</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4811150</v>
+        <v>4800175</v>
       </c>
       <c r="F55" t="n">
-        <v>2861.865762770461</v>
+        <v>2226.47372377298</v>
       </c>
       <c r="G55" t="n">
-        <v>1444.711911751223</v>
+        <v>1588.09349614555</v>
       </c>
       <c r="H55" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="I55" t="n">
-        <v>174879</v>
+        <v>174415</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125364844</v>
+        <v>125413803</v>
       </c>
       <c r="E56" t="n">
-        <v>2076144496</v>
+        <v>2076955301</v>
       </c>
       <c r="F56" t="n">
-        <v>182680.9749619763</v>
+        <v>195121.5951620838</v>
       </c>
       <c r="G56" t="n">
-        <v>188378.7417268684</v>
+        <v>193515.3152667379</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5064057</v>
+        <v>5058837</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>77900018</v>
+        <v>77747041</v>
       </c>
       <c r="E57" t="n">
-        <v>78738559</v>
+        <v>78583935</v>
       </c>
       <c r="F57" t="n">
-        <v>50690.00925109519</v>
+        <v>53584.75597054105</v>
       </c>
       <c r="G57" t="n">
-        <v>49114.54174392288</v>
+        <v>51881.19122360658</v>
       </c>
       <c r="H57" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="I57" t="n">
-        <v>9403646</v>
+        <v>9456801</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>234245870</v>
+        <v>234539705</v>
       </c>
       <c r="E58" t="n">
-        <v>234245870</v>
+        <v>234539705</v>
       </c>
       <c r="F58" t="n">
-        <v>123521.3510560518</v>
+        <v>114216.6979660798</v>
       </c>
       <c r="G58" t="n">
-        <v>123969.2355005712</v>
+        <v>101557.4847385279</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>42479013</v>
+        <v>42940436</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23627724</v>
+        <v>23691747</v>
       </c>
       <c r="E59" t="n">
-        <v>141369424</v>
+        <v>141752485</v>
       </c>
       <c r="F59" t="n">
-        <v>29411.39213873939</v>
+        <v>55538.54061146478</v>
       </c>
       <c r="G59" t="n">
-        <v>55042.84108214378</v>
+        <v>72742.12001047206</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>13201256</v>
+        <v>13442995</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2425390</v>
+        <v>2416972</v>
       </c>
       <c r="E60" t="n">
-        <v>4476197</v>
+        <v>4460661</v>
       </c>
       <c r="F60" t="n">
-        <v>4549.160949812564</v>
+        <v>357.2456643298381</v>
       </c>
       <c r="G60" t="n">
-        <v>484.1276247134772</v>
+        <v>460.6030898787463</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="I60" t="n">
-        <v>23395</v>
+        <v>23331</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9417766</v>
+        <v>9412665</v>
       </c>
       <c r="E62" t="n">
-        <v>27949033</v>
+        <v>27929551</v>
       </c>
       <c r="F62" t="n">
-        <v>3148.544057899922</v>
+        <v>4181.096439851783</v>
       </c>
       <c r="G62" t="n">
-        <v>4513.968011514098</v>
+        <v>7833.081119663122</v>
       </c>
       <c r="H62" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I62" t="n">
-        <v>6036461</v>
+        <v>6038376</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14723328</v>
+        <v>14707896</v>
       </c>
       <c r="E63" t="n">
-        <v>29806478</v>
+        <v>29775238</v>
       </c>
       <c r="F63" t="n">
-        <v>6919.354741420198</v>
+        <v>6989.440033424308</v>
       </c>
       <c r="G63" t="n">
-        <v>15714.03971561115</v>
+        <v>15639.11897185138</v>
       </c>
       <c r="H63" t="n">
         <v>0.27</v>
       </c>
       <c r="I63" t="n">
-        <v>466300</v>
+        <v>465891</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37877007</v>
+        <v>37751731</v>
       </c>
       <c r="E64" t="n">
-        <v>268541803</v>
+        <v>267653614</v>
       </c>
       <c r="F64" t="n">
-        <v>83858.74426497091</v>
+        <v>72930.01863136183</v>
       </c>
       <c r="G64" t="n">
-        <v>64091.28958066618</v>
+        <v>58099.09159855165</v>
       </c>
       <c r="H64" t="n">
         <v>0.04</v>
       </c>
       <c r="I64" t="n">
-        <v>1510072</v>
+        <v>1500591</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1263077</v>
+        <v>1261600</v>
       </c>
       <c r="E65" t="n">
-        <v>7832960</v>
+        <v>7823090</v>
       </c>
       <c r="F65" t="n">
-        <v>2289.805047845321</v>
+        <v>2365.028212238203</v>
       </c>
       <c r="G65" t="n">
-        <v>2267.360161792594</v>
+        <v>2199.315462232487</v>
       </c>
       <c r="H65" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>731852</v>
+        <v>729891</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>600494220</v>
+        <v>602354484</v>
       </c>
       <c r="E66" t="n">
-        <v>2325625519</v>
+        <v>2332830045</v>
       </c>
       <c r="F66" t="n">
-        <v>53937.27742821506</v>
+        <v>60321.40183743193</v>
       </c>
       <c r="G66" t="n">
-        <v>88728.47361157225</v>
+        <v>86118.36611596319</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>33329025</v>
+        <v>33406530</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5881922</v>
+        <v>5882633</v>
       </c>
       <c r="E67" t="n">
-        <v>26334099</v>
+        <v>26337282</v>
       </c>
       <c r="F67" t="n">
-        <v>4852.721697760779</v>
+        <v>2068.914127405286</v>
       </c>
       <c r="G67" t="n">
-        <v>4617.081785968446</v>
+        <v>1882.572911608116</v>
       </c>
       <c r="H67" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>144178</v>
+        <v>144469</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>118942116</v>
+        <v>118969492</v>
       </c>
       <c r="E68" t="n">
-        <v>1034128597</v>
+        <v>1034366612</v>
       </c>
       <c r="F68" t="n">
-        <v>162773.994275375</v>
+        <v>161433.1530987771</v>
       </c>
       <c r="G68" t="n">
-        <v>160362.64155884</v>
+        <v>162051.5965278617</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I68" t="n">
-        <v>8879171</v>
+        <v>8882378</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>101876658</v>
+        <v>101830973</v>
       </c>
       <c r="E69" t="n">
-        <v>155415230</v>
+        <v>155345537</v>
       </c>
       <c r="F69" t="n">
-        <v>60319.18883203825</v>
+        <v>56971.00256035655</v>
       </c>
       <c r="G69" t="n">
-        <v>83243.06828411763</v>
+        <v>82043.65850872999</v>
       </c>
       <c r="H69" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I69" t="n">
-        <v>7679520</v>
+        <v>7686354</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1121039</v>
+        <v>1117571</v>
       </c>
       <c r="E70" t="n">
-        <v>4340907</v>
+        <v>4327480</v>
       </c>
       <c r="F70" t="n">
-        <v>2662.374163390733</v>
+        <v>2663.151668946839</v>
       </c>
       <c r="G70" t="n">
-        <v>4826.877468665893</v>
+        <v>4682.8162502822</v>
       </c>
       <c r="H70" t="n">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="I70" t="n">
-        <v>429673</v>
+        <v>429609</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>114524686</v>
+        <v>116231337</v>
       </c>
       <c r="E71" t="n">
-        <v>439335130</v>
+        <v>445882118</v>
       </c>
       <c r="F71" t="n">
-        <v>153219.8028834416</v>
+        <v>146588.2263725618</v>
       </c>
       <c r="G71" t="n">
-        <v>156966.0125114947</v>
+        <v>162020.3683296159</v>
       </c>
       <c r="H71" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I71" t="n">
-        <v>22989673</v>
+        <v>22937394</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3198222</v>
+        <v>3200816</v>
       </c>
       <c r="E72" t="n">
-        <v>30303627</v>
+        <v>30328201</v>
       </c>
       <c r="F72" t="n">
-        <v>4428.261204421387</v>
+        <v>4464.293732559223</v>
       </c>
       <c r="G72" t="n">
-        <v>4309.622510647946</v>
+        <v>4306.310094787435</v>
       </c>
       <c r="H72" t="n">
         <v>0.03</v>
       </c>
       <c r="I72" t="n">
-        <v>257429</v>
+        <v>234697</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31970427</v>
+        <v>31822910</v>
       </c>
       <c r="F73" t="n">
-        <v>3409.670530699026</v>
+        <v>4892.555571088677</v>
       </c>
       <c r="G73" t="n">
-        <v>5166.691403997417</v>
+        <v>4837.420440382506</v>
       </c>
       <c r="H73" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>5372461</v>
+        <v>5501648</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87018234</v>
+        <v>87035925</v>
       </c>
       <c r="E74" t="n">
-        <v>321679837</v>
+        <v>321744493</v>
       </c>
       <c r="F74" t="n">
-        <v>11025.20997123692</v>
+        <v>10996.57853508935</v>
       </c>
       <c r="G74" t="n">
-        <v>733.5656646701838</v>
+        <v>764.8072475704174</v>
       </c>
       <c r="H74" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I74" t="n">
-        <v>348782</v>
+        <v>346929</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22887653</v>
+        <v>22889022</v>
       </c>
       <c r="E75" t="n">
-        <v>22887653</v>
+        <v>22889022</v>
       </c>
       <c r="F75" t="n">
-        <v>24015.93395642894</v>
+        <v>30109.49020706483</v>
       </c>
       <c r="G75" t="n">
-        <v>24205.78150059024</v>
+        <v>21766.60649817212</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I75" t="n">
-        <v>6428480</v>
+        <v>6444497</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>491708959</v>
+        <v>492897607</v>
       </c>
       <c r="E76" t="n">
-        <v>1712466322</v>
+        <v>1716606007</v>
       </c>
       <c r="F76" t="n">
-        <v>133642.4469947244</v>
+        <v>134388.4187040908</v>
       </c>
       <c r="G76" t="n">
-        <v>153819.8316734422</v>
+        <v>162759.8463457911</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>30954620</v>
+        <v>31145611</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5580032661</v>
+        <v>5567731228</v>
       </c>
       <c r="E77" t="n">
-        <v>5580032661</v>
+        <v>5572623577</v>
       </c>
       <c r="F77" t="n">
-        <v>4602.465330752664</v>
+        <v>5712.307167562133</v>
       </c>
       <c r="G77" t="n">
-        <v>92492.55095031913</v>
+        <v>92307.74807451041</v>
       </c>
       <c r="H77" t="n">
         <v>0.17</v>
       </c>
       <c r="I77" t="n">
-        <v>27559954</v>
+        <v>27952600</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7709326</v>
+        <v>7636678</v>
       </c>
       <c r="E78" t="n">
-        <v>20028001</v>
+        <v>19839269</v>
       </c>
       <c r="F78" t="n">
-        <v>1155.447841251035</v>
+        <v>1126.790498347048</v>
       </c>
       <c r="G78" t="n">
-        <v>4906.472110526447</v>
+        <v>5896.703176676632</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I78" t="n">
-        <v>690361</v>
+        <v>691012</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>102882222</v>
+        <v>102883413</v>
       </c>
       <c r="E79" t="n">
-        <v>155878454</v>
+        <v>155880257</v>
       </c>
       <c r="F79" t="n">
-        <v>38175.83246271291</v>
+        <v>37852.64101663475</v>
       </c>
       <c r="G79" t="n">
-        <v>22522.42969706057</v>
+        <v>28387.9525432042</v>
       </c>
       <c r="H79" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="I79" t="n">
-        <v>7636114</v>
+        <v>7665238</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2641271</v>
+        <v>2640200</v>
       </c>
       <c r="E80" t="n">
-        <v>10565084</v>
+        <v>10560798</v>
       </c>
       <c r="F80" t="n">
-        <v>6208.488963348719</v>
+        <v>10756.00368891835</v>
       </c>
       <c r="G80" t="n">
-        <v>68441.39573884015</v>
+        <v>63333.47388660147</v>
       </c>
       <c r="H80" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="I80" t="n">
-        <v>5816098</v>
+        <v>5850972</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2509624</v>
+        <v>2510672</v>
       </c>
       <c r="F81" t="n">
-        <v>120.8661482260407</v>
+        <v>91.9229663957835</v>
       </c>
       <c r="G81" t="n">
-        <v>581.2186966940102</v>
+        <v>436.1032640929704</v>
       </c>
       <c r="H81" t="n">
-        <v>0.64</v>
+        <v>0.36</v>
       </c>
       <c r="I81" t="n">
-        <v>306108</v>
+        <v>311798</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>400237568</v>
+        <v>401055590</v>
       </c>
       <c r="E82" t="n">
-        <v>2287071816</v>
+        <v>2291746226</v>
       </c>
       <c r="F82" t="n">
-        <v>173235.302901612</v>
+        <v>168207.1435227313</v>
       </c>
       <c r="G82" t="n">
-        <v>108487.1738392657</v>
+        <v>104989.7093650629</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>37041330</v>
+        <v>36962346</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3912313</v>
+        <v>3915412</v>
       </c>
       <c r="F2" t="n">
-        <v>870.5885256050619</v>
+        <v>676.9715354435692</v>
       </c>
       <c r="G2" t="n">
-        <v>877.6680965599164</v>
+        <v>765.5037411891536</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="I2" t="n">
-        <v>113693</v>
+        <v>117912</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1319354</v>
+        <v>1320208</v>
       </c>
       <c r="E3" t="n">
-        <v>4264693</v>
+        <v>4267454</v>
       </c>
       <c r="F3" t="n">
-        <v>5648.76679161524</v>
+        <v>5503.172575883264</v>
       </c>
       <c r="G3" t="n">
-        <v>12503.15778213468</v>
+        <v>12139.39228880934</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I3" t="n">
-        <v>99735</v>
+        <v>100659</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245644132</v>
+        <v>246157476</v>
       </c>
       <c r="E4" t="n">
-        <v>1540399826</v>
+        <v>1543618933</v>
       </c>
       <c r="F4" t="n">
-        <v>190932.8052813125</v>
+        <v>183079.7632433541</v>
       </c>
       <c r="G4" t="n">
-        <v>248813.6106564571</v>
+        <v>241040.4092266212</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15581844</v>
+        <v>15677652</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139954361</v>
+        <v>140095170</v>
       </c>
       <c r="E5" t="n">
-        <v>155091304</v>
+        <v>155247342</v>
       </c>
       <c r="F5" t="n">
-        <v>88849.15838651819</v>
+        <v>67433.27123479372</v>
       </c>
       <c r="G5" t="n">
-        <v>104201.6209438872</v>
+        <v>102759.091510397</v>
       </c>
       <c r="H5" t="n">
         <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>34381616</v>
+        <v>34541563</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>125586241</v>
+        <v>125790881</v>
       </c>
       <c r="E6" t="n">
-        <v>492260463</v>
+        <v>493062588</v>
       </c>
       <c r="F6" t="n">
-        <v>17464.71568615852</v>
+        <v>13267.21616381603</v>
       </c>
       <c r="G6" t="n">
-        <v>44608.12075330887</v>
+        <v>32686.7960516883</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>30836082</v>
+        <v>31056350</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4690865</v>
+        <v>4670193</v>
       </c>
       <c r="E7" t="n">
-        <v>28812896</v>
+        <v>28685922</v>
       </c>
       <c r="F7" t="n">
-        <v>1905.793824853882</v>
+        <v>611.6279211514188</v>
       </c>
       <c r="G7" t="n">
-        <v>1833.313155134968</v>
+        <v>2261.155775185362</v>
       </c>
       <c r="H7" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="I7" t="n">
-        <v>491292</v>
+        <v>516181</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197868</v>
+        <v>198022</v>
       </c>
       <c r="E8" t="n">
-        <v>2176769</v>
+        <v>2178459</v>
       </c>
       <c r="F8" t="n">
-        <v>3952.337350792636</v>
+        <v>3588.713107570196</v>
       </c>
       <c r="G8" t="n">
-        <v>5250.436209362231</v>
+        <v>4975.483197598056</v>
       </c>
       <c r="H8" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="I8" t="n">
-        <v>34553</v>
+        <v>31535</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71523996</v>
+        <v>71328953</v>
       </c>
       <c r="E9" t="n">
-        <v>123891915</v>
+        <v>123551113</v>
       </c>
       <c r="F9" t="n">
-        <v>12395.13226639202</v>
+        <v>10982.13520846629</v>
       </c>
       <c r="G9" t="n">
-        <v>4369.713404484786</v>
+        <v>9396.447473340735</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>760775</v>
+        <v>758621</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8814703</v>
+        <v>8818841</v>
       </c>
       <c r="E10" t="n">
-        <v>12476558</v>
+        <v>12482415</v>
       </c>
       <c r="F10" t="n">
-        <v>3267.371698051842</v>
+        <v>4278.69198911531</v>
       </c>
       <c r="G10" t="n">
-        <v>4281.911579446837</v>
+        <v>4357.445310226404</v>
       </c>
       <c r="H10" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>47168</v>
+        <v>39733</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>471974051</v>
+        <v>474585403</v>
       </c>
       <c r="E11" t="n">
-        <v>471974051</v>
+        <v>474585401</v>
       </c>
       <c r="F11" t="n">
-        <v>45377.09737246467</v>
+        <v>45214.61313726017</v>
       </c>
       <c r="G11" t="n">
-        <v>63162.79413445688</v>
+        <v>57743.56805618596</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>79020817</v>
+        <v>66636579</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>324272</v>
+        <v>327911</v>
       </c>
       <c r="E12" t="n">
-        <v>1513736</v>
+        <v>1530724</v>
       </c>
       <c r="F12" t="n">
-        <v>495.8456516953939</v>
+        <v>350.2111616659387</v>
       </c>
       <c r="G12" t="n">
-        <v>2103.21011770418</v>
+        <v>1578.91211679647</v>
       </c>
       <c r="H12" t="n">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="I12" t="n">
-        <v>645630</v>
+        <v>658304</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1595852</v>
+        <v>1596402</v>
       </c>
       <c r="F13" t="n">
-        <v>4717.246965834177</v>
+        <v>4397.322543857445</v>
       </c>
       <c r="G13" t="n">
-        <v>1153.06675833742</v>
+        <v>1109.242014284828</v>
       </c>
       <c r="H13" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="I13" t="n">
-        <v>240745</v>
+        <v>246426</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12860611</v>
+        <v>12847148</v>
       </c>
       <c r="E14" t="n">
-        <v>32007735</v>
+        <v>31974229</v>
       </c>
       <c r="F14" t="n">
-        <v>1104.079344933601</v>
+        <v>1719.292224118204</v>
       </c>
       <c r="G14" t="n">
-        <v>1757.436631768267</v>
+        <v>1130.814207300205</v>
       </c>
       <c r="H14" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="I14" t="n">
-        <v>1596675</v>
+        <v>1595264</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>109578770</v>
+        <v>109227163</v>
       </c>
       <c r="E15" t="n">
-        <v>426541894</v>
+        <v>425148671</v>
       </c>
       <c r="F15" t="n">
-        <v>48103.46347209237</v>
+        <v>30350.53433253854</v>
       </c>
       <c r="G15" t="n">
-        <v>91245.26155567366</v>
+        <v>89304.27466359681</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>8006134</v>
+        <v>7895768</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5383604</v>
+        <v>5381797</v>
       </c>
       <c r="E16" t="n">
-        <v>7924956</v>
+        <v>7922297</v>
       </c>
       <c r="F16" t="n">
-        <v>3633.631387139739</v>
+        <v>3497.676172198941</v>
       </c>
       <c r="G16" t="n">
-        <v>4010.196967687014</v>
+        <v>2061.523344416612</v>
       </c>
       <c r="H16" t="n">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="I16" t="n">
-        <v>628502</v>
+        <v>677143</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1980533</v>
+        <v>1964026</v>
       </c>
       <c r="F17" t="n">
-        <v>2010.196656084887</v>
+        <v>414.3294314876213</v>
       </c>
       <c r="G17" t="n">
-        <v>1459.350141652437</v>
+        <v>434.7233667275171</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="I17" t="n">
-        <v>197380</v>
+        <v>196460</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>136864091</v>
+        <v>136350976</v>
       </c>
       <c r="E18" t="n">
-        <v>136864091</v>
+        <v>136350976</v>
       </c>
       <c r="F18" t="n">
-        <v>125776.3651576766</v>
+        <v>97940.33914643829</v>
       </c>
       <c r="G18" t="n">
-        <v>129152.2328107874</v>
+        <v>125480.7567698259</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>66733766</v>
+        <v>66426396</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65248334</v>
+        <v>65374757</v>
       </c>
       <c r="E19" t="n">
-        <v>334606842</v>
+        <v>335255164</v>
       </c>
       <c r="F19" t="n">
-        <v>17805.82953833289</v>
+        <v>14323.8940356605</v>
       </c>
       <c r="G19" t="n">
-        <v>20917.34108977103</v>
+        <v>23879.74891445524</v>
       </c>
       <c r="H19" t="n">
         <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>19407748</v>
+        <v>19609135</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>253917060</v>
+        <v>253911109</v>
       </c>
       <c r="E20" t="n">
-        <v>253917060</v>
+        <v>253911109</v>
       </c>
       <c r="F20" t="n">
-        <v>61487.89190107614</v>
+        <v>46232.44179017816</v>
       </c>
       <c r="G20" t="n">
-        <v>100488.0773264752</v>
+        <v>86700.35342801984</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>15065684</v>
+        <v>14965301</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>151512927</v>
+        <v>151895550</v>
       </c>
       <c r="E21" t="n">
-        <v>199373292</v>
+        <v>199876779</v>
       </c>
       <c r="F21" t="n">
-        <v>24809.96572367675</v>
+        <v>20101.29040687777</v>
       </c>
       <c r="G21" t="n">
-        <v>36616.57919844498</v>
+        <v>30054.8795667681</v>
       </c>
       <c r="H21" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I21" t="n">
-        <v>7982060</v>
+        <v>7950542</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>73718111</v>
+        <v>74328210</v>
       </c>
       <c r="E22" t="n">
-        <v>206362089</v>
+        <v>208062992</v>
       </c>
       <c r="F22" t="n">
-        <v>32373.95822671378</v>
+        <v>29115.70462378573</v>
       </c>
       <c r="G22" t="n">
-        <v>43395.12589384134</v>
+        <v>36059.44741839055</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>34138166</v>
+        <v>34652187</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73307726</v>
+        <v>73852666</v>
       </c>
       <c r="E23" t="n">
-        <v>152883835</v>
+        <v>154020313</v>
       </c>
       <c r="F23" t="n">
-        <v>17526.69581981663</v>
+        <v>8636.06790075384</v>
       </c>
       <c r="G23" t="n">
-        <v>39740.26020512194</v>
+        <v>38190.31877458635</v>
       </c>
       <c r="H23" t="n">
         <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>14500784</v>
+        <v>14426887</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>631612245</v>
+        <v>632830348</v>
       </c>
       <c r="E24" t="n">
-        <v>631612245</v>
+        <v>632830348</v>
       </c>
       <c r="F24" t="n">
-        <v>198500.1452223025</v>
+        <v>144258.0701105712</v>
       </c>
       <c r="G24" t="n">
-        <v>328309.4536954825</v>
+        <v>247821.7320615367</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>280689257</v>
+        <v>277416128</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>198045523</v>
+        <v>198730625</v>
       </c>
       <c r="E25" t="n">
-        <v>688028047</v>
+        <v>690408153</v>
       </c>
       <c r="F25" t="n">
-        <v>94379.69489030339</v>
+        <v>74892.91746241815</v>
       </c>
       <c r="G25" t="n">
-        <v>354355.003375481</v>
+        <v>352209.3392726983</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>25907454</v>
+        <v>26027762</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5798425</v>
+        <v>5795732</v>
       </c>
       <c r="E26" t="n">
-        <v>7878648</v>
+        <v>7874769</v>
       </c>
       <c r="F26" t="n">
-        <v>1108.444492041904</v>
+        <v>1029.626145356577</v>
       </c>
       <c r="G26" t="n">
-        <v>1909.980946947205</v>
+        <v>1962.813089553498</v>
       </c>
       <c r="H26" t="n">
         <v>0.47</v>
       </c>
       <c r="I26" t="n">
-        <v>5972513</v>
+        <v>6097671</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14446839</v>
+        <v>14469499</v>
       </c>
       <c r="F27" t="n">
-        <v>2324.711228867519</v>
+        <v>2527.27338831147</v>
       </c>
       <c r="G27" t="n">
-        <v>2783.068936956766</v>
+        <v>2082.417648217611</v>
       </c>
       <c r="H27" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="I27" t="n">
-        <v>393504</v>
+        <v>377993</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25035680</v>
+        <v>25115792</v>
       </c>
       <c r="E28" t="n">
-        <v>35386955</v>
+        <v>35500191</v>
       </c>
       <c r="F28" t="n">
-        <v>105.1291423758877</v>
+        <v>220.1291105553271</v>
       </c>
       <c r="G28" t="n">
-        <v>9286.251613164302</v>
+        <v>5892.286211280904</v>
       </c>
       <c r="H28" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>68331</v>
+        <v>66778</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>266806946</v>
+        <v>265958742</v>
       </c>
       <c r="E29" t="n">
-        <v>1151686895</v>
+        <v>1148025575</v>
       </c>
       <c r="F29" t="n">
-        <v>345375.3465759297</v>
+        <v>242284.0181018505</v>
       </c>
       <c r="G29" t="n">
-        <v>338610.2818863153</v>
+        <v>328470.2301760475</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>109775472</v>
+        <v>108433994</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11033490</v>
+        <v>10781409</v>
       </c>
       <c r="E30" t="n">
-        <v>133235230</v>
+        <v>130156640</v>
       </c>
       <c r="F30" t="n">
-        <v>3081.304591150787</v>
+        <v>3776.367248312898</v>
       </c>
       <c r="G30" t="n">
-        <v>2138.34863333636</v>
+        <v>5139.354506077001</v>
       </c>
       <c r="H30" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>237208</v>
+        <v>225535</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21014317</v>
+        <v>20770419</v>
       </c>
       <c r="E31" t="n">
-        <v>52535793</v>
+        <v>51926048</v>
       </c>
       <c r="F31" t="n">
-        <v>11911.12479241337</v>
+        <v>10525.2915546406</v>
       </c>
       <c r="G31" t="n">
-        <v>9187.387104083702</v>
+        <v>9830.454184891254</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2102948</v>
+        <v>2118281</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19921025</v>
+        <v>19867024</v>
       </c>
       <c r="F32" t="n">
-        <v>2363.616258822829</v>
+        <v>2550.859934734619</v>
       </c>
       <c r="G32" t="n">
-        <v>2021.548315998043</v>
+        <v>1971.672247874886</v>
       </c>
       <c r="H32" t="n">
         <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>75302</v>
+        <v>89493</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1356095</v>
+        <v>1352997</v>
       </c>
       <c r="E33" t="n">
-        <v>5055961</v>
+        <v>5044413</v>
       </c>
       <c r="F33" t="n">
-        <v>1168.315612633884</v>
+        <v>1949.365632721093</v>
       </c>
       <c r="G33" t="n">
-        <v>1953.036256265187</v>
+        <v>2360.430236614939</v>
       </c>
       <c r="H33" t="n">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="I33" t="n">
-        <v>577064</v>
+        <v>561039</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4228064</v>
+        <v>4207944</v>
       </c>
       <c r="E34" t="n">
-        <v>12178176</v>
+        <v>12120916</v>
       </c>
       <c r="F34" t="n">
-        <v>1815.776658684503</v>
+        <v>3305.336042006207</v>
       </c>
       <c r="G34" t="n">
-        <v>1786.085229002983</v>
+        <v>3562.016677559604</v>
       </c>
       <c r="H34" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="I34" t="n">
-        <v>599067</v>
+        <v>598169</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13877011</v>
+        <v>13901521</v>
       </c>
       <c r="E35" t="n">
-        <v>67208579</v>
+        <v>67327283</v>
       </c>
       <c r="F35" t="n">
-        <v>6119.449018072653</v>
+        <v>8725.404270248899</v>
       </c>
       <c r="G35" t="n">
-        <v>14846.79061528071</v>
+        <v>9185.425300831592</v>
       </c>
       <c r="H35" t="n">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>3607226</v>
+        <v>3591555</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1510530</v>
+        <v>1506005</v>
       </c>
       <c r="E36" t="n">
-        <v>9886379</v>
+        <v>9856763</v>
       </c>
       <c r="F36" t="n">
-        <v>3378.191840492197</v>
+        <v>3742.814959914826</v>
       </c>
       <c r="G36" t="n">
-        <v>3268.465885266417</v>
+        <v>3028.849627242673</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I36" t="n">
-        <v>533400</v>
+        <v>533529</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1904305983</v>
+        <v>1921186747</v>
       </c>
       <c r="F37" t="n">
-        <v>75392.16910975518</v>
+        <v>43911.23326666166</v>
       </c>
       <c r="G37" t="n">
-        <v>77177.6564105635</v>
+        <v>76182.94445577785</v>
       </c>
       <c r="H37" t="n">
-        <v>0.78</v>
+        <v>0.05</v>
       </c>
       <c r="I37" t="n">
-        <v>26585128</v>
+        <v>26585604</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2047785</v>
+        <v>2038189</v>
       </c>
       <c r="E38" t="n">
-        <v>14684462</v>
+        <v>14615648</v>
       </c>
       <c r="F38" t="n">
-        <v>4431.680384609604</v>
+        <v>4394.898998181945</v>
       </c>
       <c r="G38" t="n">
-        <v>5411.367897534529</v>
+        <v>5405.217851778386</v>
       </c>
       <c r="H38" t="n">
         <v>0.6</v>
       </c>
       <c r="I38" t="n">
-        <v>1926476</v>
+        <v>1929565</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>201184921</v>
+        <v>201628482</v>
       </c>
       <c r="E39" t="n">
-        <v>1139232641</v>
+        <v>1141744355</v>
       </c>
       <c r="F39" t="n">
-        <v>148905.4296333118</v>
+        <v>165624.2332027647</v>
       </c>
       <c r="G39" t="n">
-        <v>177055.1848310084</v>
+        <v>150102.7254343674</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I39" t="n">
-        <v>64978129</v>
+        <v>64892477</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>138098484</v>
+        <v>138296432</v>
       </c>
       <c r="E40" t="n">
-        <v>1022951730</v>
+        <v>1024418016</v>
       </c>
       <c r="F40" t="n">
-        <v>193615.495942684</v>
+        <v>199147.0431743111</v>
       </c>
       <c r="G40" t="n">
-        <v>194550.1907736392</v>
+        <v>214798.0841855216</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>10629680</v>
+        <v>10471565</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>337291570</v>
+        <v>337607513</v>
       </c>
       <c r="E41" t="n">
-        <v>3034484114</v>
+        <v>3037326530</v>
       </c>
       <c r="F41" t="n">
-        <v>230652.3390099284</v>
+        <v>221601.5021492557</v>
       </c>
       <c r="G41" t="n">
-        <v>267977.848373525</v>
+        <v>233564.763932207</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>37693684</v>
+        <v>37100457</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1590297</v>
+        <v>1588510</v>
       </c>
       <c r="E42" t="n">
-        <v>13252471</v>
+        <v>13237587</v>
       </c>
       <c r="F42" t="n">
-        <v>2986.997221433488</v>
+        <v>2927.574838177215</v>
       </c>
       <c r="G42" t="n">
-        <v>3943.731370615689</v>
+        <v>5226.042363755699</v>
       </c>
       <c r="H42" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="I42" t="n">
-        <v>42459</v>
+        <v>42325</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23605537</v>
+        <v>23614373</v>
       </c>
       <c r="E43" t="n">
-        <v>70758546</v>
+        <v>70785030</v>
       </c>
       <c r="F43" t="n">
-        <v>62826.80939256386</v>
+        <v>54878.60006776431</v>
       </c>
       <c r="G43" t="n">
-        <v>60001.23673086352</v>
+        <v>61638.36941906537</v>
       </c>
       <c r="H43" t="n">
         <v>0.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2929138</v>
+        <v>2948650</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9471896</v>
+        <v>9490870</v>
       </c>
       <c r="F44" t="n">
-        <v>6135.231860756974</v>
+        <v>6153.192447310826</v>
       </c>
       <c r="G44" t="n">
-        <v>5828.12643604839</v>
+        <v>5830.898615935767</v>
       </c>
       <c r="H44" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="I44" t="n">
-        <v>121722</v>
+        <v>121450</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13014160</v>
+        <v>12923930</v>
       </c>
       <c r="E45" t="n">
-        <v>13014160</v>
+        <v>12923930</v>
       </c>
       <c r="F45" t="n">
-        <v>1660.562234551791</v>
+        <v>1677.225105065287</v>
       </c>
       <c r="G45" t="n">
-        <v>790.589518810826</v>
+        <v>876.0781474167237</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="I45" t="n">
-        <v>3477549</v>
+        <v>3623260</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>294471569</v>
+        <v>302395712</v>
       </c>
       <c r="E46" t="n">
-        <v>294471569</v>
+        <v>302395712</v>
       </c>
       <c r="F46" t="n">
-        <v>28020.81815397907</v>
+        <v>18426.80665505574</v>
       </c>
       <c r="G46" t="n">
-        <v>54261.47113495393</v>
+        <v>41365.39518890137</v>
       </c>
       <c r="H46" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I46" t="n">
-        <v>12711986</v>
+        <v>12749270</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12847753</v>
+        <v>12818109</v>
       </c>
       <c r="E47" t="n">
-        <v>40646118</v>
+        <v>40552333</v>
       </c>
       <c r="F47" t="n">
-        <v>16479.25637985073</v>
+        <v>15530.51996130826</v>
       </c>
       <c r="G47" t="n">
-        <v>13161.64728322744</v>
+        <v>10684.88199623981</v>
       </c>
       <c r="H47" t="n">
         <v>0.1</v>
       </c>
       <c r="I47" t="n">
-        <v>1384855</v>
+        <v>1372408</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31379231</v>
+        <v>31946627</v>
       </c>
       <c r="E48" t="n">
-        <v>86917355</v>
+        <v>88488986</v>
       </c>
       <c r="F48" t="n">
-        <v>5293.236166286573</v>
+        <v>3647.348898522541</v>
       </c>
       <c r="G48" t="n">
-        <v>9775.106883817754</v>
+        <v>5531.737706467211</v>
       </c>
       <c r="H48" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="I48" t="n">
-        <v>11923247</v>
+        <v>11800024</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28847337</v>
+        <v>28770202</v>
       </c>
       <c r="E49" t="n">
-        <v>68534101</v>
+        <v>68350847</v>
       </c>
       <c r="F49" t="n">
-        <v>11324.57545360536</v>
+        <v>19242.58754642315</v>
       </c>
       <c r="G49" t="n">
-        <v>11022.62582738306</v>
+        <v>16947.88243349685</v>
       </c>
       <c r="H49" t="n">
         <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>488303</v>
+        <v>538267</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12554413</v>
+        <v>12599464</v>
       </c>
       <c r="E50" t="n">
-        <v>19133754</v>
+        <v>19202414</v>
       </c>
       <c r="F50" t="n">
-        <v>7192.232909622247</v>
+        <v>7047.146507287854</v>
       </c>
       <c r="G50" t="n">
-        <v>18180.08936609018</v>
+        <v>17018.45776848302</v>
       </c>
       <c r="H50" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="I50" t="n">
-        <v>700345</v>
+        <v>695501</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>306665973</v>
+        <v>308900366</v>
       </c>
       <c r="E51" t="n">
-        <v>306665973</v>
+        <v>308900366</v>
       </c>
       <c r="F51" t="n">
-        <v>64909.69447559972</v>
+        <v>57698.58058934847</v>
       </c>
       <c r="G51" t="n">
-        <v>119846.7025408619</v>
+        <v>79775.5762685589</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>50753329</v>
+        <v>50952808</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89963515</v>
+        <v>90598877</v>
       </c>
       <c r="E52" t="n">
-        <v>518408576</v>
+        <v>522069806</v>
       </c>
       <c r="F52" t="n">
-        <v>267571.0317858751</v>
+        <v>330330.6124256056</v>
       </c>
       <c r="G52" t="n">
-        <v>234937.5261649743</v>
+        <v>234387.3952123625</v>
       </c>
       <c r="H52" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>16359072</v>
+        <v>16391402</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30343122</v>
+        <v>30319648</v>
       </c>
       <c r="E53" t="n">
-        <v>135858603</v>
+        <v>135753501</v>
       </c>
       <c r="F53" t="n">
-        <v>31749.51282425315</v>
+        <v>33428.04989715609</v>
       </c>
       <c r="G53" t="n">
-        <v>47976.60851039018</v>
+        <v>35027.51614843564</v>
       </c>
       <c r="H53" t="n">
         <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>8702711</v>
+        <v>8629490</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8553950</v>
+        <v>8613996</v>
       </c>
       <c r="F54" t="n">
-        <v>84.8936252150547</v>
+        <v>153.8164086137651</v>
       </c>
       <c r="G54" t="n">
-        <v>489.5034898252376</v>
+        <v>290.9743918163104</v>
       </c>
       <c r="H54" t="n">
-        <v>0.35</v>
+        <v>2.05</v>
       </c>
       <c r="I54" t="n">
-        <v>297810</v>
+        <v>298440</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4800175</v>
+        <v>4805334</v>
       </c>
       <c r="F55" t="n">
-        <v>2226.47372377298</v>
+        <v>4758.872438412724</v>
       </c>
       <c r="G55" t="n">
-        <v>1588.09349614555</v>
+        <v>896.4651058351823</v>
       </c>
       <c r="H55" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I55" t="n">
-        <v>174415</v>
+        <v>176588</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125413803</v>
+        <v>125694163</v>
       </c>
       <c r="E56" t="n">
-        <v>2076955301</v>
+        <v>2081598288</v>
       </c>
       <c r="F56" t="n">
-        <v>195121.5951620838</v>
+        <v>183298.8709653049</v>
       </c>
       <c r="G56" t="n">
-        <v>193515.3152667379</v>
+        <v>177637.3193293456</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>5058837</v>
+        <v>4954362</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>77747041</v>
+        <v>78971105</v>
       </c>
       <c r="E57" t="n">
-        <v>78583935</v>
+        <v>79821175</v>
       </c>
       <c r="F57" t="n">
-        <v>53584.75597054105</v>
+        <v>60834.9134260975</v>
       </c>
       <c r="G57" t="n">
-        <v>51881.19122360658</v>
+        <v>55772.11449416631</v>
       </c>
       <c r="H57" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I57" t="n">
-        <v>9456801</v>
+        <v>10941407</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>234539705</v>
+        <v>239729310</v>
       </c>
       <c r="E58" t="n">
-        <v>234539705</v>
+        <v>239729310</v>
       </c>
       <c r="F58" t="n">
-        <v>114216.6979660798</v>
+        <v>103830.8672371871</v>
       </c>
       <c r="G58" t="n">
-        <v>101557.4847385279</v>
+        <v>89588.97018946105</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>42940436</v>
+        <v>42838072</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23691747</v>
+        <v>23668485</v>
       </c>
       <c r="E59" t="n">
-        <v>141752485</v>
+        <v>141613302</v>
       </c>
       <c r="F59" t="n">
-        <v>55538.54061146478</v>
+        <v>61099.99097833196</v>
       </c>
       <c r="G59" t="n">
-        <v>72742.12001047206</v>
+        <v>55559.44315681008</v>
       </c>
       <c r="H59" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I59" t="n">
-        <v>13442995</v>
+        <v>13342260</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2416972</v>
+        <v>2427849</v>
       </c>
       <c r="E60" t="n">
-        <v>4460661</v>
+        <v>4480733</v>
       </c>
       <c r="F60" t="n">
-        <v>357.2456643298381</v>
+        <v>4589.431922682975</v>
       </c>
       <c r="G60" t="n">
-        <v>460.6030898787463</v>
+        <v>439.5160671757005</v>
       </c>
       <c r="H60" t="n">
-        <v>0.68</v>
+        <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>23331</v>
+        <v>23351</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9412665</v>
+        <v>9530402</v>
       </c>
       <c r="E62" t="n">
-        <v>27929551</v>
+        <v>28278903</v>
       </c>
       <c r="F62" t="n">
-        <v>4181.096439851783</v>
+        <v>5872.116432061368</v>
       </c>
       <c r="G62" t="n">
-        <v>7833.081119663122</v>
+        <v>4806.864161900733</v>
       </c>
       <c r="H62" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>6038376</v>
+        <v>5726406</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14707896</v>
+        <v>14607821</v>
       </c>
       <c r="E63" t="n">
-        <v>29775238</v>
+        <v>29572642</v>
       </c>
       <c r="F63" t="n">
-        <v>6989.440033424308</v>
+        <v>6281.978382314709</v>
       </c>
       <c r="G63" t="n">
-        <v>15639.11897185138</v>
+        <v>16139.97272847942</v>
       </c>
       <c r="H63" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="I63" t="n">
-        <v>465891</v>
+        <v>466917</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37751731</v>
+        <v>37718981</v>
       </c>
       <c r="E64" t="n">
-        <v>267653614</v>
+        <v>267421422</v>
       </c>
       <c r="F64" t="n">
-        <v>72930.01863136183</v>
+        <v>78568.03638885537</v>
       </c>
       <c r="G64" t="n">
-        <v>58099.09159855165</v>
+        <v>64899.28675158951</v>
       </c>
       <c r="H64" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1500591</v>
+        <v>1492176</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1261600</v>
+        <v>1262056</v>
       </c>
       <c r="E65" t="n">
-        <v>7823090</v>
+        <v>7826634</v>
       </c>
       <c r="F65" t="n">
-        <v>2365.028212238203</v>
+        <v>2292.747493551062</v>
       </c>
       <c r="G65" t="n">
-        <v>2199.315462232487</v>
+        <v>2282.93286474822</v>
       </c>
       <c r="H65" t="n">
         <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>729891</v>
+        <v>715653</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>602354484</v>
+        <v>602744561</v>
       </c>
       <c r="E66" t="n">
-        <v>2332830045</v>
+        <v>2334340758</v>
       </c>
       <c r="F66" t="n">
-        <v>60321.40183743193</v>
+        <v>46230.84187405843</v>
       </c>
       <c r="G66" t="n">
-        <v>86118.36611596319</v>
+        <v>88288.80944680057</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>33406530</v>
+        <v>33411745</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5882633</v>
+        <v>5884646</v>
       </c>
       <c r="E67" t="n">
-        <v>26337282</v>
+        <v>26346296</v>
       </c>
       <c r="F67" t="n">
-        <v>2068.914127405286</v>
+        <v>4883.990400189698</v>
       </c>
       <c r="G67" t="n">
-        <v>1882.572911608116</v>
+        <v>4475.565056390867</v>
       </c>
       <c r="H67" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="I67" t="n">
-        <v>144469</v>
+        <v>145206</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>118969492</v>
+        <v>119317067</v>
       </c>
       <c r="E68" t="n">
-        <v>1034366612</v>
+        <v>1037388563</v>
       </c>
       <c r="F68" t="n">
-        <v>161433.1530987771</v>
+        <v>155363.6828422855</v>
       </c>
       <c r="G68" t="n">
-        <v>162051.5965278617</v>
+        <v>154395.0096159932</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I68" t="n">
-        <v>8882378</v>
+        <v>8928341</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>101830973</v>
+        <v>103729310</v>
       </c>
       <c r="E69" t="n">
-        <v>155345537</v>
+        <v>158241494</v>
       </c>
       <c r="F69" t="n">
-        <v>56971.00256035655</v>
+        <v>57330.87938955241</v>
       </c>
       <c r="G69" t="n">
-        <v>82043.65850872999</v>
+        <v>77442.03169157283</v>
       </c>
       <c r="H69" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I69" t="n">
-        <v>7686354</v>
+        <v>7776115</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1117571</v>
+        <v>1113533</v>
       </c>
       <c r="E70" t="n">
-        <v>4327480</v>
+        <v>4311842</v>
       </c>
       <c r="F70" t="n">
-        <v>2663.151668946839</v>
+        <v>3695.730827341364</v>
       </c>
       <c r="G70" t="n">
-        <v>4682.8162502822</v>
+        <v>3911.699677408461</v>
       </c>
       <c r="H70" t="n">
-        <v>0.46</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>429609</v>
+        <v>438362</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>116231337</v>
+        <v>121629212</v>
       </c>
       <c r="E71" t="n">
-        <v>445882118</v>
+        <v>466589235</v>
       </c>
       <c r="F71" t="n">
-        <v>146588.2263725618</v>
+        <v>144888.1085385559</v>
       </c>
       <c r="G71" t="n">
-        <v>162020.3683296159</v>
+        <v>150801.6185582315</v>
       </c>
       <c r="H71" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I71" t="n">
-        <v>22937394</v>
+        <v>23729021</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3200816</v>
+        <v>3212739</v>
       </c>
       <c r="E72" t="n">
-        <v>30328201</v>
+        <v>30441178</v>
       </c>
       <c r="F72" t="n">
-        <v>4464.293732559223</v>
+        <v>3945.53491552615</v>
       </c>
       <c r="G72" t="n">
-        <v>4306.310094787435</v>
+        <v>4385.529485905571</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="I72" t="n">
-        <v>234697</v>
+        <v>236800</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31822910</v>
+        <v>32715329</v>
       </c>
       <c r="F73" t="n">
-        <v>4892.555571088677</v>
+        <v>2371.860675891043</v>
       </c>
       <c r="G73" t="n">
-        <v>4837.420440382506</v>
+        <v>5448.443737420223</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>5501648</v>
+        <v>5610938</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87035925</v>
+        <v>87094736</v>
       </c>
       <c r="E74" t="n">
-        <v>321744493</v>
+        <v>321961567</v>
       </c>
       <c r="F74" t="n">
-        <v>10996.57853508935</v>
+        <v>11528.66644284763</v>
       </c>
       <c r="G74" t="n">
-        <v>764.8072475704174</v>
+        <v>969.4598741622503</v>
       </c>
       <c r="H74" t="n">
         <v>0.05</v>
       </c>
       <c r="I74" t="n">
-        <v>346929</v>
+        <v>339418</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22889022</v>
+        <v>23070156</v>
       </c>
       <c r="E75" t="n">
-        <v>22889022</v>
+        <v>23070156</v>
       </c>
       <c r="F75" t="n">
-        <v>30109.49020706483</v>
+        <v>20456.15722025781</v>
       </c>
       <c r="G75" t="n">
-        <v>21766.60649817212</v>
+        <v>29437.948365836</v>
       </c>
       <c r="H75" t="n">
         <v>0.13</v>
       </c>
       <c r="I75" t="n">
-        <v>6444497</v>
+        <v>6471694</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>492897607</v>
+        <v>493890418</v>
       </c>
       <c r="E76" t="n">
-        <v>1716606007</v>
+        <v>1720063653</v>
       </c>
       <c r="F76" t="n">
-        <v>134388.4187040908</v>
+        <v>126346.3614919979</v>
       </c>
       <c r="G76" t="n">
-        <v>162759.8463457911</v>
+        <v>145604.820148288</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I76" t="n">
-        <v>31145611</v>
+        <v>31426390</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5567731228</v>
+        <v>5551982455</v>
       </c>
       <c r="E77" t="n">
-        <v>5572623577</v>
+        <v>5551982455</v>
       </c>
       <c r="F77" t="n">
-        <v>5712.307167562133</v>
+        <v>10580.69467028963</v>
       </c>
       <c r="G77" t="n">
-        <v>92307.74807451041</v>
+        <v>91821.91751523469</v>
       </c>
       <c r="H77" t="n">
         <v>0.17</v>
       </c>
       <c r="I77" t="n">
-        <v>27952600</v>
+        <v>27414076</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7636678</v>
+        <v>7692595</v>
       </c>
       <c r="E78" t="n">
-        <v>19839269</v>
+        <v>19984535</v>
       </c>
       <c r="F78" t="n">
-        <v>1126.790498347048</v>
+        <v>1042.97688133009</v>
       </c>
       <c r="G78" t="n">
-        <v>5896.703176676632</v>
+        <v>4973.348208251716</v>
       </c>
       <c r="H78" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="I78" t="n">
-        <v>691012</v>
+        <v>695925</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>102883413</v>
+        <v>102633642</v>
       </c>
       <c r="E79" t="n">
-        <v>155880257</v>
+        <v>155501826</v>
       </c>
       <c r="F79" t="n">
-        <v>37852.64101663475</v>
+        <v>38306.68042638553</v>
       </c>
       <c r="G79" t="n">
-        <v>28387.9525432042</v>
+        <v>28550.60039315663</v>
       </c>
       <c r="H79" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="I79" t="n">
-        <v>7665238</v>
+        <v>7641024</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2640200</v>
+        <v>2632593</v>
       </c>
       <c r="E80" t="n">
-        <v>10560798</v>
+        <v>10530373</v>
       </c>
       <c r="F80" t="n">
-        <v>10756.00368891835</v>
+        <v>15740.22787232146</v>
       </c>
       <c r="G80" t="n">
-        <v>63333.47388660147</v>
+        <v>68304.0161164342</v>
       </c>
       <c r="H80" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="I80" t="n">
-        <v>5850972</v>
+        <v>1183849</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2510672</v>
+        <v>2597200</v>
       </c>
       <c r="F81" t="n">
-        <v>91.9229663957835</v>
+        <v>726.3720776881685</v>
       </c>
       <c r="G81" t="n">
-        <v>436.1032640929704</v>
+        <v>192.9740172814873</v>
       </c>
       <c r="H81" t="n">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>311798</v>
+        <v>311934</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>401055590</v>
+        <v>402352087</v>
       </c>
       <c r="E82" t="n">
-        <v>2291746226</v>
+        <v>2299154783</v>
       </c>
       <c r="F82" t="n">
-        <v>168207.1435227313</v>
+        <v>155148.24542709</v>
       </c>
       <c r="G82" t="n">
-        <v>104989.7093650629</v>
+        <v>151743.7131166372</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>36962346</v>
+        <v>37198547</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3915412</v>
+        <v>3955549</v>
       </c>
       <c r="F2" t="n">
-        <v>676.9715354435692</v>
+        <v>746.91060306524</v>
       </c>
       <c r="G2" t="n">
-        <v>765.5037411891536</v>
+        <v>689.0918814214368</v>
       </c>
       <c r="H2" t="n">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
       <c r="I2" t="n">
-        <v>117912</v>
+        <v>112555</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1320208</v>
+        <v>1318590</v>
       </c>
       <c r="E3" t="n">
-        <v>4267454</v>
+        <v>4262225</v>
       </c>
       <c r="F3" t="n">
-        <v>5503.172575883264</v>
+        <v>6227.951309518797</v>
       </c>
       <c r="G3" t="n">
-        <v>12139.39228880934</v>
+        <v>11939.55324823569</v>
       </c>
       <c r="H3" t="n">
         <v>0.02</v>
       </c>
       <c r="I3" t="n">
-        <v>100659</v>
+        <v>100854</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246157476</v>
+        <v>247257851</v>
       </c>
       <c r="E4" t="n">
-        <v>1543618933</v>
+        <v>1550519228</v>
       </c>
       <c r="F4" t="n">
-        <v>183079.7632433541</v>
+        <v>270927.8964014722</v>
       </c>
       <c r="G4" t="n">
-        <v>241040.4092266212</v>
+        <v>248253.3180558261</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>15677652</v>
+        <v>15989520</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140095170</v>
+        <v>141514185</v>
       </c>
       <c r="E5" t="n">
-        <v>155247342</v>
+        <v>156819832</v>
       </c>
       <c r="F5" t="n">
-        <v>67433.27123479372</v>
+        <v>87456.41721876309</v>
       </c>
       <c r="G5" t="n">
-        <v>102759.091510397</v>
+        <v>110231.7902042461</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>34541563</v>
+        <v>34476558</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>125790881</v>
+        <v>126496028</v>
       </c>
       <c r="E6" t="n">
-        <v>493062588</v>
+        <v>495826555</v>
       </c>
       <c r="F6" t="n">
-        <v>13267.21616381603</v>
+        <v>23809.83955320209</v>
       </c>
       <c r="G6" t="n">
-        <v>32686.7960516883</v>
+        <v>46495.05891853686</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>31056350</v>
+        <v>31056686</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4670193</v>
+        <v>4654386</v>
       </c>
       <c r="E7" t="n">
-        <v>28685922</v>
+        <v>28588787</v>
       </c>
       <c r="F7" t="n">
-        <v>611.6279211514188</v>
+        <v>2993.105567513794</v>
       </c>
       <c r="G7" t="n">
-        <v>2261.155775185362</v>
+        <v>1985.893349877472</v>
       </c>
       <c r="H7" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I7" t="n">
-        <v>516181</v>
+        <v>532956</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198022</v>
+        <v>197732</v>
       </c>
       <c r="E8" t="n">
-        <v>2178459</v>
+        <v>2175267</v>
       </c>
       <c r="F8" t="n">
-        <v>3588.713107570196</v>
+        <v>3848.070929746846</v>
       </c>
       <c r="G8" t="n">
-        <v>4975.483197598056</v>
+        <v>5216.541977726148</v>
       </c>
       <c r="H8" t="n">
         <v>0.28</v>
       </c>
       <c r="I8" t="n">
-        <v>31535</v>
+        <v>29722</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71328953</v>
+        <v>70981207</v>
       </c>
       <c r="E9" t="n">
-        <v>123551113</v>
+        <v>122945831</v>
       </c>
       <c r="F9" t="n">
-        <v>10982.13520846629</v>
+        <v>10266.47058805516</v>
       </c>
       <c r="G9" t="n">
-        <v>9396.447473340735</v>
+        <v>5086.97001692826</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="I9" t="n">
-        <v>758621</v>
+        <v>772960</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8818841</v>
+        <v>9006378</v>
       </c>
       <c r="E10" t="n">
-        <v>12482415</v>
+        <v>12747859</v>
       </c>
       <c r="F10" t="n">
-        <v>4278.69198911531</v>
+        <v>3182.136650066962</v>
       </c>
       <c r="G10" t="n">
-        <v>4357.445310226404</v>
+        <v>4265.613442441981</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I10" t="n">
-        <v>39733</v>
+        <v>62439</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>474585403</v>
+        <v>478894716</v>
       </c>
       <c r="E11" t="n">
-        <v>474585401</v>
+        <v>478894716</v>
       </c>
       <c r="F11" t="n">
-        <v>45214.61313726017</v>
+        <v>52773.8351116132</v>
       </c>
       <c r="G11" t="n">
-        <v>57743.56805618596</v>
+        <v>79855.05604789931</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>66636579</v>
+        <v>67259154</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>327911</v>
+        <v>332492</v>
       </c>
       <c r="E12" t="n">
-        <v>1530724</v>
+        <v>1552108</v>
       </c>
       <c r="F12" t="n">
-        <v>350.2111616659387</v>
+        <v>16.66458478848764</v>
       </c>
       <c r="G12" t="n">
-        <v>1578.91211679647</v>
+        <v>1552.756265720919</v>
       </c>
       <c r="H12" t="n">
-        <v>0.59</v>
+        <v>0.12</v>
       </c>
       <c r="I12" t="n">
-        <v>658304</v>
+        <v>684822</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1596402</v>
+        <v>1598492</v>
       </c>
       <c r="F13" t="n">
-        <v>4397.322543857445</v>
+        <v>4437.149023503657</v>
       </c>
       <c r="G13" t="n">
-        <v>1109.242014284828</v>
+        <v>1082.281523326036</v>
       </c>
       <c r="H13" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>246426</v>
+        <v>246886</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12847148</v>
+        <v>12786895</v>
       </c>
       <c r="E14" t="n">
-        <v>31974229</v>
+        <v>31824269</v>
       </c>
       <c r="F14" t="n">
-        <v>1719.292224118204</v>
+        <v>1050.73949302856</v>
       </c>
       <c r="G14" t="n">
-        <v>1130.814207300205</v>
+        <v>1702.49474596326</v>
       </c>
       <c r="H14" t="n">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="I14" t="n">
-        <v>1595264</v>
+        <v>1563427</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>109227163</v>
+        <v>109907983</v>
       </c>
       <c r="E15" t="n">
-        <v>425148671</v>
+        <v>427773944</v>
       </c>
       <c r="F15" t="n">
-        <v>30350.53433253854</v>
+        <v>31734.00111087794</v>
       </c>
       <c r="G15" t="n">
-        <v>89304.27466359681</v>
+        <v>91097.65610486391</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I15" t="n">
-        <v>7895768</v>
+        <v>7850396</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5381797</v>
+        <v>5362767</v>
       </c>
       <c r="E16" t="n">
-        <v>7922297</v>
+        <v>7894283</v>
       </c>
       <c r="F16" t="n">
-        <v>3497.676172198941</v>
+        <v>990.1063642729544</v>
       </c>
       <c r="G16" t="n">
-        <v>2061.523344416612</v>
+        <v>227.4447113827001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="I16" t="n">
-        <v>677143</v>
+        <v>682076</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1964026</v>
+        <v>1980120</v>
       </c>
       <c r="F17" t="n">
-        <v>414.3294314876213</v>
+        <v>1898.691860990917</v>
       </c>
       <c r="G17" t="n">
-        <v>434.7233667275171</v>
+        <v>1479.832125745847</v>
       </c>
       <c r="H17" t="n">
-        <v>0.87</v>
+        <v>0.15</v>
       </c>
       <c r="I17" t="n">
-        <v>196460</v>
+        <v>184862</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>136350976</v>
+        <v>138154005</v>
       </c>
       <c r="E18" t="n">
-        <v>136350976</v>
+        <v>138154005</v>
       </c>
       <c r="F18" t="n">
-        <v>97940.33914643829</v>
+        <v>116985.283948062</v>
       </c>
       <c r="G18" t="n">
-        <v>125480.7567698259</v>
+        <v>173633.4735425192</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>66426396</v>
+        <v>66498153</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65374757</v>
+        <v>65529147</v>
       </c>
       <c r="E19" t="n">
-        <v>335255164</v>
+        <v>336046906</v>
       </c>
       <c r="F19" t="n">
-        <v>14323.8940356605</v>
+        <v>19055.41974030553</v>
       </c>
       <c r="G19" t="n">
-        <v>23879.74891445524</v>
+        <v>21967.25535337685</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>19609135</v>
+        <v>19851451</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>253911109</v>
+        <v>256194314</v>
       </c>
       <c r="E20" t="n">
-        <v>253911109</v>
+        <v>256194314</v>
       </c>
       <c r="F20" t="n">
-        <v>46232.44179017816</v>
+        <v>73535.33896735919</v>
       </c>
       <c r="G20" t="n">
-        <v>86700.35342801984</v>
+        <v>85359.5892760202</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14965301</v>
+        <v>14934475</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>151895550</v>
+        <v>151356148</v>
       </c>
       <c r="E21" t="n">
-        <v>199876779</v>
+        <v>199166990</v>
       </c>
       <c r="F21" t="n">
-        <v>20101.29040687777</v>
+        <v>26080.49204846912</v>
       </c>
       <c r="G21" t="n">
-        <v>30054.8795667681</v>
+        <v>41203.72232108954</v>
       </c>
       <c r="H21" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>7950542</v>
+        <v>7837047</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>74328210</v>
+        <v>75717181</v>
       </c>
       <c r="E22" t="n">
-        <v>208062992</v>
+        <v>211910357</v>
       </c>
       <c r="F22" t="n">
-        <v>29115.70462378573</v>
+        <v>28462.48048339437</v>
       </c>
       <c r="G22" t="n">
-        <v>36059.44741839055</v>
+        <v>41992.97074459252</v>
       </c>
       <c r="H22" t="n">
         <v>0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>34652187</v>
+        <v>34878697</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73852666</v>
+        <v>74667071</v>
       </c>
       <c r="E23" t="n">
-        <v>154020313</v>
+        <v>155718760</v>
       </c>
       <c r="F23" t="n">
-        <v>8636.06790075384</v>
+        <v>18998.08495474359</v>
       </c>
       <c r="G23" t="n">
-        <v>38190.31877458635</v>
+        <v>42756.01545825256</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>14426887</v>
+        <v>15330995</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>632830348</v>
+        <v>639807478</v>
       </c>
       <c r="E24" t="n">
-        <v>632830348</v>
+        <v>639807478</v>
       </c>
       <c r="F24" t="n">
-        <v>144258.0701105712</v>
+        <v>215548.7476841962</v>
       </c>
       <c r="G24" t="n">
-        <v>247821.7320615367</v>
+        <v>262414.1645735496</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>277416128</v>
+        <v>281378273</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>198730625</v>
+        <v>200724763</v>
       </c>
       <c r="E25" t="n">
-        <v>690408153</v>
+        <v>697335966</v>
       </c>
       <c r="F25" t="n">
-        <v>74892.91746241815</v>
+        <v>86375.73917227352</v>
       </c>
       <c r="G25" t="n">
-        <v>352209.3392726983</v>
+        <v>354092.8215390681</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>26027762</v>
+        <v>25997390</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5795732</v>
+        <v>5875349</v>
       </c>
       <c r="E26" t="n">
-        <v>7874769</v>
+        <v>7982602</v>
       </c>
       <c r="F26" t="n">
-        <v>1029.626145356577</v>
+        <v>972.1255412032535</v>
       </c>
       <c r="G26" t="n">
-        <v>1962.813089553498</v>
+        <v>1991.105848576556</v>
       </c>
       <c r="H26" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="I26" t="n">
-        <v>6097671</v>
+        <v>6158093</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14469499</v>
+        <v>14560056</v>
       </c>
       <c r="F27" t="n">
-        <v>2527.27338831147</v>
+        <v>2823.691324999518</v>
       </c>
       <c r="G27" t="n">
-        <v>2082.417648217611</v>
+        <v>2055.555844493856</v>
       </c>
       <c r="H27" t="n">
-        <v>0.21</v>
+        <v>0.57</v>
       </c>
       <c r="I27" t="n">
-        <v>377993</v>
+        <v>352176</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25115792</v>
+        <v>24945165</v>
       </c>
       <c r="E28" t="n">
-        <v>35500191</v>
+        <v>35259016</v>
       </c>
       <c r="F28" t="n">
-        <v>220.1291105553271</v>
+        <v>360.9166724535446</v>
       </c>
       <c r="G28" t="n">
-        <v>5892.286211280904</v>
+        <v>6221.923218995268</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="I28" t="n">
-        <v>66778</v>
+        <v>66972</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>265958742</v>
+        <v>268172986</v>
       </c>
       <c r="E29" t="n">
-        <v>1148025575</v>
+        <v>1157583483</v>
       </c>
       <c r="F29" t="n">
-        <v>242284.0181018505</v>
+        <v>371031.978577924</v>
       </c>
       <c r="G29" t="n">
-        <v>328470.2301760475</v>
+        <v>383871.2945952494</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>108433994</v>
+        <v>107829522</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10781409</v>
+        <v>10767488</v>
       </c>
       <c r="E30" t="n">
-        <v>130156640</v>
+        <v>129988585</v>
       </c>
       <c r="F30" t="n">
-        <v>3776.367248312898</v>
+        <v>5252.911764424846</v>
       </c>
       <c r="G30" t="n">
-        <v>5139.354506077001</v>
+        <v>2955.919661090888</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>225535</v>
+        <v>255635</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20770419</v>
+        <v>20817296</v>
       </c>
       <c r="E31" t="n">
-        <v>51926048</v>
+        <v>52043241</v>
       </c>
       <c r="F31" t="n">
-        <v>10525.2915546406</v>
+        <v>11824.92044879794</v>
       </c>
       <c r="G31" t="n">
-        <v>9830.454184891254</v>
+        <v>8872.879244054764</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>2118281</v>
+        <v>2007585</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19867024</v>
+        <v>19807856</v>
       </c>
       <c r="F32" t="n">
-        <v>2550.859934734619</v>
+        <v>2459.995149802159</v>
       </c>
       <c r="G32" t="n">
-        <v>1971.672247874886</v>
+        <v>2618.195388289798</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I32" t="n">
-        <v>89493</v>
+        <v>89679</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1352997</v>
+        <v>1353086</v>
       </c>
       <c r="E33" t="n">
-        <v>5044413</v>
+        <v>5044745</v>
       </c>
       <c r="F33" t="n">
-        <v>1949.365632721093</v>
+        <v>2245.200148185624</v>
       </c>
       <c r="G33" t="n">
-        <v>2360.430236614939</v>
+        <v>2018.424463406628</v>
       </c>
       <c r="H33" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="I33" t="n">
-        <v>561039</v>
+        <v>535570</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4207944</v>
+        <v>4158879</v>
       </c>
       <c r="E34" t="n">
-        <v>12120916</v>
+        <v>11979549</v>
       </c>
       <c r="F34" t="n">
-        <v>3305.336042006207</v>
+        <v>4540.847026936593</v>
       </c>
       <c r="G34" t="n">
-        <v>3562.016677559604</v>
+        <v>5259.305646328786</v>
       </c>
       <c r="H34" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="I34" t="n">
-        <v>598169</v>
+        <v>595485</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13901521</v>
+        <v>14166201</v>
       </c>
       <c r="E35" t="n">
-        <v>67327283</v>
+        <v>68609171</v>
       </c>
       <c r="F35" t="n">
-        <v>8725.404270248899</v>
+        <v>6725.627491095721</v>
       </c>
       <c r="G35" t="n">
-        <v>9185.425300831592</v>
+        <v>13309.05443794753</v>
       </c>
       <c r="H35" t="n">
         <v>0.11</v>
       </c>
       <c r="I35" t="n">
-        <v>3591555</v>
+        <v>3629518</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1506005</v>
+        <v>1508457</v>
       </c>
       <c r="E36" t="n">
-        <v>9856763</v>
+        <v>9872813</v>
       </c>
       <c r="F36" t="n">
-        <v>3742.814959914826</v>
+        <v>3745.224079854664</v>
       </c>
       <c r="G36" t="n">
-        <v>3028.849627242673</v>
+        <v>3816.756344839954</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="I36" t="n">
-        <v>533529</v>
+        <v>547439</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1921186747</v>
+        <v>1918447171</v>
       </c>
       <c r="F37" t="n">
-        <v>43911.23326666166</v>
+        <v>76298.08085117154</v>
       </c>
       <c r="G37" t="n">
-        <v>76182.94445577785</v>
+        <v>76647.69981598653</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05</v>
+        <v>0.78</v>
       </c>
       <c r="I37" t="n">
-        <v>26585604</v>
+        <v>26451328</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2038189</v>
+        <v>2049325</v>
       </c>
       <c r="E38" t="n">
-        <v>14615648</v>
+        <v>14695502</v>
       </c>
       <c r="F38" t="n">
-        <v>4394.898998181945</v>
+        <v>4435.910266892784</v>
       </c>
       <c r="G38" t="n">
-        <v>5405.217851778386</v>
+        <v>5355.767787983152</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="I38" t="n">
-        <v>1929565</v>
+        <v>1946170</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>201628482</v>
+        <v>203876020</v>
       </c>
       <c r="E39" t="n">
-        <v>1141744355</v>
+        <v>1154471294</v>
       </c>
       <c r="F39" t="n">
-        <v>165624.2332027647</v>
+        <v>155021.3712865801</v>
       </c>
       <c r="G39" t="n">
-        <v>150102.7254343674</v>
+        <v>169992.2845993846</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>64892477</v>
+        <v>63969108</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>138296432</v>
+        <v>140208885</v>
       </c>
       <c r="E40" t="n">
-        <v>1024418016</v>
+        <v>1038584331</v>
       </c>
       <c r="F40" t="n">
-        <v>199147.0431743111</v>
+        <v>209394.4741666479</v>
       </c>
       <c r="G40" t="n">
-        <v>214798.0841855216</v>
+        <v>184938.3816066904</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>10471565</v>
+        <v>10295386</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>337607513</v>
+        <v>340546987</v>
       </c>
       <c r="E41" t="n">
-        <v>3037326530</v>
+        <v>3063771857</v>
       </c>
       <c r="F41" t="n">
-        <v>221601.5021492557</v>
+        <v>203398.3015078522</v>
       </c>
       <c r="G41" t="n">
-        <v>233564.763932207</v>
+        <v>235310.8710271321</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>37100457</v>
+        <v>37285719</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1588510</v>
+        <v>1586307</v>
       </c>
       <c r="E42" t="n">
-        <v>13237587</v>
+        <v>13219224</v>
       </c>
       <c r="F42" t="n">
-        <v>2927.574838177215</v>
+        <v>2970.110504701578</v>
       </c>
       <c r="G42" t="n">
-        <v>5226.042363755699</v>
+        <v>5355.197347390614</v>
       </c>
       <c r="H42" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="I42" t="n">
-        <v>42325</v>
+        <v>41418</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23614373</v>
+        <v>23697789</v>
       </c>
       <c r="E43" t="n">
-        <v>70785030</v>
+        <v>71035075</v>
       </c>
       <c r="F43" t="n">
-        <v>54878.60006776431</v>
+        <v>59848.83651707271</v>
       </c>
       <c r="G43" t="n">
-        <v>61638.36941906537</v>
+        <v>57705.26196605219</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I43" t="n">
-        <v>2948650</v>
+        <v>3018151</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9490870</v>
+        <v>9468564</v>
       </c>
       <c r="F44" t="n">
-        <v>6153.192447310826</v>
+        <v>6138.53196412815</v>
       </c>
       <c r="G44" t="n">
-        <v>5830.898615935767</v>
+        <v>5836.302148952125</v>
       </c>
       <c r="H44" t="n">
         <v>0.53</v>
       </c>
       <c r="I44" t="n">
-        <v>121450</v>
+        <v>121192</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12923930</v>
+        <v>13008615</v>
       </c>
       <c r="E45" t="n">
-        <v>12923930</v>
+        <v>13008615</v>
       </c>
       <c r="F45" t="n">
-        <v>1677.225105065287</v>
+        <v>370.3010787202832</v>
       </c>
       <c r="G45" t="n">
-        <v>876.0781474167237</v>
+        <v>1009.115779961131</v>
       </c>
       <c r="H45" t="n">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="I45" t="n">
-        <v>3623260</v>
+        <v>3773638</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>302395712</v>
+        <v>303188426</v>
       </c>
       <c r="E46" t="n">
-        <v>302395712</v>
+        <v>303188426</v>
       </c>
       <c r="F46" t="n">
-        <v>18426.80665505574</v>
+        <v>23562.20910069838</v>
       </c>
       <c r="G46" t="n">
-        <v>41365.39518890137</v>
+        <v>47719.21480297461</v>
       </c>
       <c r="H46" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>12749270</v>
+        <v>12650867</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12818109</v>
+        <v>12990649</v>
       </c>
       <c r="E47" t="n">
-        <v>40552333</v>
+        <v>41098195</v>
       </c>
       <c r="F47" t="n">
-        <v>15530.51996130826</v>
+        <v>11983.65297749467</v>
       </c>
       <c r="G47" t="n">
-        <v>10684.88199623981</v>
+        <v>10674.72242976679</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>1372408</v>
+        <v>1391573</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31946627</v>
+        <v>31967948</v>
       </c>
       <c r="E48" t="n">
-        <v>88488986</v>
+        <v>88548045</v>
       </c>
       <c r="F48" t="n">
-        <v>3647.348898522541</v>
+        <v>5215.978673901964</v>
       </c>
       <c r="G48" t="n">
-        <v>5531.737706467211</v>
+        <v>6941.555888484298</v>
       </c>
       <c r="H48" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="I48" t="n">
-        <v>11800024</v>
+        <v>11850126</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28770202</v>
+        <v>28361916</v>
       </c>
       <c r="E49" t="n">
-        <v>68350847</v>
+        <v>67380861</v>
       </c>
       <c r="F49" t="n">
-        <v>19242.58754642315</v>
+        <v>20315.23796995136</v>
       </c>
       <c r="G49" t="n">
-        <v>16947.88243349685</v>
+        <v>18030.40789087718</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>538267</v>
+        <v>517731</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12599464</v>
+        <v>12605566</v>
       </c>
       <c r="E50" t="n">
-        <v>19202414</v>
+        <v>19211713</v>
       </c>
       <c r="F50" t="n">
-        <v>7047.146507287854</v>
+        <v>7107.611680712837</v>
       </c>
       <c r="G50" t="n">
-        <v>17018.45776848302</v>
+        <v>19528.43231334601</v>
       </c>
       <c r="H50" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="I50" t="n">
-        <v>695501</v>
+        <v>693021</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>308900366</v>
+        <v>310123817</v>
       </c>
       <c r="E51" t="n">
-        <v>308900366</v>
+        <v>310123817</v>
       </c>
       <c r="F51" t="n">
-        <v>57698.58058934847</v>
+        <v>127587.5760664303</v>
       </c>
       <c r="G51" t="n">
-        <v>79775.5762685589</v>
+        <v>130462.8559671699</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>50952808</v>
+        <v>51271633</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>90598877</v>
+        <v>90243447</v>
       </c>
       <c r="E52" t="n">
-        <v>522069806</v>
+        <v>520021663</v>
       </c>
       <c r="F52" t="n">
-        <v>330330.6124256056</v>
+        <v>329948.1537066213</v>
       </c>
       <c r="G52" t="n">
-        <v>234387.3952123625</v>
+        <v>245372.3281030181</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>16391402</v>
+        <v>16458656</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30319648</v>
+        <v>30480818</v>
       </c>
       <c r="E53" t="n">
-        <v>135753501</v>
+        <v>136475126</v>
       </c>
       <c r="F53" t="n">
-        <v>33428.04989715609</v>
+        <v>30413.74573172861</v>
       </c>
       <c r="G53" t="n">
-        <v>35027.51614843564</v>
+        <v>30789.10888541922</v>
       </c>
       <c r="H53" t="n">
         <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>8629490</v>
+        <v>8704213</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8613996</v>
+        <v>8559962</v>
       </c>
       <c r="F54" t="n">
-        <v>153.8164086137651</v>
+        <v>54.29245629151468</v>
       </c>
       <c r="G54" t="n">
-        <v>290.9743918163104</v>
+        <v>564.7024242104255</v>
       </c>
       <c r="H54" t="n">
-        <v>2.05</v>
+        <v>1.37</v>
       </c>
       <c r="I54" t="n">
-        <v>298440</v>
+        <v>297625</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4805334</v>
+        <v>4827871</v>
       </c>
       <c r="F55" t="n">
-        <v>4758.872438412724</v>
+        <v>2412.857978357185</v>
       </c>
       <c r="G55" t="n">
-        <v>896.4651058351823</v>
+        <v>1406.80574519241</v>
       </c>
       <c r="H55" t="n">
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
       <c r="I55" t="n">
-        <v>176588</v>
+        <v>196653</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125694163</v>
+        <v>125761693</v>
       </c>
       <c r="E56" t="n">
-        <v>2081598288</v>
+        <v>2082716629</v>
       </c>
       <c r="F56" t="n">
-        <v>183298.8709653049</v>
+        <v>192077.4789201252</v>
       </c>
       <c r="G56" t="n">
-        <v>177637.3193293456</v>
+        <v>188134.2006099362</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4954362</v>
+        <v>4899151</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>78971105</v>
+        <v>89346917</v>
       </c>
       <c r="E57" t="n">
-        <v>79821175</v>
+        <v>90308676</v>
       </c>
       <c r="F57" t="n">
-        <v>60834.9134260975</v>
+        <v>38929.68183230983</v>
       </c>
       <c r="G57" t="n">
-        <v>55772.11449416631</v>
+        <v>62999.34290715639</v>
       </c>
       <c r="H57" t="n">
         <v>0.12</v>
       </c>
       <c r="I57" t="n">
-        <v>10941407</v>
+        <v>15319566</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>239729310</v>
+        <v>241260916</v>
       </c>
       <c r="E58" t="n">
-        <v>239729310</v>
+        <v>241260916</v>
       </c>
       <c r="F58" t="n">
-        <v>103830.8672371871</v>
+        <v>102858.9732558782</v>
       </c>
       <c r="G58" t="n">
-        <v>89588.97018946105</v>
+        <v>107411.005004679</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>42838072</v>
+        <v>42616637</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23668485</v>
+        <v>23925791</v>
       </c>
       <c r="E59" t="n">
-        <v>141613302</v>
+        <v>143152815</v>
       </c>
       <c r="F59" t="n">
-        <v>61099.99097833196</v>
+        <v>64621.75092924213</v>
       </c>
       <c r="G59" t="n">
-        <v>55559.44315681008</v>
+        <v>76853.975645799</v>
       </c>
       <c r="H59" t="n">
         <v>0.21</v>
       </c>
       <c r="I59" t="n">
-        <v>13342260</v>
+        <v>13407764</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2427849</v>
+        <v>2417385</v>
       </c>
       <c r="E60" t="n">
-        <v>4480733</v>
+        <v>4461422</v>
       </c>
       <c r="F60" t="n">
-        <v>4589.431922682975</v>
+        <v>4516.838182903633</v>
       </c>
       <c r="G60" t="n">
-        <v>439.5160671757005</v>
+        <v>411.0629445938275</v>
       </c>
       <c r="H60" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="I60" t="n">
-        <v>23351</v>
+        <v>23401</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9530402</v>
+        <v>9539679</v>
       </c>
       <c r="E62" t="n">
-        <v>28278903</v>
+        <v>28306431</v>
       </c>
       <c r="F62" t="n">
-        <v>5872.116432061368</v>
+        <v>5512.450537628893</v>
       </c>
       <c r="G62" t="n">
-        <v>4806.864161900733</v>
+        <v>6123.014369647754</v>
       </c>
       <c r="H62" t="n">
         <v>0.18</v>
       </c>
       <c r="I62" t="n">
-        <v>5726406</v>
+        <v>6057390</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14607821</v>
+        <v>14593067</v>
       </c>
       <c r="E63" t="n">
-        <v>29572642</v>
+        <v>29542773</v>
       </c>
       <c r="F63" t="n">
-        <v>6281.978382314709</v>
+        <v>5754.140118013064</v>
       </c>
       <c r="G63" t="n">
-        <v>16139.97272847942</v>
+        <v>14496.13864938314</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I63" t="n">
-        <v>466917</v>
+        <v>471588</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37718981</v>
+        <v>37940891</v>
       </c>
       <c r="E64" t="n">
-        <v>267421422</v>
+        <v>268994730</v>
       </c>
       <c r="F64" t="n">
-        <v>78568.03638885537</v>
+        <v>83529.84857291325</v>
       </c>
       <c r="G64" t="n">
-        <v>64899.28675158951</v>
+        <v>69019.09006893379</v>
       </c>
       <c r="H64" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1492176</v>
+        <v>1425389</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1262056</v>
+        <v>1264586</v>
       </c>
       <c r="E65" t="n">
-        <v>7826634</v>
+        <v>7841604</v>
       </c>
       <c r="F65" t="n">
-        <v>2292.747493551062</v>
+        <v>2295.848174476357</v>
       </c>
       <c r="G65" t="n">
-        <v>2282.93286474822</v>
+        <v>2196.373669033129</v>
       </c>
       <c r="H65" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>715653</v>
+        <v>702370</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>602744561</v>
+        <v>607178084</v>
       </c>
       <c r="E66" t="n">
-        <v>2334340758</v>
+        <v>2351511135</v>
       </c>
       <c r="F66" t="n">
-        <v>46230.84187405843</v>
+        <v>57636.16947778266</v>
       </c>
       <c r="G66" t="n">
-        <v>88288.80944680057</v>
+        <v>90614.56236440701</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>33411745</v>
+        <v>33558154</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5884646</v>
+        <v>5891277</v>
       </c>
       <c r="E67" t="n">
-        <v>26346296</v>
+        <v>26375984</v>
       </c>
       <c r="F67" t="n">
-        <v>4883.990400189698</v>
+        <v>5172.474067485992</v>
       </c>
       <c r="G67" t="n">
-        <v>4475.565056390867</v>
+        <v>4623.187909805318</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I67" t="n">
-        <v>145206</v>
+        <v>146529</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>119317067</v>
+        <v>119806539</v>
       </c>
       <c r="E68" t="n">
-        <v>1037388563</v>
+        <v>1041644218</v>
       </c>
       <c r="F68" t="n">
-        <v>155363.6828422855</v>
+        <v>162995.039919582</v>
       </c>
       <c r="G68" t="n">
-        <v>154395.0096159932</v>
+        <v>160681.816063688</v>
       </c>
       <c r="H68" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I68" t="n">
-        <v>8928341</v>
+        <v>8906588</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>103729310</v>
+        <v>104645952</v>
       </c>
       <c r="E69" t="n">
-        <v>158241494</v>
+        <v>159639853</v>
       </c>
       <c r="F69" t="n">
-        <v>57330.87938955241</v>
+        <v>66551.51967192661</v>
       </c>
       <c r="G69" t="n">
-        <v>77442.03169157283</v>
+        <v>77401.30774159952</v>
       </c>
       <c r="H69" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I69" t="n">
-        <v>7776115</v>
+        <v>7846410</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1113533</v>
+        <v>1105435</v>
       </c>
       <c r="E70" t="n">
-        <v>4311842</v>
+        <v>4280484</v>
       </c>
       <c r="F70" t="n">
-        <v>3695.730827341364</v>
+        <v>2427.239178593568</v>
       </c>
       <c r="G70" t="n">
-        <v>3911.699677408461</v>
+        <v>3781.665870097492</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I70" t="n">
-        <v>438362</v>
+        <v>316611</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>121629212</v>
+        <v>121014820</v>
       </c>
       <c r="E71" t="n">
-        <v>466589235</v>
+        <v>464232328</v>
       </c>
       <c r="F71" t="n">
-        <v>144888.1085385559</v>
+        <v>151158.6193736315</v>
       </c>
       <c r="G71" t="n">
-        <v>150801.6185582315</v>
+        <v>158989.5731458355</v>
       </c>
       <c r="H71" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I71" t="n">
-        <v>23729021</v>
+        <v>30570645</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3212739</v>
+        <v>3208480</v>
       </c>
       <c r="E72" t="n">
-        <v>30441178</v>
+        <v>30400818</v>
       </c>
       <c r="F72" t="n">
-        <v>3945.53491552615</v>
+        <v>4442.140068968919</v>
       </c>
       <c r="G72" t="n">
-        <v>4385.529485905571</v>
+        <v>4200.62985862545</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I72" t="n">
-        <v>236800</v>
+        <v>234203</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>32715329</v>
+        <v>32184461</v>
       </c>
       <c r="F73" t="n">
-        <v>2371.860675891043</v>
+        <v>2153.016712364627</v>
       </c>
       <c r="G73" t="n">
-        <v>5448.443737420223</v>
+        <v>2159.783999577647</v>
       </c>
       <c r="H73" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>5610938</v>
+        <v>5620700</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87094736</v>
+        <v>87106700</v>
       </c>
       <c r="E74" t="n">
-        <v>321961567</v>
+        <v>322004413</v>
       </c>
       <c r="F74" t="n">
-        <v>11528.66644284763</v>
+        <v>10730.74087800042</v>
       </c>
       <c r="G74" t="n">
-        <v>969.4598741622503</v>
+        <v>1198.710707415475</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I74" t="n">
-        <v>339418</v>
+        <v>333168</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23070156</v>
+        <v>23217981</v>
       </c>
       <c r="E75" t="n">
-        <v>23070156</v>
+        <v>23217981</v>
       </c>
       <c r="F75" t="n">
-        <v>20456.15722025781</v>
+        <v>25762.45378505592</v>
       </c>
       <c r="G75" t="n">
-        <v>29437.948365836</v>
+        <v>30462.09892548397</v>
       </c>
       <c r="H75" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I75" t="n">
-        <v>6471694</v>
+        <v>6241434</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>493890418</v>
+        <v>494462104</v>
       </c>
       <c r="E76" t="n">
-        <v>1720063653</v>
+        <v>1722054655</v>
       </c>
       <c r="F76" t="n">
-        <v>126346.3614919979</v>
+        <v>130947.0621893785</v>
       </c>
       <c r="G76" t="n">
-        <v>145604.820148288</v>
+        <v>160856.7837367007</v>
       </c>
       <c r="H76" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>31426390</v>
+        <v>31028385</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5551982455</v>
+        <v>5561751327</v>
       </c>
       <c r="E77" t="n">
-        <v>5551982455</v>
+        <v>5561751327</v>
       </c>
       <c r="F77" t="n">
-        <v>10580.69467028963</v>
+        <v>10464.731976682</v>
       </c>
       <c r="G77" t="n">
-        <v>91821.91751523469</v>
+        <v>92621.90962393582</v>
       </c>
       <c r="H77" t="n">
         <v>0.17</v>
       </c>
       <c r="I77" t="n">
-        <v>27414076</v>
+        <v>24125519</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7692595</v>
+        <v>7686372</v>
       </c>
       <c r="E78" t="n">
-        <v>19984535</v>
+        <v>19968367</v>
       </c>
       <c r="F78" t="n">
-        <v>1042.97688133009</v>
+        <v>763.862749343539</v>
       </c>
       <c r="G78" t="n">
-        <v>4973.348208251716</v>
+        <v>2761.907569506657</v>
       </c>
       <c r="H78" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="I78" t="n">
-        <v>695925</v>
+        <v>701596</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>102633642</v>
+        <v>102730572</v>
       </c>
       <c r="E79" t="n">
-        <v>155501826</v>
+        <v>155648686</v>
       </c>
       <c r="F79" t="n">
-        <v>38306.68042638553</v>
+        <v>39309.68413280536</v>
       </c>
       <c r="G79" t="n">
-        <v>28550.60039315663</v>
+        <v>29650.53354872016</v>
       </c>
       <c r="H79" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>7641024</v>
+        <v>7468326</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2632593</v>
+        <v>2648370</v>
       </c>
       <c r="E80" t="n">
-        <v>10530373</v>
+        <v>10593481</v>
       </c>
       <c r="F80" t="n">
-        <v>15740.22787232146</v>
+        <v>77439.02974665941</v>
       </c>
       <c r="G80" t="n">
-        <v>68304.0161164342</v>
+        <v>69104.62096484678</v>
       </c>
       <c r="H80" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="I80" t="n">
-        <v>1183849</v>
+        <v>1210351</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2597200</v>
+        <v>2577587</v>
       </c>
       <c r="F81" t="n">
-        <v>726.3720776881685</v>
+        <v>907.2443485874933</v>
       </c>
       <c r="G81" t="n">
-        <v>192.9740172814873</v>
+        <v>145.8879018419982</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
       <c r="I81" t="n">
-        <v>311934</v>
+        <v>307816</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>402352087</v>
+        <v>405132000</v>
       </c>
       <c r="E82" t="n">
-        <v>2299154783</v>
+        <v>2315039999</v>
       </c>
       <c r="F82" t="n">
-        <v>155148.24542709</v>
+        <v>88174.51155942718</v>
       </c>
       <c r="G82" t="n">
-        <v>151743.7131166372</v>
+        <v>101816.7159088811</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>37198547</v>
+        <v>37163437</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250220.xlsx
+++ b/BybitData20250220.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3955549</v>
+        <v>3946261</v>
       </c>
       <c r="F2" t="n">
-        <v>746.91060306524</v>
+        <v>760.5035357510266</v>
       </c>
       <c r="G2" t="n">
-        <v>689.0918814214368</v>
+        <v>1140.618477726713</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="I2" t="n">
-        <v>112555</v>
+        <v>122704</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1318590</v>
+        <v>1318584</v>
       </c>
       <c r="E3" t="n">
-        <v>4262225</v>
+        <v>4262205</v>
       </c>
       <c r="F3" t="n">
-        <v>6227.951309518797</v>
+        <v>6228.319232168655</v>
       </c>
       <c r="G3" t="n">
-        <v>11939.55324823569</v>
+        <v>12019.46200388384</v>
       </c>
       <c r="H3" t="n">
         <v>0.02</v>
       </c>
       <c r="I3" t="n">
-        <v>100854</v>
+        <v>100885</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>247257851</v>
+        <v>247701323</v>
       </c>
       <c r="E4" t="n">
-        <v>1550519228</v>
+        <v>1553300181</v>
       </c>
       <c r="F4" t="n">
-        <v>270927.8964014722</v>
+        <v>267835.1758442017</v>
       </c>
       <c r="G4" t="n">
-        <v>248253.3180558261</v>
+        <v>256282.9222579714</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15989520</v>
+        <v>16017401</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141514185</v>
+        <v>142322179</v>
       </c>
       <c r="E5" t="n">
-        <v>156819832</v>
+        <v>157715216</v>
       </c>
       <c r="F5" t="n">
-        <v>87456.41721876309</v>
+        <v>84162.014843235</v>
       </c>
       <c r="G5" t="n">
-        <v>110231.7902042461</v>
+        <v>107355.8858921116</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>34476558</v>
+        <v>34899021</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>126496028</v>
+        <v>126971352</v>
       </c>
       <c r="E6" t="n">
-        <v>495826555</v>
+        <v>497689683</v>
       </c>
       <c r="F6" t="n">
-        <v>23809.83955320209</v>
+        <v>20120.00644543865</v>
       </c>
       <c r="G6" t="n">
-        <v>46495.05891853686</v>
+        <v>41903.22886815107</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>31056686</v>
+        <v>31164468</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4654386</v>
+        <v>4669789</v>
       </c>
       <c r="E7" t="n">
-        <v>28588787</v>
+        <v>28683393</v>
       </c>
       <c r="F7" t="n">
-        <v>2993.105567513794</v>
+        <v>3138.062656136441</v>
       </c>
       <c r="G7" t="n">
-        <v>1985.893349877472</v>
+        <v>1985.858384226037</v>
       </c>
       <c r="H7" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I7" t="n">
-        <v>532956</v>
+        <v>543716</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197732</v>
+        <v>197928</v>
       </c>
       <c r="E8" t="n">
-        <v>2175267</v>
+        <v>2177427</v>
       </c>
       <c r="F8" t="n">
-        <v>3848.070929746846</v>
+        <v>3591.211107592768</v>
       </c>
       <c r="G8" t="n">
-        <v>5216.541977726148</v>
+        <v>4990.230041609273</v>
       </c>
       <c r="H8" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="I8" t="n">
-        <v>29722</v>
+        <v>29386</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70981207</v>
+        <v>70966882</v>
       </c>
       <c r="E9" t="n">
-        <v>122945831</v>
+        <v>122921019</v>
       </c>
       <c r="F9" t="n">
-        <v>10266.47058805516</v>
+        <v>10377.24197007953</v>
       </c>
       <c r="G9" t="n">
-        <v>5086.97001692826</v>
+        <v>9066.417488706506</v>
       </c>
       <c r="H9" t="n">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="I9" t="n">
-        <v>772960</v>
+        <v>722010</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9006378</v>
+        <v>8911550</v>
       </c>
       <c r="E10" t="n">
-        <v>12747859</v>
+        <v>12613637</v>
       </c>
       <c r="F10" t="n">
-        <v>3182.136650066962</v>
+        <v>4640.390406835892</v>
       </c>
       <c r="G10" t="n">
-        <v>4265.613442441981</v>
+        <v>4164.041703059889</v>
       </c>
       <c r="H10" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>62439</v>
+        <v>64596</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>478894716</v>
+        <v>482998929</v>
       </c>
       <c r="E11" t="n">
-        <v>478894716</v>
+        <v>482998927</v>
       </c>
       <c r="F11" t="n">
-        <v>52773.8351116132</v>
+        <v>52855.50788530772</v>
       </c>
       <c r="G11" t="n">
-        <v>79855.05604789931</v>
+        <v>83290.01051179513</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>67259154</v>
+        <v>67954276</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>332492</v>
+        <v>336790</v>
       </c>
       <c r="E12" t="n">
-        <v>1552108</v>
+        <v>1572169</v>
       </c>
       <c r="F12" t="n">
-        <v>16.66458478848764</v>
+        <v>16.5743907980192</v>
       </c>
       <c r="G12" t="n">
-        <v>1552.756265720919</v>
+        <v>1409.081160300408</v>
       </c>
       <c r="H12" t="n">
         <v>0.12</v>
       </c>
       <c r="I12" t="n">
-        <v>684822</v>
+        <v>694043</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1598492</v>
+        <v>1596492</v>
       </c>
       <c r="F13" t="n">
-        <v>4437.149023503657</v>
+        <v>4287.496609801435</v>
       </c>
       <c r="G13" t="n">
-        <v>1082.281523326036</v>
+        <v>576.0897578055508</v>
       </c>
       <c r="H13" t="n">
         <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>246886</v>
+        <v>247271</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12786895</v>
+        <v>12804021</v>
       </c>
       <c r="E14" t="n">
-        <v>31824269</v>
+        <v>31866893</v>
       </c>
       <c r="F14" t="n">
-        <v>1050.73949302856</v>
+        <v>1042.733459565325</v>
       </c>
       <c r="G14" t="n">
-        <v>1702.49474596326</v>
+        <v>1581.341705873958</v>
       </c>
       <c r="H14" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="I14" t="n">
-        <v>1563427</v>
+        <v>1564188</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>109907983</v>
+        <v>110243930</v>
       </c>
       <c r="E15" t="n">
-        <v>427773944</v>
+        <v>429081489</v>
       </c>
       <c r="F15" t="n">
-        <v>31734.00111087794</v>
+        <v>32357.8245298401</v>
       </c>
       <c r="G15" t="n">
-        <v>91097.65610486391</v>
+        <v>100646.9616069098</v>
       </c>
       <c r="H15" t="n">
         <v>0.02</v>
       </c>
       <c r="I15" t="n">
-        <v>7850396</v>
+        <v>7883515</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5362767</v>
+        <v>5291118</v>
       </c>
       <c r="E16" t="n">
-        <v>7894283</v>
+        <v>7788813</v>
       </c>
       <c r="F16" t="n">
-        <v>990.1063642729544</v>
+        <v>1093.103481222343</v>
       </c>
       <c r="G16" t="n">
-        <v>227.4447113827001</v>
+        <v>294.1765744740944</v>
       </c>
       <c r="H16" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="I16" t="n">
-        <v>682076</v>
+        <v>639225</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1980120</v>
+        <v>2042168</v>
       </c>
       <c r="F17" t="n">
-        <v>1898.691860990917</v>
+        <v>1121.41973108305</v>
       </c>
       <c r="G17" t="n">
-        <v>1479.832125745847</v>
+        <v>237.0707696064843</v>
       </c>
       <c r="H17" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I17" t="n">
-        <v>184862</v>
+        <v>188809</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>138154005</v>
+        <v>138780232</v>
       </c>
       <c r="E18" t="n">
-        <v>138154005</v>
+        <v>138780232</v>
       </c>
       <c r="F18" t="n">
-        <v>116985.283948062</v>
+        <v>96866.13796809183</v>
       </c>
       <c r="G18" t="n">
-        <v>173633.4735425192</v>
+        <v>163006.6939625815</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>66498153</v>
+        <v>66493192</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65529147</v>
+        <v>65859590</v>
       </c>
       <c r="E19" t="n">
-        <v>336046906</v>
+        <v>337741488</v>
       </c>
       <c r="F19" t="n">
-        <v>19055.41974030553</v>
+        <v>19971.36934627547</v>
       </c>
       <c r="G19" t="n">
-        <v>21967.25535337685</v>
+        <v>22648.56611855692</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>19851451</v>
+        <v>19919499</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>256194314</v>
+        <v>256871797</v>
       </c>
       <c r="E20" t="n">
-        <v>256194314</v>
+        <v>256871797</v>
       </c>
       <c r="F20" t="n">
-        <v>73535.33896735919</v>
+        <v>69830.14907102555</v>
       </c>
       <c r="G20" t="n">
-        <v>85359.5892760202</v>
+        <v>93497.19392841401</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14934475</v>
+        <v>14932968</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>151356148</v>
+        <v>151267637</v>
       </c>
       <c r="E21" t="n">
-        <v>199166990</v>
+        <v>199050519</v>
       </c>
       <c r="F21" t="n">
-        <v>26080.49204846912</v>
+        <v>26036.00325974921</v>
       </c>
       <c r="G21" t="n">
-        <v>41203.72232108954</v>
+        <v>33849.46755952429</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="I21" t="n">
-        <v>7837047</v>
+        <v>7943042</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75717181</v>
+        <v>77088526</v>
       </c>
       <c r="E22" t="n">
-        <v>211910357</v>
+        <v>215748354</v>
       </c>
       <c r="F22" t="n">
-        <v>28462.48048339437</v>
+        <v>27086.78060693522</v>
       </c>
       <c r="G22" t="n">
-        <v>41992.97074459252</v>
+        <v>43056.03370778615</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>34878697</v>
+        <v>35245377</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74667071</v>
+        <v>74864075</v>
       </c>
       <c r="E23" t="n">
-        <v>155718760</v>
+        <v>156129615</v>
       </c>
       <c r="F23" t="n">
-        <v>18998.08495474359</v>
+        <v>23403.92082446529</v>
       </c>
       <c r="G23" t="n">
-        <v>42756.01545825256</v>
+        <v>37326.02882610688</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>15330995</v>
+        <v>15369391</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>639807478</v>
+        <v>643967523</v>
       </c>
       <c r="E24" t="n">
-        <v>639807478</v>
+        <v>643967523</v>
       </c>
       <c r="F24" t="n">
-        <v>215548.7476841962</v>
+        <v>197354.3512907818</v>
       </c>
       <c r="G24" t="n">
-        <v>262414.1645735496</v>
+        <v>271267.5034334647</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>281378273</v>
+        <v>264573755</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>200724763</v>
+        <v>201712517</v>
       </c>
       <c r="E25" t="n">
-        <v>697335966</v>
+        <v>700767514</v>
       </c>
       <c r="F25" t="n">
-        <v>86375.73917227352</v>
+        <v>87018.83291386433</v>
       </c>
       <c r="G25" t="n">
-        <v>354092.8215390681</v>
+        <v>354846.6963357674</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>25997390</v>
+        <v>26068714</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5875349</v>
+        <v>5855913</v>
       </c>
       <c r="E26" t="n">
-        <v>7982602</v>
+        <v>7956498</v>
       </c>
       <c r="F26" t="n">
-        <v>972.1255412032535</v>
+        <v>893.8292902561127</v>
       </c>
       <c r="G26" t="n">
-        <v>1991.105848576556</v>
+        <v>1989.90466929587</v>
       </c>
       <c r="H26" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="I26" t="n">
-        <v>6158093</v>
+        <v>6151163</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14560056</v>
+        <v>14607511</v>
       </c>
       <c r="F27" t="n">
-        <v>2823.691324999518</v>
+        <v>2805.307317300489</v>
       </c>
       <c r="G27" t="n">
-        <v>2055.555844493856</v>
+        <v>2044.711977959107</v>
       </c>
       <c r="H27" t="n">
-        <v>0.57</v>
+        <v>0.21</v>
       </c>
       <c r="I27" t="n">
-        <v>352176</v>
+        <v>347934</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24945165</v>
+        <v>24965061</v>
       </c>
       <c r="E28" t="n">
-        <v>35259016</v>
+        <v>35287139</v>
       </c>
       <c r="F28" t="n">
-        <v>360.9166724535446</v>
+        <v>377.3603575071001</v>
       </c>
       <c r="G28" t="n">
-        <v>6221.923218995268</v>
+        <v>9039.66338123557</v>
       </c>
       <c r="H28" t="n">
-        <v>0.78</v>
+        <v>0.47</v>
       </c>
       <c r="I28" t="n">
-        <v>66972</v>
+        <v>66865</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>268172986</v>
+        <v>270403307</v>
       </c>
       <c r="E29" t="n">
-        <v>1157583483</v>
+        <v>1167210785</v>
       </c>
       <c r="F29" t="n">
-        <v>371031.978577924</v>
+        <v>387651.5561363416</v>
       </c>
       <c r="G29" t="n">
-        <v>383871.2945952494</v>
+        <v>366733.5243103986</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>107829522</v>
+        <v>107459094</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10767488</v>
+        <v>10769387</v>
       </c>
       <c r="E30" t="n">
-        <v>129988585</v>
+        <v>130011501</v>
       </c>
       <c r="F30" t="n">
-        <v>5252.911764424846</v>
+        <v>5228.316393054124</v>
       </c>
       <c r="G30" t="n">
-        <v>2955.919661090888</v>
+        <v>3074.634680139637</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>255635</v>
+        <v>255019</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20817296</v>
+        <v>20742389</v>
       </c>
       <c r="E31" t="n">
-        <v>52043241</v>
+        <v>51855974</v>
       </c>
       <c r="F31" t="n">
-        <v>11824.92044879794</v>
+        <v>11415.11339928229</v>
       </c>
       <c r="G31" t="n">
-        <v>8872.879244054764</v>
+        <v>10549.46376523891</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>2007585</v>
+        <v>1895322</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19807856</v>
+        <v>19794388</v>
       </c>
       <c r="F32" t="n">
-        <v>2459.995149802159</v>
+        <v>2469.662258975132</v>
       </c>
       <c r="G32" t="n">
-        <v>2618.195388289798</v>
+        <v>2608.004522893451</v>
       </c>
       <c r="H32" t="n">
         <v>0.25</v>
       </c>
       <c r="I32" t="n">
-        <v>89679</v>
+        <v>85046</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1353086</v>
+        <v>1359297</v>
       </c>
       <c r="E33" t="n">
-        <v>5044745</v>
+        <v>5067902</v>
       </c>
       <c r="F33" t="n">
-        <v>2245.200148185624</v>
+        <v>2294.858234112244</v>
       </c>
       <c r="G33" t="n">
-        <v>2018.424463406628</v>
+        <v>1786.987315172907</v>
       </c>
       <c r="H33" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="I33" t="n">
-        <v>535570</v>
+        <v>531798</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4158879</v>
+        <v>4164348</v>
       </c>
       <c r="E34" t="n">
-        <v>11979549</v>
+        <v>11995304</v>
       </c>
       <c r="F34" t="n">
-        <v>4540.847026936593</v>
+        <v>4178.874254875849</v>
       </c>
       <c r="G34" t="n">
-        <v>5259.305646328786</v>
+        <v>1623.708501457502</v>
       </c>
       <c r="H34" t="n">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
       <c r="I34" t="n">
-        <v>595485</v>
+        <v>590568</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14166201</v>
+        <v>14214829</v>
       </c>
       <c r="E35" t="n">
-        <v>68609171</v>
+        <v>68844683</v>
       </c>
       <c r="F35" t="n">
-        <v>6725.627491095721</v>
+        <v>8089.473394654578</v>
       </c>
       <c r="G35" t="n">
-        <v>13309.05443794753</v>
+        <v>12666.68763441992</v>
       </c>
       <c r="H35" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>3629518</v>
+        <v>3632057</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1508457</v>
+        <v>1496278</v>
       </c>
       <c r="E36" t="n">
-        <v>9872813</v>
+        <v>9793096</v>
       </c>
       <c r="F36" t="n">
-        <v>3745.224079854664</v>
+        <v>3607.027481721374</v>
       </c>
       <c r="G36" t="n">
-        <v>3816.756344839954</v>
+        <v>5150.205590711493</v>
       </c>
       <c r="H36" t="n">
-        <v>0.51</v>
+        <v>0.72</v>
       </c>
       <c r="I36" t="n">
-        <v>547439</v>
+        <v>547373</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1918447171</v>
+        <v>1919313785</v>
       </c>
       <c r="F37" t="n">
-        <v>76298.08085117154</v>
+        <v>76255.80431131105</v>
       </c>
       <c r="G37" t="n">
-        <v>76647.69981598653</v>
+        <v>73226.44483070118</v>
       </c>
       <c r="H37" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="I37" t="n">
-        <v>26451328</v>
+        <v>26406428</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2049325</v>
+        <v>2043486</v>
       </c>
       <c r="E38" t="n">
-        <v>14695502</v>
+        <v>14653635</v>
       </c>
       <c r="F38" t="n">
-        <v>4435.910266892784</v>
+        <v>4278.971759800447</v>
       </c>
       <c r="G38" t="n">
-        <v>5355.767787983152</v>
+        <v>5410.096947928873</v>
       </c>
       <c r="H38" t="n">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="I38" t="n">
-        <v>1946170</v>
+        <v>1941932</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>203876020</v>
+        <v>204636578</v>
       </c>
       <c r="E39" t="n">
-        <v>1154471294</v>
+        <v>1158778041</v>
       </c>
       <c r="F39" t="n">
-        <v>155021.3712865801</v>
+        <v>150097.0993615109</v>
       </c>
       <c r="G39" t="n">
-        <v>169992.2845993846</v>
+        <v>178646.0027472359</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>63969108</v>
+        <v>64360774</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>140208885</v>
+        <v>140529350</v>
       </c>
       <c r="E40" t="n">
-        <v>1038584331</v>
+        <v>1040958145</v>
       </c>
       <c r="F40" t="n">
-        <v>209394.4741666479</v>
+        <v>227963.5551706059</v>
       </c>
       <c r="G40" t="n">
-        <v>184938.3816066904</v>
+        <v>226311.2375337483</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>10295386</v>
+        <v>10553531</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>340546987</v>
+        <v>341231337</v>
       </c>
       <c r="E41" t="n">
-        <v>3063771857</v>
+        <v>3069928697</v>
       </c>
       <c r="F41" t="n">
-        <v>203398.3015078522</v>
+        <v>226413.6965290156</v>
       </c>
       <c r="G41" t="n">
-        <v>235310.8710271321</v>
+        <v>232011.1512268066</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>37285719</v>
+        <v>36729103</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1586307</v>
+        <v>1586438</v>
       </c>
       <c r="E42" t="n">
-        <v>13219224</v>
+        <v>13220314</v>
       </c>
       <c r="F42" t="n">
-        <v>2970.110504701578</v>
+        <v>2944.540571611234</v>
       </c>
       <c r="G42" t="n">
-        <v>5355.197347390614</v>
+        <v>5372.694312291334</v>
       </c>
       <c r="H42" t="n">
         <v>0.45</v>
       </c>
       <c r="I42" t="n">
-        <v>41418</v>
+        <v>41399</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23697789</v>
+        <v>23720735</v>
       </c>
       <c r="E43" t="n">
-        <v>71035075</v>
+        <v>71103855</v>
       </c>
       <c r="F43" t="n">
-        <v>59848.83651707271</v>
+        <v>59639.74170381924</v>
       </c>
       <c r="G43" t="n">
-        <v>57705.26196605219</v>
+        <v>60236.80978508743</v>
       </c>
       <c r="H43" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I43" t="n">
-        <v>3018151</v>
+        <v>3022682</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9468564</v>
+        <v>9453233</v>
       </c>
       <c r="F44" t="n">
-        <v>6138.53196412815</v>
+        <v>6139.133679888654</v>
       </c>
       <c r="G44" t="n">
-        <v>5836.302148952125</v>
+        <v>5783.583344129406</v>
       </c>
       <c r="H44" t="n">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
       <c r="I44" t="n">
-        <v>121192</v>
+        <v>121380</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13008615</v>
+        <v>13097939</v>
       </c>
       <c r="E45" t="n">
-        <v>13008615</v>
+        <v>13097939</v>
       </c>
       <c r="F45" t="n">
-        <v>370.3010787202832</v>
+        <v>321.7158089329919</v>
       </c>
       <c r="G45" t="n">
-        <v>1009.115779961131</v>
+        <v>1308.972865284958</v>
       </c>
       <c r="H45" t="n">
         <v>0.23</v>
       </c>
       <c r="I45" t="n">
-        <v>3773638</v>
+        <v>3797620</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>303188426</v>
+        <v>305538350</v>
       </c>
       <c r="E46" t="n">
-        <v>303188426</v>
+        <v>305538350</v>
       </c>
       <c r="F46" t="n">
-        <v>23562.20910069838</v>
+        <v>31774.72559362623</v>
       </c>
       <c r="G46" t="n">
-        <v>47719.21480297461</v>
+        <v>45815.40225940374</v>
       </c>
       <c r="H46" t="n">
         <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>12650867</v>
+        <v>12442290</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12990649</v>
+        <v>13004719</v>
       </c>
       <c r="E47" t="n">
-        <v>41098195</v>
+        <v>41142707</v>
       </c>
       <c r="F47" t="n">
-        <v>11983.65297749467</v>
+        <v>15192.77862690976</v>
       </c>
       <c r="G47" t="n">
-        <v>10674.72242976679</v>
+        <v>10492.99281517244</v>
       </c>
       <c r="H47" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>1391573</v>
+        <v>1394522</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31967948</v>
+        <v>32041372</v>
       </c>
       <c r="E48" t="n">
-        <v>88548045</v>
+        <v>88751422</v>
       </c>
       <c r="F48" t="n">
-        <v>5215.978673901964</v>
+        <v>5052.0036002954</v>
       </c>
       <c r="G48" t="n">
-        <v>6941.555888484298</v>
+        <v>8194.003194663886</v>
       </c>
       <c r="H48" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="I48" t="n">
-        <v>11850126</v>
+        <v>11877257</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28361916</v>
+        <v>28362928</v>
       </c>
       <c r="E49" t="n">
-        <v>67380861</v>
+        <v>67383265</v>
       </c>
       <c r="F49" t="n">
-        <v>20315.23796995136</v>
+        <v>19618.11175914928</v>
       </c>
       <c r="G49" t="n">
-        <v>18030.40789087718</v>
+        <v>17180.90808043143</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>517731</v>
+        <v>535843</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12605566</v>
+        <v>12607838</v>
       </c>
       <c r="E50" t="n">
-        <v>19211713</v>
+        <v>19215176</v>
       </c>
       <c r="F50" t="n">
-        <v>7107.611680712837</v>
+        <v>5827.50120244596</v>
       </c>
       <c r="G50" t="n">
-        <v>19528.43231334601</v>
+        <v>3381.868283706813</v>
       </c>
       <c r="H50" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="I50" t="n">
-        <v>693021</v>
+        <v>693438</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>310123817</v>
+        <v>310607016</v>
       </c>
       <c r="E51" t="n">
-        <v>310123817</v>
+        <v>310607016</v>
       </c>
       <c r="F51" t="n">
-        <v>127587.5760664303</v>
+        <v>132408.0479492689</v>
       </c>
       <c r="G51" t="n">
-        <v>130462.8559671699</v>
+        <v>109239.6737848608</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>51271633</v>
+        <v>51201474</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>90243447</v>
+        <v>90811743</v>
       </c>
       <c r="E52" t="n">
-        <v>520021663</v>
+        <v>523296434</v>
       </c>
       <c r="F52" t="n">
-        <v>329948.1537066213</v>
+        <v>331069.7107865707</v>
       </c>
       <c r="G52" t="n">
-        <v>245372.3281030181</v>
+        <v>239695.7862932092</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>16458656</v>
+        <v>11095404</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30480818</v>
+        <v>30569691</v>
       </c>
       <c r="E53" t="n">
-        <v>136475126</v>
+        <v>136873048</v>
       </c>
       <c r="F53" t="n">
-        <v>30413.74573172861</v>
+        <v>41092.67097521987</v>
       </c>
       <c r="G53" t="n">
-        <v>30789.10888541922</v>
+        <v>37051.64578838131</v>
       </c>
       <c r="H53" t="n">
         <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>8704213</v>
+        <v>8649935</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>8559962</v>
+        <v>8606852</v>
       </c>
       <c r="F54" t="n">
-        <v>54.29245629151468</v>
+        <v>147.4397663167773</v>
       </c>
       <c r="G54" t="n">
-        <v>564.7024242104255</v>
+        <v>475.8564812303067</v>
       </c>
       <c r="H54" t="n">
         <v>1.37</v>
       </c>
       <c r="I54" t="n">
-        <v>297625</v>
+        <v>298542</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4827871</v>
+        <v>4841207</v>
       </c>
       <c r="F55" t="n">
-        <v>2412.857978357185</v>
+        <v>2623.494357347662</v>
       </c>
       <c r="G55" t="n">
-        <v>1406.80574519241</v>
+        <v>1484.483386637336</v>
       </c>
       <c r="H55" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="I55" t="n">
-        <v>196653</v>
+        <v>217729</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125761693</v>
+        <v>125804389</v>
       </c>
       <c r="E56" t="n">
-        <v>2082716629</v>
+        <v>2083423718</v>
       </c>
       <c r="F56" t="n">
-        <v>192077.4789201252</v>
+        <v>191718.5327060993</v>
       </c>
       <c r="G56" t="n">
-        <v>188134.2006099362</v>
+        <v>193744.0280450716</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4899151</v>
+        <v>4875865</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>89346917</v>
+        <v>90408760</v>
       </c>
       <c r="E57" t="n">
-        <v>90308676</v>
+        <v>91381949</v>
       </c>
       <c r="F57" t="n">
-        <v>38929.68183230983</v>
+        <v>38165.25631395435</v>
       </c>
       <c r="G57" t="n">
-        <v>62999.34290715639</v>
+        <v>49905.58415505497</v>
       </c>
       <c r="H57" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I57" t="n">
-        <v>15319566</v>
+        <v>16088977</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>241260916</v>
+        <v>243279006</v>
       </c>
       <c r="E58" t="n">
-        <v>241260916</v>
+        <v>243279006</v>
       </c>
       <c r="F58" t="n">
-        <v>102858.9732558782</v>
+        <v>115598.8245598738</v>
       </c>
       <c r="G58" t="n">
-        <v>107411.005004679</v>
+        <v>112017.4663567953</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>42616637</v>
+        <v>42702154</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23925791</v>
+        <v>24000413</v>
       </c>
       <c r="E59" t="n">
-        <v>143152815</v>
+        <v>143599297</v>
       </c>
       <c r="F59" t="n">
-        <v>64621.75092924213</v>
+        <v>65474.35015027376</v>
       </c>
       <c r="G59" t="n">
-        <v>76853.975645799</v>
+        <v>74054.13449252624</v>
       </c>
       <c r="H59" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>13407764</v>
+        <v>13494180</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2417385</v>
+        <v>2424472</v>
       </c>
       <c r="E60" t="n">
-        <v>4461422</v>
+        <v>4474502</v>
       </c>
       <c r="F60" t="n">
-        <v>4516.838182903633</v>
+        <v>362.8377989029653</v>
       </c>
       <c r="G60" t="n">
-        <v>411.0629445938275</v>
+        <v>403.8652935429726</v>
       </c>
       <c r="H60" t="n">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="I60" t="n">
-        <v>23401</v>
+        <v>23346</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9539679</v>
+        <v>9580746</v>
       </c>
       <c r="E62" t="n">
-        <v>28306431</v>
+        <v>28428287</v>
       </c>
       <c r="F62" t="n">
-        <v>5512.450537628893</v>
+        <v>2907.595045711983</v>
       </c>
       <c r="G62" t="n">
-        <v>6123.014369647754</v>
+        <v>6324.934316318469</v>
       </c>
       <c r="H62" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I62" t="n">
-        <v>6057390</v>
+        <v>6058099</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14593067</v>
+        <v>14593375</v>
       </c>
       <c r="E63" t="n">
-        <v>29542773</v>
+        <v>29543398</v>
       </c>
       <c r="F63" t="n">
-        <v>5754.140118013064</v>
+        <v>6077.374534427857</v>
       </c>
       <c r="G63" t="n">
-        <v>14496.13864938314</v>
+        <v>14749.47178710718</v>
       </c>
       <c r="H63" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="I63" t="n">
-        <v>471588</v>
+        <v>472038</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>37940891</v>
+        <v>38070437</v>
       </c>
       <c r="E64" t="n">
-        <v>268994730</v>
+        <v>269913190</v>
       </c>
       <c r="F64" t="n">
-        <v>83529.84857291325</v>
+        <v>85537.6718103007</v>
       </c>
       <c r="G64" t="n">
-        <v>69019.09006893379</v>
+        <v>40196.83426937248</v>
       </c>
       <c r="H64" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1425389</v>
+        <v>1457485</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1264586</v>
+        <v>1265160</v>
       </c>
       <c r="E65" t="n">
-        <v>7841604</v>
+        <v>7845162</v>
       </c>
       <c r="F65" t="n">
-        <v>2295.848174476357</v>
+        <v>2309.634470231913</v>
       </c>
       <c r="G65" t="n">
-        <v>2196.373669033129</v>
+        <v>2081.560752777724</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>702370</v>
+        <v>701195</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>607178084</v>
+        <v>608791442</v>
       </c>
       <c r="E66" t="n">
-        <v>2351511135</v>
+        <v>2357759434</v>
       </c>
       <c r="F66" t="n">
-        <v>57636.16947778266</v>
+        <v>67086.05867014125</v>
       </c>
       <c r="G66" t="n">
-        <v>90614.56236440701</v>
+        <v>85665.42707588745</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I66" t="n">
-        <v>33558154</v>
+        <v>33607847</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5891277</v>
+        <v>5897845</v>
       </c>
       <c r="E67" t="n">
-        <v>26375984</v>
+        <v>26405390</v>
       </c>
       <c r="F67" t="n">
-        <v>5172.474067485992</v>
+        <v>4818.809976440401</v>
       </c>
       <c r="G67" t="n">
-        <v>4623.187909805318</v>
+        <v>4685.079560377277</v>
       </c>
       <c r="H67" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I67" t="n">
-        <v>146529</v>
+        <v>146551</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>119806539</v>
+        <v>119584819</v>
       </c>
       <c r="E68" t="n">
-        <v>1041644218</v>
+        <v>1039716499</v>
       </c>
       <c r="F68" t="n">
-        <v>162995.039919582</v>
+        <v>163400.5604953005</v>
       </c>
       <c r="G68" t="n">
-        <v>160681.816063688</v>
+        <v>159136.6257544259</v>
       </c>
       <c r="H68" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I68" t="n">
-        <v>8906588</v>
+        <v>8918681</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>104645952</v>
+        <v>105638079</v>
       </c>
       <c r="E69" t="n">
-        <v>159639853</v>
+        <v>161153366</v>
       </c>
       <c r="F69" t="n">
-        <v>66551.51967192661</v>
+        <v>61391.76590872525</v>
       </c>
       <c r="G69" t="n">
-        <v>77401.30774159952</v>
+        <v>78408.20321724206</v>
       </c>
       <c r="H69" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I69" t="n">
-        <v>7846410</v>
+        <v>7871202</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1105435</v>
+        <v>1108602</v>
       </c>
       <c r="E70" t="n">
-        <v>4280484</v>
+        <v>4292749</v>
       </c>
       <c r="F70" t="n">
-        <v>2427.239178593568</v>
+        <v>2601.626345204982</v>
       </c>
       <c r="G70" t="n">
-        <v>3781.665870097492</v>
+        <v>4079.553453443606</v>
       </c>
       <c r="H70" t="n">
         <v>0.21</v>
       </c>
       <c r="I70" t="n">
-        <v>316611</v>
+        <v>397725</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>121014820</v>
+        <v>120596848</v>
       </c>
       <c r="E71" t="n">
-        <v>464232328</v>
+        <v>462628920</v>
       </c>
       <c r="F71" t="n">
-        <v>151158.6193736315</v>
+        <v>157799.2460665192</v>
       </c>
       <c r="G71" t="n">
-        <v>158989.5731458355</v>
+        <v>163392.1363655895</v>
       </c>
       <c r="H71" t="n">
         <v>0.11</v>
       </c>
       <c r="I71" t="n">
-        <v>30570645</v>
+        <v>30961309</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3208480</v>
+        <v>3201456</v>
       </c>
       <c r="E72" t="n">
-        <v>30400818</v>
+        <v>30334272</v>
       </c>
       <c r="F72" t="n">
-        <v>4442.140068968919</v>
+        <v>4397.089692193376</v>
       </c>
       <c r="G72" t="n">
-        <v>4200.62985862545</v>
+        <v>4361.560715618991</v>
       </c>
       <c r="H72" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I72" t="n">
-        <v>234203</v>
+        <v>233512</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>32184461</v>
+        <v>32208151</v>
       </c>
       <c r="F73" t="n">
-        <v>2153.016712364627</v>
+        <v>2233.293984526696</v>
       </c>
       <c r="G73" t="n">
-        <v>2159.783999577647</v>
+        <v>1819.966992551163</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>5620700</v>
+        <v>5614050</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87106700</v>
+        <v>87072757</v>
       </c>
       <c r="E74" t="n">
-        <v>322004413</v>
+        <v>321878440</v>
       </c>
       <c r="F74" t="n">
-        <v>10730.74087800042</v>
+        <v>11498.76842738485</v>
       </c>
       <c r="G74" t="n">
-        <v>1198.710707415475</v>
+        <v>1225.080960873824</v>
       </c>
       <c r="H74" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I74" t="n">
-        <v>333168</v>
+        <v>328778</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23217981</v>
+        <v>23293317</v>
       </c>
       <c r="E75" t="n">
-        <v>23217981</v>
+        <v>23293317</v>
       </c>
       <c r="F75" t="n">
-        <v>25762.45378505592</v>
+        <v>23404.62700163804</v>
       </c>
       <c r="G75" t="n">
-        <v>30462.09892548397</v>
+        <v>30157.11081405532</v>
       </c>
       <c r="H75" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I75" t="n">
-        <v>6241434</v>
+        <v>6365361</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>494462104</v>
+        <v>496096643</v>
       </c>
       <c r="E76" t="n">
-        <v>1722054655</v>
+        <v>1727747236</v>
       </c>
       <c r="F76" t="n">
-        <v>130947.0621893785</v>
+        <v>136333.7447510489</v>
       </c>
       <c r="G76" t="n">
-        <v>160856.7837367007</v>
+        <v>157749.7168922851</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>31028385</v>
+        <v>31173667</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5561751327</v>
+        <v>5563352487</v>
       </c>
       <c r="E77" t="n">
-        <v>5561751327</v>
+        <v>5563352487</v>
       </c>
       <c r="F77" t="n">
-        <v>10464.731976682</v>
+        <v>10483.89660231293</v>
       </c>
       <c r="G77" t="n">
-        <v>92621.90962393582</v>
+        <v>92791.53310087917</v>
       </c>
       <c r="H77" t="n">
         <v>0.17</v>
       </c>
       <c r="I77" t="n">
-        <v>24125519</v>
+        <v>24748972</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7686372</v>
+        <v>7669067</v>
       </c>
       <c r="E78" t="n">
-        <v>19968367</v>
+        <v>19923410</v>
       </c>
       <c r="F78" t="n">
-        <v>763.862749343539</v>
+        <v>1129.384912324221</v>
       </c>
       <c r="G78" t="n">
-        <v>2761.907569506657</v>
+        <v>2795.390483009613</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I78" t="n">
-        <v>701596</v>
+        <v>700169</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>102730572</v>
+        <v>102473500</v>
       </c>
       <c r="E79" t="n">
-        <v>155648686</v>
+        <v>155259193</v>
       </c>
       <c r="F79" t="n">
-        <v>39309.68413280536</v>
+        <v>37464.76135255334</v>
       </c>
       <c r="G79" t="n">
-        <v>29650.53354872016</v>
+        <v>27062.43696256188</v>
       </c>
       <c r="H79" t="n">
         <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>7468326</v>
+        <v>7444676</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2648370</v>
+        <v>2645955</v>
       </c>
       <c r="E80" t="n">
-        <v>10593481</v>
+        <v>10583818</v>
       </c>
       <c r="F80" t="n">
-        <v>77439.02974665941</v>
+        <v>78141.34538403494</v>
       </c>
       <c r="G80" t="n">
-        <v>69104.62096484678</v>
+        <v>14320.89489217243</v>
       </c>
       <c r="H80" t="n">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="I80" t="n">
-        <v>1210351</v>
+        <v>6294532</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2577587</v>
+        <v>2591364</v>
       </c>
       <c r="F81" t="n">
-        <v>907.2443485874933</v>
+        <v>375.4976976679574</v>
       </c>
       <c r="G81" t="n">
-        <v>145.8879018419982</v>
+        <v>143.1343622616217</v>
       </c>
       <c r="H81" t="n">
-        <v>0.43</v>
+        <v>0.73</v>
       </c>
       <c r="I81" t="n">
-        <v>307816</v>
+        <v>116014</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>405132000</v>
+        <v>406087139</v>
       </c>
       <c r="E82" t="n">
-        <v>2315039999</v>
+        <v>2320497935</v>
       </c>
       <c r="F82" t="n">
-        <v>88174.51155942718</v>
+        <v>87044.53742951437</v>
       </c>
       <c r="G82" t="n">
-        <v>101816.7159088811</v>
+        <v>169928.3585502358</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>37163437</v>
+        <v>37110081</v>
       </c>
     </row>
   </sheetData>
